--- a/Experimentos2/DABA.xlsx
+++ b/Experimentos2/DABA.xlsx
@@ -722,19 +722,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.309</v>
+        <v>0.183</v>
       </c>
       <c r="C11">
-        <v>0.036</v>
+        <v>0.355</v>
       </c>
       <c r="D11">
-        <v>0.579</v>
+        <v>0.544</v>
       </c>
       <c r="E11">
-        <v>0.24</v>
+        <v>0.947</v>
       </c>
       <c r="F11">
-        <v>0.592</v>
+        <v>1.309</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -742,19 +742,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.902</v>
+        <v>0.961</v>
       </c>
       <c r="C12">
-        <v>0.878</v>
+        <v>0.259</v>
       </c>
       <c r="D12">
-        <v>0.355</v>
+        <v>0.33</v>
       </c>
       <c r="E12">
-        <v>0.488</v>
+        <v>0.628</v>
       </c>
       <c r="F12">
-        <v>0.931</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -762,19 +762,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.874</v>
+        <v>0.269</v>
       </c>
       <c r="C13">
-        <v>0.116</v>
+        <v>0.666</v>
       </c>
       <c r="D13">
-        <v>0.125</v>
+        <v>0.133</v>
       </c>
       <c r="E13">
-        <v>0.487</v>
+        <v>0.701</v>
       </c>
       <c r="F13">
-        <v>0.342</v>
+        <v>1.033</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -782,19 +782,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.208</v>
+        <v>0.481</v>
       </c>
       <c r="C14">
-        <v>0.38</v>
+        <v>0.401</v>
       </c>
       <c r="D14">
-        <v>0.908</v>
+        <v>1.023</v>
       </c>
       <c r="E14">
-        <v>0.745</v>
+        <v>0.6</v>
       </c>
       <c r="F14">
-        <v>0.617</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -802,19 +802,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.083</v>
+        <v>0.208</v>
       </c>
       <c r="C15">
-        <v>0.103</v>
+        <v>0.062</v>
       </c>
       <c r="D15">
-        <v>1.058</v>
+        <v>0.719</v>
       </c>
       <c r="E15">
-        <v>0.105</v>
+        <v>0.904</v>
       </c>
       <c r="F15">
-        <v>0.793</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -822,19 +822,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.668</v>
+        <v>0.139</v>
       </c>
       <c r="C16">
-        <v>0.098</v>
+        <v>0.975</v>
       </c>
       <c r="D16">
-        <v>0.652</v>
+        <v>0.422</v>
       </c>
       <c r="E16">
-        <v>0.357</v>
+        <v>0.888</v>
       </c>
       <c r="F16">
-        <v>0.267</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -842,19 +842,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.107</v>
+        <v>0.644</v>
       </c>
       <c r="C17">
-        <v>0.371</v>
+        <v>0.832</v>
       </c>
       <c r="D17">
-        <v>0.829</v>
+        <v>0.993</v>
       </c>
       <c r="E17">
-        <v>0.521</v>
+        <v>0.13</v>
       </c>
       <c r="F17">
-        <v>0.796</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -862,19 +862,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.506</v>
+        <v>0.49</v>
       </c>
       <c r="C18">
-        <v>0.8179999999999999</v>
+        <v>0.918</v>
       </c>
       <c r="D18">
-        <v>0.575</v>
+        <v>0.36</v>
       </c>
       <c r="E18">
-        <v>0.178</v>
+        <v>0.95</v>
       </c>
       <c r="F18">
-        <v>0.868</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -882,19 +882,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6929999999999999</v>
+        <v>0.952</v>
       </c>
       <c r="C19">
-        <v>1.069</v>
+        <v>0.641</v>
       </c>
       <c r="D19">
-        <v>0.137</v>
+        <v>0.079</v>
       </c>
       <c r="E19">
-        <v>0.506</v>
+        <v>0.082</v>
       </c>
       <c r="F19">
-        <v>0.148</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -902,19 +902,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.643</v>
+        <v>0.383</v>
       </c>
       <c r="C20">
-        <v>-0.008999999999999999</v>
+        <v>0.786</v>
       </c>
       <c r="D20">
-        <v>1.359</v>
+        <v>1.416</v>
       </c>
       <c r="E20">
-        <v>0.459</v>
+        <v>1.857</v>
       </c>
       <c r="F20">
-        <v>1.086</v>
+        <v>3.263</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -922,19 +922,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.016</v>
+        <v>2.442</v>
       </c>
       <c r="C21">
-        <v>2.272</v>
+        <v>0.546</v>
       </c>
       <c r="D21">
-        <v>0.797</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="E21">
-        <v>1.047</v>
+        <v>1.207</v>
       </c>
       <c r="F21">
-        <v>1.948</v>
+        <v>1.881</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -942,19 +942,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.946</v>
+        <v>0.602</v>
       </c>
       <c r="C22">
-        <v>0.199</v>
+        <v>1.54</v>
       </c>
       <c r="D22">
-        <v>0.215</v>
+        <v>0.256</v>
       </c>
       <c r="E22">
-        <v>1.049</v>
+        <v>1.362</v>
       </c>
       <c r="F22">
-        <v>0.715</v>
+        <v>2.703</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -962,19 +962,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.394</v>
+        <v>1.16</v>
       </c>
       <c r="C23">
-        <v>0.91</v>
+        <v>0.884</v>
       </c>
       <c r="D23">
-        <v>2.198</v>
+        <v>2.779</v>
       </c>
       <c r="E23">
-        <v>1.673</v>
+        <v>1.173</v>
       </c>
       <c r="F23">
-        <v>1.323</v>
+        <v>1.167</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -982,19 +982,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1</v>
+        <v>0.432</v>
       </c>
       <c r="C24">
-        <v>0.154</v>
+        <v>0.048</v>
       </c>
       <c r="D24">
-        <v>2.57</v>
+        <v>1.911</v>
       </c>
       <c r="E24">
-        <v>0.144</v>
+        <v>1.771</v>
       </c>
       <c r="F24">
-        <v>1.705</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1002,19 +1002,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.455</v>
+        <v>0.245</v>
       </c>
       <c r="C25">
-        <v>0.136</v>
+        <v>2.284</v>
       </c>
       <c r="D25">
-        <v>1.547</v>
+        <v>1.074</v>
       </c>
       <c r="E25">
-        <v>0.762</v>
+        <v>1.765</v>
       </c>
       <c r="F25">
-        <v>0.572</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1022,19 +1022,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.147</v>
+        <v>1.579</v>
       </c>
       <c r="C26">
-        <v>0.873</v>
+        <v>1.929</v>
       </c>
       <c r="D26">
-        <v>1.995</v>
+        <v>2.691</v>
       </c>
       <c r="E26">
-        <v>1.158</v>
+        <v>0.217</v>
       </c>
       <c r="F26">
-        <v>1.713</v>
+        <v>2.137</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1042,19 +1042,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.07</v>
+        <v>1.167</v>
       </c>
       <c r="C27">
-        <v>2.082</v>
+        <v>2.136</v>
       </c>
       <c r="D27">
-        <v>1.353</v>
+        <v>0.899</v>
       </c>
       <c r="E27">
-        <v>0.365</v>
+        <v>1.915</v>
       </c>
       <c r="F27">
-        <v>1.869</v>
+        <v>1.285</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1062,19 +1062,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.5</v>
+        <v>2.388</v>
       </c>
       <c r="C28">
-        <v>2.759</v>
+        <v>1.452</v>
       </c>
       <c r="D28">
-        <v>0.245</v>
+        <v>0.103</v>
       </c>
       <c r="E28">
-        <v>1.119</v>
+        <v>0.115</v>
       </c>
       <c r="F28">
-        <v>0.319</v>
+        <v>2.519</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1082,19 +1082,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.427</v>
+        <v>0.669</v>
       </c>
       <c r="C29">
-        <v>-0.117</v>
+        <v>1.636</v>
       </c>
       <c r="D29">
-        <v>2.227</v>
+        <v>3.102</v>
       </c>
       <c r="E29">
-        <v>1.076</v>
+        <v>4.149</v>
       </c>
       <c r="F29">
-        <v>2.296</v>
+        <v>8.131</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1102,19 +1102,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.684</v>
+        <v>4.6</v>
       </c>
       <c r="C30">
-        <v>5.174</v>
+        <v>1.109</v>
       </c>
       <c r="D30">
-        <v>1.289</v>
+        <v>1.749</v>
       </c>
       <c r="E30">
-        <v>2.577</v>
+        <v>2.67</v>
       </c>
       <c r="F30">
-        <v>4.249</v>
+        <v>4.707</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1122,19 +1122,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.516</v>
+        <v>1.084</v>
       </c>
       <c r="C31">
-        <v>0.362</v>
+        <v>3.282</v>
       </c>
       <c r="D31">
-        <v>0.315</v>
+        <v>0.494</v>
       </c>
       <c r="E31">
-        <v>2.584</v>
+        <v>3.026</v>
       </c>
       <c r="F31">
-        <v>1.559</v>
+        <v>6.787</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1142,19 +1142,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.83</v>
+        <v>2.148</v>
       </c>
       <c r="C32">
-        <v>2.01</v>
+        <v>1.844</v>
       </c>
       <c r="D32">
-        <v>3.633</v>
+        <v>6.171</v>
       </c>
       <c r="E32">
-        <v>4.182</v>
+        <v>2.604</v>
       </c>
       <c r="F32">
-        <v>2.901</v>
+        <v>2.931</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1162,19 +1162,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.131</v>
+        <v>0.756</v>
       </c>
       <c r="C33">
-        <v>0.254</v>
+        <v>0.013</v>
       </c>
       <c r="D33">
-        <v>4.252</v>
+        <v>4.216</v>
       </c>
       <c r="E33">
-        <v>0.274</v>
+        <v>3.954</v>
       </c>
       <c r="F33">
-        <v>3.741</v>
+        <v>5.969</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1182,19 +1182,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.345</v>
+        <v>0.397</v>
       </c>
       <c r="C34">
-        <v>0.211</v>
+        <v>4.905</v>
       </c>
       <c r="D34">
-        <v>2.543</v>
+        <v>2.334</v>
       </c>
       <c r="E34">
-        <v>1.86</v>
+        <v>3.953</v>
       </c>
       <c r="F34">
-        <v>1.254</v>
+        <v>1.595</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1202,19 +1202,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.238</v>
+        <v>2.943</v>
       </c>
       <c r="C35">
-        <v>1.919</v>
+        <v>4.126</v>
       </c>
       <c r="D35">
-        <v>3.292</v>
+        <v>5.972</v>
       </c>
       <c r="E35">
-        <v>2.874</v>
+        <v>0.431</v>
       </c>
       <c r="F35">
-        <v>3.759</v>
+        <v>5.371</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1222,19 +1222,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.428</v>
+        <v>2.155</v>
       </c>
       <c r="C36">
-        <v>4.723</v>
+        <v>4.578</v>
       </c>
       <c r="D36">
-        <v>2.219</v>
+        <v>1.94</v>
       </c>
       <c r="E36">
-        <v>0.858</v>
+        <v>4.306</v>
       </c>
       <c r="F36">
-        <v>4.102</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1242,19 +1242,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.446</v>
+        <v>4.486</v>
       </c>
       <c r="C37">
-        <v>6.293</v>
+        <v>3.079</v>
       </c>
       <c r="D37">
-        <v>0.365</v>
+        <v>0.149</v>
       </c>
       <c r="E37">
-        <v>2.773</v>
+        <v>0.197</v>
       </c>
       <c r="F37">
-        <v>0.7</v>
+        <v>6.332</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1262,19 +1262,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.292</v>
+        <v>1.123</v>
       </c>
       <c r="C38">
-        <v>-0.363</v>
+        <v>3.412</v>
       </c>
       <c r="D38">
-        <v>3.242</v>
+        <v>6.619</v>
       </c>
       <c r="E38">
-        <v>2.692</v>
+        <v>9.576000000000001</v>
       </c>
       <c r="F38">
-        <v>5.019</v>
+        <v>20.26</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1282,19 +1282,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>11.051</v>
+        <v>8.054</v>
       </c>
       <c r="C39">
-        <v>11.584</v>
+        <v>2.283</v>
       </c>
       <c r="D39">
-        <v>1.864</v>
+        <v>3.699</v>
       </c>
       <c r="E39">
-        <v>6.57</v>
+        <v>6.137</v>
       </c>
       <c r="F39">
-        <v>9.35</v>
+        <v>11.736</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1302,19 +1302,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>10.65</v>
+        <v>1.853</v>
       </c>
       <c r="C40">
-        <v>0.717</v>
+        <v>6.931</v>
       </c>
       <c r="D40">
-        <v>0.432</v>
+        <v>0.99</v>
       </c>
       <c r="E40">
-        <v>6.589</v>
+        <v>6.966</v>
       </c>
       <c r="F40">
-        <v>3.43</v>
+        <v>16.932</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1322,19 +1322,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.867</v>
+        <v>3.729</v>
       </c>
       <c r="C41">
-        <v>4.438</v>
+        <v>3.854</v>
       </c>
       <c r="D41">
-        <v>5.311</v>
+        <v>13.244</v>
       </c>
       <c r="E41">
-        <v>10.719</v>
+        <v>5.988</v>
       </c>
       <c r="F41">
-        <v>6.391</v>
+        <v>7.312</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1342,19 +1342,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.201</v>
+        <v>1.273</v>
       </c>
       <c r="C42">
-        <v>0.472</v>
+        <v>-0.064</v>
       </c>
       <c r="D42">
-        <v>6.219</v>
+        <v>9.023</v>
       </c>
       <c r="E42">
-        <v>0.621</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="F42">
-        <v>8.242000000000001</v>
+        <v>14.893</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1362,19 +1362,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7.858</v>
+        <v>0.639</v>
       </c>
       <c r="C43">
-        <v>0.374</v>
+        <v>10.4</v>
       </c>
       <c r="D43">
-        <v>3.707</v>
+        <v>4.962</v>
       </c>
       <c r="E43">
-        <v>4.722</v>
+        <v>9.125999999999999</v>
       </c>
       <c r="F43">
-        <v>2.762</v>
+        <v>3.979</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1382,19 +1382,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.454</v>
+        <v>5.128</v>
       </c>
       <c r="C44">
-        <v>4.23</v>
+        <v>8.733000000000001</v>
       </c>
       <c r="D44">
-        <v>4.808</v>
+        <v>12.814</v>
       </c>
       <c r="E44">
-        <v>7.342</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F44">
-        <v>8.282</v>
+        <v>13.401</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1402,19 +1402,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.671</v>
+        <v>3.738</v>
       </c>
       <c r="C45">
-        <v>10.561</v>
+        <v>9.699</v>
       </c>
       <c r="D45">
-        <v>3.231</v>
+        <v>4.111</v>
       </c>
       <c r="E45">
-        <v>2.138</v>
+        <v>9.952</v>
       </c>
       <c r="F45">
-        <v>9.038</v>
+        <v>8.058999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1422,19 +1422,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>8.096</v>
+        <v>7.848</v>
       </c>
       <c r="C46">
-        <v>14.106</v>
+        <v>6.492</v>
       </c>
       <c r="D46">
-        <v>0.505</v>
+        <v>0.245</v>
       </c>
       <c r="E46">
-        <v>7.081</v>
+        <v>0.391</v>
       </c>
       <c r="F46">
-        <v>1.542</v>
+        <v>15.799</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1442,19 +1442,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>8.035</v>
+        <v>1.788</v>
       </c>
       <c r="C47">
-        <v>-0.783</v>
+        <v>6.916</v>
       </c>
       <c r="D47">
-        <v>7.354</v>
+        <v>11.165</v>
       </c>
       <c r="E47">
-        <v>4.334</v>
+        <v>23.871</v>
       </c>
       <c r="F47">
-        <v>8.535</v>
+        <v>38.406</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1462,19 +1462,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>27.256</v>
+        <v>13.126</v>
       </c>
       <c r="C48">
-        <v>22.479</v>
+        <v>4.599</v>
       </c>
       <c r="D48">
-        <v>4.192</v>
+        <v>6.219</v>
       </c>
       <c r="E48">
-        <v>10.628</v>
+        <v>15.27</v>
       </c>
       <c r="F48">
-        <v>15.928</v>
+        <v>22.251</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1482,19 +1482,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>26.263</v>
+        <v>2.981</v>
       </c>
       <c r="C49">
-        <v>1.319</v>
+        <v>14.134</v>
       </c>
       <c r="D49">
-        <v>0.906</v>
+        <v>1.631</v>
       </c>
       <c r="E49">
-        <v>10.659</v>
+        <v>17.344</v>
       </c>
       <c r="F49">
-        <v>5.843</v>
+        <v>32.106</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1502,19 +1502,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.504</v>
+        <v>6.05</v>
       </c>
       <c r="C50">
-        <v>8.564</v>
+        <v>7.821</v>
       </c>
       <c r="D50">
-        <v>12.103</v>
+        <v>22.386</v>
       </c>
       <c r="E50">
-        <v>17.363</v>
+        <v>14.899</v>
       </c>
       <c r="F50">
-        <v>10.891</v>
+        <v>13.865</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1522,19 +1522,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.377</v>
+        <v>2.032</v>
       </c>
       <c r="C51">
-        <v>0.842</v>
+        <v>-0.217</v>
       </c>
       <c r="D51">
-        <v>14.185</v>
+        <v>15.236</v>
       </c>
       <c r="E51">
-        <v>0.974</v>
+        <v>22.738</v>
       </c>
       <c r="F51">
-        <v>14.045</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1542,19 +1542,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>19.345</v>
+        <v>0.994</v>
       </c>
       <c r="C52">
-        <v>0.65</v>
+        <v>21.25</v>
       </c>
       <c r="D52">
-        <v>8.420999999999999</v>
+        <v>8.359</v>
       </c>
       <c r="E52">
-        <v>7.631</v>
+        <v>22.748</v>
       </c>
       <c r="F52">
-        <v>4.706</v>
+        <v>7.545</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1562,19 +1562,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.003</v>
+        <v>8.337</v>
       </c>
       <c r="C53">
-        <v>8.157999999999999</v>
+        <v>17.829</v>
       </c>
       <c r="D53">
-        <v>10.947</v>
+        <v>21.657</v>
       </c>
       <c r="E53">
-        <v>11.883</v>
+        <v>2.265</v>
       </c>
       <c r="F53">
-        <v>14.114</v>
+        <v>25.411</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1582,19 +1582,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>13.926</v>
+        <v>6.063</v>
       </c>
       <c r="C54">
-        <v>20.485</v>
+        <v>19.811</v>
       </c>
       <c r="D54">
-        <v>7.329</v>
+        <v>6.917</v>
       </c>
       <c r="E54">
-        <v>3.439</v>
+        <v>24.816</v>
       </c>
       <c r="F54">
-        <v>15.402</v>
+        <v>15.282</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1602,19 +1602,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>19.934</v>
+        <v>12.786</v>
       </c>
       <c r="C55">
-        <v>27.388</v>
+        <v>13.231</v>
       </c>
       <c r="D55">
-        <v>1.073</v>
+        <v>0.369</v>
       </c>
       <c r="E55">
-        <v>11.459</v>
+        <v>0.902</v>
       </c>
       <c r="F55">
-        <v>2.628</v>
+        <v>29.958</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1622,19 +1622,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7.936</v>
+        <v>2.799</v>
       </c>
       <c r="C56">
-        <v>-1.257</v>
+        <v>13.966</v>
       </c>
       <c r="D56">
-        <v>8.18</v>
+        <v>17.454</v>
       </c>
       <c r="E56">
-        <v>4.127</v>
+        <v>60.342</v>
       </c>
       <c r="F56">
-        <v>8.31</v>
+        <v>67.959</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1642,19 +1642,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>26.855</v>
+        <v>20.846</v>
       </c>
       <c r="C57">
-        <v>22.188</v>
+        <v>9.259</v>
       </c>
       <c r="D57">
-        <v>4.122</v>
+        <v>9.705</v>
       </c>
       <c r="E57">
-        <v>10.603</v>
+        <v>38.572</v>
       </c>
       <c r="F57">
-        <v>15.612</v>
+        <v>39.375</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1662,19 +1662,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>27.098</v>
+        <v>4.697</v>
       </c>
       <c r="C58">
-        <v>0.5590000000000001</v>
+        <v>28.629</v>
       </c>
       <c r="D58">
-        <v>1.08</v>
+        <v>2.518</v>
       </c>
       <c r="E58">
-        <v>11.062</v>
+        <v>43.822</v>
       </c>
       <c r="F58">
-        <v>6.968</v>
+        <v>56.815</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1682,19 +1682,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3.814</v>
+        <v>9.582000000000001</v>
       </c>
       <c r="C59">
-        <v>8.384</v>
+        <v>15.804</v>
       </c>
       <c r="D59">
-        <v>11.194</v>
+        <v>35.032</v>
       </c>
       <c r="E59">
-        <v>16.154</v>
+        <v>37.633</v>
       </c>
       <c r="F59">
-        <v>10.472</v>
+        <v>24.536</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1702,19 +1702,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.07199999999999999</v>
+        <v>3.187</v>
       </c>
       <c r="C60">
-        <v>0.208</v>
+        <v>-0.526</v>
       </c>
       <c r="D60">
-        <v>13.126</v>
+        <v>23.831</v>
       </c>
       <c r="E60">
-        <v>-0.216</v>
+        <v>57.475</v>
       </c>
       <c r="F60">
-        <v>12.8</v>
+        <v>49.974</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1722,19 +1722,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>20.215</v>
+        <v>1.534</v>
       </c>
       <c r="C61">
-        <v>0.202</v>
+        <v>43.086</v>
       </c>
       <c r="D61">
-        <v>7.629</v>
+        <v>13.058</v>
       </c>
       <c r="E61">
-        <v>6.445</v>
+        <v>57.501</v>
       </c>
       <c r="F61">
-        <v>4.811</v>
+        <v>13.352</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1742,19 +1742,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.7</v>
+        <v>13.222</v>
       </c>
       <c r="C62">
-        <v>7.85</v>
+        <v>36.135</v>
       </c>
       <c r="D62">
-        <v>10.093</v>
+        <v>33.89</v>
       </c>
       <c r="E62">
-        <v>13.074</v>
+        <v>5.655</v>
       </c>
       <c r="F62">
-        <v>13.924</v>
+        <v>44.968</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1762,19 +1762,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>14.014</v>
+        <v>9.602</v>
       </c>
       <c r="C63">
-        <v>19.215</v>
+        <v>40.162</v>
       </c>
       <c r="D63">
-        <v>6.871</v>
+        <v>10.799</v>
       </c>
       <c r="E63">
-        <v>2.895</v>
+        <v>62.736</v>
       </c>
       <c r="F63">
-        <v>15.987</v>
+        <v>27.044</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1782,19 +1782,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>20.657</v>
+        <v>20.303</v>
       </c>
       <c r="C64">
-        <v>28.034</v>
+        <v>26.794</v>
       </c>
       <c r="D64">
-        <v>0.799</v>
+        <v>0.541</v>
       </c>
       <c r="E64">
-        <v>12.737</v>
+        <v>2.205</v>
       </c>
       <c r="F64">
-        <v>2.253</v>
+        <v>53.015</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1802,19 +1802,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>18.153</v>
+        <v>5.448</v>
       </c>
       <c r="C65">
-        <v>-2.216</v>
+        <v>33.358</v>
       </c>
       <c r="D65">
-        <v>18.272</v>
+        <v>26.386</v>
       </c>
       <c r="E65">
-        <v>9.621</v>
+        <v>127.983</v>
       </c>
       <c r="F65">
-        <v>15.216</v>
+        <v>164.52</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1822,19 +1822,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>61.72</v>
+        <v>41.086</v>
       </c>
       <c r="C66">
-        <v>41.969</v>
+        <v>22.076</v>
       </c>
       <c r="D66">
-        <v>9.439</v>
+        <v>14.656</v>
       </c>
       <c r="E66">
-        <v>24.633</v>
+        <v>81.789</v>
       </c>
       <c r="F66">
-        <v>28.56</v>
+        <v>95.32299999999999</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1842,19 +1842,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>61.54</v>
+        <v>9.195</v>
       </c>
       <c r="C67">
-        <v>1.352</v>
+        <v>68.501</v>
       </c>
       <c r="D67">
-        <v>2.301</v>
+        <v>3.778</v>
       </c>
       <c r="E67">
-        <v>25.537</v>
+        <v>92.93000000000001</v>
       </c>
       <c r="F67">
-        <v>12.224</v>
+        <v>137.544</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1862,19 +1862,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>9.052</v>
+        <v>18.842</v>
       </c>
       <c r="C68">
-        <v>15.847</v>
+        <v>37.763</v>
       </c>
       <c r="D68">
-        <v>26.187</v>
+        <v>52.993</v>
       </c>
       <c r="E68">
-        <v>38.015</v>
+        <v>79.797</v>
       </c>
       <c r="F68">
-        <v>19.245</v>
+        <v>59.399</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1882,19 +1882,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.004</v>
+        <v>6.214</v>
       </c>
       <c r="C69">
-        <v>0.628</v>
+        <v>-1.376</v>
       </c>
       <c r="D69">
-        <v>30.717</v>
+        <v>36.038</v>
       </c>
       <c r="E69">
-        <v>-0.115</v>
+        <v>121.9</v>
       </c>
       <c r="F69">
-        <v>23.825</v>
+        <v>120.982</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1902,19 +1902,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>45.734</v>
+        <v>2.949</v>
       </c>
       <c r="C70">
-        <v>0.526</v>
+        <v>103.152</v>
       </c>
       <c r="D70">
-        <v>17.917</v>
+        <v>19.732</v>
       </c>
       <c r="E70">
-        <v>15.396</v>
+        <v>121.956</v>
       </c>
       <c r="F70">
-        <v>8.718</v>
+        <v>32.324</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1922,19 +1922,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.679</v>
+        <v>26.03</v>
       </c>
       <c r="C71">
-        <v>14.9</v>
+        <v>86.491</v>
       </c>
       <c r="D71">
-        <v>23.622</v>
+        <v>51.264</v>
       </c>
       <c r="E71">
-        <v>29.922</v>
+        <v>11.942</v>
       </c>
       <c r="F71">
-        <v>25.437</v>
+        <v>108.863</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1942,19 +1942,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>31.979</v>
+        <v>18.881</v>
       </c>
       <c r="C72">
-        <v>36.83</v>
+        <v>96.143</v>
       </c>
       <c r="D72">
-        <v>15.984</v>
+        <v>16.312</v>
       </c>
       <c r="E72">
-        <v>6.884</v>
+        <v>133.064</v>
       </c>
       <c r="F72">
-        <v>28.874</v>
+        <v>65.471</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1962,19 +1962,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>46.835</v>
+        <v>40.013</v>
       </c>
       <c r="C73">
-        <v>52.552</v>
+        <v>64.10299999999999</v>
       </c>
       <c r="D73">
-        <v>1.907</v>
+        <v>0.785</v>
       </c>
       <c r="E73">
-        <v>29.103</v>
+        <v>4.622</v>
       </c>
       <c r="F73">
-        <v>4.258</v>
+        <v>128.345</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1982,19 +1982,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>19.19</v>
+        <v>11.332</v>
       </c>
       <c r="C74">
-        <v>-1.724</v>
+        <v>82.331</v>
       </c>
       <c r="D74">
-        <v>18.123</v>
+        <v>39.319</v>
       </c>
       <c r="E74">
-        <v>9.513</v>
+        <v>261.765</v>
       </c>
       <c r="F74">
-        <v>15.65</v>
+        <v>423.298</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2002,19 +2002,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>61.303</v>
+        <v>86.051</v>
       </c>
       <c r="C75">
-        <v>43.018</v>
+        <v>54.445</v>
       </c>
       <c r="D75">
-        <v>8.875999999999999</v>
+        <v>21.825</v>
       </c>
       <c r="E75">
-        <v>24.561</v>
+        <v>167.265</v>
       </c>
       <c r="F75">
-        <v>28.039</v>
+        <v>245.259</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2022,19 +2022,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>62.43</v>
+        <v>19.188</v>
       </c>
       <c r="C76">
-        <v>2.507</v>
+        <v>169.197</v>
       </c>
       <c r="D76">
-        <v>1.502</v>
+        <v>5.602</v>
       </c>
       <c r="E76">
-        <v>25.139</v>
+        <v>190.056</v>
       </c>
       <c r="F76">
-        <v>12.277</v>
+        <v>353.891</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2042,19 +2042,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7.883</v>
+        <v>39.414</v>
       </c>
       <c r="C77">
-        <v>16.139</v>
+        <v>93.22</v>
       </c>
       <c r="D77">
-        <v>26.774</v>
+        <v>78.999</v>
       </c>
       <c r="E77">
-        <v>39.153</v>
+        <v>163.19</v>
       </c>
       <c r="F77">
-        <v>18.523</v>
+        <v>152.829</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2062,19 +2062,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.71</v>
+        <v>12.938</v>
       </c>
       <c r="C78">
-        <v>1.315</v>
+        <v>-3.523</v>
       </c>
       <c r="D78">
-        <v>30.885</v>
+        <v>53.713</v>
       </c>
       <c r="E78">
-        <v>-0.544</v>
+        <v>249.321</v>
       </c>
       <c r="F78">
-        <v>24.5</v>
+        <v>311.278</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2082,19 +2082,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>44.548</v>
+        <v>6.092</v>
       </c>
       <c r="C79">
-        <v>-0.543</v>
+        <v>254.846</v>
       </c>
       <c r="D79">
-        <v>16.921</v>
+        <v>29.395</v>
       </c>
       <c r="E79">
-        <v>15.273</v>
+        <v>249.436</v>
       </c>
       <c r="F79">
-        <v>9.093</v>
+        <v>83.167</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2102,19 +2102,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.64</v>
+        <v>54.484</v>
       </c>
       <c r="C80">
-        <v>14.983</v>
+        <v>213.664</v>
       </c>
       <c r="D80">
-        <v>24.37</v>
+        <v>76.42</v>
       </c>
       <c r="E80">
-        <v>29.432</v>
+        <v>24.377</v>
       </c>
       <c r="F80">
-        <v>25.416</v>
+        <v>280.097</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2122,19 +2122,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>33.063</v>
+        <v>39.495</v>
       </c>
       <c r="C81">
-        <v>37.816</v>
+        <v>237.521</v>
       </c>
       <c r="D81">
-        <v>14.856</v>
+        <v>24.294</v>
       </c>
       <c r="E81">
-        <v>6.905</v>
+        <v>272.16</v>
       </c>
       <c r="F81">
-        <v>29.692</v>
+        <v>168.452</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2142,19 +2142,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>46.341</v>
+        <v>83.801</v>
       </c>
       <c r="C82">
-        <v>51.539</v>
+        <v>158.326</v>
       </c>
       <c r="D82">
-        <v>2.448</v>
+        <v>1.138</v>
       </c>
       <c r="E82">
-        <v>30.142</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="F82">
-        <v>4.781</v>
+        <v>330.223</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2162,19 +2162,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>34.432</v>
+        <v>23.774</v>
       </c>
       <c r="C83">
-        <v>-3.491</v>
+        <v>166.835</v>
       </c>
       <c r="D83">
-        <v>43.69</v>
+        <v>76.31399999999999</v>
       </c>
       <c r="E83">
-        <v>22.217</v>
+        <v>515.15</v>
       </c>
       <c r="F83">
-        <v>33.104</v>
+        <v>787.054</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2182,19 +2182,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>112.269</v>
+        <v>181.135</v>
       </c>
       <c r="C84">
-        <v>81.991</v>
+        <v>110.298</v>
       </c>
       <c r="D84">
-        <v>21.743</v>
+        <v>42.332</v>
       </c>
       <c r="E84">
-        <v>57.268</v>
+        <v>329.158</v>
       </c>
       <c r="F84">
-        <v>59.885</v>
+        <v>456.019</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2202,19 +2202,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>113.269</v>
+        <v>40.319</v>
       </c>
       <c r="C85">
-        <v>4.384</v>
+        <v>342.95</v>
       </c>
       <c r="D85">
-        <v>3.954</v>
+        <v>10.82</v>
       </c>
       <c r="E85">
-        <v>58.731</v>
+        <v>374.014</v>
       </c>
       <c r="F85">
-        <v>25.808</v>
+        <v>658.003</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2222,19 +2222,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>15.172</v>
+        <v>82.916</v>
       </c>
       <c r="C86">
-        <v>30.779</v>
+        <v>188.912</v>
       </c>
       <c r="D86">
-        <v>64.65600000000001</v>
+        <v>153.391</v>
       </c>
       <c r="E86">
-        <v>90.81</v>
+        <v>321.138</v>
       </c>
       <c r="F86">
-        <v>39.781</v>
+        <v>284.161</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2242,19 +2242,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.9429999999999999</v>
+        <v>27.156</v>
       </c>
       <c r="C87">
-        <v>2.286</v>
+        <v>-7.228</v>
       </c>
       <c r="D87">
-        <v>74.88800000000001</v>
+        <v>104.274</v>
       </c>
       <c r="E87">
-        <v>-0.896</v>
+        <v>490.658</v>
       </c>
       <c r="F87">
-        <v>52.038</v>
+        <v>578.771</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2262,19 +2262,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>81.761</v>
+        <v>12.738</v>
       </c>
       <c r="C88">
-        <v>-0.499</v>
+        <v>516.598</v>
       </c>
       <c r="D88">
-        <v>41.654</v>
+        <v>57.037</v>
       </c>
       <c r="E88">
-        <v>35.823</v>
+        <v>490.885</v>
       </c>
       <c r="F88">
-        <v>19.129</v>
+        <v>154.635</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2282,19 +2282,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>3.028</v>
+        <v>114.654</v>
       </c>
       <c r="C89">
-        <v>28.693</v>
+        <v>433.104</v>
       </c>
       <c r="D89">
-        <v>58.728</v>
+        <v>148.381</v>
       </c>
       <c r="E89">
-        <v>68.66800000000001</v>
+        <v>47.929</v>
       </c>
       <c r="F89">
-        <v>54.059</v>
+        <v>520.795</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2302,19 +2302,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>59.702</v>
+        <v>83.086</v>
       </c>
       <c r="C90">
-        <v>72.298</v>
+        <v>481.472</v>
       </c>
       <c r="D90">
-        <v>36.644</v>
+        <v>47.128</v>
       </c>
       <c r="E90">
-        <v>16.117</v>
+        <v>535.61</v>
       </c>
       <c r="F90">
-        <v>62.591</v>
+        <v>313.209</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2322,19 +2322,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>84.685</v>
+        <v>176.397</v>
       </c>
       <c r="C91">
-        <v>99.05800000000001</v>
+        <v>320.91</v>
       </c>
       <c r="D91">
-        <v>5.597</v>
+        <v>2.148</v>
       </c>
       <c r="E91">
-        <v>69.437</v>
+        <v>18.455</v>
       </c>
       <c r="F91">
-        <v>10.008</v>
+        <v>613.996</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2342,19 +2342,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>34.289</v>
+        <v>50.028</v>
       </c>
       <c r="C92">
-        <v>-3.701</v>
+        <v>323.376</v>
       </c>
       <c r="D92">
-        <v>43.35</v>
+        <v>160.049</v>
       </c>
       <c r="E92">
-        <v>21.414</v>
+        <v>1003.935</v>
       </c>
       <c r="F92">
-        <v>34.155</v>
+        <v>1345.999</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2362,19 +2362,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>112.718</v>
+        <v>381.772</v>
       </c>
       <c r="C93">
-        <v>82.783</v>
+        <v>213.764</v>
       </c>
       <c r="D93">
-        <v>20.856</v>
+        <v>88.748</v>
       </c>
       <c r="E93">
-        <v>57.95</v>
+        <v>641.453</v>
       </c>
       <c r="F93">
-        <v>60.74</v>
+        <v>779.872</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2382,19 +2382,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>112.907</v>
+        <v>84.908</v>
       </c>
       <c r="C94">
-        <v>3.454</v>
+        <v>664.822</v>
       </c>
       <c r="D94">
-        <v>3.334</v>
+        <v>22.63</v>
       </c>
       <c r="E94">
-        <v>58.793</v>
+        <v>728.873</v>
       </c>
       <c r="F94">
-        <v>25.024</v>
+        <v>1125.3</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2402,19 +2402,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>14.274</v>
+        <v>174.71</v>
       </c>
       <c r="C95">
-        <v>31.613</v>
+        <v>366.178</v>
       </c>
       <c r="D95">
-        <v>65.822</v>
+        <v>321.771</v>
       </c>
       <c r="E95">
-        <v>90.249</v>
+        <v>625.823</v>
       </c>
       <c r="F95">
-        <v>40.143</v>
+        <v>485.965</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2422,19 +2422,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.421</v>
+        <v>57.158</v>
       </c>
       <c r="C96">
-        <v>1.278</v>
+        <v>-14.091</v>
       </c>
       <c r="D96">
-        <v>74.782</v>
+        <v>218.715</v>
       </c>
       <c r="E96">
-        <v>-0.238</v>
+        <v>956.202</v>
       </c>
       <c r="F96">
-        <v>52.873</v>
+        <v>989.799</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2442,19 +2442,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>82.242</v>
+        <v>26.762</v>
       </c>
       <c r="C97">
-        <v>-0.328</v>
+        <v>1001.484</v>
       </c>
       <c r="D97">
-        <v>41.731</v>
+        <v>119.602</v>
       </c>
       <c r="E97">
-        <v>35.554</v>
+        <v>956.645</v>
       </c>
       <c r="F97">
-        <v>17.969</v>
+        <v>264.452</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2462,19 +2462,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2.655</v>
+        <v>241.619</v>
       </c>
       <c r="C98">
-        <v>28.586</v>
+        <v>839.609</v>
       </c>
       <c r="D98">
-        <v>59.758</v>
+        <v>311.259</v>
       </c>
       <c r="E98">
-        <v>69.084</v>
+        <v>93.361</v>
       </c>
       <c r="F98">
-        <v>53.514</v>
+        <v>890.65</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2482,19 +2482,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>59.294</v>
+        <v>175.068</v>
       </c>
       <c r="C99">
-        <v>72.307</v>
+        <v>933.383</v>
       </c>
       <c r="D99">
-        <v>35.585</v>
+        <v>98.81100000000001</v>
       </c>
       <c r="E99">
-        <v>16.882</v>
+        <v>1043.81</v>
       </c>
       <c r="F99">
-        <v>61.539</v>
+        <v>535.6420000000001</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2502,19 +2502,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>85.596</v>
+        <v>371.784</v>
       </c>
       <c r="C100">
-        <v>99.413</v>
+        <v>622.091</v>
       </c>
       <c r="D100">
-        <v>6.401</v>
+        <v>4.434</v>
       </c>
       <c r="E100">
-        <v>68.90000000000001</v>
+        <v>35.919</v>
       </c>
       <c r="F100">
-        <v>10.685</v>
+        <v>1050.04</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2522,19 +2522,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>75.254</v>
+        <v>84.82299999999999</v>
       </c>
       <c r="C101">
-        <v>-6.694</v>
+        <v>509.013</v>
       </c>
       <c r="D101">
-        <v>96.099</v>
+        <v>269.541</v>
       </c>
       <c r="E101">
-        <v>51.956</v>
+        <v>1719.598</v>
       </c>
       <c r="F101">
-        <v>67.935</v>
+        <v>2137.802</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2542,19 +2542,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>248.386</v>
+        <v>647.678</v>
       </c>
       <c r="C102">
-        <v>148.551</v>
+        <v>336.461</v>
       </c>
       <c r="D102">
-        <v>46.779</v>
+        <v>149.442</v>
       </c>
       <c r="E102">
-        <v>139.003</v>
+        <v>1098.705</v>
       </c>
       <c r="F102">
-        <v>121.62</v>
+        <v>1238.643</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2562,19 +2562,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>248.59</v>
+        <v>144.002</v>
       </c>
       <c r="C103">
-        <v>6.423</v>
+        <v>1046.521</v>
       </c>
       <c r="D103">
-        <v>7.838</v>
+        <v>38.073</v>
       </c>
       <c r="E103">
-        <v>141.435</v>
+        <v>1248.446</v>
       </c>
       <c r="F103">
-        <v>50.516</v>
+        <v>1787.274</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2582,19 +2582,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>32.235</v>
+        <v>296.365</v>
       </c>
       <c r="C104">
-        <v>56.469</v>
+        <v>576.393</v>
       </c>
       <c r="D104">
-        <v>144.999</v>
+        <v>541.946</v>
       </c>
       <c r="E104">
-        <v>217.221</v>
+        <v>1071.932</v>
       </c>
       <c r="F104">
-        <v>80.589</v>
+        <v>771.841</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2602,19 +2602,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>2.66</v>
+        <v>96.92</v>
       </c>
       <c r="C105">
-        <v>2.636</v>
+        <v>-22.23</v>
       </c>
       <c r="D105">
-        <v>165.707</v>
+        <v>368.358</v>
       </c>
       <c r="E105">
-        <v>-0.831</v>
+        <v>1637.836</v>
       </c>
       <c r="F105">
-        <v>105.684</v>
+        <v>1572.062</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2622,19 +2622,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>181.239</v>
+        <v>45.348</v>
       </c>
       <c r="C106">
-        <v>-0.417</v>
+        <v>1576.496</v>
       </c>
       <c r="D106">
-        <v>92.63</v>
+        <v>201.412</v>
       </c>
       <c r="E106">
-        <v>85.749</v>
+        <v>1638.595</v>
       </c>
       <c r="F106">
-        <v>36.594</v>
+        <v>420.019</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2642,19 +2642,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5.977</v>
+        <v>409.887</v>
       </c>
       <c r="C107">
-        <v>51.531</v>
+        <v>1321.671</v>
       </c>
       <c r="D107">
-        <v>131.603</v>
+        <v>524.239</v>
       </c>
       <c r="E107">
-        <v>165.963</v>
+        <v>159.881</v>
       </c>
       <c r="F107">
-        <v>107.737</v>
+        <v>1414.587</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2662,19 +2662,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>130.46</v>
+        <v>296.972</v>
       </c>
       <c r="C108">
-        <v>130.19</v>
+        <v>1469.291</v>
       </c>
       <c r="D108">
-        <v>79.679</v>
+        <v>166.392</v>
       </c>
       <c r="E108">
-        <v>40.148</v>
+        <v>1787.9</v>
       </c>
       <c r="F108">
-        <v>123.854</v>
+        <v>850.741</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2682,19 +2682,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>188.246</v>
+        <v>630.732</v>
       </c>
       <c r="C109">
-        <v>179.115</v>
+        <v>979.253</v>
       </c>
       <c r="D109">
-        <v>13.528</v>
+        <v>7.423</v>
       </c>
       <c r="E109">
-        <v>165.684</v>
+        <v>61.489</v>
       </c>
       <c r="F109">
-        <v>21.019</v>
+        <v>1667.741</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2702,19 +2702,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>75.08</v>
+        <v>134.109</v>
       </c>
       <c r="C110">
-        <v>-5.852</v>
+        <v>740.454</v>
       </c>
       <c r="D110">
-        <v>96.7</v>
+        <v>422.418</v>
       </c>
       <c r="E110">
-        <v>50.922</v>
+        <v>2823.879</v>
       </c>
       <c r="F110">
-        <v>68.122</v>
+        <v>3299.445</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2722,19 +2722,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>248.551</v>
+        <v>1024.323</v>
       </c>
       <c r="C111">
-        <v>147.77</v>
+        <v>489.432</v>
       </c>
       <c r="D111">
-        <v>47.293</v>
+        <v>234.186</v>
       </c>
       <c r="E111">
-        <v>139.535</v>
+        <v>1804.253</v>
       </c>
       <c r="F111">
-        <v>121.216</v>
+        <v>1911.699</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2742,19 +2742,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>249.062</v>
+        <v>227.706</v>
       </c>
       <c r="C112">
-        <v>7.196</v>
+        <v>1522.399</v>
       </c>
       <c r="D112">
-        <v>7.458</v>
+        <v>59.635</v>
       </c>
       <c r="E112">
-        <v>140.777</v>
+        <v>2050.156</v>
       </c>
       <c r="F112">
-        <v>51.081</v>
+        <v>2758.446</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2762,19 +2762,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>31.648</v>
+        <v>468.684</v>
       </c>
       <c r="C113">
-        <v>57.086</v>
+        <v>838.476</v>
       </c>
       <c r="D113">
-        <v>145.402</v>
+        <v>849.364</v>
       </c>
       <c r="E113">
-        <v>218.063</v>
+        <v>1760.286</v>
       </c>
       <c r="F113">
-        <v>80.241</v>
+        <v>1191.245</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2782,19 +2782,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>2.766</v>
+        <v>153.241</v>
       </c>
       <c r="C114">
-        <v>2.449</v>
+        <v>-32.377</v>
       </c>
       <c r="D114">
-        <v>165.526</v>
+        <v>577.296</v>
       </c>
       <c r="E114">
-        <v>-0.277</v>
+        <v>2689.609</v>
       </c>
       <c r="F114">
-        <v>106.184</v>
+        <v>2426.292</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2802,19 +2802,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>180.655</v>
+        <v>71.67400000000001</v>
       </c>
       <c r="C115">
-        <v>-0.843</v>
+        <v>2293.385</v>
       </c>
       <c r="D115">
-        <v>92.59699999999999</v>
+        <v>315.639</v>
       </c>
       <c r="E115">
-        <v>86.78700000000001</v>
+        <v>2690.856</v>
       </c>
       <c r="F115">
-        <v>37.209</v>
+        <v>648.249</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2822,19 +2822,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6.823</v>
+        <v>648.231</v>
       </c>
       <c r="C116">
-        <v>50.517</v>
+        <v>1922.676</v>
       </c>
       <c r="D116">
-        <v>132.168</v>
+        <v>821.611</v>
       </c>
       <c r="E116">
-        <v>166.02</v>
+        <v>262.523</v>
       </c>
       <c r="F116">
-        <v>107.918</v>
+        <v>2183.248</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2842,19 +2842,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>130.234</v>
+        <v>469.644</v>
       </c>
       <c r="C117">
-        <v>129.566</v>
+        <v>2137.428</v>
       </c>
       <c r="D117">
-        <v>79.158</v>
+        <v>260.751</v>
       </c>
       <c r="E117">
-        <v>41.214</v>
+        <v>2936.044</v>
       </c>
       <c r="F117">
-        <v>123.44</v>
+        <v>1313.018</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2862,19 +2862,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>189.212</v>
+        <v>997.521</v>
       </c>
       <c r="C118">
-        <v>178.782</v>
+        <v>1424.54</v>
       </c>
       <c r="D118">
-        <v>14.12</v>
+        <v>11.596</v>
       </c>
       <c r="E118">
-        <v>165.137</v>
+        <v>100.944</v>
       </c>
       <c r="F118">
-        <v>20.609</v>
+        <v>2573.961</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2882,19 +2882,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>154.293</v>
+        <v>244.913</v>
       </c>
       <c r="C119">
-        <v>-13.379</v>
+        <v>1196.227</v>
       </c>
       <c r="D119">
-        <v>172.641</v>
+        <v>728.186</v>
       </c>
       <c r="E119">
-        <v>93.26600000000001</v>
+        <v>4190.776</v>
       </c>
       <c r="F119">
-        <v>103.401</v>
+        <v>6569.433</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2902,19 +2902,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>510.938</v>
+        <v>1871.094</v>
       </c>
       <c r="C120">
-        <v>326.371</v>
+        <v>790.676</v>
       </c>
       <c r="D120">
-        <v>84.55</v>
+        <v>403.681</v>
       </c>
       <c r="E120">
-        <v>252.948</v>
+        <v>2677.592</v>
       </c>
       <c r="F120">
-        <v>184.763</v>
+        <v>3806.331</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2922,19 +2922,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>511.724</v>
+        <v>415.889</v>
       </c>
       <c r="C121">
-        <v>15.599</v>
+        <v>2459.539</v>
       </c>
       <c r="D121">
-        <v>13.736</v>
+        <v>102.761</v>
       </c>
       <c r="E121">
-        <v>256.067</v>
+        <v>3042.526</v>
       </c>
       <c r="F121">
-        <v>77.697</v>
+        <v>5492.265</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2942,19 +2942,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>65.70699999999999</v>
+        <v>856.091</v>
       </c>
       <c r="C122">
-        <v>125.492</v>
+        <v>1354.592</v>
       </c>
       <c r="D122">
-        <v>259.46</v>
+        <v>1464.228</v>
       </c>
       <c r="E122">
-        <v>395.614</v>
+        <v>2612.342</v>
       </c>
       <c r="F122">
-        <v>122.452</v>
+        <v>2371.855</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2962,19 +2962,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5.373</v>
+        <v>279.862</v>
       </c>
       <c r="C123">
-        <v>5.615</v>
+        <v>-52.359</v>
       </c>
       <c r="D123">
-        <v>296.161</v>
+        <v>995.191</v>
       </c>
       <c r="E123">
-        <v>-0.946</v>
+        <v>3991.511</v>
       </c>
       <c r="F123">
-        <v>161.331</v>
+        <v>4830.923</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2982,19 +2982,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>371.744</v>
+        <v>130.86</v>
       </c>
       <c r="C124">
-        <v>-1.639</v>
+        <v>3705.145</v>
       </c>
       <c r="D124">
-        <v>165.703</v>
+        <v>544.103</v>
       </c>
       <c r="E124">
-        <v>157.105</v>
+        <v>3993.362</v>
       </c>
       <c r="F124">
-        <v>56.653</v>
+        <v>1290.71</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3002,19 +3002,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>13.582</v>
+        <v>1184.075</v>
       </c>
       <c r="C125">
-        <v>111.994</v>
+        <v>3106.227</v>
       </c>
       <c r="D125">
-        <v>235.717</v>
+        <v>1416.382</v>
       </c>
       <c r="E125">
-        <v>301.404</v>
+        <v>389.575</v>
       </c>
       <c r="F125">
-        <v>164.515</v>
+        <v>4347.004</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3022,19 +3022,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>267.777</v>
+        <v>857.8440000000001</v>
       </c>
       <c r="C126">
-        <v>286.374</v>
+        <v>3453.181</v>
       </c>
       <c r="D126">
-        <v>142.234</v>
+        <v>449.478</v>
       </c>
       <c r="E126">
-        <v>74.03</v>
+        <v>4357.235</v>
       </c>
       <c r="F126">
-        <v>188.471</v>
+        <v>2614.314</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3042,19 +3042,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>388.318</v>
+        <v>1822.134</v>
       </c>
       <c r="C127">
-        <v>395.01</v>
+        <v>2301.437</v>
       </c>
       <c r="D127">
-        <v>24.62</v>
+        <v>19.943</v>
       </c>
       <c r="E127">
-        <v>300.221</v>
+        <v>149.782</v>
       </c>
       <c r="F127">
-        <v>31.396</v>
+        <v>5124.942</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3062,19 +3062,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>155.159</v>
+        <v>468.094</v>
       </c>
       <c r="C128">
-        <v>-12.662</v>
+        <v>2014.432</v>
       </c>
       <c r="D128">
-        <v>173.367</v>
+        <v>1297.533</v>
       </c>
       <c r="E128">
-        <v>93.738</v>
+        <v>5947.41</v>
       </c>
       <c r="F128">
-        <v>102.938</v>
+        <v>14037.289</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3082,19 +3082,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>511.191</v>
+        <v>3576.659</v>
       </c>
       <c r="C129">
-        <v>326.398</v>
+        <v>1331.47</v>
       </c>
       <c r="D129">
-        <v>83.979</v>
+        <v>719.285</v>
       </c>
       <c r="E129">
-        <v>252.904</v>
+        <v>3799.942</v>
       </c>
       <c r="F129">
-        <v>184.287</v>
+        <v>8133.209</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3102,19 +3102,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>511.449</v>
+        <v>794.927</v>
       </c>
       <c r="C130">
-        <v>14.978</v>
+        <v>4141.894</v>
       </c>
       <c r="D130">
-        <v>14.237</v>
+        <v>183.063</v>
       </c>
       <c r="E130">
-        <v>255.94</v>
+        <v>4317.846</v>
       </c>
       <c r="F130">
-        <v>77.175</v>
+        <v>11735.641</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3122,19 +3122,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>65.864</v>
+        <v>1636.406</v>
       </c>
       <c r="C131">
-        <v>125.221</v>
+        <v>2281.124</v>
       </c>
       <c r="D131">
-        <v>260.373</v>
+        <v>2609.119</v>
       </c>
       <c r="E131">
-        <v>394.832</v>
+        <v>3707.341</v>
       </c>
       <c r="F131">
-        <v>123.367</v>
+        <v>5068.08</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3142,19 +3142,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5.73</v>
+        <v>534.902</v>
       </c>
       <c r="C132">
-        <v>5.469</v>
+        <v>-88.23099999999999</v>
       </c>
       <c r="D132">
-        <v>295.73</v>
+        <v>1773.321</v>
       </c>
       <c r="E132">
-        <v>-1.927</v>
+        <v>5664.619</v>
       </c>
       <c r="F132">
-        <v>162.237</v>
+        <v>10322.514</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3162,19 +3162,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>371.634</v>
+        <v>250.073</v>
       </c>
       <c r="C133">
-        <v>-1.656</v>
+        <v>6239.539</v>
       </c>
       <c r="D133">
-        <v>166.286</v>
+        <v>969.508</v>
       </c>
       <c r="E133">
-        <v>157.973</v>
+        <v>5667.246</v>
       </c>
       <c r="F133">
-        <v>55.807</v>
+        <v>2757.935</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3182,19 +3182,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>14.148</v>
+        <v>2263.371</v>
       </c>
       <c r="C134">
-        <v>111.753</v>
+        <v>5230.94</v>
       </c>
       <c r="D134">
-        <v>236.344</v>
+        <v>2523.859</v>
       </c>
       <c r="E134">
-        <v>302.322</v>
+        <v>552.853</v>
       </c>
       <c r="F134">
-        <v>165.195</v>
+        <v>9288.495999999999</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3202,19 +3202,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>268.757</v>
+        <v>1639.756</v>
       </c>
       <c r="C135">
-        <v>286.143</v>
+        <v>5815.223</v>
       </c>
       <c r="D135">
-        <v>142.629</v>
+        <v>800.8920000000001</v>
       </c>
       <c r="E135">
-        <v>73.114</v>
+        <v>6183.644</v>
       </c>
       <c r="F135">
-        <v>188.256</v>
+        <v>5586.157</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3222,19 +3222,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>388.856</v>
+        <v>3483.068</v>
       </c>
       <c r="C136">
-        <v>395.967</v>
+        <v>3875.644</v>
       </c>
       <c r="D136">
-        <v>24.846</v>
+        <v>35.485</v>
       </c>
       <c r="E136">
-        <v>299.979</v>
+        <v>212.545</v>
       </c>
       <c r="F136">
-        <v>30.654</v>
+        <v>10950.761</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3242,19 +3242,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>344.786</v>
+        <v>785.345</v>
       </c>
       <c r="C137">
-        <v>-24</v>
+        <v>4434.044</v>
       </c>
       <c r="D137">
-        <v>288.821</v>
+        <v>1962.893</v>
       </c>
       <c r="E137">
-        <v>194.824</v>
+        <v>10814.513</v>
       </c>
       <c r="F137">
-        <v>172.392</v>
+        <v>27134.098</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3262,19 +3262,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1137.487</v>
+        <v>6001.116</v>
       </c>
       <c r="C138">
-        <v>602.567</v>
+        <v>2930.717</v>
       </c>
       <c r="D138">
-        <v>140.368</v>
+        <v>1088.111</v>
       </c>
       <c r="E138">
-        <v>524.856</v>
+        <v>6909.635</v>
       </c>
       <c r="F138">
-        <v>309.017</v>
+        <v>15721.504</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3282,19 +3282,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1138.204</v>
+        <v>1333.729</v>
       </c>
       <c r="C139">
-        <v>27.835</v>
+        <v>9116.989</v>
       </c>
       <c r="D139">
-        <v>23.746</v>
+        <v>276.907</v>
       </c>
       <c r="E139">
-        <v>531.672</v>
+        <v>7851.373</v>
       </c>
       <c r="F139">
-        <v>129.413</v>
+        <v>22685.009</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3302,19 +3302,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>146.759</v>
+        <v>2745.622</v>
       </c>
       <c r="C140">
-        <v>231.043</v>
+        <v>5021.084</v>
       </c>
       <c r="D140">
-        <v>433.781</v>
+        <v>3947.08</v>
       </c>
       <c r="E140">
-        <v>819.9109999999999</v>
+        <v>6741.253</v>
       </c>
       <c r="F140">
-        <v>206.536</v>
+        <v>9796.605</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3322,19 +3322,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>12.358</v>
+        <v>897.441</v>
       </c>
       <c r="C141">
-        <v>10.245</v>
+        <v>-194.313</v>
       </c>
       <c r="D141">
-        <v>493.776</v>
+        <v>2682.672</v>
       </c>
       <c r="E141">
-        <v>-3.836</v>
+        <v>10300.296</v>
       </c>
       <c r="F141">
-        <v>271.247</v>
+        <v>19953.433</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3342,19 +3342,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>827.2670000000001</v>
+        <v>419.534</v>
       </c>
       <c r="C142">
-        <v>-2.972</v>
+        <v>13734.301</v>
       </c>
       <c r="D142">
-        <v>277.29</v>
+        <v>1466.652</v>
       </c>
       <c r="E142">
-        <v>327.308</v>
+        <v>10305.073</v>
       </c>
       <c r="F142">
-        <v>93.779</v>
+        <v>5331.092</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3362,19 +3362,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>30.921</v>
+        <v>3797.588</v>
       </c>
       <c r="C143">
-        <v>206.619</v>
+        <v>11514.184</v>
       </c>
       <c r="D143">
-        <v>393.764</v>
+        <v>3818.097</v>
       </c>
       <c r="E143">
-        <v>627.23</v>
+        <v>1005.246</v>
       </c>
       <c r="F143">
-        <v>276.637</v>
+        <v>17954.675</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3382,19 +3382,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>597.596</v>
+        <v>2751.242</v>
       </c>
       <c r="C144">
-        <v>528.4829999999999</v>
+        <v>12800.301</v>
       </c>
       <c r="D144">
-        <v>238.209</v>
+        <v>1211.567</v>
       </c>
       <c r="E144">
-        <v>151.741</v>
+        <v>11244.072</v>
       </c>
       <c r="F144">
-        <v>315.788</v>
+        <v>10798.049</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3402,19 +3402,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>864.768</v>
+        <v>5844.082</v>
       </c>
       <c r="C145">
-        <v>730.564</v>
+        <v>8530.922</v>
       </c>
       <c r="D145">
-        <v>40.996</v>
+        <v>53.648</v>
       </c>
       <c r="E145">
-        <v>623.1180000000001</v>
+        <v>386.442</v>
       </c>
       <c r="F145">
-        <v>51.618</v>
+        <v>21167.835</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3422,19 +3422,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>344.619</v>
+        <v>1260.434</v>
       </c>
       <c r="C146">
-        <v>-24.762</v>
+        <v>10378.655</v>
       </c>
       <c r="D146">
-        <v>288.945</v>
+        <v>2773.502</v>
       </c>
       <c r="E146">
-        <v>195.517</v>
+        <v>21337.58</v>
       </c>
       <c r="F146">
-        <v>173.293</v>
+        <v>51111.68</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3442,19 +3442,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1137.256</v>
+        <v>9631.781000000001</v>
       </c>
       <c r="C147">
-        <v>602.5309999999999</v>
+        <v>6859.818</v>
       </c>
       <c r="D147">
-        <v>141.121</v>
+        <v>1537.452</v>
       </c>
       <c r="E147">
-        <v>525.151</v>
+        <v>13633.04</v>
       </c>
       <c r="F147">
-        <v>309.011</v>
+        <v>29614.122</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3462,19 +3462,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1138.932</v>
+        <v>2140.594</v>
       </c>
       <c r="C148">
-        <v>28.173</v>
+        <v>21340.024</v>
       </c>
       <c r="D148">
-        <v>24.246</v>
+        <v>391.237</v>
       </c>
       <c r="E148">
-        <v>532.509</v>
+        <v>15491.141</v>
       </c>
       <c r="F148">
-        <v>129.927</v>
+        <v>42731.066</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3482,19 +3482,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>147.086</v>
+        <v>4406.691</v>
       </c>
       <c r="C149">
-        <v>230.534</v>
+        <v>11752.74</v>
       </c>
       <c r="D149">
-        <v>432.927</v>
+        <v>5577.12</v>
       </c>
       <c r="E149">
-        <v>819.423</v>
+        <v>13300.814</v>
       </c>
       <c r="F149">
-        <v>206.041</v>
+        <v>18453.569</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3502,19 +3502,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>13.008</v>
+        <v>1440.349</v>
       </c>
       <c r="C150">
-        <v>10.429</v>
+        <v>-454.94</v>
       </c>
       <c r="D150">
-        <v>493.383</v>
+        <v>3790.536</v>
       </c>
       <c r="E150">
-        <v>-3.502</v>
+        <v>20323.001</v>
       </c>
       <c r="F150">
-        <v>270.733</v>
+        <v>37585.679</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3522,19 +3522,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>827.97</v>
+        <v>673.3049999999999</v>
       </c>
       <c r="C151">
-        <v>-2.273</v>
+        <v>32147.766</v>
       </c>
       <c r="D151">
-        <v>277.243</v>
+        <v>2072.323</v>
       </c>
       <c r="E151">
-        <v>327.24</v>
+        <v>20332.427</v>
       </c>
       <c r="F151">
-        <v>94.029</v>
+        <v>10042.017</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3542,19 +3542,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>30.958</v>
+        <v>6095.104</v>
       </c>
       <c r="C152">
-        <v>207.57</v>
+        <v>26951.138</v>
       </c>
       <c r="D152">
-        <v>393.03</v>
+        <v>5394.869</v>
       </c>
       <c r="E152">
-        <v>626.97</v>
+        <v>1983.356</v>
       </c>
       <c r="F152">
-        <v>275.898</v>
+        <v>33820.679</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3562,19 +3562,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>596.623</v>
+        <v>4415.711</v>
       </c>
       <c r="C153">
-        <v>528.718</v>
+        <v>29961.552</v>
       </c>
       <c r="D153">
-        <v>238.437</v>
+        <v>1711.893</v>
       </c>
       <c r="E153">
-        <v>151.258</v>
+        <v>22185.123</v>
       </c>
       <c r="F153">
-        <v>315.561</v>
+        <v>20339.959</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3582,19 +3582,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>865.072</v>
+        <v>9379.74</v>
       </c>
       <c r="C154">
-        <v>730.033</v>
+        <v>19968.217</v>
       </c>
       <c r="D154">
-        <v>41.743</v>
+        <v>75.776</v>
       </c>
       <c r="E154">
-        <v>622.528</v>
+        <v>762.421</v>
       </c>
       <c r="F154">
-        <v>50.86</v>
+        <v>39873.211</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3602,19 +3602,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>595.918</v>
+        <v>2722.378</v>
       </c>
       <c r="C155">
-        <v>-40.97</v>
+        <v>19135.859</v>
       </c>
       <c r="D155">
-        <v>588.415</v>
+        <v>3986.259</v>
       </c>
       <c r="E155">
-        <v>454.93</v>
+        <v>39819.545</v>
       </c>
       <c r="F155">
-        <v>367.865</v>
+        <v>77900.40399999999</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3622,19 +3622,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1967.106</v>
+        <v>20804.066</v>
       </c>
       <c r="C156">
-        <v>996.78</v>
+        <v>12647.907</v>
       </c>
       <c r="D156">
-        <v>287.362</v>
+        <v>2209.714</v>
       </c>
       <c r="E156">
-        <v>1222.434</v>
+        <v>25441.55</v>
       </c>
       <c r="F156">
-        <v>656.847</v>
+        <v>45135.517</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3642,19 +3642,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1969.541</v>
+        <v>4623.479</v>
       </c>
       <c r="C157">
-        <v>46.536</v>
+        <v>39346.183</v>
       </c>
       <c r="D157">
-        <v>49.158</v>
+        <v>562.287</v>
       </c>
       <c r="E157">
-        <v>1239.532</v>
+        <v>28909.086</v>
       </c>
       <c r="F157">
-        <v>275.972</v>
+        <v>65127.332</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3662,19 +3662,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>254.295</v>
+        <v>9518.134</v>
       </c>
       <c r="C158">
-        <v>381.524</v>
+        <v>21669.366</v>
       </c>
       <c r="D158">
-        <v>882.067</v>
+        <v>8015.833</v>
       </c>
       <c r="E158">
-        <v>1908.193</v>
+        <v>24821.56</v>
       </c>
       <c r="F158">
-        <v>437.972</v>
+        <v>28125.479</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3682,19 +3682,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>21.95</v>
+        <v>3110.985</v>
       </c>
       <c r="C159">
-        <v>17.233</v>
+        <v>-838.878</v>
       </c>
       <c r="D159">
-        <v>1005.672</v>
+        <v>5448.018</v>
       </c>
       <c r="E159">
-        <v>-8.289</v>
+        <v>37926.166</v>
       </c>
       <c r="F159">
-        <v>575.212</v>
+        <v>57285.137</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3702,19 +3702,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1431.795</v>
+        <v>1454.209</v>
       </c>
       <c r="C160">
-        <v>-4.051</v>
+        <v>59273.253</v>
       </c>
       <c r="D160">
-        <v>564.809</v>
+        <v>2978.471</v>
       </c>
       <c r="E160">
-        <v>761.598</v>
+        <v>37943.757</v>
       </c>
       <c r="F160">
-        <v>199.89</v>
+        <v>15305.253</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3722,19 +3722,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>53.258</v>
+        <v>13165.021</v>
       </c>
       <c r="C161">
-        <v>343.103</v>
+        <v>49691.828</v>
       </c>
       <c r="D161">
-        <v>800.768</v>
+        <v>7753.887</v>
       </c>
       <c r="E161">
-        <v>1459.682</v>
+        <v>3701.239</v>
       </c>
       <c r="F161">
-        <v>586.538</v>
+        <v>51546.82</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3742,19 +3742,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1032.243</v>
+        <v>9537.617</v>
       </c>
       <c r="C162">
-        <v>874.67</v>
+        <v>55242.361</v>
       </c>
       <c r="D162">
-        <v>485.859</v>
+        <v>2460.434</v>
       </c>
       <c r="E162">
-        <v>352.363</v>
+        <v>41401.206</v>
       </c>
       <c r="F162">
-        <v>670.928</v>
+        <v>31000.567</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3762,19 +3762,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1495.817</v>
+        <v>20259.669</v>
       </c>
       <c r="C163">
-        <v>1207.7</v>
+        <v>36816.876</v>
       </c>
       <c r="D163">
-        <v>84.441</v>
+        <v>108.882</v>
       </c>
       <c r="E163">
-        <v>1449.873</v>
+        <v>1422.764</v>
       </c>
       <c r="F163">
-        <v>108.545</v>
+        <v>60771.614</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3782,19 +3782,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>596.125</v>
+        <v>6315.879</v>
       </c>
       <c r="C164">
-        <v>-40.095</v>
+        <v>33078.858</v>
       </c>
       <c r="D164">
-        <v>588.476</v>
+        <v>5777.014</v>
       </c>
       <c r="E164">
-        <v>454.191</v>
+        <v>73154.181</v>
       </c>
       <c r="F164">
-        <v>368.686</v>
+        <v>108973.65</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3802,19 +3802,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1966.278</v>
+        <v>48265.87</v>
       </c>
       <c r="C165">
-        <v>997.617</v>
+        <v>21863.556</v>
       </c>
       <c r="D165">
-        <v>287.494</v>
+        <v>3202.375</v>
       </c>
       <c r="E165">
-        <v>1221.788</v>
+        <v>46739.739</v>
       </c>
       <c r="F165">
-        <v>657.801</v>
+        <v>63139.365</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3822,19 +3822,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1969.771</v>
+        <v>10726.483</v>
       </c>
       <c r="C166">
-        <v>47.059</v>
+        <v>68015.13499999999</v>
       </c>
       <c r="D166">
-        <v>49.171</v>
+        <v>814.859</v>
       </c>
       <c r="E166">
-        <v>1238.804</v>
+        <v>53110.101</v>
       </c>
       <c r="F166">
-        <v>276.754</v>
+        <v>91105.601</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3842,19 +3842,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>253.421</v>
+        <v>22082.211</v>
       </c>
       <c r="C167">
-        <v>382.327</v>
+        <v>37458.368</v>
       </c>
       <c r="D167">
-        <v>882.337</v>
+        <v>11616.832</v>
       </c>
       <c r="E167">
-        <v>1907.428</v>
+        <v>45600.729</v>
       </c>
       <c r="F167">
-        <v>438.442</v>
+        <v>39344.29</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3862,19 +3862,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>21.113</v>
+        <v>7217.457</v>
       </c>
       <c r="C168">
-        <v>18.222</v>
+        <v>-1450.174</v>
       </c>
       <c r="D168">
-        <v>1005.147</v>
+        <v>7895.453</v>
       </c>
       <c r="E168">
-        <v>-8.672000000000001</v>
+        <v>69675.772</v>
       </c>
       <c r="F168">
-        <v>574.688</v>
+        <v>80135.27800000001</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3882,19 +3882,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1431.252</v>
+        <v>3373.694</v>
       </c>
       <c r="C169">
-        <v>-4.722</v>
+        <v>102461.769</v>
       </c>
       <c r="D169">
-        <v>564.212</v>
+        <v>4316.488</v>
       </c>
       <c r="E169">
-        <v>761.405</v>
+        <v>69708.08900000001</v>
       </c>
       <c r="F169">
-        <v>199.818</v>
+        <v>21410.278</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3902,19 +3902,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>54.065</v>
+        <v>30543.084</v>
       </c>
       <c r="C170">
-        <v>343.879</v>
+        <v>85898.981</v>
       </c>
       <c r="D170">
-        <v>799.867</v>
+        <v>11237.209</v>
       </c>
       <c r="E170">
-        <v>1459.135</v>
+        <v>6799.665</v>
       </c>
       <c r="F170">
-        <v>585.8339999999999</v>
+        <v>72108.03599999999</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3922,19 +3922,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1033.059</v>
+        <v>22127.412</v>
       </c>
       <c r="C171">
-        <v>874.112</v>
+        <v>95493.827</v>
       </c>
       <c r="D171">
-        <v>485.095</v>
+        <v>3565.728</v>
       </c>
       <c r="E171">
-        <v>351.866</v>
+        <v>76059.92</v>
       </c>
       <c r="F171">
-        <v>670.537</v>
+        <v>43366.206</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3942,19 +3942,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1495.971</v>
+        <v>47002.854</v>
       </c>
       <c r="C172">
-        <v>1206.989</v>
+        <v>63642.886</v>
       </c>
       <c r="D172">
-        <v>84.914</v>
+        <v>157.766</v>
       </c>
       <c r="E172">
-        <v>1450.691</v>
+        <v>2613.779</v>
       </c>
       <c r="F172">
-        <v>107.562</v>
+        <v>85012.45600000001</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3962,19 +3962,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>979.745</v>
+        <v>13825.174</v>
       </c>
       <c r="C173">
-        <v>-92.825</v>
+        <v>76660.439</v>
       </c>
       <c r="D173">
-        <v>1209.218</v>
+        <v>11553.863</v>
       </c>
       <c r="E173">
-        <v>997.896</v>
+        <v>115340.467</v>
       </c>
       <c r="F173">
-        <v>657.273</v>
+        <v>143860.974</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3982,19 +3982,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>3232.623</v>
+        <v>105652.462</v>
       </c>
       <c r="C174">
-        <v>2298.624</v>
+        <v>50668.877</v>
       </c>
       <c r="D174">
-        <v>590.671</v>
+        <v>6404.629</v>
       </c>
       <c r="E174">
-        <v>2683.878</v>
+        <v>73693.42999999999</v>
       </c>
       <c r="F174">
-        <v>1173.376</v>
+        <v>83353.091</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4002,19 +4002,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>3237.651</v>
+        <v>23479.855</v>
       </c>
       <c r="C175">
-        <v>108.123</v>
+        <v>157625.574</v>
       </c>
       <c r="D175">
-        <v>100.894</v>
+        <v>1629.638</v>
       </c>
       <c r="E175">
-        <v>2721.286</v>
+        <v>83737.432</v>
       </c>
       <c r="F175">
-        <v>493.371</v>
+        <v>120272.566</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4022,19 +4022,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>416.871</v>
+        <v>48337.207</v>
       </c>
       <c r="C176">
-        <v>880.777</v>
+        <v>86809.993</v>
       </c>
       <c r="D176">
-        <v>1813.197</v>
+        <v>23233.4</v>
       </c>
       <c r="E176">
-        <v>4190.216</v>
+        <v>71897.58</v>
       </c>
       <c r="F176">
-        <v>782.176</v>
+        <v>51940.151</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4042,19 +4042,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>34.724</v>
+        <v>15798.701</v>
       </c>
       <c r="C177">
-        <v>41.514</v>
+        <v>-3360.9</v>
       </c>
       <c r="D177">
-        <v>2066.21</v>
+        <v>15790.705</v>
       </c>
       <c r="E177">
-        <v>-18.92</v>
+        <v>109856.14</v>
       </c>
       <c r="F177">
-        <v>1025.712</v>
+        <v>105790.154</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4062,19 +4062,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>2352.797</v>
+        <v>7384.818</v>
       </c>
       <c r="C178">
-        <v>-10.868</v>
+        <v>237455.956</v>
       </c>
       <c r="D178">
-        <v>1159.802</v>
+        <v>8632.835999999999</v>
       </c>
       <c r="E178">
-        <v>1672.371</v>
+        <v>109907.094</v>
       </c>
       <c r="F178">
-        <v>356.633</v>
+        <v>28264.663</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4082,19 +4082,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>88.349</v>
+        <v>66857.808</v>
       </c>
       <c r="C179">
-        <v>791.923</v>
+        <v>199071.547</v>
       </c>
       <c r="D179">
-        <v>1644.296</v>
+        <v>22474.16</v>
       </c>
       <c r="E179">
-        <v>3205.234</v>
+        <v>10720.844</v>
       </c>
       <c r="F179">
-        <v>1045.862</v>
+        <v>95193.033</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4102,19 +4102,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1698</v>
+        <v>48436.151</v>
       </c>
       <c r="C180">
-        <v>2014.556</v>
+        <v>221307.688</v>
       </c>
       <c r="D180">
-        <v>997.343</v>
+        <v>7131.329</v>
       </c>
       <c r="E180">
-        <v>773.207</v>
+        <v>119921.878</v>
       </c>
       <c r="F180">
-        <v>1196.891</v>
+        <v>57249.662</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4122,19 +4122,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>2458.803</v>
+        <v>102887.757</v>
       </c>
       <c r="C181">
-        <v>2781.734</v>
+        <v>147492.847</v>
       </c>
       <c r="D181">
-        <v>173.939</v>
+        <v>315.463</v>
       </c>
       <c r="E181">
-        <v>3186.137</v>
+        <v>4121.055</v>
       </c>
       <c r="F181">
-        <v>192.675</v>
+        <v>112228.734</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4142,19 +4142,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>980.595</v>
+        <v>29906.025</v>
       </c>
       <c r="C182">
-        <v>-92.994</v>
+        <v>188929.699</v>
       </c>
       <c r="D182">
-        <v>1208.972</v>
+        <v>25302.832</v>
       </c>
       <c r="E182">
-        <v>997.727</v>
+        <v>171482.943</v>
       </c>
       <c r="F182">
-        <v>657.758</v>
+        <v>183783.432</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4162,19 +4162,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>3233.25</v>
+        <v>228543.529</v>
       </c>
       <c r="C183">
-        <v>2298.82</v>
+        <v>124873.437</v>
       </c>
       <c r="D183">
-        <v>589.717</v>
+        <v>14026.031</v>
       </c>
       <c r="E183">
-        <v>2683.105</v>
+        <v>109564.02</v>
       </c>
       <c r="F183">
-        <v>1174.069</v>
+        <v>106484.175</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4182,19 +4182,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>3237.838</v>
+        <v>50790.686</v>
       </c>
       <c r="C184">
-        <v>107.199</v>
+        <v>388468.453</v>
       </c>
       <c r="D184">
-        <v>101.106</v>
+        <v>3568.822</v>
       </c>
       <c r="E184">
-        <v>2720.676</v>
+        <v>124496.986</v>
       </c>
       <c r="F184">
-        <v>492.872</v>
+        <v>153649.071</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4202,19 +4202,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>416.384</v>
+        <v>104561.22</v>
       </c>
       <c r="C185">
-        <v>880.598</v>
+        <v>213943.297</v>
       </c>
       <c r="D185">
-        <v>1813.126</v>
+        <v>50880.968</v>
       </c>
       <c r="E185">
-        <v>4191.08</v>
+        <v>106894.032</v>
       </c>
       <c r="F185">
-        <v>783.102</v>
+        <v>66353.917</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4222,19 +4222,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>34.502</v>
+        <v>34175.088</v>
       </c>
       <c r="C186">
-        <v>42.118</v>
+        <v>-8283.066999999999</v>
       </c>
       <c r="D186">
-        <v>2065.546</v>
+        <v>34581.498</v>
       </c>
       <c r="E186">
-        <v>-19.336</v>
+        <v>163329.095</v>
       </c>
       <c r="F186">
-        <v>1026.44</v>
+        <v>135147.685</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4242,19 +4242,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>2352.214</v>
+        <v>15974.478</v>
       </c>
       <c r="C187">
-        <v>-10.879</v>
+        <v>585210.605</v>
       </c>
       <c r="D187">
-        <v>1160.557</v>
+        <v>18905.795</v>
       </c>
       <c r="E187">
-        <v>1671.872</v>
+        <v>163404.851</v>
       </c>
       <c r="F187">
-        <v>356.943</v>
+        <v>36108.311</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4262,19 +4262,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>88.01000000000001</v>
+        <v>144624.322</v>
       </c>
       <c r="C188">
-        <v>791.942</v>
+        <v>490612.145</v>
       </c>
       <c r="D188">
-        <v>1644.646</v>
+        <v>49218.236</v>
       </c>
       <c r="E188">
-        <v>3204.821</v>
+        <v>15939.239</v>
       </c>
       <c r="F188">
-        <v>1045.032</v>
+        <v>121609.786</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4282,19 +4282,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1697.896</v>
+        <v>104775.252</v>
       </c>
       <c r="C189">
-        <v>2013.926</v>
+        <v>545413.1629999999</v>
       </c>
       <c r="D189">
-        <v>997.95</v>
+        <v>15617.501</v>
       </c>
       <c r="E189">
-        <v>773.14</v>
+        <v>178294.377</v>
       </c>
       <c r="F189">
-        <v>1197.018</v>
+        <v>73136.856</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4302,19 +4302,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>2458.737</v>
+        <v>222563.018</v>
       </c>
       <c r="C190">
-        <v>2781.287</v>
+        <v>363496.325</v>
       </c>
       <c r="D190">
-        <v>173.733</v>
+        <v>690.784</v>
       </c>
       <c r="E190">
-        <v>3185.426</v>
+        <v>6126.972</v>
       </c>
       <c r="F190">
-        <v>193.335</v>
+        <v>143373.018</v>
       </c>
     </row>
   </sheetData>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07353257323230454</v>
+        <v>0.1749148255992661</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1628630355443938</v>
+        <v>0.03564302594131664</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4412,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03035671021104021</v>
+        <v>0.5925831329467852</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4420,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2042963233934539</v>
+        <v>0.3300468254838228</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4428,7 +4428,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07254876721069696</v>
+        <v>0.1554896016777011</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4436,7 +4436,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1858264934434957</v>
+        <v>0.4633742967811303</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4444,7 +4444,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.02377971964811398</v>
+        <v>0.08644992089049655</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4452,7 +4452,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09384688714983466</v>
+        <v>0.2591097370253644</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4460,7 +4460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0116334690987057</v>
+        <v>0.02178671462146474</v>
       </c>
     </row>
   </sheetData>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07353257323230454</v>
+        <v>0.1749148255992661</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1628630355443938</v>
+        <v>0.03564302594131664</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03035671021104021</v>
+        <v>0.5925831329467852</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2042963233934539</v>
+        <v>0.3300468254838228</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07254876721069696</v>
+        <v>0.1554896016777011</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1858264934434957</v>
+        <v>0.4633742967811303</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.02377971964811398</v>
+        <v>0.08644992089049655</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09384688714983466</v>
+        <v>0.2591097370253644</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0116334690987057</v>
+        <v>0.02178671462146474</v>
       </c>
     </row>
   </sheetData>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9082989658458607</v>
+        <v>0.996724621217287</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9618585009179016</v>
+        <v>1.247372321261544</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8838465124076759</v>
+        <v>1.561716174051445</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8883309748349766</v>
+        <v>1.672870337827109</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9582196097936043</v>
+        <v>1.652865656282111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9569448240268426</v>
+        <v>1.271345783114468</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9419898864079493</v>
+        <v>1.063383651691267</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9562276363088277</v>
+        <v>0.9534773081718303</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9311365785827519</v>
+        <v>0.955126433981742</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9082989658458607</v>
+        <v>0.996724621217287</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9618585009179016</v>
+        <v>1.247372321261544</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8838465124076759</v>
+        <v>1.561716174051445</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8883309748349766</v>
+        <v>1.672870337827109</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9582196097936043</v>
+        <v>1.652865656282111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9569448240268426</v>
+        <v>1.271345783114468</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9419898864079493</v>
+        <v>1.063383651691267</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9562276363088277</v>
+        <v>0.9534773081718303</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9311365785827519</v>
+        <v>0.955126433981742</v>
       </c>
     </row>
   </sheetData>
@@ -4788,19 +4788,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.323</v>
+        <v>0.653</v>
       </c>
       <c r="C3">
-        <v>0.714</v>
+        <v>0.454</v>
       </c>
       <c r="D3">
-        <v>0.528</v>
+        <v>0.832</v>
       </c>
       <c r="E3">
-        <v>0.347</v>
+        <v>0.056</v>
       </c>
       <c r="F3">
-        <v>0.155</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4808,19 +4808,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.804</v>
+        <v>0.287</v>
       </c>
       <c r="C4">
-        <v>0.6889999999999999</v>
+        <v>0.596</v>
       </c>
       <c r="D4">
-        <v>0.068</v>
+        <v>0.603</v>
       </c>
       <c r="E4">
-        <v>0.975</v>
+        <v>0.765</v>
       </c>
       <c r="F4">
-        <v>0.659</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4828,19 +4828,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.897</v>
+        <v>0.203</v>
       </c>
       <c r="C5">
-        <v>0.39</v>
+        <v>0.519</v>
       </c>
       <c r="D5">
-        <v>0.975</v>
+        <v>0.157</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0.931</v>
       </c>
       <c r="F5">
-        <v>0.158</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4848,19 +4848,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.697</v>
+        <v>0.603</v>
       </c>
       <c r="C6">
-        <v>0.402</v>
+        <v>0.889</v>
       </c>
       <c r="D6">
-        <v>0.737</v>
+        <v>0.152</v>
       </c>
       <c r="E6">
-        <v>0.945</v>
+        <v>0.517</v>
       </c>
       <c r="F6">
-        <v>0.408</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4868,19 +4868,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.263</v>
+        <v>0.583</v>
       </c>
       <c r="C7">
-        <v>0.447</v>
+        <v>0.432</v>
       </c>
       <c r="D7">
-        <v>0.857</v>
+        <v>0.613</v>
       </c>
       <c r="E7">
-        <v>0.762</v>
+        <v>0.457</v>
       </c>
       <c r="F7">
-        <v>0.674</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4888,19 +4888,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.752</v>
+        <v>0.171</v>
       </c>
       <c r="C8">
-        <v>0.324</v>
+        <v>0.09</v>
       </c>
       <c r="D8">
-        <v>0.628</v>
+        <v>0.161</v>
       </c>
       <c r="E8">
-        <v>0.835</v>
+        <v>0.226</v>
       </c>
       <c r="F8">
-        <v>0.478</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4908,19 +4908,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.51</v>
+        <v>0.459</v>
       </c>
       <c r="C9">
-        <v>0.764</v>
+        <v>0.303</v>
       </c>
       <c r="D9">
-        <v>0.24</v>
+        <v>0.362</v>
       </c>
       <c r="E9">
-        <v>0.232</v>
+        <v>0.093</v>
       </c>
       <c r="F9">
-        <v>0.022</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4928,19 +4928,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.712</v>
+        <v>0.201</v>
       </c>
       <c r="C10">
-        <v>0.299</v>
+        <v>0.795</v>
       </c>
       <c r="D10">
-        <v>0.228</v>
+        <v>0.074</v>
       </c>
       <c r="E10">
-        <v>0.627</v>
+        <v>0.523</v>
       </c>
       <c r="F10">
-        <v>0.332</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4948,19 +4948,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.179</v>
+        <v>0.783</v>
       </c>
       <c r="C11">
-        <v>0.196</v>
+        <v>0.271</v>
       </c>
       <c r="D11">
-        <v>0.637</v>
+        <v>0.145</v>
       </c>
       <c r="E11">
-        <v>0.8100000000000001</v>
+        <v>0.373</v>
       </c>
       <c r="F11">
-        <v>0.722</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4968,19 +4968,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.222</v>
+        <v>0.62</v>
       </c>
       <c r="C12">
-        <v>0.909</v>
+        <v>0.896</v>
       </c>
       <c r="D12">
-        <v>0.546</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E12">
-        <v>0.626</v>
+        <v>0.121</v>
       </c>
       <c r="F12">
-        <v>0.255</v>
+        <v>0.035</v>
       </c>
     </row>
   </sheetData>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9770931411506443</v>
+        <v>0.05860407655501032</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8722338070031909</v>
+        <v>0.05121362749621849</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3637877388205759</v>
+        <v>0.9746648076259878</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9625267035727973</v>
+        <v>0.6966767000136322</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4405729861787711</v>
+        <v>0.7357191569277975</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6233858642341301</v>
+        <v>0.2418357256430785</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6639824649117604</v>
+        <v>0.7109590318779255</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5496613010242765</v>
+        <v>0.01295124588390384</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2452415659483826</v>
+        <v>0.9080242023062808</v>
       </c>
     </row>
   </sheetData>
@@ -5080,7 +5080,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5108,19 +5108,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.272</v>
+        <v>0.158</v>
       </c>
       <c r="C2">
-        <v>0.015</v>
+        <v>0.324</v>
       </c>
       <c r="D2">
-        <v>0.507</v>
+        <v>0.471</v>
       </c>
       <c r="E2">
-        <v>0.141</v>
+        <v>0.858</v>
       </c>
       <c r="F2">
-        <v>0.373</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5128,19 +5128,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.859</v>
+        <v>0.928</v>
       </c>
       <c r="C3">
-        <v>0.848</v>
+        <v>0.221</v>
       </c>
       <c r="D3">
-        <v>0.289</v>
+        <v>0.264</v>
       </c>
       <c r="E3">
-        <v>0.397</v>
+        <v>0.545</v>
       </c>
       <c r="F3">
-        <v>0.864</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5148,19 +5148,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.825</v>
+        <v>0.229</v>
       </c>
       <c r="C4">
-        <v>0.078</v>
+        <v>0.621</v>
       </c>
       <c r="D4">
-        <v>0.059</v>
+        <v>0.067</v>
       </c>
       <c r="E4">
-        <v>0.402</v>
+        <v>0.624</v>
       </c>
       <c r="F4">
-        <v>0.317</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5168,19 +5168,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.153</v>
+        <v>0.433</v>
       </c>
       <c r="C5">
-        <v>0.333</v>
+        <v>0.349</v>
       </c>
       <c r="D5">
-        <v>0.847</v>
+        <v>0.962</v>
       </c>
       <c r="E5">
-        <v>0.6850000000000001</v>
+        <v>0.542</v>
       </c>
       <c r="F5">
-        <v>0.609</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5188,19 +5188,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.022</v>
+        <v>0.153</v>
       </c>
       <c r="C6">
-        <v>0.049</v>
+        <v>0.004</v>
       </c>
       <c r="D6">
-        <v>0.986</v>
+        <v>0.646</v>
       </c>
       <c r="E6">
-        <v>0.008</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="F6">
-        <v>0.788</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5208,19 +5208,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.602</v>
+        <v>0.077</v>
       </c>
       <c r="C7">
-        <v>0.036</v>
+        <v>0.909</v>
       </c>
       <c r="D7">
-        <v>0.586</v>
+        <v>0.356</v>
       </c>
       <c r="E7">
-        <v>0.297</v>
+        <v>0.83</v>
       </c>
       <c r="F7">
-        <v>0.264</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5228,19 +5228,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.035</v>
+        <v>0.574</v>
       </c>
       <c r="C8">
-        <v>0.302</v>
+        <v>0.761</v>
       </c>
       <c r="D8">
-        <v>0.763</v>
+        <v>0.927</v>
       </c>
       <c r="E8">
-        <v>0.475</v>
+        <v>0.083</v>
       </c>
       <c r="F8">
-        <v>0.794</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5248,19 +5248,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.428</v>
+        <v>0.414</v>
       </c>
       <c r="C9">
-        <v>0.742</v>
+        <v>0.841</v>
       </c>
       <c r="D9">
-        <v>0.509</v>
+        <v>0.294</v>
       </c>
       <c r="E9">
-        <v>0.149</v>
+        <v>0.916</v>
       </c>
       <c r="F9">
-        <v>0.866</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5268,19 +5268,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.61</v>
+        <v>0.869</v>
       </c>
       <c r="C10">
-        <v>0.986</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="D10">
-        <v>0.07099999999999999</v>
+        <v>0.013</v>
       </c>
       <c r="E10">
-        <v>0.455</v>
+        <v>0.031</v>
       </c>
       <c r="F10">
-        <v>0.148</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5288,19 +5288,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.261</v>
+        <v>0.135</v>
       </c>
       <c r="C11">
-        <v>-0.011</v>
+        <v>0.308</v>
       </c>
       <c r="D11">
-        <v>0.509</v>
+        <v>0.474</v>
       </c>
       <c r="E11">
-        <v>0.153</v>
+        <v>0.86</v>
       </c>
       <c r="F11">
-        <v>0.402</v>
+        <v>1.119</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5308,19 +5308,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.849</v>
+        <v>0.908</v>
       </c>
       <c r="C12">
-        <v>0.826</v>
+        <v>0.207</v>
       </c>
       <c r="D12">
-        <v>0.289</v>
+        <v>0.264</v>
       </c>
       <c r="E12">
-        <v>0.407</v>
+        <v>0.547</v>
       </c>
       <c r="F12">
-        <v>0.873</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5328,19 +5328,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8169999999999999</v>
+        <v>0.212</v>
       </c>
       <c r="C13">
-        <v>0.059</v>
+        <v>0.609</v>
       </c>
       <c r="D13">
-        <v>0.059</v>
+        <v>0.067</v>
       </c>
       <c r="E13">
-        <v>0.411</v>
+        <v>0.625</v>
       </c>
       <c r="F13">
-        <v>0.32</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5348,19 +5348,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.146</v>
+        <v>0.419</v>
       </c>
       <c r="C14">
-        <v>0.318</v>
+        <v>0.339</v>
       </c>
       <c r="D14">
-        <v>0.845</v>
+        <v>0.96</v>
       </c>
       <c r="E14">
-        <v>0.6870000000000001</v>
+        <v>0.542</v>
       </c>
       <c r="F14">
-        <v>0.61</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5368,19 +5368,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.017</v>
+        <v>0.142</v>
       </c>
       <c r="C15">
-        <v>0.037</v>
+        <v>-0.004</v>
       </c>
       <c r="D15">
-        <v>0.988</v>
+        <v>0.649</v>
       </c>
       <c r="E15">
-        <v>0.02</v>
+        <v>0.819</v>
       </c>
       <c r="F15">
-        <v>0.789</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5388,19 +5388,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.598</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="C16">
-        <v>0.027</v>
+        <v>0.904</v>
       </c>
       <c r="D16">
-        <v>0.586</v>
+        <v>0.356</v>
       </c>
       <c r="E16">
-        <v>0.299</v>
+        <v>0.83</v>
       </c>
       <c r="F16">
-        <v>0.264</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5408,19 +5408,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.032</v>
+        <v>0.569</v>
       </c>
       <c r="C17">
-        <v>0.296</v>
+        <v>0.757</v>
       </c>
       <c r="D17">
-        <v>0.763</v>
+        <v>0.927</v>
       </c>
       <c r="E17">
-        <v>0.474</v>
+        <v>0.083</v>
       </c>
       <c r="F17">
-        <v>0.794</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5428,19 +5428,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.427</v>
+        <v>0.411</v>
       </c>
       <c r="C18">
-        <v>0.739</v>
+        <v>0.839</v>
       </c>
       <c r="D18">
-        <v>0.509</v>
+        <v>0.294</v>
       </c>
       <c r="E18">
-        <v>0.143</v>
+        <v>0.915</v>
       </c>
       <c r="F18">
-        <v>0.866</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5448,19 +5448,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.61</v>
+        <v>0.869</v>
       </c>
       <c r="C19">
-        <v>0.986</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="D19">
-        <v>0.07099999999999999</v>
+        <v>0.013</v>
       </c>
       <c r="E19">
-        <v>0.455</v>
+        <v>0.031</v>
       </c>
       <c r="F19">
-        <v>0.148</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5468,19 +5468,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.334</v>
+        <v>0.2</v>
       </c>
       <c r="C20">
-        <v>-0.045</v>
+        <v>0.431</v>
       </c>
       <c r="D20">
-        <v>0.78</v>
+        <v>0.872</v>
       </c>
       <c r="E20">
-        <v>0.219</v>
+        <v>0.91</v>
       </c>
       <c r="F20">
-        <v>0.494</v>
+        <v>1.954</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5488,19 +5488,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.114</v>
+        <v>1.481</v>
       </c>
       <c r="C21">
-        <v>1.394</v>
+        <v>0.287</v>
       </c>
       <c r="D21">
-        <v>0.442</v>
+        <v>0.484</v>
       </c>
       <c r="E21">
-        <v>0.5590000000000001</v>
+        <v>0.579</v>
       </c>
       <c r="F21">
-        <v>1.017</v>
+        <v>1.146</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5508,19 +5508,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.072</v>
+        <v>0.333</v>
       </c>
       <c r="C22">
-        <v>0.083</v>
+        <v>0.874</v>
       </c>
       <c r="D22">
-        <v>0.09</v>
+        <v>0.123</v>
       </c>
       <c r="E22">
-        <v>0.5620000000000001</v>
+        <v>0.661</v>
       </c>
       <c r="F22">
-        <v>0.373</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5528,19 +5528,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.186</v>
+        <v>0.679</v>
       </c>
       <c r="C23">
-        <v>0.53</v>
+        <v>0.483</v>
       </c>
       <c r="D23">
-        <v>1.29</v>
+        <v>1.756</v>
       </c>
       <c r="E23">
-        <v>0.928</v>
+        <v>0.573</v>
       </c>
       <c r="F23">
-        <v>0.706</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5548,19 +5548,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.017</v>
+        <v>0.224</v>
       </c>
       <c r="C24">
-        <v>0.051</v>
+        <v>-0.014</v>
       </c>
       <c r="D24">
-        <v>1.512</v>
+        <v>1.192</v>
       </c>
       <c r="E24">
-        <v>0.039</v>
+        <v>0.867</v>
       </c>
       <c r="F24">
-        <v>0.912</v>
+        <v>1.473</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5568,19 +5568,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.787</v>
+        <v>0.106</v>
       </c>
       <c r="C25">
-        <v>0.038</v>
+        <v>1.309</v>
       </c>
       <c r="D25">
-        <v>0.895</v>
+        <v>0.652</v>
       </c>
       <c r="E25">
-        <v>0.405</v>
+        <v>0.877</v>
       </c>
       <c r="F25">
-        <v>0.305</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5588,19 +5588,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.04</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="C26">
-        <v>0.502</v>
+        <v>1.097</v>
       </c>
       <c r="D26">
-        <v>1.166</v>
+        <v>1.698</v>
       </c>
       <c r="E26">
-        <v>0.637</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="F26">
-        <v>0.917</v>
+        <v>1.326</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5608,19 +5608,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.5639999999999999</v>
+        <v>0.677</v>
       </c>
       <c r="C27">
-        <v>1.264</v>
+        <v>1.218</v>
       </c>
       <c r="D27">
-        <v>0.778</v>
+        <v>0.539</v>
       </c>
       <c r="E27">
-        <v>0.187</v>
+        <v>0.965</v>
       </c>
       <c r="F27">
-        <v>1.001</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5628,19 +5628,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.8070000000000001</v>
+        <v>1.436</v>
       </c>
       <c r="C28">
-        <v>1.69</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="D28">
-        <v>0.108</v>
+        <v>0.024</v>
       </c>
       <c r="E28">
-        <v>0.613</v>
+        <v>0.033</v>
       </c>
       <c r="F28">
-        <v>0.171</v>
+        <v>1.564</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5648,19 +5648,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.784</v>
+        <v>0.286</v>
       </c>
       <c r="C29">
-        <v>-0.108</v>
+        <v>0.85</v>
       </c>
       <c r="D29">
-        <v>0.868</v>
+        <v>1.686</v>
       </c>
       <c r="E29">
-        <v>0.617</v>
+        <v>2.292</v>
       </c>
       <c r="F29">
-        <v>1.21</v>
+        <v>4.868</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5668,19 +5668,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.668</v>
+        <v>2.158</v>
       </c>
       <c r="C30">
-        <v>2.902</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="D30">
-        <v>0.492</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="E30">
-        <v>1.53</v>
+        <v>1.463</v>
       </c>
       <c r="F30">
-        <v>2.301</v>
+        <v>2.826</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5688,19 +5688,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.57</v>
+        <v>0.482</v>
       </c>
       <c r="C31">
-        <v>0.163</v>
+        <v>1.742</v>
       </c>
       <c r="D31">
-        <v>0.1</v>
+        <v>0.238</v>
       </c>
       <c r="E31">
-        <v>1.535</v>
+        <v>1.664</v>
       </c>
       <c r="F31">
-        <v>0.844</v>
+        <v>4.084</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5708,19 +5708,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.436</v>
+        <v>0.988</v>
       </c>
       <c r="C32">
-        <v>1.1</v>
+        <v>0.96</v>
       </c>
       <c r="D32">
-        <v>1.435</v>
+        <v>3.392</v>
       </c>
       <c r="E32">
-        <v>2.509</v>
+        <v>1.431</v>
       </c>
       <c r="F32">
-        <v>1.578</v>
+        <v>1.764</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5728,19 +5728,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.031</v>
+        <v>0.324</v>
       </c>
       <c r="C33">
-        <v>0.1</v>
+        <v>-0.035</v>
       </c>
       <c r="D33">
-        <v>1.682</v>
+        <v>2.305</v>
       </c>
       <c r="E33">
-        <v>0.13</v>
+        <v>2.183</v>
       </c>
       <c r="F33">
-        <v>2.036</v>
+        <v>3.594</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5748,19 +5748,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.89</v>
+        <v>0.152</v>
       </c>
       <c r="C34">
-        <v>0.075</v>
+        <v>2.621</v>
       </c>
       <c r="D34">
-        <v>0.996</v>
+        <v>1.26</v>
       </c>
       <c r="E34">
-        <v>1.098</v>
+        <v>2.188</v>
       </c>
       <c r="F34">
-        <v>0.6820000000000001</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5768,19 +5768,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.091</v>
+        <v>1.364</v>
       </c>
       <c r="C35">
-        <v>1.046</v>
+        <v>2.197</v>
       </c>
       <c r="D35">
-        <v>1.297</v>
+        <v>3.281</v>
       </c>
       <c r="E35">
-        <v>1.716</v>
+        <v>0.214</v>
       </c>
       <c r="F35">
-        <v>2.046</v>
+        <v>3.234</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5788,19 +5788,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.358</v>
+        <v>0.988</v>
       </c>
       <c r="C36">
-        <v>2.641</v>
+        <v>2.442</v>
       </c>
       <c r="D36">
-        <v>0.866</v>
+        <v>1.041</v>
       </c>
       <c r="E36">
-        <v>0.493</v>
+        <v>2.391</v>
       </c>
       <c r="F36">
-        <v>2.233</v>
+        <v>1.945</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5808,19 +5808,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.946</v>
+        <v>2.098</v>
       </c>
       <c r="C37">
-        <v>3.534</v>
+        <v>1.627</v>
       </c>
       <c r="D37">
-        <v>0.12</v>
+        <v>0.046</v>
       </c>
       <c r="E37">
-        <v>1.654</v>
+        <v>0.082</v>
       </c>
       <c r="F37">
-        <v>0.381</v>
+        <v>3.813</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5828,19 +5828,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.865</v>
+        <v>0.454</v>
       </c>
       <c r="C38">
-        <v>-0.246</v>
+        <v>1.776</v>
       </c>
       <c r="D38">
-        <v>1.015</v>
+        <v>3.517</v>
       </c>
       <c r="E38">
-        <v>1.616</v>
+        <v>5.427</v>
       </c>
       <c r="F38">
-        <v>2.723</v>
+        <v>12.129</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5848,19 +5848,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6.367</v>
+        <v>3.454</v>
       </c>
       <c r="C39">
-        <v>6.41</v>
+        <v>1.174</v>
       </c>
       <c r="D39">
-        <v>0.575</v>
+        <v>1.95</v>
       </c>
       <c r="E39">
-        <v>3.993</v>
+        <v>3.467</v>
       </c>
       <c r="F39">
-        <v>5.101</v>
+        <v>7.029</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5868,19 +5868,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6.134</v>
+        <v>0.769</v>
       </c>
       <c r="C40">
-        <v>0.355</v>
+        <v>3.649</v>
       </c>
       <c r="D40">
-        <v>0.117</v>
+        <v>0.496</v>
       </c>
       <c r="E40">
-        <v>4.005</v>
+        <v>3.94</v>
       </c>
       <c r="F40">
-        <v>1.871</v>
+        <v>10.145</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5888,19 +5888,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.037</v>
+        <v>1.581</v>
       </c>
       <c r="C41">
-        <v>2.428</v>
+        <v>2.01</v>
       </c>
       <c r="D41">
-        <v>1.678</v>
+        <v>7.073</v>
       </c>
       <c r="E41">
-        <v>6.537</v>
+        <v>3.384</v>
       </c>
       <c r="F41">
-        <v>3.49</v>
+        <v>4.381</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5908,19 +5908,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.07000000000000001</v>
+        <v>0.517</v>
       </c>
       <c r="C42">
-        <v>0.218</v>
+        <v>-0.077</v>
       </c>
       <c r="D42">
-        <v>1.967</v>
+        <v>4.807</v>
       </c>
       <c r="E42">
-        <v>0.347</v>
+        <v>5.169</v>
       </c>
       <c r="F42">
-        <v>4.501</v>
+        <v>8.923999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5928,19 +5928,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.513</v>
+        <v>0.242</v>
       </c>
       <c r="C43">
-        <v>0.163</v>
+        <v>5.495</v>
       </c>
       <c r="D43">
-        <v>1.164</v>
+        <v>2.628</v>
       </c>
       <c r="E43">
-        <v>2.862</v>
+        <v>5.173</v>
       </c>
       <c r="F43">
-        <v>1.508</v>
+        <v>2.384</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5948,19 +5948,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.216</v>
+        <v>2.185</v>
       </c>
       <c r="C44">
-        <v>2.311</v>
+        <v>4.607</v>
       </c>
       <c r="D44">
-        <v>1.516</v>
+        <v>6.842</v>
       </c>
       <c r="E44">
-        <v>4.468</v>
+        <v>0.505</v>
       </c>
       <c r="F44">
-        <v>4.523</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5968,19 +5968,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.243</v>
+        <v>1.583</v>
       </c>
       <c r="C45">
-        <v>5.838</v>
+        <v>5.121</v>
       </c>
       <c r="D45">
-        <v>1.012</v>
+        <v>2.171</v>
       </c>
       <c r="E45">
-        <v>1.28</v>
+        <v>5.646</v>
       </c>
       <c r="F45">
-        <v>4.936</v>
+        <v>4.829</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5988,19 +5988,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.65</v>
+        <v>3.362</v>
       </c>
       <c r="C46">
-        <v>7.813</v>
+        <v>3.413</v>
       </c>
       <c r="D46">
-        <v>0.14</v>
+        <v>0.096</v>
       </c>
       <c r="E46">
-        <v>4.308</v>
+        <v>0.194</v>
       </c>
       <c r="F46">
-        <v>0.842</v>
+        <v>9.467000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6008,19 +6008,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.743</v>
+        <v>0.665</v>
       </c>
       <c r="C47">
-        <v>-0.42</v>
+        <v>3.504</v>
       </c>
       <c r="D47">
-        <v>4.112</v>
+        <v>4.546</v>
       </c>
       <c r="E47">
-        <v>1.642</v>
+        <v>14.295</v>
       </c>
       <c r="F47">
-        <v>3.516</v>
+        <v>18.146</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6028,19 +6028,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>16.205</v>
+        <v>5.072</v>
       </c>
       <c r="C48">
-        <v>10.895</v>
+        <v>2.316</v>
       </c>
       <c r="D48">
-        <v>2.328</v>
+        <v>2.52</v>
       </c>
       <c r="E48">
-        <v>4.058</v>
+        <v>9.132999999999999</v>
       </c>
       <c r="F48">
-        <v>6.578</v>
+        <v>10.515</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6048,19 +6048,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>15.613</v>
+        <v>1.128</v>
       </c>
       <c r="C49">
-        <v>0.602</v>
+        <v>7.203</v>
       </c>
       <c r="D49">
-        <v>0.474</v>
+        <v>0.641</v>
       </c>
       <c r="E49">
-        <v>4.07</v>
+        <v>10.378</v>
       </c>
       <c r="F49">
-        <v>2.413</v>
+        <v>15.174</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6068,19 +6068,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.637</v>
+        <v>2.321</v>
       </c>
       <c r="C50">
-        <v>4.126</v>
+        <v>3.967</v>
       </c>
       <c r="D50">
-        <v>6.792</v>
+        <v>9.141999999999999</v>
       </c>
       <c r="E50">
-        <v>6.644</v>
+        <v>8.911</v>
       </c>
       <c r="F50">
-        <v>4.5</v>
+        <v>6.553</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6088,19 +6088,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.176</v>
+        <v>0.759</v>
       </c>
       <c r="C51">
-        <v>0.37</v>
+        <v>-0.153</v>
       </c>
       <c r="D51">
-        <v>7.966</v>
+        <v>6.213</v>
       </c>
       <c r="E51">
-        <v>0.353</v>
+        <v>13.615</v>
       </c>
       <c r="F51">
-        <v>5.803</v>
+        <v>13.347</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6108,19 +6108,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>11.487</v>
+        <v>0.355</v>
       </c>
       <c r="C52">
-        <v>0.276</v>
+        <v>10.85</v>
       </c>
       <c r="D52">
-        <v>4.714</v>
+        <v>3.397</v>
       </c>
       <c r="E52">
-        <v>2.909</v>
+        <v>13.622</v>
       </c>
       <c r="F52">
-        <v>1.944</v>
+        <v>3.566</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6128,19 +6128,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.549</v>
+        <v>3.209</v>
       </c>
       <c r="C53">
-        <v>3.928</v>
+        <v>9.096</v>
       </c>
       <c r="D53">
-        <v>6.139</v>
+        <v>8.843</v>
       </c>
       <c r="E53">
-        <v>4.541</v>
+        <v>1.329</v>
       </c>
       <c r="F53">
-        <v>5.832</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6148,19 +6148,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>8.255000000000001</v>
+        <v>2.325</v>
       </c>
       <c r="C54">
-        <v>9.923999999999999</v>
+        <v>10.112</v>
       </c>
       <c r="D54">
-        <v>4.098</v>
+        <v>2.806</v>
       </c>
       <c r="E54">
-        <v>1.301</v>
+        <v>14.864</v>
       </c>
       <c r="F54">
-        <v>6.364</v>
+        <v>7.223</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6168,19 +6168,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>11.838</v>
+        <v>4.938</v>
       </c>
       <c r="C55">
-        <v>13.282</v>
+        <v>6.739</v>
       </c>
       <c r="D55">
-        <v>0.5679999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="E55">
-        <v>4.378</v>
+        <v>0.511</v>
       </c>
       <c r="F55">
-        <v>1.086</v>
+        <v>14.159</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6188,19 +6188,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>10.217</v>
+        <v>1.011</v>
       </c>
       <c r="C56">
-        <v>-0.959</v>
+        <v>7.05</v>
       </c>
       <c r="D56">
-        <v>10.092</v>
+        <v>6.289</v>
       </c>
       <c r="E56">
-        <v>5.494</v>
+        <v>36.471</v>
       </c>
       <c r="F56">
-        <v>6.906</v>
+        <v>29.553</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6208,19 +6208,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>34.865</v>
+        <v>7.72</v>
       </c>
       <c r="C57">
-        <v>19.781</v>
+        <v>4.66</v>
       </c>
       <c r="D57">
-        <v>5.317</v>
+        <v>3.486</v>
       </c>
       <c r="E57">
-        <v>14.03</v>
+        <v>23.302</v>
       </c>
       <c r="F57">
-        <v>12.948</v>
+        <v>17.124</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6228,19 +6228,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>34.442</v>
+        <v>1.716</v>
       </c>
       <c r="C58">
-        <v>0.793</v>
+        <v>14.495</v>
       </c>
       <c r="D58">
-        <v>1.221</v>
+        <v>0.887</v>
       </c>
       <c r="E58">
-        <v>14.475</v>
+        <v>26.478</v>
       </c>
       <c r="F58">
-        <v>5.256</v>
+        <v>24.709</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6248,19 +6248,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.238</v>
+        <v>3.532</v>
       </c>
       <c r="C59">
-        <v>7.463</v>
+        <v>7.983</v>
       </c>
       <c r="D59">
-        <v>14.993</v>
+        <v>12.646</v>
       </c>
       <c r="E59">
-        <v>21.861</v>
+        <v>22.734</v>
       </c>
       <c r="F59">
-        <v>8.773</v>
+        <v>10.671</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6268,19 +6268,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.068</v>
+        <v>1.155</v>
       </c>
       <c r="C60">
-        <v>0.42</v>
+        <v>-0.309</v>
       </c>
       <c r="D60">
-        <v>17.591</v>
+        <v>8.595000000000001</v>
       </c>
       <c r="E60">
-        <v>0.101</v>
+        <v>34.737</v>
       </c>
       <c r="F60">
-        <v>11.025</v>
+        <v>21.734</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6288,19 +6288,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>25.519</v>
+        <v>0.54</v>
       </c>
       <c r="C61">
-        <v>0.324</v>
+        <v>21.836</v>
       </c>
       <c r="D61">
-        <v>10.288</v>
+        <v>4.699</v>
       </c>
       <c r="E61">
-        <v>8.951000000000001</v>
+        <v>34.753</v>
       </c>
       <c r="F61">
-        <v>3.907</v>
+        <v>5.807</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6308,19 +6308,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.979</v>
+        <v>4.885</v>
       </c>
       <c r="C62">
-        <v>7.05</v>
+        <v>18.306</v>
       </c>
       <c r="D62">
-        <v>13.529</v>
+        <v>12.233</v>
       </c>
       <c r="E62">
-        <v>16.848</v>
+        <v>3.39</v>
       </c>
       <c r="F62">
-        <v>11.513</v>
+        <v>19.557</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6328,19 +6328,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>17.965</v>
+        <v>3.539</v>
       </c>
       <c r="C63">
-        <v>17.615</v>
+        <v>20.351</v>
       </c>
       <c r="D63">
-        <v>9.113</v>
+        <v>3.882</v>
       </c>
       <c r="E63">
-        <v>3.989</v>
+        <v>37.92</v>
       </c>
       <c r="F63">
-        <v>12.887</v>
+        <v>11.762</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6348,19 +6348,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>26.178</v>
+        <v>7.517</v>
       </c>
       <c r="C64">
-        <v>24.518</v>
+        <v>13.563</v>
       </c>
       <c r="D64">
-        <v>1.108</v>
+        <v>0.172</v>
       </c>
       <c r="E64">
-        <v>16.366</v>
+        <v>1.303</v>
       </c>
       <c r="F64">
-        <v>2.005</v>
+        <v>23.057</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6368,19 +6368,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>15.242</v>
+        <v>2.649</v>
       </c>
       <c r="C65">
-        <v>-1.767</v>
+        <v>19.392</v>
       </c>
       <c r="D65">
-        <v>25.567</v>
+        <v>8.932</v>
       </c>
       <c r="E65">
-        <v>12.704</v>
+        <v>67.64100000000001</v>
       </c>
       <c r="F65">
-        <v>17.454</v>
+        <v>96.56100000000001</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6388,19 +6388,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>50.966</v>
+        <v>20.24</v>
       </c>
       <c r="C66">
-        <v>38.973</v>
+        <v>12.817</v>
       </c>
       <c r="D66">
-        <v>12.867</v>
+        <v>4.951</v>
       </c>
       <c r="E66">
-        <v>32.707</v>
+        <v>43.217</v>
       </c>
       <c r="F66">
-        <v>31.846</v>
+        <v>55.948</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6408,19 +6408,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>50.839</v>
+        <v>4.498</v>
       </c>
       <c r="C67">
-        <v>1.877</v>
+        <v>39.872</v>
       </c>
       <c r="D67">
-        <v>2.452</v>
+        <v>1.26</v>
       </c>
       <c r="E67">
-        <v>33.592</v>
+        <v>49.108</v>
       </c>
       <c r="F67">
-        <v>13.531</v>
+        <v>80.729</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6428,19 +6428,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7.289</v>
+        <v>9.26</v>
       </c>
       <c r="C68">
-        <v>14.64</v>
+        <v>21.959</v>
       </c>
       <c r="D68">
-        <v>37.882</v>
+        <v>17.961</v>
       </c>
       <c r="E68">
-        <v>51.657</v>
+        <v>42.164</v>
       </c>
       <c r="F68">
-        <v>21.258</v>
+        <v>34.863</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6448,19 +6448,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.233</v>
+        <v>3.027</v>
       </c>
       <c r="C69">
-        <v>0.971</v>
+        <v>-0.85</v>
       </c>
       <c r="D69">
-        <v>44.003</v>
+        <v>12.207</v>
       </c>
       <c r="E69">
-        <v>-0.352</v>
+        <v>64.425</v>
       </c>
       <c r="F69">
-        <v>27.538</v>
+        <v>71.008</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6468,19 +6468,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>37.213</v>
+        <v>1.415</v>
       </c>
       <c r="C70">
-        <v>0.044</v>
+        <v>60.066</v>
       </c>
       <c r="D70">
-        <v>24.733</v>
+        <v>6.674</v>
       </c>
       <c r="E70">
-        <v>20.55</v>
+        <v>64.455</v>
       </c>
       <c r="F70">
-        <v>10.036</v>
+        <v>18.972</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6488,19 +6488,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.388</v>
+        <v>12.808</v>
       </c>
       <c r="C71">
-        <v>13.71</v>
+        <v>50.356</v>
       </c>
       <c r="D71">
-        <v>34.358</v>
+        <v>17.374</v>
       </c>
       <c r="E71">
-        <v>39.236</v>
+        <v>6.287</v>
       </c>
       <c r="F71">
-        <v>28.643</v>
+        <v>63.895</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6508,19 +6508,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>26.639</v>
+        <v>9.279</v>
       </c>
       <c r="C72">
-        <v>34.482</v>
+        <v>55.981</v>
       </c>
       <c r="D72">
-        <v>21.788</v>
+        <v>5.513</v>
       </c>
       <c r="E72">
-        <v>9.212</v>
+        <v>70.328</v>
       </c>
       <c r="F72">
-        <v>32.899</v>
+        <v>38.427</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6528,19 +6528,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>38.344</v>
+        <v>19.71</v>
       </c>
       <c r="C73">
-        <v>47.519</v>
+        <v>37.309</v>
       </c>
       <c r="D73">
-        <v>3.149</v>
+        <v>0.244</v>
       </c>
       <c r="E73">
-        <v>39.295</v>
+        <v>2.417</v>
       </c>
       <c r="F73">
-        <v>5.227</v>
+        <v>75.33</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6548,19 +6548,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>40.965</v>
+        <v>5.884</v>
       </c>
       <c r="C74">
-        <v>-2.993</v>
+        <v>48.973</v>
       </c>
       <c r="D74">
-        <v>52.749</v>
+        <v>12.933</v>
       </c>
       <c r="E74">
-        <v>30.542</v>
+        <v>133.782</v>
       </c>
       <c r="F74">
-        <v>33.78</v>
+        <v>258.778</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6568,19 +6568,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>135.668</v>
+        <v>44.965</v>
       </c>
       <c r="C75">
-        <v>65.768</v>
+        <v>32.369</v>
       </c>
       <c r="D75">
-        <v>25.923</v>
+        <v>7.169</v>
       </c>
       <c r="E75">
-        <v>81.053</v>
+        <v>85.476</v>
       </c>
       <c r="F75">
-        <v>60.88</v>
+        <v>149.936</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6588,19 +6588,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>135.683</v>
+        <v>9.993</v>
       </c>
       <c r="C76">
-        <v>2.969</v>
+        <v>100.696</v>
       </c>
       <c r="D76">
-        <v>4.504</v>
+        <v>1.824</v>
       </c>
       <c r="E76">
-        <v>82.642</v>
+        <v>97.126</v>
       </c>
       <c r="F76">
-        <v>25.492</v>
+        <v>216.347</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6608,19 +6608,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>17.961</v>
+        <v>20.572</v>
       </c>
       <c r="C77">
-        <v>24.856</v>
+        <v>55.457</v>
       </c>
       <c r="D77">
-        <v>79.17700000000001</v>
+        <v>26.006</v>
       </c>
       <c r="E77">
-        <v>126.972</v>
+        <v>83.393</v>
       </c>
       <c r="F77">
-        <v>40.446</v>
+        <v>93.43000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6628,19 +6628,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.239</v>
+        <v>6.724</v>
       </c>
       <c r="C78">
-        <v>1.358</v>
+        <v>-2.147</v>
       </c>
       <c r="D78">
-        <v>90.925</v>
+        <v>17.675</v>
       </c>
       <c r="E78">
-        <v>-0.593</v>
+        <v>127.421</v>
       </c>
       <c r="F78">
-        <v>52.811</v>
+        <v>190.296</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6648,19 +6648,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>98.997</v>
+        <v>3.143</v>
       </c>
       <c r="C79">
-        <v>-0.089</v>
+        <v>151.694</v>
       </c>
       <c r="D79">
-        <v>50.899</v>
+        <v>9.663</v>
       </c>
       <c r="E79">
-        <v>50.195</v>
+        <v>127.48</v>
       </c>
       <c r="F79">
-        <v>18.625</v>
+        <v>50.843</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6668,19 +6668,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3.322</v>
+        <v>28.454</v>
       </c>
       <c r="C80">
-        <v>22.945</v>
+        <v>127.173</v>
       </c>
       <c r="D80">
-        <v>71.845</v>
+        <v>25.156</v>
       </c>
       <c r="E80">
-        <v>96.879</v>
+        <v>12.435</v>
       </c>
       <c r="F80">
-        <v>54.223</v>
+        <v>171.234</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6688,19 +6688,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>71.166</v>
+        <v>20.614</v>
       </c>
       <c r="C81">
-        <v>57.883</v>
+        <v>141.378</v>
       </c>
       <c r="D81">
-        <v>44.094</v>
+        <v>7.982</v>
       </c>
       <c r="E81">
-        <v>23.266</v>
+        <v>139.096</v>
       </c>
       <c r="F81">
-        <v>62.315</v>
+        <v>102.981</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6708,19 +6708,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>102.65</v>
+        <v>43.788</v>
       </c>
       <c r="C82">
-        <v>79.702</v>
+        <v>94.223</v>
       </c>
       <c r="D82">
-        <v>7.127</v>
+        <v>0.353</v>
       </c>
       <c r="E82">
-        <v>96.78400000000001</v>
+        <v>4.78</v>
       </c>
       <c r="F82">
-        <v>10.334</v>
+        <v>201.878</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6728,19 +6728,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>79.21299999999999</v>
+        <v>12.442</v>
       </c>
       <c r="C83">
-        <v>-7.527</v>
+        <v>84.504</v>
       </c>
       <c r="D83">
-        <v>75.941</v>
+        <v>36.995</v>
       </c>
       <c r="E83">
-        <v>42.344</v>
+        <v>253.385</v>
       </c>
       <c r="F83">
-        <v>35.279</v>
+        <v>363.756</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6748,19 +6748,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>262.387</v>
+        <v>95.084</v>
       </c>
       <c r="C84">
-        <v>178.601</v>
+        <v>55.853</v>
       </c>
       <c r="D84">
-        <v>37.257</v>
+        <v>20.507</v>
       </c>
       <c r="E84">
-        <v>113.413</v>
+        <v>161.893</v>
       </c>
       <c r="F84">
-        <v>63.547</v>
+        <v>210.76</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6768,19 +6768,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>262.662</v>
+        <v>21.131</v>
       </c>
       <c r="C85">
-        <v>8.403</v>
+        <v>173.753</v>
       </c>
       <c r="D85">
-        <v>6.278</v>
+        <v>5.218</v>
       </c>
       <c r="E85">
-        <v>115.29</v>
+        <v>183.958</v>
       </c>
       <c r="F85">
-        <v>26.616</v>
+        <v>304.112</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6788,19 +6788,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>34.059</v>
+        <v>43.502</v>
       </c>
       <c r="C86">
-        <v>68.40600000000001</v>
+        <v>95.69199999999999</v>
       </c>
       <c r="D86">
-        <v>114.058</v>
+        <v>74.392</v>
       </c>
       <c r="E86">
-        <v>177.551</v>
+        <v>157.948</v>
       </c>
       <c r="F86">
-        <v>42.211</v>
+        <v>131.332</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6808,19 +6808,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2.607</v>
+        <v>14.218</v>
       </c>
       <c r="C87">
-        <v>3.166</v>
+        <v>-3.705</v>
       </c>
       <c r="D87">
-        <v>130.635</v>
+        <v>50.561</v>
       </c>
       <c r="E87">
-        <v>-0.669</v>
+        <v>241.337</v>
       </c>
       <c r="F87">
-        <v>55.147</v>
+        <v>267.493</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6828,19 +6828,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>191.089</v>
+        <v>6.646</v>
       </c>
       <c r="C88">
-        <v>-0.796</v>
+        <v>261.752</v>
       </c>
       <c r="D88">
-        <v>73.10599999999999</v>
+        <v>27.642</v>
       </c>
       <c r="E88">
-        <v>70.318</v>
+        <v>241.449</v>
       </c>
       <c r="F88">
-        <v>19.444</v>
+        <v>71.468</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6848,19 +6848,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6.759</v>
+        <v>60.17</v>
       </c>
       <c r="C89">
-        <v>61.477</v>
+        <v>219.44</v>
       </c>
       <c r="D89">
-        <v>103.549</v>
+        <v>71.961</v>
       </c>
       <c r="E89">
-        <v>135.384</v>
+        <v>23.552</v>
       </c>
       <c r="F89">
-        <v>56.597</v>
+        <v>240.698</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6868,19 +6868,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>137.543</v>
+        <v>43.591</v>
       </c>
       <c r="C90">
-        <v>156.808</v>
+        <v>243.951</v>
       </c>
       <c r="D90">
-        <v>63.076</v>
+        <v>22.834</v>
       </c>
       <c r="E90">
-        <v>32.816</v>
+        <v>263.45</v>
       </c>
       <c r="F90">
-        <v>65.03100000000001</v>
+        <v>144.757</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6888,19 +6888,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>199.106</v>
+        <v>92.596</v>
       </c>
       <c r="C91">
-        <v>216.228</v>
+        <v>162.584</v>
       </c>
       <c r="D91">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="E91">
-        <v>135.084</v>
+        <v>9.053000000000001</v>
       </c>
       <c r="F91">
-        <v>10.787</v>
+        <v>283.773</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6908,19 +6908,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>189.627</v>
+        <v>26.254</v>
       </c>
       <c r="C92">
-        <v>-11.338</v>
+        <v>156.541</v>
       </c>
       <c r="D92">
-        <v>115.454</v>
+        <v>83.735</v>
       </c>
       <c r="E92">
-        <v>101.086</v>
+        <v>488.785</v>
       </c>
       <c r="F92">
-        <v>69.45399999999999</v>
+        <v>558.9450000000001</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6928,19 +6928,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>626.296</v>
+        <v>200.637</v>
       </c>
       <c r="C93">
-        <v>276.169</v>
+        <v>103.466</v>
       </c>
       <c r="D93">
-        <v>56.389</v>
+        <v>46.416</v>
       </c>
       <c r="E93">
-        <v>271.952</v>
+        <v>312.295</v>
       </c>
       <c r="F93">
-        <v>124.73</v>
+        <v>323.853</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6948,19 +6948,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>626.755</v>
+        <v>44.589</v>
       </c>
       <c r="C94">
-        <v>12.857</v>
+        <v>321.872</v>
       </c>
       <c r="D94">
-        <v>9.509</v>
+        <v>11.81</v>
       </c>
       <c r="E94">
-        <v>275.732</v>
+        <v>354.859</v>
       </c>
       <c r="F94">
-        <v>52.238</v>
+        <v>467.297</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6968,19 +6968,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>80.895</v>
+        <v>91.794</v>
       </c>
       <c r="C95">
-        <v>105.822</v>
+        <v>177.266</v>
       </c>
       <c r="D95">
-        <v>173.408</v>
+        <v>168.38</v>
       </c>
       <c r="E95">
-        <v>425.079</v>
+        <v>304.685</v>
       </c>
       <c r="F95">
-        <v>83.169</v>
+        <v>201.804</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6988,19 +6988,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6.628</v>
+        <v>30.002</v>
       </c>
       <c r="C96">
-        <v>4.776</v>
+        <v>-6.863</v>
       </c>
       <c r="D96">
-        <v>198.046</v>
+        <v>114.441</v>
       </c>
       <c r="E96">
-        <v>-1.909</v>
+        <v>465.544</v>
       </c>
       <c r="F96">
-        <v>109.01</v>
+        <v>411.028</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -7008,19 +7008,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>455.633</v>
+        <v>14.024</v>
       </c>
       <c r="C97">
-        <v>-1.316</v>
+        <v>484.886</v>
       </c>
       <c r="D97">
-        <v>111.004</v>
+        <v>62.565</v>
       </c>
       <c r="E97">
-        <v>169.335</v>
+        <v>465.76</v>
       </c>
       <c r="F97">
-        <v>37.972</v>
+        <v>109.817</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -7028,19 +7028,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>16.773</v>
+        <v>126.965</v>
       </c>
       <c r="C98">
-        <v>94.866</v>
+        <v>406.505</v>
       </c>
       <c r="D98">
-        <v>157.42</v>
+        <v>162.878</v>
       </c>
       <c r="E98">
-        <v>324.908</v>
+        <v>45.432</v>
       </c>
       <c r="F98">
-        <v>111.442</v>
+        <v>369.855</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7048,19 +7048,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>328.839</v>
+        <v>91.982</v>
       </c>
       <c r="C99">
-        <v>242.34</v>
+        <v>451.911</v>
       </c>
       <c r="D99">
-        <v>95.58</v>
+        <v>51.683</v>
       </c>
       <c r="E99">
-        <v>78.627</v>
+        <v>508.2</v>
       </c>
       <c r="F99">
-        <v>127.532</v>
+        <v>222.433</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7068,19 +7068,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>475.912</v>
+        <v>195.387</v>
       </c>
       <c r="C100">
-        <v>334.597</v>
+        <v>301.181</v>
       </c>
       <c r="D100">
-        <v>16.15</v>
+        <v>2.286</v>
       </c>
       <c r="E100">
-        <v>323.139</v>
+        <v>17.464</v>
       </c>
       <c r="F100">
-        <v>20.964</v>
+        <v>436.044</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7088,19 +7088,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>251.299</v>
+        <v>34.795</v>
       </c>
       <c r="C101">
-        <v>-16.208</v>
+        <v>185.637</v>
       </c>
       <c r="D101">
-        <v>299.47</v>
+        <v>109.492</v>
       </c>
       <c r="E101">
-        <v>259.413</v>
+        <v>715.663</v>
       </c>
       <c r="F101">
-        <v>194.572</v>
+        <v>791.803</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -7108,19 +7108,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>829.85</v>
+        <v>265.906</v>
       </c>
       <c r="C102">
-        <v>394.249</v>
+        <v>122.697</v>
       </c>
       <c r="D102">
-        <v>146.241</v>
+        <v>60.694</v>
       </c>
       <c r="E102">
-        <v>697.283</v>
+        <v>457.252</v>
       </c>
       <c r="F102">
-        <v>347.836</v>
+        <v>458.771</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7128,19 +7128,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>830.609</v>
+        <v>59.094</v>
       </c>
       <c r="C103">
-        <v>18.363</v>
+        <v>381.699</v>
       </c>
       <c r="D103">
-        <v>24.912</v>
+        <v>15.443</v>
       </c>
       <c r="E103">
-        <v>707.023</v>
+        <v>519.573</v>
       </c>
       <c r="F103">
-        <v>146.045</v>
+        <v>661.974</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -7148,19 +7148,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>107.209</v>
+        <v>121.655</v>
       </c>
       <c r="C104">
-        <v>150.99</v>
+        <v>210.215</v>
       </c>
       <c r="D104">
-        <v>449.14</v>
+        <v>220.175</v>
       </c>
       <c r="E104">
-        <v>1088.77</v>
+        <v>446.109</v>
       </c>
       <c r="F104">
-        <v>231.931</v>
+        <v>285.876</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -7168,19 +7168,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>8.942</v>
+        <v>39.762</v>
       </c>
       <c r="C105">
-        <v>6.804</v>
+        <v>-8.138999999999999</v>
       </c>
       <c r="D105">
-        <v>512.289</v>
+        <v>149.643</v>
       </c>
       <c r="E105">
-        <v>-4.787</v>
+        <v>681.634</v>
       </c>
       <c r="F105">
-        <v>304.479</v>
+        <v>582.263</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -7188,19 +7188,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>603.825</v>
+        <v>18.586</v>
       </c>
       <c r="C106">
-        <v>-1.778</v>
+        <v>575.0119999999999</v>
       </c>
       <c r="D106">
-        <v>287.566</v>
+        <v>81.81</v>
       </c>
       <c r="E106">
-        <v>434.358</v>
+        <v>681.95</v>
       </c>
       <c r="F106">
-        <v>105.861</v>
+        <v>155.567</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -7208,19 +7208,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>22.3</v>
+        <v>168.268</v>
       </c>
       <c r="C107">
-        <v>135.533</v>
+        <v>482.062</v>
       </c>
       <c r="D107">
-        <v>407.738</v>
+        <v>212.98</v>
       </c>
       <c r="E107">
-        <v>832.712</v>
+        <v>66.52</v>
       </c>
       <c r="F107">
-        <v>310.64</v>
+        <v>523.937</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -7228,19 +7228,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>435.62</v>
+        <v>121.904</v>
       </c>
       <c r="C108">
-        <v>345.952</v>
+        <v>535.908</v>
       </c>
       <c r="D108">
-        <v>247.422</v>
+        <v>67.581</v>
       </c>
       <c r="E108">
-        <v>201.105</v>
+        <v>744.09</v>
       </c>
       <c r="F108">
-        <v>355.367</v>
+        <v>315.099</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -7248,19 +7248,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>630.745</v>
+        <v>258.948</v>
       </c>
       <c r="C109">
-        <v>477.667</v>
+        <v>357.162</v>
       </c>
       <c r="D109">
-        <v>42.698</v>
+        <v>2.989</v>
       </c>
       <c r="E109">
-        <v>827.345</v>
+        <v>25.57</v>
       </c>
       <c r="F109">
-        <v>57.685</v>
+        <v>617.701</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -7268,19 +7268,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>383.62</v>
+        <v>49.286</v>
       </c>
       <c r="C110">
-        <v>-52.73</v>
+        <v>231.441</v>
       </c>
       <c r="D110">
-        <v>620.742</v>
+        <v>152.877</v>
       </c>
       <c r="E110">
-        <v>543.705</v>
+        <v>1104.281</v>
       </c>
       <c r="F110">
-        <v>288.587</v>
+        <v>1161.643</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -7288,19 +7288,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1266.345</v>
+        <v>376.645</v>
       </c>
       <c r="C111">
-        <v>1301.007</v>
+        <v>152.971</v>
       </c>
       <c r="D111">
-        <v>303.177</v>
+        <v>84.744</v>
       </c>
       <c r="E111">
-        <v>1462.09</v>
+        <v>705.548</v>
       </c>
       <c r="F111">
-        <v>515.575</v>
+        <v>673.056</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -7308,19 +7308,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1267.88</v>
+        <v>83.70399999999999</v>
       </c>
       <c r="C112">
-        <v>61.064</v>
+        <v>475.878</v>
       </c>
       <c r="D112">
-        <v>51.723</v>
+        <v>21.562</v>
       </c>
       <c r="E112">
-        <v>1482.482</v>
+        <v>801.71</v>
       </c>
       <c r="F112">
-        <v>216.617</v>
+        <v>971.172</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -7328,19 +7328,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>163.45</v>
+        <v>172.319</v>
       </c>
       <c r="C113">
-        <v>498.45</v>
+        <v>262.083</v>
       </c>
       <c r="D113">
-        <v>930.86</v>
+        <v>307.418</v>
       </c>
       <c r="E113">
-        <v>2282.788</v>
+        <v>688.354</v>
       </c>
       <c r="F113">
-        <v>343.734</v>
+        <v>419.404</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -7348,19 +7348,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>13.611</v>
+        <v>56.321</v>
       </c>
       <c r="C114">
-        <v>23.292</v>
+        <v>-10.147</v>
       </c>
       <c r="D114">
-        <v>1061.063</v>
+        <v>208.938</v>
       </c>
       <c r="E114">
-        <v>-10.248</v>
+        <v>1051.773</v>
       </c>
       <c r="F114">
-        <v>451.024</v>
+        <v>854.23</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -7368,19 +7368,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>921.545</v>
+        <v>26.326</v>
       </c>
       <c r="C115">
-        <v>-6.146</v>
+        <v>716.889</v>
       </c>
       <c r="D115">
-        <v>595.59</v>
+        <v>114.227</v>
       </c>
       <c r="E115">
-        <v>910.966</v>
+        <v>1052.261</v>
       </c>
       <c r="F115">
-        <v>156.815</v>
+        <v>228.23</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7388,19 +7388,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>34.284</v>
+        <v>238.344</v>
       </c>
       <c r="C116">
-        <v>448.044</v>
+        <v>601.005</v>
       </c>
       <c r="D116">
-        <v>844.429</v>
+        <v>297.372</v>
       </c>
       <c r="E116">
-        <v>1746.099</v>
+        <v>102.642</v>
       </c>
       <c r="F116">
-        <v>460.028</v>
+        <v>768.6609999999999</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -7408,19 +7408,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>664.941</v>
+        <v>172.672</v>
       </c>
       <c r="C117">
-        <v>1140.444</v>
+        <v>668.1369999999999</v>
       </c>
       <c r="D117">
-        <v>512.248</v>
+        <v>94.35899999999999</v>
       </c>
       <c r="E117">
-        <v>421.341</v>
+        <v>1148.144</v>
       </c>
       <c r="F117">
-        <v>526.354</v>
+        <v>462.277</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -7428,19 +7428,1459 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>962.832</v>
+        <v>366.789</v>
       </c>
       <c r="C118">
-        <v>1574.745</v>
+        <v>445.287</v>
       </c>
       <c r="D118">
-        <v>89.02500000000001</v>
+        <v>4.173</v>
       </c>
       <c r="E118">
-        <v>1735.446</v>
+        <v>39.455</v>
       </c>
       <c r="F118">
-        <v>85.113</v>
+        <v>906.22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>110.804</v>
+      </c>
+      <c r="C119">
+        <v>455.773</v>
+      </c>
+      <c r="D119">
+        <v>305.768</v>
+      </c>
+      <c r="E119">
+        <v>1366.897</v>
+      </c>
+      <c r="F119">
+        <v>3269.988</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>846.771</v>
+      </c>
+      <c r="C120">
+        <v>301.244</v>
+      </c>
+      <c r="D120">
+        <v>169.495</v>
+      </c>
+      <c r="E120">
+        <v>873.3390000000001</v>
+      </c>
+      <c r="F120">
+        <v>1894.632</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>188.183</v>
+      </c>
+      <c r="C121">
+        <v>937.14</v>
+      </c>
+      <c r="D121">
+        <v>43.126</v>
+      </c>
+      <c r="E121">
+        <v>992.37</v>
+      </c>
+      <c r="F121">
+        <v>2733.819</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>387.407</v>
+      </c>
+      <c r="C122">
+        <v>516.116</v>
+      </c>
+      <c r="D122">
+        <v>614.864</v>
+      </c>
+      <c r="E122">
+        <v>852.056</v>
+      </c>
+      <c r="F122">
+        <v>1180.61</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>126.621</v>
+      </c>
+      <c r="C123">
+        <v>-19.982</v>
+      </c>
+      <c r="D123">
+        <v>417.895</v>
+      </c>
+      <c r="E123">
+        <v>1301.902</v>
+      </c>
+      <c r="F123">
+        <v>2404.631</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>59.186</v>
+      </c>
+      <c r="C124">
+        <v>1411.76</v>
+      </c>
+      <c r="D124">
+        <v>228.464</v>
+      </c>
+      <c r="E124">
+        <v>1302.506</v>
+      </c>
+      <c r="F124">
+        <v>642.461</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>535.8440000000001</v>
+      </c>
+      <c r="C125">
+        <v>1183.551</v>
+      </c>
+      <c r="D125">
+        <v>594.771</v>
+      </c>
+      <c r="E125">
+        <v>127.052</v>
+      </c>
+      <c r="F125">
+        <v>2163.756</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>388.2</v>
+      </c>
+      <c r="C126">
+        <v>1315.753</v>
+      </c>
+      <c r="D126">
+        <v>188.727</v>
+      </c>
+      <c r="E126">
+        <v>1421.191</v>
+      </c>
+      <c r="F126">
+        <v>1301.296</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>824.6130000000001</v>
+      </c>
+      <c r="C127">
+        <v>876.897</v>
+      </c>
+      <c r="D127">
+        <v>8.347</v>
+      </c>
+      <c r="E127">
+        <v>48.838</v>
+      </c>
+      <c r="F127">
+        <v>2550.981</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>223.181</v>
+      </c>
+      <c r="C128">
+        <v>818.205</v>
+      </c>
+      <c r="D128">
+        <v>569.347</v>
+      </c>
+      <c r="E128">
+        <v>1756.634</v>
+      </c>
+      <c r="F128">
+        <v>7467.856</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>1705.565</v>
+      </c>
+      <c r="C129">
+        <v>540.794</v>
+      </c>
+      <c r="D129">
+        <v>315.604</v>
+      </c>
+      <c r="E129">
+        <v>1122.35</v>
+      </c>
+      <c r="F129">
+        <v>4326.878</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>379.038</v>
+      </c>
+      <c r="C130">
+        <v>1682.355</v>
+      </c>
+      <c r="D130">
+        <v>80.30200000000001</v>
+      </c>
+      <c r="E130">
+        <v>1275.32</v>
+      </c>
+      <c r="F130">
+        <v>6243.376</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>780.3150000000001</v>
+      </c>
+      <c r="C131">
+        <v>926.532</v>
+      </c>
+      <c r="D131">
+        <v>1144.891</v>
+      </c>
+      <c r="E131">
+        <v>1094.999</v>
+      </c>
+      <c r="F131">
+        <v>2696.225</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>255.04</v>
+      </c>
+      <c r="C132">
+        <v>-35.872</v>
+      </c>
+      <c r="D132">
+        <v>778.13</v>
+      </c>
+      <c r="E132">
+        <v>1673.108</v>
+      </c>
+      <c r="F132">
+        <v>5491.591</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>119.213</v>
+      </c>
+      <c r="C133">
+        <v>2534.394</v>
+      </c>
+      <c r="D133">
+        <v>425.405</v>
+      </c>
+      <c r="E133">
+        <v>1673.884</v>
+      </c>
+      <c r="F133">
+        <v>1467.225</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>1079.296</v>
+      </c>
+      <c r="C134">
+        <v>2124.713</v>
+      </c>
+      <c r="D134">
+        <v>1107.477</v>
+      </c>
+      <c r="E134">
+        <v>163.278</v>
+      </c>
+      <c r="F134">
+        <v>4941.492</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>781.912</v>
+      </c>
+      <c r="C135">
+        <v>2362.042</v>
+      </c>
+      <c r="D135">
+        <v>351.414</v>
+      </c>
+      <c r="E135">
+        <v>1826.409</v>
+      </c>
+      <c r="F135">
+        <v>2971.843</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>1660.934</v>
+      </c>
+      <c r="C136">
+        <v>1574.207</v>
+      </c>
+      <c r="D136">
+        <v>15.542</v>
+      </c>
+      <c r="E136">
+        <v>62.763</v>
+      </c>
+      <c r="F136">
+        <v>5825.819</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>317.251</v>
+      </c>
+      <c r="C137">
+        <v>2419.612</v>
+      </c>
+      <c r="D137">
+        <v>665.36</v>
+      </c>
+      <c r="E137">
+        <v>4867.103</v>
+      </c>
+      <c r="F137">
+        <v>13096.809</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>2424.457</v>
+      </c>
+      <c r="C138">
+        <v>1599.247</v>
+      </c>
+      <c r="D138">
+        <v>368.826</v>
+      </c>
+      <c r="E138">
+        <v>3109.693</v>
+      </c>
+      <c r="F138">
+        <v>7588.295</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>538.802</v>
+      </c>
+      <c r="C139">
+        <v>4975.095</v>
+      </c>
+      <c r="D139">
+        <v>93.84399999999999</v>
+      </c>
+      <c r="E139">
+        <v>3533.527</v>
+      </c>
+      <c r="F139">
+        <v>10949.368</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>1109.216</v>
+      </c>
+      <c r="C140">
+        <v>2739.96</v>
+      </c>
+      <c r="D140">
+        <v>1337.961</v>
+      </c>
+      <c r="E140">
+        <v>3033.912</v>
+      </c>
+      <c r="F140">
+        <v>4728.525</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>362.539</v>
+      </c>
+      <c r="C141">
+        <v>-106.082</v>
+      </c>
+      <c r="D141">
+        <v>909.351</v>
+      </c>
+      <c r="E141">
+        <v>4635.677</v>
+      </c>
+      <c r="F141">
+        <v>9630.919</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>169.461</v>
+      </c>
+      <c r="C142">
+        <v>7494.762</v>
+      </c>
+      <c r="D142">
+        <v>497.144</v>
+      </c>
+      <c r="E142">
+        <v>4637.827</v>
+      </c>
+      <c r="F142">
+        <v>2573.157</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>1534.217</v>
+      </c>
+      <c r="C143">
+        <v>6283.244</v>
+      </c>
+      <c r="D143">
+        <v>1294.238</v>
+      </c>
+      <c r="E143">
+        <v>452.393</v>
+      </c>
+      <c r="F143">
+        <v>8666.179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>1111.486</v>
+      </c>
+      <c r="C144">
+        <v>6985.078</v>
+      </c>
+      <c r="D144">
+        <v>410.675</v>
+      </c>
+      <c r="E144">
+        <v>5060.428</v>
+      </c>
+      <c r="F144">
+        <v>5211.892</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>2361.014</v>
+      </c>
+      <c r="C145">
+        <v>4655.278</v>
+      </c>
+      <c r="D145">
+        <v>18.163</v>
+      </c>
+      <c r="E145">
+        <v>173.897</v>
+      </c>
+      <c r="F145">
+        <v>10217.074</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>475.089</v>
+      </c>
+      <c r="C146">
+        <v>5944.611</v>
+      </c>
+      <c r="D146">
+        <v>810.609</v>
+      </c>
+      <c r="E146">
+        <v>10523.067</v>
+      </c>
+      <c r="F146">
+        <v>23977.582</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>3630.665</v>
+      </c>
+      <c r="C147">
+        <v>3929.101</v>
+      </c>
+      <c r="D147">
+        <v>449.341</v>
+      </c>
+      <c r="E147">
+        <v>6723.405</v>
+      </c>
+      <c r="F147">
+        <v>13892.618</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>806.865</v>
+      </c>
+      <c r="C148">
+        <v>12223.035</v>
+      </c>
+      <c r="D148">
+        <v>114.33</v>
+      </c>
+      <c r="E148">
+        <v>7639.768</v>
+      </c>
+      <c r="F148">
+        <v>20046.057</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>1661.069</v>
+      </c>
+      <c r="C149">
+        <v>6731.656</v>
+      </c>
+      <c r="D149">
+        <v>1630.04</v>
+      </c>
+      <c r="E149">
+        <v>6559.561</v>
+      </c>
+      <c r="F149">
+        <v>8656.964</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>542.908</v>
+      </c>
+      <c r="C150">
+        <v>-260.627</v>
+      </c>
+      <c r="D150">
+        <v>1107.864</v>
+      </c>
+      <c r="E150">
+        <v>10022.705</v>
+      </c>
+      <c r="F150">
+        <v>17632.246</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>253.771</v>
+      </c>
+      <c r="C151">
+        <v>18413.465</v>
+      </c>
+      <c r="D151">
+        <v>605.671</v>
+      </c>
+      <c r="E151">
+        <v>10027.354</v>
+      </c>
+      <c r="F151">
+        <v>4710.925</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>2297.516</v>
+      </c>
+      <c r="C152">
+        <v>15436.954</v>
+      </c>
+      <c r="D152">
+        <v>1576.772</v>
+      </c>
+      <c r="E152">
+        <v>978.11</v>
+      </c>
+      <c r="F152">
+        <v>15866.004</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>1664.469</v>
+      </c>
+      <c r="C153">
+        <v>17161.251</v>
+      </c>
+      <c r="D153">
+        <v>500.326</v>
+      </c>
+      <c r="E153">
+        <v>10941.051</v>
+      </c>
+      <c r="F153">
+        <v>9541.91</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>3535.658</v>
+      </c>
+      <c r="C154">
+        <v>11437.295</v>
+      </c>
+      <c r="D154">
+        <v>22.128</v>
+      </c>
+      <c r="E154">
+        <v>375.979</v>
+      </c>
+      <c r="F154">
+        <v>18705.376</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>1461.944</v>
+      </c>
+      <c r="C155">
+        <v>8757.204</v>
+      </c>
+      <c r="D155">
+        <v>1212.757</v>
+      </c>
+      <c r="E155">
+        <v>18481.965</v>
+      </c>
+      <c r="F155">
+        <v>26788.724</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>11172.285</v>
+      </c>
+      <c r="C156">
+        <v>5788.089</v>
+      </c>
+      <c r="D156">
+        <v>672.2619999999999</v>
+      </c>
+      <c r="E156">
+        <v>11808.51</v>
+      </c>
+      <c r="F156">
+        <v>15521.395</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>2482.885</v>
+      </c>
+      <c r="C157">
+        <v>18006.159</v>
+      </c>
+      <c r="D157">
+        <v>171.05</v>
+      </c>
+      <c r="E157">
+        <v>13417.945</v>
+      </c>
+      <c r="F157">
+        <v>22396.266</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>5111.443</v>
+      </c>
+      <c r="C158">
+        <v>9916.626</v>
+      </c>
+      <c r="D158">
+        <v>2438.713</v>
+      </c>
+      <c r="E158">
+        <v>11520.746</v>
+      </c>
+      <c r="F158">
+        <v>9671.91</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>1670.636</v>
+      </c>
+      <c r="C159">
+        <v>-383.938</v>
+      </c>
+      <c r="D159">
+        <v>1657.482</v>
+      </c>
+      <c r="E159">
+        <v>17603.165</v>
+      </c>
+      <c r="F159">
+        <v>19699.458</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>780.904</v>
+      </c>
+      <c r="C160">
+        <v>27125.487</v>
+      </c>
+      <c r="D160">
+        <v>906.148</v>
+      </c>
+      <c r="E160">
+        <v>17611.33</v>
+      </c>
+      <c r="F160">
+        <v>5263.236</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>7069.917</v>
+      </c>
+      <c r="C161">
+        <v>22740.69</v>
+      </c>
+      <c r="D161">
+        <v>2359.018</v>
+      </c>
+      <c r="E161">
+        <v>1717.883</v>
+      </c>
+      <c r="F161">
+        <v>17726.141</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>5121.906</v>
+      </c>
+      <c r="C162">
+        <v>25280.809</v>
+      </c>
+      <c r="D162">
+        <v>748.5410000000001</v>
+      </c>
+      <c r="E162">
+        <v>19216.083</v>
+      </c>
+      <c r="F162">
+        <v>10660.608</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>10879.929</v>
+      </c>
+      <c r="C163">
+        <v>16848.659</v>
+      </c>
+      <c r="D163">
+        <v>33.106</v>
+      </c>
+      <c r="E163">
+        <v>660.343</v>
+      </c>
+      <c r="F163">
+        <v>20898.403</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>3593.501</v>
+      </c>
+      <c r="C164">
+        <v>13942.999</v>
+      </c>
+      <c r="D164">
+        <v>1790.755</v>
+      </c>
+      <c r="E164">
+        <v>33334.636</v>
+      </c>
+      <c r="F164">
+        <v>31073.246</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>27461.804</v>
+      </c>
+      <c r="C165">
+        <v>9215.648999999999</v>
+      </c>
+      <c r="D165">
+        <v>992.6609999999999</v>
+      </c>
+      <c r="E165">
+        <v>21298.189</v>
+      </c>
+      <c r="F165">
+        <v>18003.848</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>6103.004</v>
+      </c>
+      <c r="C166">
+        <v>28668.952</v>
+      </c>
+      <c r="D166">
+        <v>252.572</v>
+      </c>
+      <c r="E166">
+        <v>24201.015</v>
+      </c>
+      <c r="F166">
+        <v>25978.269</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>12564.077</v>
+      </c>
+      <c r="C167">
+        <v>15789.002</v>
+      </c>
+      <c r="D167">
+        <v>3600.999</v>
+      </c>
+      <c r="E167">
+        <v>20779.169</v>
+      </c>
+      <c r="F167">
+        <v>11218.811</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>4106.472</v>
+      </c>
+      <c r="C168">
+        <v>-611.296</v>
+      </c>
+      <c r="D168">
+        <v>2447.435</v>
+      </c>
+      <c r="E168">
+        <v>31749.606</v>
+      </c>
+      <c r="F168">
+        <v>22850.141</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>1919.485</v>
+      </c>
+      <c r="C169">
+        <v>43188.516</v>
+      </c>
+      <c r="D169">
+        <v>1338.017</v>
+      </c>
+      <c r="E169">
+        <v>31764.332</v>
+      </c>
+      <c r="F169">
+        <v>6105.025</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>17378.063</v>
+      </c>
+      <c r="C170">
+        <v>36207.153</v>
+      </c>
+      <c r="D170">
+        <v>3483.322</v>
+      </c>
+      <c r="E170">
+        <v>3098.426</v>
+      </c>
+      <c r="F170">
+        <v>20561.216</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>12589.795</v>
+      </c>
+      <c r="C171">
+        <v>40251.466</v>
+      </c>
+      <c r="D171">
+        <v>1105.294</v>
+      </c>
+      <c r="E171">
+        <v>34658.714</v>
+      </c>
+      <c r="F171">
+        <v>12365.639</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>26743.185</v>
+      </c>
+      <c r="C172">
+        <v>26826.01</v>
+      </c>
+      <c r="D172">
+        <v>48.884</v>
+      </c>
+      <c r="E172">
+        <v>1191.015</v>
+      </c>
+      <c r="F172">
+        <v>24240.842</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>7509.295</v>
+      </c>
+      <c r="C173">
+        <v>43581.581</v>
+      </c>
+      <c r="D173">
+        <v>5776.849</v>
+      </c>
+      <c r="E173">
+        <v>42186.286</v>
+      </c>
+      <c r="F173">
+        <v>34887.324</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>57386.592</v>
+      </c>
+      <c r="C174">
+        <v>28805.321</v>
+      </c>
+      <c r="D174">
+        <v>3202.254</v>
+      </c>
+      <c r="E174">
+        <v>26953.691</v>
+      </c>
+      <c r="F174">
+        <v>20213.726</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>12753.372</v>
+      </c>
+      <c r="C175">
+        <v>89610.439</v>
+      </c>
+      <c r="D175">
+        <v>814.779</v>
+      </c>
+      <c r="E175">
+        <v>30627.331</v>
+      </c>
+      <c r="F175">
+        <v>29166.965</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>26254.996</v>
+      </c>
+      <c r="C176">
+        <v>49351.625</v>
+      </c>
+      <c r="D176">
+        <v>11616.568</v>
+      </c>
+      <c r="E176">
+        <v>26296.851</v>
+      </c>
+      <c r="F176">
+        <v>12595.861</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>8581.244000000001</v>
+      </c>
+      <c r="C177">
+        <v>-1910.726</v>
+      </c>
+      <c r="D177">
+        <v>7895.252</v>
+      </c>
+      <c r="E177">
+        <v>40180.368</v>
+      </c>
+      <c r="F177">
+        <v>25654.876</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>4011.124</v>
+      </c>
+      <c r="C178">
+        <v>134994.187</v>
+      </c>
+      <c r="D178">
+        <v>4316.348</v>
+      </c>
+      <c r="E178">
+        <v>40199.005</v>
+      </c>
+      <c r="F178">
+        <v>6854.385</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>36314.724</v>
+      </c>
+      <c r="C179">
+        <v>113172.566</v>
+      </c>
+      <c r="D179">
+        <v>11236.951</v>
+      </c>
+      <c r="E179">
+        <v>3921.179</v>
+      </c>
+      <c r="F179">
+        <v>23084.997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>26308.739</v>
+      </c>
+      <c r="C180">
+        <v>125813.861</v>
+      </c>
+      <c r="D180">
+        <v>3565.601</v>
+      </c>
+      <c r="E180">
+        <v>43861.958</v>
+      </c>
+      <c r="F180">
+        <v>13883.456</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>55884.903</v>
+      </c>
+      <c r="C181">
+        <v>83849.961</v>
+      </c>
+      <c r="D181">
+        <v>157.697</v>
+      </c>
+      <c r="E181">
+        <v>1507.276</v>
+      </c>
+      <c r="F181">
+        <v>27216.278</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>16080.851</v>
+      </c>
+      <c r="C182">
+        <v>112269.26</v>
+      </c>
+      <c r="D182">
+        <v>13748.969</v>
+      </c>
+      <c r="E182">
+        <v>56142.476</v>
+      </c>
+      <c r="F182">
+        <v>39922.458</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>122891.067</v>
+      </c>
+      <c r="C183">
+        <v>74204.56</v>
+      </c>
+      <c r="D183">
+        <v>7621.402</v>
+      </c>
+      <c r="E183">
+        <v>35870.59</v>
+      </c>
+      <c r="F183">
+        <v>23131.084</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>27310.831</v>
+      </c>
+      <c r="C184">
+        <v>230842.879</v>
+      </c>
+      <c r="D184">
+        <v>1939.184</v>
+      </c>
+      <c r="E184">
+        <v>40759.554</v>
+      </c>
+      <c r="F184">
+        <v>33376.505</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>56224.013</v>
+      </c>
+      <c r="C185">
+        <v>127133.304</v>
+      </c>
+      <c r="D185">
+        <v>27647.568</v>
+      </c>
+      <c r="E185">
+        <v>34996.452</v>
+      </c>
+      <c r="F185">
+        <v>14413.766</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>18376.387</v>
+      </c>
+      <c r="C186">
+        <v>-4922.167</v>
+      </c>
+      <c r="D186">
+        <v>18790.793</v>
+      </c>
+      <c r="E186">
+        <v>53472.955</v>
+      </c>
+      <c r="F186">
+        <v>29357.531</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>8589.66</v>
+      </c>
+      <c r="C187">
+        <v>347754.649</v>
+      </c>
+      <c r="D187">
+        <v>10272.959</v>
+      </c>
+      <c r="E187">
+        <v>53497.757</v>
+      </c>
+      <c r="F187">
+        <v>7843.648</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>77766.514</v>
+      </c>
+      <c r="C188">
+        <v>291540.598</v>
+      </c>
+      <c r="D188">
+        <v>26744.076</v>
+      </c>
+      <c r="E188">
+        <v>5218.395</v>
+      </c>
+      <c r="F188">
+        <v>26416.753</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>56339.101</v>
+      </c>
+      <c r="C189">
+        <v>324105.475</v>
+      </c>
+      <c r="D189">
+        <v>8486.172</v>
+      </c>
+      <c r="E189">
+        <v>58372.499</v>
+      </c>
+      <c r="F189">
+        <v>15887.194</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>119675.261</v>
+      </c>
+      <c r="C190">
+        <v>216003.478</v>
+      </c>
+      <c r="D190">
+        <v>375.321</v>
+      </c>
+      <c r="E190">
+        <v>2005.917</v>
+      </c>
+      <c r="F190">
+        <v>31144.284</v>
       </c>
     </row>
   </sheetData>

--- a/Experimentos2/DABA.xlsx
+++ b/Experimentos2/DABA.xlsx
@@ -722,19 +722,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.183</v>
+        <v>0.697</v>
       </c>
       <c r="C11">
-        <v>0.355</v>
+        <v>0.502</v>
       </c>
       <c r="D11">
-        <v>0.544</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0.947</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="F11">
-        <v>1.309</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -742,19 +742,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.961</v>
+        <v>0.88</v>
       </c>
       <c r="C12">
-        <v>0.259</v>
+        <v>0.114</v>
       </c>
       <c r="D12">
-        <v>0.33</v>
+        <v>0.843</v>
       </c>
       <c r="E12">
-        <v>0.628</v>
+        <v>0.58</v>
       </c>
       <c r="F12">
-        <v>0.735</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -762,19 +762,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.269</v>
+        <v>0.655</v>
       </c>
       <c r="C13">
-        <v>0.666</v>
+        <v>0.439</v>
       </c>
       <c r="D13">
-        <v>0.133</v>
+        <v>0.112</v>
       </c>
       <c r="E13">
-        <v>0.701</v>
+        <v>0.282</v>
       </c>
       <c r="F13">
-        <v>1.033</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -782,19 +782,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.481</v>
+        <v>0.786</v>
       </c>
       <c r="C14">
-        <v>0.401</v>
+        <v>0.233</v>
       </c>
       <c r="D14">
-        <v>1.023</v>
+        <v>0.239</v>
       </c>
       <c r="E14">
-        <v>0.6</v>
+        <v>0.948</v>
       </c>
       <c r="F14">
-        <v>0.445</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -802,19 +802,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.208</v>
+        <v>0.704</v>
       </c>
       <c r="C15">
-        <v>0.062</v>
+        <v>0.246</v>
       </c>
       <c r="D15">
-        <v>0.719</v>
+        <v>0.975</v>
       </c>
       <c r="E15">
-        <v>0.904</v>
+        <v>0.303</v>
       </c>
       <c r="F15">
-        <v>0.902</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -822,19 +822,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.139</v>
+        <v>0.117</v>
       </c>
       <c r="C16">
-        <v>0.975</v>
+        <v>0.739</v>
       </c>
       <c r="D16">
-        <v>0.422</v>
+        <v>0.828</v>
       </c>
       <c r="E16">
-        <v>0.888</v>
+        <v>0.694</v>
       </c>
       <c r="F16">
-        <v>0.242</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -842,19 +842,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.644</v>
+        <v>0.252</v>
       </c>
       <c r="C17">
-        <v>0.832</v>
+        <v>0.369</v>
       </c>
       <c r="D17">
-        <v>0.993</v>
+        <v>0.327</v>
       </c>
       <c r="E17">
-        <v>0.13</v>
+        <v>0.586</v>
       </c>
       <c r="F17">
-        <v>0.8110000000000001</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -862,19 +862,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.49</v>
+        <v>0.444</v>
       </c>
       <c r="C18">
-        <v>0.918</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="D18">
-        <v>0.36</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="E18">
-        <v>0.95</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="F18">
-        <v>0.488</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -882,19 +882,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.952</v>
+        <v>0.124</v>
       </c>
       <c r="C19">
-        <v>0.641</v>
+        <v>0.594</v>
       </c>
       <c r="D19">
-        <v>0.079</v>
+        <v>0.761</v>
       </c>
       <c r="E19">
-        <v>0.082</v>
+        <v>1.037</v>
       </c>
       <c r="F19">
-        <v>0.955</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -902,19 +902,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.383</v>
+        <v>1.725</v>
       </c>
       <c r="C20">
-        <v>0.786</v>
+        <v>0.972</v>
       </c>
       <c r="D20">
-        <v>1.416</v>
+        <v>1.82</v>
       </c>
       <c r="E20">
-        <v>1.857</v>
+        <v>2.128</v>
       </c>
       <c r="F20">
-        <v>3.263</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -922,19 +922,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.442</v>
+        <v>2.2</v>
       </c>
       <c r="C21">
-        <v>0.546</v>
+        <v>0.177</v>
       </c>
       <c r="D21">
-        <v>0.8139999999999999</v>
+        <v>2.221</v>
       </c>
       <c r="E21">
-        <v>1.207</v>
+        <v>1.5</v>
       </c>
       <c r="F21">
-        <v>1.881</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -942,19 +942,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.602</v>
+        <v>1.606</v>
       </c>
       <c r="C22">
-        <v>1.54</v>
+        <v>0.833</v>
       </c>
       <c r="D22">
-        <v>0.256</v>
+        <v>0.194</v>
       </c>
       <c r="E22">
-        <v>1.362</v>
+        <v>0.672</v>
       </c>
       <c r="F22">
-        <v>2.703</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -962,19 +962,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.16</v>
+        <v>1.944</v>
       </c>
       <c r="C23">
-        <v>0.884</v>
+        <v>0.409</v>
       </c>
       <c r="D23">
-        <v>2.779</v>
+        <v>0.549</v>
       </c>
       <c r="E23">
-        <v>1.173</v>
+        <v>2.551</v>
       </c>
       <c r="F23">
-        <v>1.167</v>
+        <v>1.671</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -982,19 +982,19 @@
         <v>22</v>
       </c>
       <c r="B24">
+        <v>1.726</v>
+      </c>
+      <c r="C24">
         <v>0.432</v>
       </c>
-      <c r="C24">
-        <v>0.048</v>
-      </c>
       <c r="D24">
-        <v>1.911</v>
+        <v>2.583</v>
       </c>
       <c r="E24">
-        <v>1.771</v>
+        <v>0.721</v>
       </c>
       <c r="F24">
-        <v>2.375</v>
+        <v>1.978</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1002,19 +1002,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.245</v>
+        <v>0.185</v>
       </c>
       <c r="C25">
-        <v>2.284</v>
+        <v>1.43</v>
       </c>
       <c r="D25">
-        <v>1.074</v>
+        <v>2.179</v>
       </c>
       <c r="E25">
-        <v>1.765</v>
+        <v>1.841</v>
       </c>
       <c r="F25">
-        <v>0.635</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1022,19 +1022,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.579</v>
+        <v>0.533</v>
       </c>
       <c r="C26">
-        <v>1.929</v>
+        <v>0.673</v>
       </c>
       <c r="D26">
-        <v>2.691</v>
+        <v>0.79</v>
       </c>
       <c r="E26">
-        <v>0.217</v>
+        <v>1.55</v>
       </c>
       <c r="F26">
-        <v>2.137</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1042,19 +1042,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.167</v>
+        <v>1.032</v>
       </c>
       <c r="C27">
-        <v>2.136</v>
+        <v>1.815</v>
       </c>
       <c r="D27">
-        <v>0.899</v>
+        <v>2.476</v>
       </c>
       <c r="E27">
-        <v>1.915</v>
+        <v>1.842</v>
       </c>
       <c r="F27">
-        <v>1.285</v>
+        <v>1.082</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1062,19 +1062,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.388</v>
+        <v>0.19</v>
       </c>
       <c r="C28">
-        <v>1.452</v>
+        <v>1.123</v>
       </c>
       <c r="D28">
-        <v>0.103</v>
+        <v>1.993</v>
       </c>
       <c r="E28">
-        <v>0.115</v>
+        <v>2.807</v>
       </c>
       <c r="F28">
-        <v>2.519</v>
+        <v>1.376</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1082,19 +1082,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.669</v>
+        <v>2.943</v>
       </c>
       <c r="C29">
-        <v>1.636</v>
+        <v>1.76</v>
       </c>
       <c r="D29">
-        <v>3.102</v>
+        <v>3.628</v>
       </c>
       <c r="E29">
-        <v>4.149</v>
+        <v>5.25</v>
       </c>
       <c r="F29">
-        <v>8.131</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1102,19 +1102,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.6</v>
+        <v>3.766</v>
       </c>
       <c r="C30">
-        <v>1.109</v>
+        <v>0.274</v>
       </c>
       <c r="D30">
-        <v>1.749</v>
+        <v>4.444</v>
       </c>
       <c r="E30">
-        <v>2.67</v>
+        <v>3.676</v>
       </c>
       <c r="F30">
-        <v>4.707</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1122,19 +1122,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.084</v>
+        <v>2.734</v>
       </c>
       <c r="C31">
-        <v>3.282</v>
+        <v>1.495</v>
       </c>
       <c r="D31">
-        <v>0.494</v>
+        <v>0.326</v>
       </c>
       <c r="E31">
-        <v>3.026</v>
+        <v>1.6</v>
       </c>
       <c r="F31">
-        <v>6.787</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1142,19 +1142,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.148</v>
+        <v>3.318</v>
       </c>
       <c r="C32">
-        <v>1.844</v>
+        <v>0.702</v>
       </c>
       <c r="D32">
-        <v>6.171</v>
+        <v>1.048</v>
       </c>
       <c r="E32">
-        <v>2.604</v>
+        <v>6.322</v>
       </c>
       <c r="F32">
-        <v>2.931</v>
+        <v>3.224</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1162,19 +1162,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.756</v>
+        <v>2.939</v>
       </c>
       <c r="C33">
-        <v>0.013</v>
+        <v>0.743</v>
       </c>
       <c r="D33">
-        <v>4.216</v>
+        <v>5.178</v>
       </c>
       <c r="E33">
-        <v>3.954</v>
+        <v>1.72</v>
       </c>
       <c r="F33">
-        <v>5.969</v>
+        <v>3.818</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1182,19 +1182,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.397</v>
+        <v>0.265</v>
       </c>
       <c r="C34">
-        <v>4.905</v>
+        <v>2.603</v>
       </c>
       <c r="D34">
-        <v>2.334</v>
+        <v>4.358</v>
       </c>
       <c r="E34">
-        <v>3.953</v>
+        <v>4.54</v>
       </c>
       <c r="F34">
-        <v>1.595</v>
+        <v>1.279</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1202,19 +1202,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.943</v>
+        <v>0.866</v>
       </c>
       <c r="C35">
-        <v>4.126</v>
+        <v>1.188</v>
       </c>
       <c r="D35">
-        <v>5.972</v>
+        <v>1.537</v>
       </c>
       <c r="E35">
-        <v>0.431</v>
+        <v>3.814</v>
       </c>
       <c r="F35">
-        <v>5.371</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1222,19 +1222,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.155</v>
+        <v>1.73</v>
       </c>
       <c r="C36">
-        <v>4.578</v>
+        <v>3.318</v>
       </c>
       <c r="D36">
-        <v>1.94</v>
+        <v>4.962</v>
       </c>
       <c r="E36">
-        <v>4.306</v>
+        <v>4.551</v>
       </c>
       <c r="F36">
-        <v>3.23</v>
+        <v>2.089</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1242,19 +1242,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.486</v>
+        <v>0.268</v>
       </c>
       <c r="C37">
-        <v>3.079</v>
+        <v>2.024</v>
       </c>
       <c r="D37">
-        <v>0.149</v>
+        <v>3.98</v>
       </c>
       <c r="E37">
-        <v>0.197</v>
+        <v>6.966</v>
       </c>
       <c r="F37">
-        <v>6.332</v>
+        <v>2.657</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1262,19 +1262,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.123</v>
+        <v>4.493</v>
       </c>
       <c r="C38">
-        <v>3.412</v>
+        <v>3.148</v>
       </c>
       <c r="D38">
-        <v>6.619</v>
+        <v>6.832</v>
       </c>
       <c r="E38">
-        <v>9.576000000000001</v>
+        <v>12.88</v>
       </c>
       <c r="F38">
-        <v>20.26</v>
+        <v>3.425</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1282,19 +1282,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>8.054</v>
+        <v>5.759</v>
       </c>
       <c r="C39">
-        <v>2.283</v>
+        <v>0.439</v>
       </c>
       <c r="D39">
-        <v>3.699</v>
+        <v>8.382999999999999</v>
       </c>
       <c r="E39">
-        <v>6.137</v>
+        <v>8.994999999999999</v>
       </c>
       <c r="F39">
-        <v>11.736</v>
+        <v>1.192</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1302,19 +1302,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.853</v>
+        <v>4.17</v>
       </c>
       <c r="C40">
-        <v>6.931</v>
+        <v>2.662</v>
       </c>
       <c r="D40">
-        <v>0.99</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E40">
-        <v>6.966</v>
+        <v>3.871</v>
       </c>
       <c r="F40">
-        <v>16.932</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1322,19 +1322,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.729</v>
+        <v>5.067</v>
       </c>
       <c r="C41">
-        <v>3.854</v>
+        <v>1.217</v>
       </c>
       <c r="D41">
-        <v>13.244</v>
+        <v>1.932</v>
       </c>
       <c r="E41">
-        <v>5.988</v>
+        <v>15.53</v>
       </c>
       <c r="F41">
-        <v>7.312</v>
+        <v>5.912</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1342,19 +1342,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.273</v>
+        <v>4.483</v>
       </c>
       <c r="C42">
-        <v>-0.064</v>
+        <v>1.29</v>
       </c>
       <c r="D42">
-        <v>9.023</v>
+        <v>9.776999999999999</v>
       </c>
       <c r="E42">
-        <v>9.122999999999999</v>
+        <v>4.166</v>
       </c>
       <c r="F42">
-        <v>14.893</v>
+        <v>7.002</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1362,19 +1362,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.639</v>
+        <v>0.366</v>
       </c>
       <c r="C43">
-        <v>10.4</v>
+        <v>4.678</v>
       </c>
       <c r="D43">
-        <v>4.962</v>
+        <v>8.218999999999999</v>
       </c>
       <c r="E43">
-        <v>9.125999999999999</v>
+        <v>11.131</v>
       </c>
       <c r="F43">
-        <v>3.979</v>
+        <v>2.345</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1382,19 +1382,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.128</v>
+        <v>1.29</v>
       </c>
       <c r="C44">
-        <v>8.733000000000001</v>
+        <v>2.099</v>
       </c>
       <c r="D44">
-        <v>12.814</v>
+        <v>2.861</v>
       </c>
       <c r="E44">
-        <v>0.9360000000000001</v>
+        <v>9.340999999999999</v>
       </c>
       <c r="F44">
-        <v>13.401</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1402,19 +1402,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.738</v>
+        <v>2.619</v>
       </c>
       <c r="C45">
-        <v>9.699</v>
+        <v>5.979</v>
       </c>
       <c r="D45">
-        <v>4.111</v>
+        <v>9.367000000000001</v>
       </c>
       <c r="E45">
-        <v>9.952</v>
+        <v>11.162</v>
       </c>
       <c r="F45">
-        <v>8.058999999999999</v>
+        <v>3.831</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1422,19 +1422,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7.848</v>
+        <v>0.367</v>
       </c>
       <c r="C46">
-        <v>6.492</v>
+        <v>3.62</v>
       </c>
       <c r="D46">
-        <v>0.245</v>
+        <v>7.501</v>
       </c>
       <c r="E46">
-        <v>0.391</v>
+        <v>17.12</v>
       </c>
       <c r="F46">
-        <v>15.799</v>
+        <v>4.873</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1442,19 +1442,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.788</v>
+        <v>10.241</v>
       </c>
       <c r="C47">
-        <v>6.916</v>
+        <v>7.013</v>
       </c>
       <c r="D47">
-        <v>11.165</v>
+        <v>14.123</v>
       </c>
       <c r="E47">
-        <v>23.871</v>
+        <v>25.962</v>
       </c>
       <c r="F47">
-        <v>38.406</v>
+        <v>6.625</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1462,19 +1462,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>13.126</v>
+        <v>13.156</v>
       </c>
       <c r="C48">
-        <v>4.599</v>
+        <v>0.892</v>
       </c>
       <c r="D48">
-        <v>6.219</v>
+        <v>17.345</v>
       </c>
       <c r="E48">
-        <v>15.27</v>
+        <v>18.115</v>
       </c>
       <c r="F48">
-        <v>22.251</v>
+        <v>2.306</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1482,19 +1482,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.981</v>
+        <v>9.497</v>
       </c>
       <c r="C49">
-        <v>14.134</v>
+        <v>5.913</v>
       </c>
       <c r="D49">
-        <v>1.631</v>
+        <v>1.092</v>
       </c>
       <c r="E49">
-        <v>17.344</v>
+        <v>7.765</v>
       </c>
       <c r="F49">
-        <v>32.106</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1502,19 +1502,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6.05</v>
+        <v>11.561</v>
       </c>
       <c r="C50">
-        <v>7.821</v>
+        <v>2.648</v>
       </c>
       <c r="D50">
-        <v>22.386</v>
+        <v>3.943</v>
       </c>
       <c r="E50">
-        <v>14.899</v>
+        <v>31.317</v>
       </c>
       <c r="F50">
-        <v>13.865</v>
+        <v>11.473</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1522,19 +1522,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.032</v>
+        <v>10.216</v>
       </c>
       <c r="C51">
-        <v>-0.217</v>
+        <v>2.812</v>
       </c>
       <c r="D51">
-        <v>15.236</v>
+        <v>20.241</v>
       </c>
       <c r="E51">
-        <v>22.738</v>
+        <v>8.361000000000001</v>
       </c>
       <c r="F51">
-        <v>28.24</v>
+        <v>13.589</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1542,19 +1542,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.994</v>
+        <v>0.736</v>
       </c>
       <c r="C52">
-        <v>21.25</v>
+        <v>10.466</v>
       </c>
       <c r="D52">
-        <v>8.359</v>
+        <v>17.004</v>
       </c>
       <c r="E52">
-        <v>22.748</v>
+        <v>22.431</v>
       </c>
       <c r="F52">
-        <v>7.545</v>
+        <v>4.551</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1562,19 +1562,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>8.337</v>
+        <v>2.863</v>
       </c>
       <c r="C53">
-        <v>17.829</v>
+        <v>4.639</v>
       </c>
       <c r="D53">
-        <v>21.657</v>
+        <v>5.873</v>
       </c>
       <c r="E53">
-        <v>2.265</v>
+        <v>18.816</v>
       </c>
       <c r="F53">
-        <v>25.411</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1582,19 +1582,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6.063</v>
+        <v>5.922</v>
       </c>
       <c r="C54">
-        <v>19.811</v>
+        <v>13.404</v>
       </c>
       <c r="D54">
-        <v>6.917</v>
+        <v>19.39</v>
       </c>
       <c r="E54">
-        <v>24.816</v>
+        <v>22.495</v>
       </c>
       <c r="F54">
-        <v>15.282</v>
+        <v>7.435</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1602,19 +1602,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>12.786</v>
+        <v>0.736</v>
       </c>
       <c r="C55">
-        <v>13.231</v>
+        <v>8.074</v>
       </c>
       <c r="D55">
-        <v>0.369</v>
+        <v>15.513</v>
       </c>
       <c r="E55">
-        <v>0.902</v>
+        <v>34.528</v>
       </c>
       <c r="F55">
-        <v>29.958</v>
+        <v>9.457000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1622,19 +1622,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.799</v>
+        <v>25.659</v>
       </c>
       <c r="C56">
-        <v>13.966</v>
+        <v>16.477</v>
       </c>
       <c r="D56">
-        <v>17.454</v>
+        <v>29.904</v>
       </c>
       <c r="E56">
-        <v>60.342</v>
+        <v>50.056</v>
       </c>
       <c r="F56">
-        <v>67.959</v>
+        <v>13.045</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1642,19 +1642,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>20.846</v>
+        <v>32.998</v>
       </c>
       <c r="C57">
-        <v>9.259</v>
+        <v>1.999</v>
       </c>
       <c r="D57">
-        <v>9.705</v>
+        <v>36.744</v>
       </c>
       <c r="E57">
-        <v>38.572</v>
+        <v>34.912</v>
       </c>
       <c r="F57">
-        <v>39.375</v>
+        <v>4.541</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1662,19 +1662,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.697</v>
+        <v>23.786</v>
       </c>
       <c r="C58">
-        <v>28.629</v>
+        <v>13.875</v>
       </c>
       <c r="D58">
-        <v>2.518</v>
+        <v>2.244</v>
       </c>
       <c r="E58">
-        <v>43.822</v>
+        <v>14.937</v>
       </c>
       <c r="F58">
-        <v>56.815</v>
+        <v>1.386</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1682,19 +1682,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>9.582000000000001</v>
+        <v>28.982</v>
       </c>
       <c r="C59">
-        <v>15.804</v>
+        <v>6.152</v>
       </c>
       <c r="D59">
-        <v>35.032</v>
+        <v>8.295999999999999</v>
       </c>
       <c r="E59">
-        <v>37.633</v>
+        <v>60.392</v>
       </c>
       <c r="F59">
-        <v>24.536</v>
+        <v>22.61</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1702,19 +1702,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3.187</v>
+        <v>25.596</v>
       </c>
       <c r="C60">
-        <v>-0.526</v>
+        <v>6.539</v>
       </c>
       <c r="D60">
-        <v>23.831</v>
+        <v>42.891</v>
       </c>
       <c r="E60">
-        <v>57.475</v>
+        <v>16.088</v>
       </c>
       <c r="F60">
-        <v>49.974</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1722,19 +1722,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.534</v>
+        <v>1.728</v>
       </c>
       <c r="C61">
-        <v>43.086</v>
+        <v>24.643</v>
       </c>
       <c r="D61">
-        <v>13.058</v>
+        <v>36.02</v>
       </c>
       <c r="E61">
-        <v>57.501</v>
+        <v>43.243</v>
       </c>
       <c r="F61">
-        <v>13.352</v>
+        <v>8.968999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1742,19 +1742,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>13.222</v>
+        <v>7.083</v>
       </c>
       <c r="C62">
-        <v>36.135</v>
+        <v>10.86</v>
       </c>
       <c r="D62">
-        <v>33.89</v>
+        <v>12.392</v>
       </c>
       <c r="E62">
-        <v>5.655</v>
+        <v>36.266</v>
       </c>
       <c r="F62">
-        <v>44.968</v>
+        <v>1.736</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1762,19 +1762,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>9.602</v>
+        <v>14.784</v>
       </c>
       <c r="C63">
-        <v>40.162</v>
+        <v>31.592</v>
       </c>
       <c r="D63">
-        <v>10.799</v>
+        <v>41.085</v>
       </c>
       <c r="E63">
-        <v>62.736</v>
+        <v>43.367</v>
       </c>
       <c r="F63">
-        <v>27.044</v>
+        <v>14.652</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1782,19 +1782,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>20.303</v>
+        <v>1.727</v>
       </c>
       <c r="C64">
-        <v>26.794</v>
+        <v>18.985</v>
       </c>
       <c r="D64">
-        <v>0.541</v>
+        <v>32.855</v>
       </c>
       <c r="E64">
-        <v>2.205</v>
+        <v>66.589</v>
       </c>
       <c r="F64">
-        <v>53.015</v>
+        <v>18.637</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1802,19 +1802,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.448</v>
+        <v>63.303</v>
       </c>
       <c r="C65">
-        <v>33.358</v>
+        <v>41.155</v>
       </c>
       <c r="D65">
-        <v>26.386</v>
+        <v>47.714</v>
       </c>
       <c r="E65">
-        <v>127.983</v>
+        <v>102.103</v>
       </c>
       <c r="F65">
-        <v>164.52</v>
+        <v>26.94</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1822,19 +1822,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>41.086</v>
+        <v>81.443</v>
       </c>
       <c r="C66">
-        <v>22.076</v>
+        <v>4.884</v>
       </c>
       <c r="D66">
-        <v>14.656</v>
+        <v>58.637</v>
       </c>
       <c r="E66">
-        <v>81.789</v>
+        <v>71.196</v>
       </c>
       <c r="F66">
-        <v>95.32299999999999</v>
+        <v>9.378</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1842,19 +1842,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>9.195</v>
+        <v>58.673</v>
       </c>
       <c r="C67">
-        <v>68.501</v>
+        <v>34.636</v>
       </c>
       <c r="D67">
-        <v>3.778</v>
+        <v>3.544</v>
       </c>
       <c r="E67">
-        <v>92.93000000000001</v>
+        <v>30.43</v>
       </c>
       <c r="F67">
-        <v>137.544</v>
+        <v>2.862</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1862,19 +1862,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>18.842</v>
+        <v>71.51600000000001</v>
       </c>
       <c r="C68">
-        <v>37.763</v>
+        <v>15.288</v>
       </c>
       <c r="D68">
-        <v>52.993</v>
+        <v>13.209</v>
       </c>
       <c r="E68">
-        <v>79.797</v>
+        <v>123.198</v>
       </c>
       <c r="F68">
-        <v>59.399</v>
+        <v>46.703</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1882,19 +1882,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6.214</v>
+        <v>63.147</v>
       </c>
       <c r="C69">
-        <v>-1.376</v>
+        <v>16.257</v>
       </c>
       <c r="D69">
-        <v>36.038</v>
+        <v>68.453</v>
       </c>
       <c r="E69">
-        <v>121.9</v>
+        <v>32.78</v>
       </c>
       <c r="F69">
-        <v>120.982</v>
+        <v>55.316</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1902,19 +1902,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2.949</v>
+        <v>4.15</v>
       </c>
       <c r="C70">
-        <v>103.152</v>
+        <v>61.612</v>
       </c>
       <c r="D70">
-        <v>19.732</v>
+        <v>57.481</v>
       </c>
       <c r="E70">
-        <v>121.956</v>
+        <v>88.199</v>
       </c>
       <c r="F70">
-        <v>32.324</v>
+        <v>18.526</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1922,19 +1922,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>26.03</v>
+        <v>17.386</v>
       </c>
       <c r="C71">
-        <v>86.491</v>
+        <v>27.082</v>
       </c>
       <c r="D71">
-        <v>51.264</v>
+        <v>19.749</v>
       </c>
       <c r="E71">
-        <v>11.942</v>
+        <v>73.95999999999999</v>
       </c>
       <c r="F71">
-        <v>108.863</v>
+        <v>3.586</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1942,19 +1942,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>18.881</v>
+        <v>36.421</v>
       </c>
       <c r="C72">
-        <v>96.143</v>
+        <v>79.02</v>
       </c>
       <c r="D72">
-        <v>16.312</v>
+        <v>65.569</v>
       </c>
       <c r="E72">
-        <v>133.064</v>
+        <v>88.453</v>
       </c>
       <c r="F72">
-        <v>65.471</v>
+        <v>30.265</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1962,19 +1962,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>40.013</v>
+        <v>4.147</v>
       </c>
       <c r="C73">
-        <v>64.10299999999999</v>
+        <v>47.437</v>
       </c>
       <c r="D73">
-        <v>0.785</v>
+        <v>52.427</v>
       </c>
       <c r="E73">
-        <v>4.622</v>
+        <v>135.845</v>
       </c>
       <c r="F73">
-        <v>128.345</v>
+        <v>38.496</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1982,19 +1982,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>11.332</v>
+        <v>155.885</v>
       </c>
       <c r="C74">
-        <v>82.331</v>
+        <v>103.948</v>
       </c>
       <c r="D74">
-        <v>39.319</v>
+        <v>68.764</v>
       </c>
       <c r="E74">
-        <v>261.765</v>
+        <v>211.197</v>
       </c>
       <c r="F74">
-        <v>423.298</v>
+        <v>56.272</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2002,19 +2002,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>86.051</v>
+        <v>200.59</v>
       </c>
       <c r="C75">
-        <v>54.445</v>
+        <v>12.224</v>
       </c>
       <c r="D75">
-        <v>21.825</v>
+        <v>84.51300000000001</v>
       </c>
       <c r="E75">
-        <v>167.265</v>
+        <v>147.25</v>
       </c>
       <c r="F75">
-        <v>245.259</v>
+        <v>19.589</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2022,19 +2022,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>19.188</v>
+        <v>144.475</v>
       </c>
       <c r="C76">
-        <v>169.197</v>
+        <v>87.462</v>
       </c>
       <c r="D76">
-        <v>5.602</v>
+        <v>5.081</v>
       </c>
       <c r="E76">
-        <v>190.056</v>
+        <v>62.905</v>
       </c>
       <c r="F76">
-        <v>353.891</v>
+        <v>5.978</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2042,19 +2042,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>39.414</v>
+        <v>176.125</v>
       </c>
       <c r="C77">
-        <v>93.22</v>
+        <v>38.534</v>
       </c>
       <c r="D77">
-        <v>78.999</v>
+        <v>19.016</v>
       </c>
       <c r="E77">
-        <v>163.19</v>
+        <v>254.843</v>
       </c>
       <c r="F77">
-        <v>152.829</v>
+        <v>97.557</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2062,19 +2062,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>12.938</v>
+        <v>155.501</v>
       </c>
       <c r="C78">
-        <v>-3.523</v>
+        <v>40.984</v>
       </c>
       <c r="D78">
-        <v>53.713</v>
+        <v>98.66500000000001</v>
       </c>
       <c r="E78">
-        <v>249.321</v>
+        <v>67.768</v>
       </c>
       <c r="F78">
-        <v>311.278</v>
+        <v>115.548</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2082,19 +2082,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6.092</v>
+        <v>10.106</v>
       </c>
       <c r="C79">
-        <v>254.846</v>
+        <v>155.68</v>
       </c>
       <c r="D79">
-        <v>29.395</v>
+        <v>82.846</v>
       </c>
       <c r="E79">
-        <v>249.436</v>
+        <v>182.43</v>
       </c>
       <c r="F79">
-        <v>83.167</v>
+        <v>38.698</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2102,19 +2102,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>54.484</v>
+        <v>42.725</v>
       </c>
       <c r="C80">
-        <v>213.664</v>
+        <v>68.35899999999999</v>
       </c>
       <c r="D80">
-        <v>76.42</v>
+        <v>28.444</v>
       </c>
       <c r="E80">
-        <v>24.377</v>
+        <v>152.969</v>
       </c>
       <c r="F80">
-        <v>280.097</v>
+        <v>7.491</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2122,19 +2122,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>39.495</v>
+        <v>89.636</v>
       </c>
       <c r="C81">
-        <v>237.521</v>
+        <v>199.702</v>
       </c>
       <c r="D81">
-        <v>24.294</v>
+        <v>94.50700000000001</v>
       </c>
       <c r="E81">
-        <v>272.16</v>
+        <v>182.956</v>
       </c>
       <c r="F81">
-        <v>168.452</v>
+        <v>63.22</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2142,19 +2142,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>83.801</v>
+        <v>10.099</v>
       </c>
       <c r="C82">
-        <v>158.326</v>
+        <v>119.834</v>
       </c>
       <c r="D82">
-        <v>1.138</v>
+        <v>75.56</v>
       </c>
       <c r="E82">
-        <v>9.401999999999999</v>
+        <v>281.01</v>
       </c>
       <c r="F82">
-        <v>330.223</v>
+        <v>80.413</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2162,19 +2162,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>23.774</v>
+        <v>394.453</v>
       </c>
       <c r="C83">
-        <v>166.835</v>
+        <v>268.321</v>
       </c>
       <c r="D83">
-        <v>76.31399999999999</v>
+        <v>92.837</v>
       </c>
       <c r="E83">
-        <v>515.15</v>
+        <v>387.224</v>
       </c>
       <c r="F83">
-        <v>787.054</v>
+        <v>133.604</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2182,19 +2182,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>181.135</v>
+        <v>507.612</v>
       </c>
       <c r="C84">
-        <v>110.298</v>
+        <v>31.438</v>
       </c>
       <c r="D84">
-        <v>42.332</v>
+        <v>114.105</v>
       </c>
       <c r="E84">
-        <v>329.158</v>
+        <v>269.966</v>
       </c>
       <c r="F84">
-        <v>456.019</v>
+        <v>46.509</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2202,19 +2202,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>40.319</v>
+        <v>365.572</v>
       </c>
       <c r="C85">
-        <v>342.95</v>
+        <v>225.745</v>
       </c>
       <c r="D85">
-        <v>10.82</v>
+        <v>6.839</v>
       </c>
       <c r="E85">
-        <v>374.014</v>
+        <v>115.305</v>
       </c>
       <c r="F85">
-        <v>658.003</v>
+        <v>14.193</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2222,19 +2222,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>82.916</v>
+        <v>445.685</v>
       </c>
       <c r="C86">
-        <v>188.912</v>
+        <v>99.38500000000001</v>
       </c>
       <c r="D86">
-        <v>153.391</v>
+        <v>25.657</v>
       </c>
       <c r="E86">
-        <v>321.138</v>
+        <v>467.257</v>
       </c>
       <c r="F86">
-        <v>284.161</v>
+        <v>231.627</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2242,19 +2242,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>27.156</v>
+        <v>393.482</v>
       </c>
       <c r="C87">
-        <v>-7.228</v>
+        <v>105.712</v>
       </c>
       <c r="D87">
-        <v>104.274</v>
+        <v>133.215</v>
       </c>
       <c r="E87">
-        <v>490.658</v>
+        <v>124.222</v>
       </c>
       <c r="F87">
-        <v>578.771</v>
+        <v>274.342</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2262,19 +2262,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>12.738</v>
+        <v>25.454</v>
       </c>
       <c r="C88">
-        <v>516.598</v>
+        <v>401.922</v>
       </c>
       <c r="D88">
-        <v>57.037</v>
+        <v>111.853</v>
       </c>
       <c r="E88">
-        <v>490.885</v>
+        <v>334.475</v>
       </c>
       <c r="F88">
-        <v>154.635</v>
+        <v>91.879</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2282,19 +2282,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>114.654</v>
+        <v>108.02</v>
       </c>
       <c r="C89">
-        <v>433.104</v>
+        <v>176.41</v>
       </c>
       <c r="D89">
-        <v>148.381</v>
+        <v>38.388</v>
       </c>
       <c r="E89">
-        <v>47.929</v>
+        <v>280.453</v>
       </c>
       <c r="F89">
-        <v>520.795</v>
+        <v>17.786</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2302,19 +2302,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>83.086</v>
+        <v>226.762</v>
       </c>
       <c r="C90">
-        <v>481.472</v>
+        <v>515.611</v>
       </c>
       <c r="D90">
-        <v>47.128</v>
+        <v>127.6</v>
       </c>
       <c r="E90">
-        <v>535.61</v>
+        <v>335.44</v>
       </c>
       <c r="F90">
-        <v>313.209</v>
+        <v>150.102</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2322,19 +2322,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>176.397</v>
+        <v>25.436</v>
       </c>
       <c r="C91">
-        <v>320.91</v>
+        <v>309.347</v>
       </c>
       <c r="D91">
-        <v>2.148</v>
+        <v>102.015</v>
       </c>
       <c r="E91">
-        <v>18.455</v>
+        <v>515.239</v>
       </c>
       <c r="F91">
-        <v>613.996</v>
+        <v>190.922</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2342,19 +2342,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>50.028</v>
+        <v>1002.546</v>
       </c>
       <c r="C92">
-        <v>323.376</v>
+        <v>695.0309999999999</v>
       </c>
       <c r="D92">
-        <v>160.049</v>
+        <v>120.992</v>
       </c>
       <c r="E92">
-        <v>1003.935</v>
+        <v>685.985</v>
       </c>
       <c r="F92">
-        <v>1345.999</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2362,19 +2362,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>381.772</v>
+        <v>1290.189</v>
       </c>
       <c r="C93">
-        <v>213.764</v>
+        <v>81.31699999999999</v>
       </c>
       <c r="D93">
-        <v>88.748</v>
+        <v>148.715</v>
       </c>
       <c r="E93">
-        <v>641.453</v>
+        <v>478.245</v>
       </c>
       <c r="F93">
-        <v>779.872</v>
+        <v>113.101</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2382,19 +2382,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>84.908</v>
+        <v>929.1319999999999</v>
       </c>
       <c r="C94">
-        <v>664.822</v>
+        <v>584.725</v>
       </c>
       <c r="D94">
-        <v>22.63</v>
+        <v>8.895</v>
       </c>
       <c r="E94">
-        <v>728.873</v>
+        <v>204.241</v>
       </c>
       <c r="F94">
-        <v>1125.3</v>
+        <v>34.515</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2402,19 +2402,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>174.71</v>
+        <v>1132.774</v>
       </c>
       <c r="C95">
-        <v>366.178</v>
+        <v>257.353</v>
       </c>
       <c r="D95">
-        <v>321.771</v>
+        <v>33.424</v>
       </c>
       <c r="E95">
-        <v>625.823</v>
+        <v>827.775</v>
       </c>
       <c r="F95">
-        <v>485.965</v>
+        <v>563.275</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2422,19 +2422,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>57.158</v>
+        <v>1000.078</v>
       </c>
       <c r="C96">
-        <v>-14.091</v>
+        <v>273.745</v>
       </c>
       <c r="D96">
-        <v>218.715</v>
+        <v>173.624</v>
       </c>
       <c r="E96">
-        <v>956.202</v>
+        <v>220.038</v>
       </c>
       <c r="F96">
-        <v>989.799</v>
+        <v>667.15</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2442,19 +2442,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>26.762</v>
+        <v>64.575</v>
       </c>
       <c r="C97">
-        <v>1001.484</v>
+        <v>1041.163</v>
       </c>
       <c r="D97">
-        <v>119.602</v>
+        <v>145.779</v>
       </c>
       <c r="E97">
-        <v>956.645</v>
+        <v>592.532</v>
       </c>
       <c r="F97">
-        <v>264.452</v>
+        <v>223.433</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2462,19 +2462,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>241.619</v>
+        <v>274.452</v>
       </c>
       <c r="C98">
-        <v>839.609</v>
+        <v>456.909</v>
       </c>
       <c r="D98">
-        <v>311.259</v>
+        <v>50.018</v>
       </c>
       <c r="E98">
-        <v>93.361</v>
+        <v>496.824</v>
       </c>
       <c r="F98">
-        <v>890.65</v>
+        <v>43.252</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2482,19 +2482,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>175.068</v>
+        <v>576.2859999999999</v>
       </c>
       <c r="C99">
-        <v>933.383</v>
+        <v>1335.706</v>
       </c>
       <c r="D99">
-        <v>98.81100000000001</v>
+        <v>166.304</v>
       </c>
       <c r="E99">
-        <v>1043.81</v>
+        <v>594.242</v>
       </c>
       <c r="F99">
-        <v>535.6420000000001</v>
+        <v>365.021</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2502,19 +2502,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>371.784</v>
+        <v>64.529</v>
       </c>
       <c r="C100">
-        <v>622.091</v>
+        <v>801.3200000000001</v>
       </c>
       <c r="D100">
-        <v>4.434</v>
+        <v>132.956</v>
       </c>
       <c r="E100">
-        <v>35.919</v>
+        <v>912.783</v>
       </c>
       <c r="F100">
-        <v>1050.04</v>
+        <v>464.287</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2522,19 +2522,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>84.82299999999999</v>
+        <v>1934.435</v>
       </c>
       <c r="C101">
-        <v>509.013</v>
+        <v>1626.273</v>
       </c>
       <c r="D101">
-        <v>269.541</v>
+        <v>252.055</v>
       </c>
       <c r="E101">
-        <v>1719.598</v>
+        <v>1067.058</v>
       </c>
       <c r="F101">
-        <v>2137.802</v>
+        <v>590.923</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2542,19 +2542,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>647.678</v>
+        <v>2489.47</v>
       </c>
       <c r="C102">
-        <v>336.461</v>
+        <v>190.172</v>
       </c>
       <c r="D102">
-        <v>149.442</v>
+        <v>309.825</v>
       </c>
       <c r="E102">
-        <v>1098.705</v>
+        <v>743.907</v>
       </c>
       <c r="F102">
-        <v>1238.643</v>
+        <v>205.706</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2562,19 +2562,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>144.002</v>
+        <v>1792.775</v>
       </c>
       <c r="C103">
-        <v>1046.521</v>
+        <v>1368.155</v>
       </c>
       <c r="D103">
-        <v>38.073</v>
+        <v>18.464</v>
       </c>
       <c r="E103">
-        <v>1248.446</v>
+        <v>317.68</v>
       </c>
       <c r="F103">
-        <v>1787.274</v>
+        <v>62.775</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2582,19 +2582,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>296.365</v>
+        <v>2185.722</v>
       </c>
       <c r="C104">
-        <v>576.393</v>
+        <v>602.099</v>
       </c>
       <c r="D104">
-        <v>541.946</v>
+        <v>69.57899999999999</v>
       </c>
       <c r="E104">
-        <v>1071.932</v>
+        <v>1287.62</v>
       </c>
       <c r="F104">
-        <v>771.841</v>
+        <v>1024.476</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2602,19 +2602,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>96.92</v>
+        <v>1929.672</v>
       </c>
       <c r="C105">
-        <v>-22.23</v>
+        <v>640.457</v>
       </c>
       <c r="D105">
-        <v>368.358</v>
+        <v>361.731</v>
       </c>
       <c r="E105">
-        <v>1637.836</v>
+        <v>342.252</v>
       </c>
       <c r="F105">
-        <v>1572.062</v>
+        <v>1213.403</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2622,19 +2622,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>45.348</v>
+        <v>124.527</v>
       </c>
       <c r="C106">
-        <v>1576.496</v>
+        <v>2436.228</v>
       </c>
       <c r="D106">
-        <v>201.412</v>
+        <v>303.707</v>
       </c>
       <c r="E106">
-        <v>1638.595</v>
+        <v>921.687</v>
       </c>
       <c r="F106">
-        <v>420.019</v>
+        <v>406.377</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2642,19 +2642,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>409.887</v>
+        <v>529.505</v>
       </c>
       <c r="C107">
-        <v>1321.671</v>
+        <v>1069.064</v>
       </c>
       <c r="D107">
-        <v>524.239</v>
+        <v>104.157</v>
       </c>
       <c r="E107">
-        <v>159.881</v>
+        <v>772.808</v>
       </c>
       <c r="F107">
-        <v>1414.587</v>
+        <v>78.666</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2662,19 +2662,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>296.972</v>
+        <v>1111.924</v>
       </c>
       <c r="C108">
-        <v>1469.291</v>
+        <v>3125.463</v>
       </c>
       <c r="D108">
-        <v>166.392</v>
+        <v>346.477</v>
       </c>
       <c r="E108">
-        <v>1787.9</v>
+        <v>924.347</v>
       </c>
       <c r="F108">
-        <v>850.741</v>
+        <v>663.895</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2682,19 +2682,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>630.732</v>
+        <v>124.438</v>
       </c>
       <c r="C109">
-        <v>979.253</v>
+        <v>1874.991</v>
       </c>
       <c r="D109">
-        <v>7.423</v>
+        <v>276.986</v>
       </c>
       <c r="E109">
-        <v>61.489</v>
+        <v>1419.855</v>
       </c>
       <c r="F109">
-        <v>1667.741</v>
+        <v>844.438</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2702,19 +2702,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>134.109</v>
+        <v>3491.12</v>
       </c>
       <c r="C110">
-        <v>740.454</v>
+        <v>3738.129</v>
       </c>
       <c r="D110">
-        <v>422.418</v>
+        <v>597.561</v>
       </c>
       <c r="E110">
-        <v>2823.879</v>
+        <v>1576.172</v>
       </c>
       <c r="F110">
-        <v>3299.445</v>
+        <v>992.8579999999999</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2722,19 +2722,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1024.323</v>
+        <v>4492.823</v>
       </c>
       <c r="C111">
-        <v>489.432</v>
+        <v>437.032</v>
       </c>
       <c r="D111">
-        <v>234.186</v>
+        <v>734.54</v>
       </c>
       <c r="E111">
-        <v>1804.253</v>
+        <v>1098.832</v>
       </c>
       <c r="F111">
-        <v>1911.699</v>
+        <v>345.623</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2742,19 +2742,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>227.706</v>
+        <v>3235.458</v>
       </c>
       <c r="C112">
-        <v>1522.399</v>
+        <v>3144.805</v>
       </c>
       <c r="D112">
-        <v>59.635</v>
+        <v>43.69</v>
       </c>
       <c r="E112">
-        <v>2050.156</v>
+        <v>469.234</v>
       </c>
       <c r="F112">
-        <v>2758.446</v>
+        <v>105.473</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2762,19 +2762,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>468.684</v>
+        <v>3944.631</v>
       </c>
       <c r="C113">
-        <v>838.476</v>
+        <v>1383.909</v>
       </c>
       <c r="D113">
-        <v>849.364</v>
+        <v>164.89</v>
       </c>
       <c r="E113">
-        <v>1760.286</v>
+        <v>1901.973</v>
       </c>
       <c r="F113">
-        <v>1191.245</v>
+        <v>1721.306</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2782,19 +2782,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>153.241</v>
+        <v>3482.523</v>
       </c>
       <c r="C114">
-        <v>-32.377</v>
+        <v>1472.081</v>
       </c>
       <c r="D114">
-        <v>577.296</v>
+        <v>857.615</v>
       </c>
       <c r="E114">
-        <v>2689.609</v>
+        <v>505.53</v>
       </c>
       <c r="F114">
-        <v>2426.292</v>
+        <v>2038.739</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2802,19 +2802,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>71.67400000000001</v>
+        <v>224.674</v>
       </c>
       <c r="C115">
-        <v>2293.385</v>
+        <v>5599.934</v>
       </c>
       <c r="D115">
-        <v>315.639</v>
+        <v>720.033</v>
       </c>
       <c r="E115">
-        <v>2690.856</v>
+        <v>1361.438</v>
       </c>
       <c r="F115">
-        <v>648.249</v>
+        <v>682.788</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2822,19 +2822,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>648.231</v>
+        <v>955.561</v>
       </c>
       <c r="C116">
-        <v>1922.676</v>
+        <v>2457.299</v>
       </c>
       <c r="D116">
-        <v>821.611</v>
+        <v>246.877</v>
       </c>
       <c r="E116">
-        <v>262.523</v>
+        <v>1141.523</v>
       </c>
       <c r="F116">
-        <v>2183.248</v>
+        <v>132.173</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2842,19 +2842,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>469.644</v>
+        <v>2006.687</v>
       </c>
       <c r="C117">
-        <v>2137.428</v>
+        <v>7184.246</v>
       </c>
       <c r="D117">
-        <v>260.751</v>
+        <v>821.446</v>
       </c>
       <c r="E117">
-        <v>2936.044</v>
+        <v>1365.368</v>
       </c>
       <c r="F117">
-        <v>1313.018</v>
+        <v>1115.465</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2862,19 +2862,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>997.521</v>
+        <v>224.514</v>
       </c>
       <c r="C118">
-        <v>1424.54</v>
+        <v>4309.845</v>
       </c>
       <c r="D118">
-        <v>11.596</v>
+        <v>656.675</v>
       </c>
       <c r="E118">
-        <v>100.944</v>
+        <v>2097.303</v>
       </c>
       <c r="F118">
-        <v>2573.961</v>
+        <v>1418.81</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2882,19 +2882,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>244.913</v>
+        <v>6475.639</v>
       </c>
       <c r="C119">
-        <v>1196.227</v>
+        <v>7251.752</v>
       </c>
       <c r="D119">
-        <v>728.186</v>
+        <v>1187.442</v>
       </c>
       <c r="E119">
-        <v>4190.776</v>
+        <v>2693.669</v>
       </c>
       <c r="F119">
-        <v>6569.433</v>
+        <v>1901.151</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2902,19 +2902,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1871.094</v>
+        <v>8333.707</v>
       </c>
       <c r="C120">
-        <v>790.676</v>
+        <v>847.748</v>
       </c>
       <c r="D120">
-        <v>403.681</v>
+        <v>1459.655</v>
       </c>
       <c r="E120">
-        <v>2677.592</v>
+        <v>1877.886</v>
       </c>
       <c r="F120">
-        <v>3806.331</v>
+        <v>661.808</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2922,19 +2922,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>415.889</v>
+        <v>6001.409</v>
       </c>
       <c r="C121">
-        <v>2459.539</v>
+        <v>6100.726</v>
       </c>
       <c r="D121">
-        <v>102.761</v>
+        <v>86.758</v>
       </c>
       <c r="E121">
-        <v>3042.526</v>
+        <v>801.893</v>
       </c>
       <c r="F121">
-        <v>5492.265</v>
+        <v>201.962</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2942,19 +2942,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>856.091</v>
+        <v>7316.86</v>
       </c>
       <c r="C122">
-        <v>1354.592</v>
+        <v>2684.654</v>
       </c>
       <c r="D122">
-        <v>1464.228</v>
+        <v>327.614</v>
       </c>
       <c r="E122">
-        <v>2612.342</v>
+        <v>3250.468</v>
       </c>
       <c r="F122">
-        <v>2371.855</v>
+        <v>3296.002</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2962,19 +2962,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>279.862</v>
+        <v>6459.692</v>
       </c>
       <c r="C123">
-        <v>-52.359</v>
+        <v>2855.704</v>
       </c>
       <c r="D123">
-        <v>995.191</v>
+        <v>1704.237</v>
       </c>
       <c r="E123">
-        <v>3991.511</v>
+        <v>863.923</v>
       </c>
       <c r="F123">
-        <v>4830.923</v>
+        <v>3903.832</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2982,19 +2982,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>130.86</v>
+        <v>416.679</v>
       </c>
       <c r="C124">
-        <v>3705.145</v>
+        <v>10863.584</v>
       </c>
       <c r="D124">
-        <v>544.103</v>
+        <v>1430.826</v>
       </c>
       <c r="E124">
-        <v>3993.362</v>
+        <v>2326.684</v>
       </c>
       <c r="F124">
-        <v>1290.71</v>
+        <v>1307.421</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3002,19 +3002,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1184.075</v>
+        <v>1772.408</v>
       </c>
       <c r="C125">
-        <v>3106.227</v>
+        <v>4766.99</v>
       </c>
       <c r="D125">
-        <v>1416.382</v>
+        <v>490.543</v>
       </c>
       <c r="E125">
-        <v>389.575</v>
+        <v>1950.846</v>
       </c>
       <c r="F125">
-        <v>4347.004</v>
+        <v>253.088</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3022,19 +3022,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>857.8440000000001</v>
+        <v>3722.151</v>
       </c>
       <c r="C126">
-        <v>3453.181</v>
+        <v>13937.09</v>
       </c>
       <c r="D126">
-        <v>449.478</v>
+        <v>1632.359</v>
       </c>
       <c r="E126">
-        <v>4357.235</v>
+        <v>2333.401</v>
       </c>
       <c r="F126">
-        <v>2614.314</v>
+        <v>2135.922</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3042,19 +3042,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1822.134</v>
+        <v>416.382</v>
       </c>
       <c r="C127">
-        <v>2301.437</v>
+        <v>8360.860000000001</v>
       </c>
       <c r="D127">
-        <v>19.943</v>
+        <v>1304.917</v>
       </c>
       <c r="E127">
-        <v>149.782</v>
+        <v>3584.29</v>
       </c>
       <c r="F127">
-        <v>5124.942</v>
+        <v>2716.775</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3062,19 +3062,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>468.094</v>
+        <v>12108.66</v>
       </c>
       <c r="C128">
-        <v>2014.432</v>
+        <v>13484.751</v>
       </c>
       <c r="D128">
-        <v>1297.533</v>
+        <v>2262.96</v>
       </c>
       <c r="E128">
-        <v>5947.41</v>
+        <v>4850.903</v>
       </c>
       <c r="F128">
-        <v>14037.289</v>
+        <v>3779.031</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3082,19 +3082,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>3576.659</v>
+        <v>15583.043</v>
       </c>
       <c r="C129">
-        <v>1331.47</v>
+        <v>1576.338</v>
       </c>
       <c r="D129">
-        <v>719.285</v>
+        <v>2781.742</v>
       </c>
       <c r="E129">
-        <v>3799.942</v>
+        <v>3381.784</v>
       </c>
       <c r="F129">
-        <v>8133.209</v>
+        <v>1315.515</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3102,19 +3102,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>794.927</v>
+        <v>11221.902</v>
       </c>
       <c r="C130">
-        <v>4141.894</v>
+        <v>11344.388</v>
       </c>
       <c r="D130">
-        <v>183.063</v>
+        <v>165.283</v>
       </c>
       <c r="E130">
-        <v>4317.846</v>
+        <v>1444.063</v>
       </c>
       <c r="F130">
-        <v>11735.641</v>
+        <v>401.452</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3122,19 +3122,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1636.406</v>
+        <v>13681.651</v>
       </c>
       <c r="C131">
-        <v>2281.124</v>
+        <v>4992.113</v>
       </c>
       <c r="D131">
-        <v>2609.119</v>
+        <v>624.3049999999999</v>
       </c>
       <c r="E131">
-        <v>3707.341</v>
+        <v>5853.624</v>
       </c>
       <c r="F131">
-        <v>5068.08</v>
+        <v>6551.659</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3142,19 +3142,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>534.902</v>
+        <v>12078.841</v>
       </c>
       <c r="C132">
-        <v>-88.23099999999999</v>
+        <v>5310.185</v>
       </c>
       <c r="D132">
-        <v>1773.321</v>
+        <v>3247.865</v>
       </c>
       <c r="E132">
-        <v>5664.619</v>
+        <v>1555.771</v>
       </c>
       <c r="F132">
-        <v>10322.514</v>
+        <v>7759.879</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3162,19 +3162,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>250.073</v>
+        <v>779.072</v>
       </c>
       <c r="C133">
-        <v>6239.539</v>
+        <v>20201.047</v>
       </c>
       <c r="D133">
-        <v>969.508</v>
+        <v>2726.8</v>
       </c>
       <c r="E133">
-        <v>5667.246</v>
+        <v>4190.01</v>
       </c>
       <c r="F133">
-        <v>2757.935</v>
+        <v>2598.839</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3182,19 +3182,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>2263.371</v>
+        <v>3314.136</v>
       </c>
       <c r="C134">
-        <v>5230.94</v>
+        <v>8864.271000000001</v>
       </c>
       <c r="D134">
-        <v>2523.859</v>
+        <v>934.814</v>
       </c>
       <c r="E134">
-        <v>552.853</v>
+        <v>3513.176</v>
       </c>
       <c r="F134">
-        <v>9288.495999999999</v>
+        <v>503.078</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3202,19 +3202,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1639.756</v>
+        <v>6959.941</v>
       </c>
       <c r="C135">
-        <v>5815.223</v>
+        <v>25916.312</v>
       </c>
       <c r="D135">
-        <v>800.8920000000001</v>
+        <v>3110.88</v>
       </c>
       <c r="E135">
-        <v>6183.644</v>
+        <v>4202.107</v>
       </c>
       <c r="F135">
-        <v>5586.157</v>
+        <v>4245.699</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3222,19 +3222,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>3483.068</v>
+        <v>778.516</v>
       </c>
       <c r="C136">
-        <v>3875.644</v>
+        <v>15547.166</v>
       </c>
       <c r="D136">
-        <v>35.485</v>
+        <v>2486.843</v>
       </c>
       <c r="E136">
-        <v>212.545</v>
+        <v>6454.793</v>
       </c>
       <c r="F136">
-        <v>10950.761</v>
+        <v>5400.295</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3242,19 +3242,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>785.345</v>
+        <v>27949.211</v>
       </c>
       <c r="C137">
-        <v>4434.044</v>
+        <v>28428.846</v>
       </c>
       <c r="D137">
-        <v>1962.893</v>
+        <v>4300.208</v>
       </c>
       <c r="E137">
-        <v>10814.513</v>
+        <v>9423.861000000001</v>
       </c>
       <c r="F137">
-        <v>27134.098</v>
+        <v>5842.084</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3262,19 +3262,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6001.116</v>
+        <v>35968.814</v>
       </c>
       <c r="C138">
-        <v>2930.717</v>
+        <v>3323.189</v>
       </c>
       <c r="D138">
-        <v>1088.111</v>
+        <v>5286.041</v>
       </c>
       <c r="E138">
-        <v>6909.635</v>
+        <v>6569.785</v>
       </c>
       <c r="F138">
-        <v>15721.504</v>
+        <v>2033.682</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3282,19 +3282,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1333.729</v>
+        <v>25902.388</v>
       </c>
       <c r="C139">
-        <v>9116.989</v>
+        <v>23916.471</v>
       </c>
       <c r="D139">
-        <v>276.907</v>
+        <v>314.025</v>
       </c>
       <c r="E139">
-        <v>7851.373</v>
+        <v>2805.351</v>
       </c>
       <c r="F139">
-        <v>22685.009</v>
+        <v>620.6130000000001</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3302,19 +3302,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>2745.622</v>
+        <v>31580.004</v>
       </c>
       <c r="C140">
-        <v>5021.084</v>
+        <v>10524.423</v>
       </c>
       <c r="D140">
-        <v>3947.08</v>
+        <v>1186.298</v>
       </c>
       <c r="E140">
-        <v>6741.253</v>
+        <v>11371.859</v>
       </c>
       <c r="F140">
-        <v>9796.605</v>
+        <v>10128.347</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3322,19 +3322,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>897.441</v>
+        <v>27880.383</v>
       </c>
       <c r="C141">
-        <v>-194.313</v>
+        <v>11194.992</v>
       </c>
       <c r="D141">
-        <v>2682.672</v>
+        <v>6171.808</v>
       </c>
       <c r="E141">
-        <v>10300.296</v>
+        <v>3022.368</v>
       </c>
       <c r="F141">
-        <v>19953.433</v>
+        <v>11996.16</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3342,19 +3342,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>419.534</v>
+        <v>1798.153</v>
       </c>
       <c r="C142">
-        <v>13734.301</v>
+        <v>42588.333</v>
       </c>
       <c r="D142">
-        <v>1466.652</v>
+        <v>5181.636</v>
       </c>
       <c r="E142">
-        <v>10305.073</v>
+        <v>8139.936</v>
       </c>
       <c r="F142">
-        <v>5331.092</v>
+        <v>4017.6</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3362,19 +3362,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>3797.588</v>
+        <v>7649.611</v>
       </c>
       <c r="C143">
-        <v>11514.184</v>
+        <v>18687.817</v>
       </c>
       <c r="D143">
-        <v>3818.097</v>
+        <v>1776.353</v>
       </c>
       <c r="E143">
-        <v>1005.246</v>
+        <v>6825.042</v>
       </c>
       <c r="F143">
-        <v>17954.675</v>
+        <v>777.7190000000001</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3382,19 +3382,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>2751.242</v>
+        <v>16064.891</v>
       </c>
       <c r="C144">
-        <v>12800.301</v>
+        <v>54637.418</v>
       </c>
       <c r="D144">
-        <v>1211.567</v>
+        <v>5911.497</v>
       </c>
       <c r="E144">
-        <v>11244.072</v>
+        <v>8163.437</v>
       </c>
       <c r="F144">
-        <v>10798.049</v>
+        <v>6563.515</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3402,19 +3402,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5844.082</v>
+        <v>1796.869</v>
       </c>
       <c r="C145">
-        <v>8530.922</v>
+        <v>32776.888</v>
       </c>
       <c r="D145">
-        <v>53.648</v>
+        <v>4725.649</v>
       </c>
       <c r="E145">
-        <v>386.442</v>
+        <v>12539.758</v>
       </c>
       <c r="F145">
-        <v>21167.835</v>
+        <v>8348.429</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3422,19 +3422,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1260.434</v>
+        <v>67350.87699999999</v>
       </c>
       <c r="C146">
-        <v>10378.655</v>
+        <v>61737.922</v>
       </c>
       <c r="D146">
-        <v>2773.502</v>
+        <v>8165.016</v>
       </c>
       <c r="E146">
-        <v>21337.58</v>
+        <v>18689.876</v>
       </c>
       <c r="F146">
-        <v>51111.68</v>
+        <v>8191.399</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3442,19 +3442,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>9631.781000000001</v>
+        <v>86676.22500000001</v>
       </c>
       <c r="C147">
-        <v>6859.818</v>
+        <v>7216.766</v>
       </c>
       <c r="D147">
-        <v>1537.452</v>
+        <v>10036.879</v>
       </c>
       <c r="E147">
-        <v>13633.04</v>
+        <v>13029.514</v>
       </c>
       <c r="F147">
-        <v>29614.122</v>
+        <v>2851.499</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3462,19 +3462,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>2140.594</v>
+        <v>62418.517</v>
       </c>
       <c r="C148">
-        <v>21340.024</v>
+        <v>51938.541</v>
       </c>
       <c r="D148">
-        <v>391.237</v>
+        <v>596.2</v>
       </c>
       <c r="E148">
-        <v>15491.141</v>
+        <v>5563.678</v>
       </c>
       <c r="F148">
-        <v>42731.066</v>
+        <v>870.184</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3482,19 +3482,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>4406.691</v>
+        <v>76100.23</v>
       </c>
       <c r="C149">
-        <v>11752.74</v>
+        <v>22855.457</v>
       </c>
       <c r="D149">
-        <v>5577.12</v>
+        <v>2252.44</v>
       </c>
       <c r="E149">
-        <v>13300.814</v>
+        <v>22553.254</v>
       </c>
       <c r="F149">
-        <v>18453.569</v>
+        <v>14201.324</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3502,19 +3502,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1440.349</v>
+        <v>67185.018</v>
       </c>
       <c r="C150">
-        <v>-454.94</v>
+        <v>24311.71</v>
       </c>
       <c r="D150">
-        <v>3790.536</v>
+        <v>11718.741</v>
       </c>
       <c r="E150">
-        <v>20323.001</v>
+        <v>5994.079</v>
       </c>
       <c r="F150">
-        <v>37585.679</v>
+        <v>16820.253</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3522,19 +3522,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>673.3049999999999</v>
+        <v>4333.007</v>
       </c>
       <c r="C151">
-        <v>32147.766</v>
+        <v>92487.629</v>
       </c>
       <c r="D151">
-        <v>2072.323</v>
+        <v>9838.638999999999</v>
       </c>
       <c r="E151">
-        <v>20332.427</v>
+        <v>16143.525</v>
       </c>
       <c r="F151">
-        <v>10042.017</v>
+        <v>5633.223</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3542,19 +3542,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6095.104</v>
+        <v>18433.638</v>
       </c>
       <c r="C152">
-        <v>26951.138</v>
+        <v>40583.639</v>
       </c>
       <c r="D152">
-        <v>5394.869</v>
+        <v>3372.814</v>
       </c>
       <c r="E152">
-        <v>1983.356</v>
+        <v>13535.754</v>
       </c>
       <c r="F152">
-        <v>33820.679</v>
+        <v>1090.468</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3562,19 +3562,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>4415.711</v>
+        <v>38712.474</v>
       </c>
       <c r="C153">
-        <v>29961.552</v>
+        <v>118654.242</v>
       </c>
       <c r="D153">
-        <v>1711.893</v>
+        <v>11224.472</v>
       </c>
       <c r="E153">
-        <v>22185.123</v>
+        <v>16190.133</v>
       </c>
       <c r="F153">
-        <v>20339.959</v>
+        <v>9202.942999999999</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3582,19 +3582,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>9379.74</v>
+        <v>4329.913</v>
       </c>
       <c r="C154">
-        <v>19968.217</v>
+        <v>71180.42600000001</v>
       </c>
       <c r="D154">
-        <v>75.776</v>
+        <v>8972.828</v>
       </c>
       <c r="E154">
-        <v>762.421</v>
+        <v>24869.497</v>
       </c>
       <c r="F154">
-        <v>39873.211</v>
+        <v>11705.636</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3602,19 +3602,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>2722.378</v>
+        <v>119953.299</v>
       </c>
       <c r="C155">
-        <v>19135.859</v>
+        <v>135300.069</v>
       </c>
       <c r="D155">
-        <v>3986.259</v>
+        <v>18039.227</v>
       </c>
       <c r="E155">
-        <v>39819.545</v>
+        <v>31039.712</v>
       </c>
       <c r="F155">
-        <v>77900.40399999999</v>
+        <v>18404.457</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3622,19 +3622,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>20804.066</v>
+        <v>154372.16</v>
       </c>
       <c r="C156">
-        <v>12647.907</v>
+        <v>15815.62</v>
       </c>
       <c r="D156">
-        <v>2209.714</v>
+        <v>22174.811</v>
       </c>
       <c r="E156">
-        <v>25441.55</v>
+        <v>21639.104</v>
       </c>
       <c r="F156">
-        <v>45135.517</v>
+        <v>6406.755</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3642,19 +3642,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>4623.479</v>
+        <v>111168.659</v>
       </c>
       <c r="C157">
-        <v>39346.183</v>
+        <v>113824.486</v>
       </c>
       <c r="D157">
-        <v>562.287</v>
+        <v>1317.13</v>
       </c>
       <c r="E157">
-        <v>28909.086</v>
+        <v>9240.003000000001</v>
       </c>
       <c r="F157">
-        <v>65127.332</v>
+        <v>1955.132</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3662,19 +3662,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>9518.134</v>
+        <v>135536.085</v>
       </c>
       <c r="C158">
-        <v>21669.366</v>
+        <v>50088.195</v>
       </c>
       <c r="D158">
-        <v>8015.833</v>
+        <v>4976.329</v>
       </c>
       <c r="E158">
-        <v>24821.56</v>
+        <v>37455.927</v>
       </c>
       <c r="F158">
-        <v>28125.479</v>
+        <v>31907.572</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3682,19 +3682,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>3110.985</v>
+        <v>119657.9</v>
       </c>
       <c r="C159">
-        <v>-838.878</v>
+        <v>53279.609</v>
       </c>
       <c r="D159">
-        <v>5448.018</v>
+        <v>25890.619</v>
       </c>
       <c r="E159">
-        <v>37926.166</v>
+        <v>9954.805</v>
       </c>
       <c r="F159">
-        <v>57285.137</v>
+        <v>37791.789</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3702,19 +3702,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1454.209</v>
+        <v>7717.114</v>
       </c>
       <c r="C160">
-        <v>59273.253</v>
+        <v>202688.805</v>
       </c>
       <c r="D160">
-        <v>2978.471</v>
+        <v>21736.832</v>
       </c>
       <c r="E160">
-        <v>37943.757</v>
+        <v>26810.787</v>
       </c>
       <c r="F160">
-        <v>15305.253</v>
+        <v>12656.74</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3722,19 +3722,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>13165.021</v>
+        <v>32830.642</v>
       </c>
       <c r="C161">
-        <v>49691.828</v>
+        <v>88939.94</v>
       </c>
       <c r="D161">
-        <v>7753.887</v>
+        <v>7451.618</v>
       </c>
       <c r="E161">
-        <v>3701.239</v>
+        <v>22479.857</v>
       </c>
       <c r="F161">
-        <v>51546.82</v>
+        <v>2450.066</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3742,19 +3742,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>9537.617</v>
+        <v>68947.686</v>
       </c>
       <c r="C162">
-        <v>55242.361</v>
+        <v>260033.578</v>
       </c>
       <c r="D162">
-        <v>2460.434</v>
+        <v>24798.61</v>
       </c>
       <c r="E162">
-        <v>41401.206</v>
+        <v>26888.193</v>
       </c>
       <c r="F162">
-        <v>31000.567</v>
+        <v>20677.196</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3762,19 +3762,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>20259.669</v>
+        <v>7711.604</v>
       </c>
       <c r="C163">
-        <v>36816.876</v>
+        <v>155993.548</v>
       </c>
       <c r="D163">
-        <v>108.882</v>
+        <v>19823.96</v>
       </c>
       <c r="E163">
-        <v>1422.764</v>
+        <v>41302.695</v>
       </c>
       <c r="F163">
-        <v>60771.614</v>
+        <v>26300.254</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3782,19 +3782,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6315.879</v>
+        <v>196066.551</v>
       </c>
       <c r="C164">
-        <v>33078.858</v>
+        <v>297077.807</v>
       </c>
       <c r="D164">
-        <v>5777.014</v>
+        <v>41190.26</v>
       </c>
       <c r="E164">
-        <v>73154.181</v>
+        <v>48511.092</v>
       </c>
       <c r="F164">
-        <v>108973.65</v>
+        <v>46285.794</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3802,19 +3802,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>48265.87</v>
+        <v>252325.022</v>
       </c>
       <c r="C165">
-        <v>21863.556</v>
+        <v>34726.204</v>
       </c>
       <c r="D165">
-        <v>3202.375</v>
+        <v>50633.355</v>
       </c>
       <c r="E165">
-        <v>46739.739</v>
+        <v>33819.138</v>
       </c>
       <c r="F165">
-        <v>63139.365</v>
+        <v>16112.496</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3822,19 +3822,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>10726.483</v>
+        <v>181707.842</v>
       </c>
       <c r="C166">
-        <v>68015.13499999999</v>
+        <v>249923.942</v>
       </c>
       <c r="D166">
-        <v>814.859</v>
+        <v>3007.419</v>
       </c>
       <c r="E166">
-        <v>53110.101</v>
+        <v>14440.92</v>
       </c>
       <c r="F166">
-        <v>91105.601</v>
+        <v>4917.007</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3842,19 +3842,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>22082.211</v>
+        <v>221536.996</v>
       </c>
       <c r="C167">
-        <v>37458.368</v>
+        <v>109978.382</v>
       </c>
       <c r="D167">
-        <v>11616.832</v>
+        <v>11362.748</v>
       </c>
       <c r="E167">
-        <v>45600.729</v>
+        <v>58538.82</v>
       </c>
       <c r="F167">
-        <v>39344.29</v>
+        <v>80245.08900000001</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3862,19 +3862,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7217.457</v>
+        <v>195583.714</v>
       </c>
       <c r="C168">
-        <v>-1450.174</v>
+        <v>116985.759</v>
       </c>
       <c r="D168">
-        <v>7895.453</v>
+        <v>59117.944</v>
       </c>
       <c r="E168">
-        <v>69675.772</v>
+        <v>15558.065</v>
       </c>
       <c r="F168">
-        <v>80135.27800000001</v>
+        <v>95043.442</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3882,19 +3882,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>3373.694</v>
+        <v>12613.759</v>
       </c>
       <c r="C169">
-        <v>102461.769</v>
+        <v>445043.028</v>
       </c>
       <c r="D169">
-        <v>4316.488</v>
+        <v>49633.285</v>
       </c>
       <c r="E169">
-        <v>69708.08900000001</v>
+        <v>41901.82</v>
       </c>
       <c r="F169">
-        <v>21410.278</v>
+        <v>31830.727</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3902,19 +3902,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>30543.084</v>
+        <v>53662.436</v>
       </c>
       <c r="C170">
-        <v>85898.981</v>
+        <v>195285.028</v>
       </c>
       <c r="D170">
-        <v>11237.209</v>
+        <v>17014.764</v>
       </c>
       <c r="E170">
-        <v>6799.665</v>
+        <v>35133.128</v>
       </c>
       <c r="F170">
-        <v>72108.03599999999</v>
+        <v>6161.727</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3922,19 +3922,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>22127.412</v>
+        <v>112696.628</v>
       </c>
       <c r="C171">
-        <v>95493.827</v>
+        <v>570954.753</v>
       </c>
       <c r="D171">
-        <v>3565.728</v>
+        <v>56624.476</v>
       </c>
       <c r="E171">
-        <v>76059.92</v>
+        <v>42022.796</v>
       </c>
       <c r="F171">
-        <v>43366.206</v>
+        <v>52001.557</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3942,19 +3942,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>47002.854</v>
+        <v>12604.753</v>
       </c>
       <c r="C172">
-        <v>63642.886</v>
+        <v>342514.409</v>
       </c>
       <c r="D172">
-        <v>157.766</v>
+        <v>45265.478</v>
       </c>
       <c r="E172">
-        <v>2613.779</v>
+        <v>64550.829</v>
       </c>
       <c r="F172">
-        <v>85012.45600000001</v>
+        <v>66143.11599999999</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3962,19 +3962,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>13825.174</v>
+        <v>360409.714</v>
       </c>
       <c r="C173">
-        <v>76660.439</v>
+        <v>755636.191</v>
       </c>
       <c r="D173">
-        <v>11553.863</v>
+        <v>64753.195</v>
       </c>
       <c r="E173">
-        <v>115340.467</v>
+        <v>90820.125</v>
       </c>
       <c r="F173">
-        <v>143860.974</v>
+        <v>92588.87699999999</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3982,19 +3982,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>105652.462</v>
+        <v>463824.107</v>
       </c>
       <c r="C174">
-        <v>50668.877</v>
+        <v>88328.183</v>
       </c>
       <c r="D174">
-        <v>6404.629</v>
+        <v>79598.232</v>
       </c>
       <c r="E174">
-        <v>73693.42999999999</v>
+        <v>63314.545</v>
       </c>
       <c r="F174">
-        <v>83353.091</v>
+        <v>32231.01</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4002,19 +4002,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>23479.855</v>
+        <v>334015.517</v>
       </c>
       <c r="C175">
-        <v>157625.574</v>
+        <v>635697.333</v>
       </c>
       <c r="D175">
-        <v>1629.638</v>
+        <v>4727.782</v>
       </c>
       <c r="E175">
-        <v>83737.432</v>
+        <v>27035.562</v>
       </c>
       <c r="F175">
-        <v>120272.566</v>
+        <v>9835.851000000001</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4022,19 +4022,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>48337.207</v>
+        <v>407229.518</v>
       </c>
       <c r="C176">
-        <v>86809.993</v>
+        <v>279736.89</v>
       </c>
       <c r="D176">
-        <v>23233.4</v>
+        <v>17862.794</v>
       </c>
       <c r="E176">
-        <v>71897.58</v>
+        <v>109593.563</v>
       </c>
       <c r="F176">
-        <v>51940.151</v>
+        <v>160520.151</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4042,19 +4042,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>15798.701</v>
+        <v>359522.162</v>
       </c>
       <c r="C177">
-        <v>-3360.9</v>
+        <v>297560.599</v>
       </c>
       <c r="D177">
-        <v>15790.705</v>
+        <v>92936.448</v>
       </c>
       <c r="E177">
-        <v>109856.14</v>
+        <v>29127.028</v>
       </c>
       <c r="F177">
-        <v>105790.154</v>
+        <v>190122.385</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4062,19 +4062,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7384.818</v>
+        <v>23186.558</v>
       </c>
       <c r="C178">
-        <v>237455.956</v>
+        <v>1131995.153</v>
       </c>
       <c r="D178">
-        <v>8632.835999999999</v>
+        <v>78026.07000000001</v>
       </c>
       <c r="E178">
-        <v>109907.094</v>
+        <v>78446.55899999999</v>
       </c>
       <c r="F178">
-        <v>28264.663</v>
+        <v>63673.343</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4082,19 +4082,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>66857.808</v>
+        <v>98642.289</v>
       </c>
       <c r="C179">
-        <v>199071.547</v>
+        <v>496719.776</v>
       </c>
       <c r="D179">
-        <v>22474.16</v>
+        <v>26748.057</v>
       </c>
       <c r="E179">
-        <v>10720.844</v>
+        <v>65774.534</v>
       </c>
       <c r="F179">
-        <v>95193.033</v>
+        <v>12325.755</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4102,19 +4102,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>48436.151</v>
+        <v>207159.015</v>
       </c>
       <c r="C180">
-        <v>221307.688</v>
+        <v>1452259.643</v>
       </c>
       <c r="D180">
-        <v>7131.329</v>
+        <v>89016.586</v>
       </c>
       <c r="E180">
-        <v>119921.878</v>
+        <v>78673.04399999999</v>
       </c>
       <c r="F180">
-        <v>57249.662</v>
+        <v>104022.538</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4122,19 +4122,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>102887.757</v>
+        <v>23170.004</v>
       </c>
       <c r="C181">
-        <v>147492.847</v>
+        <v>871207.0820000001</v>
       </c>
       <c r="D181">
-        <v>315.463</v>
+        <v>71159.64999999999</v>
       </c>
       <c r="E181">
-        <v>4121.055</v>
+        <v>120848.961</v>
       </c>
       <c r="F181">
-        <v>112228.734</v>
+        <v>132310.938</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4142,19 +4142,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>29906.025</v>
+        <v>686937.211</v>
       </c>
       <c r="C182">
-        <v>188929.699</v>
+        <v>1969075.047</v>
       </c>
       <c r="D182">
-        <v>25302.832</v>
+        <v>88963.66099999999</v>
       </c>
       <c r="E182">
-        <v>171482.943</v>
+        <v>179629.036</v>
       </c>
       <c r="F182">
-        <v>183783.432</v>
+        <v>175742.333</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4162,19 +4162,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>228543.529</v>
+        <v>884044.003</v>
       </c>
       <c r="C183">
-        <v>124873.437</v>
+        <v>230169.934</v>
       </c>
       <c r="D183">
-        <v>14026.031</v>
+        <v>109359.091</v>
       </c>
       <c r="E183">
-        <v>109564.02</v>
+        <v>125226.973</v>
       </c>
       <c r="F183">
-        <v>106484.175</v>
+        <v>61177.466</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4182,19 +4182,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>50790.686</v>
+        <v>636630.137</v>
       </c>
       <c r="C184">
-        <v>388468.453</v>
+        <v>1656532.277</v>
       </c>
       <c r="D184">
-        <v>3568.822</v>
+        <v>6495.422</v>
       </c>
       <c r="E184">
-        <v>124496.986</v>
+        <v>53472.386</v>
       </c>
       <c r="F184">
-        <v>153649.071</v>
+        <v>18669.364</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4202,19 +4202,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>104561.22</v>
+        <v>776175.286</v>
       </c>
       <c r="C185">
-        <v>213943.297</v>
+        <v>728952.468</v>
       </c>
       <c r="D185">
-        <v>50880.968</v>
+        <v>24541.467</v>
       </c>
       <c r="E185">
-        <v>106894.032</v>
+        <v>216760.184</v>
       </c>
       <c r="F185">
-        <v>66353.917</v>
+        <v>304682.233</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4222,19 +4222,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>34175.088</v>
+        <v>685245.546</v>
       </c>
       <c r="C186">
-        <v>-8283.066999999999</v>
+        <v>775398.394</v>
       </c>
       <c r="D186">
-        <v>34581.498</v>
+        <v>127684.316</v>
       </c>
       <c r="E186">
-        <v>163329.095</v>
+        <v>57609.003</v>
       </c>
       <c r="F186">
-        <v>135147.685</v>
+        <v>360870.037</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4242,19 +4242,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>15974.478</v>
+        <v>44193.271</v>
       </c>
       <c r="C187">
-        <v>585210.605</v>
+        <v>2949810.353</v>
       </c>
       <c r="D187">
-        <v>18905.795</v>
+        <v>107199.115</v>
       </c>
       <c r="E187">
-        <v>163404.851</v>
+        <v>155155.91</v>
       </c>
       <c r="F187">
-        <v>36108.311</v>
+        <v>120857.95</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4262,19 +4262,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>144624.322</v>
+        <v>188011.135</v>
       </c>
       <c r="C188">
-        <v>490612.145</v>
+        <v>1294377.497</v>
       </c>
       <c r="D188">
-        <v>49218.236</v>
+        <v>36748.83</v>
       </c>
       <c r="E188">
-        <v>15939.239</v>
+        <v>130092.475</v>
       </c>
       <c r="F188">
-        <v>121609.786</v>
+        <v>23395.433</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4282,19 +4282,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>104775.252</v>
+        <v>394842.921</v>
       </c>
       <c r="C189">
-        <v>545413.1629999999</v>
+        <v>3784371.833</v>
       </c>
       <c r="D189">
-        <v>15617.501</v>
+        <v>122298.861</v>
       </c>
       <c r="E189">
-        <v>178294.377</v>
+        <v>155603.864</v>
       </c>
       <c r="F189">
-        <v>73136.856</v>
+        <v>197444.489</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4302,19 +4302,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>222563.018</v>
+        <v>44161.719</v>
       </c>
       <c r="C190">
-        <v>363496.325</v>
+        <v>2270235.547</v>
       </c>
       <c r="D190">
-        <v>690.784</v>
+        <v>97765.41800000001</v>
       </c>
       <c r="E190">
-        <v>6126.972</v>
+        <v>239021.735</v>
       </c>
       <c r="F190">
-        <v>143373.018</v>
+        <v>251138.513</v>
       </c>
     </row>
   </sheetData>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1749148255992661</v>
+        <v>0.05955214130674402</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03564302594131664</v>
+        <v>0.1818823984290107</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4412,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5925831329467852</v>
+        <v>0.003404457822306063</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4420,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3300468254838228</v>
+        <v>0.04387801147054079</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4428,7 +4428,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1554896016777011</v>
+        <v>0.02037398100422457</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4436,7 +4436,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4633742967811303</v>
+        <v>0.08034350245408674</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4444,7 +4444,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08644992089049655</v>
+        <v>0.04568632274335221</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4452,7 +4452,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2591097370253644</v>
+        <v>0.18676899612354</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4460,7 +4460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02178671462146474</v>
+        <v>0.1880350761600455</v>
       </c>
     </row>
   </sheetData>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1749148255992661</v>
+        <v>0.05955214130674402</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03564302594131664</v>
+        <v>0.1818823984290107</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5925831329467852</v>
+        <v>0.003404457822306063</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3300468254838228</v>
+        <v>0.04387801147054079</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1554896016777011</v>
+        <v>0.02037398100422457</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4633742967811303</v>
+        <v>0.08034350245408674</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08644992089049655</v>
+        <v>0.04568632274335221</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2591097370253644</v>
+        <v>0.18676899612354</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02178671462146474</v>
+        <v>0.1880350761600455</v>
       </c>
     </row>
   </sheetData>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.996724621217287</v>
+        <v>1.398516134638038</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.247372321261544</v>
+        <v>0.8847870217049661</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.561716174051445</v>
+        <v>0.9864879321090136</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.672870337827109</v>
+        <v>1.140274785021091</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.652865656282111</v>
+        <v>1.176798031982991</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.271345783114468</v>
+        <v>1.167150274564057</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.063383651691267</v>
+        <v>1.234225885432126</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9534773081718303</v>
+        <v>1.27179658226963</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.955126433981742</v>
+        <v>0.8139077319340228</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.996724621217287</v>
+        <v>1.398516134638038</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.247372321261544</v>
+        <v>0.8847870217049661</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.561716174051445</v>
+        <v>0.9864879321090136</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.672870337827109</v>
+        <v>1.140274785021091</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.652865656282111</v>
+        <v>1.176798031982991</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.271345783114468</v>
+        <v>1.167150274564057</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.063383651691267</v>
+        <v>1.234225885432126</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9534773081718303</v>
+        <v>1.27179658226963</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.955126433981742</v>
+        <v>0.8139077319340228</v>
       </c>
     </row>
   </sheetData>
@@ -4788,19 +4788,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.653</v>
+        <v>0.618</v>
       </c>
       <c r="C3">
-        <v>0.454</v>
+        <v>0.035</v>
       </c>
       <c r="D3">
-        <v>0.832</v>
+        <v>0.773</v>
       </c>
       <c r="E3">
-        <v>0.056</v>
+        <v>0.795</v>
       </c>
       <c r="F3">
-        <v>0.638</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4808,19 +4808,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.287</v>
+        <v>0.116</v>
       </c>
       <c r="C4">
-        <v>0.596</v>
+        <v>0.358</v>
       </c>
       <c r="D4">
-        <v>0.603</v>
+        <v>0.392</v>
       </c>
       <c r="E4">
-        <v>0.765</v>
+        <v>0.867</v>
       </c>
       <c r="F4">
-        <v>0.893</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4828,19 +4828,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.203</v>
+        <v>0.952</v>
       </c>
       <c r="C5">
-        <v>0.519</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="D5">
-        <v>0.157</v>
+        <v>0.604</v>
       </c>
       <c r="E5">
-        <v>0.931</v>
+        <v>0.425</v>
       </c>
       <c r="F5">
-        <v>0.297</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4848,19 +4848,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.603</v>
+        <v>0.869</v>
       </c>
       <c r="C6">
-        <v>0.889</v>
+        <v>0.928</v>
       </c>
       <c r="D6">
-        <v>0.152</v>
+        <v>0.068</v>
       </c>
       <c r="E6">
-        <v>0.517</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F6">
-        <v>0.986</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4868,19 +4868,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.583</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="C7">
-        <v>0.432</v>
+        <v>0.978</v>
       </c>
       <c r="D7">
-        <v>0.613</v>
+        <v>0.044</v>
       </c>
       <c r="E7">
-        <v>0.457</v>
+        <v>0.317</v>
       </c>
       <c r="F7">
-        <v>0.248</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4888,19 +4888,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.171</v>
+        <v>0.323</v>
       </c>
       <c r="C8">
-        <v>0.09</v>
+        <v>0.726</v>
       </c>
       <c r="D8">
-        <v>0.161</v>
+        <v>0.851</v>
       </c>
       <c r="E8">
-        <v>0.226</v>
+        <v>0.12</v>
       </c>
       <c r="F8">
-        <v>0.173</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4908,19 +4908,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.459</v>
+        <v>0.409</v>
       </c>
       <c r="C9">
-        <v>0.303</v>
+        <v>0.375</v>
       </c>
       <c r="D9">
-        <v>0.362</v>
+        <v>0.409</v>
       </c>
       <c r="E9">
-        <v>0.093</v>
+        <v>0.386</v>
       </c>
       <c r="F9">
-        <v>0.639</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4928,19 +4928,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.201</v>
+        <v>0.843</v>
       </c>
       <c r="C10">
-        <v>0.795</v>
+        <v>0.646</v>
       </c>
       <c r="D10">
-        <v>0.074</v>
+        <v>0.425</v>
       </c>
       <c r="E10">
-        <v>0.523</v>
+        <v>0.498</v>
       </c>
       <c r="F10">
-        <v>0.401</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4948,19 +4948,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.783</v>
+        <v>0.196</v>
       </c>
       <c r="C11">
-        <v>0.271</v>
+        <v>0.652</v>
       </c>
       <c r="D11">
-        <v>0.145</v>
+        <v>0.736</v>
       </c>
       <c r="E11">
-        <v>0.373</v>
+        <v>0.165</v>
       </c>
       <c r="F11">
-        <v>0.055</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4968,19 +4968,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
       <c r="C12">
-        <v>0.896</v>
+        <v>0.999</v>
       </c>
       <c r="D12">
-        <v>0.6899999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="E12">
-        <v>0.121</v>
+        <v>0.512</v>
       </c>
       <c r="F12">
-        <v>0.035</v>
+        <v>0.398</v>
       </c>
     </row>
   </sheetData>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05860407655501032</v>
+        <v>0.03243696835504817</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05121362749621849</v>
+        <v>0.2662821890685697</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9746648076259878</v>
+        <v>0.7999857177561073</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6966767000136322</v>
+        <v>0.1746970352000441</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7357191569277975</v>
+        <v>0.6764442653674172</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2418357256430785</v>
+        <v>0.3171145471749074</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7109590318779255</v>
+        <v>0.2397261285481355</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01295124588390384</v>
+        <v>0.328102143121342</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9080242023062808</v>
+        <v>0.7475210386385953</v>
       </c>
     </row>
   </sheetData>
@@ -5108,19 +5108,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.158</v>
+        <v>0.671</v>
       </c>
       <c r="C2">
-        <v>0.324</v>
+        <v>0.456</v>
       </c>
       <c r="D2">
-        <v>0.471</v>
+        <v>0.627</v>
       </c>
       <c r="E2">
-        <v>0.858</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="F2">
-        <v>0.998</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5128,19 +5128,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.928</v>
+        <v>0.846</v>
       </c>
       <c r="C3">
-        <v>0.221</v>
+        <v>0.063</v>
       </c>
       <c r="D3">
-        <v>0.264</v>
+        <v>0.777</v>
       </c>
       <c r="E3">
-        <v>0.545</v>
+        <v>0.475</v>
       </c>
       <c r="F3">
-        <v>0.64</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5148,19 +5148,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.229</v>
+        <v>0.614</v>
       </c>
       <c r="C4">
-        <v>0.621</v>
+        <v>0.383</v>
       </c>
       <c r="D4">
-        <v>0.067</v>
+        <v>0.046</v>
       </c>
       <c r="E4">
-        <v>0.624</v>
+        <v>0.186</v>
       </c>
       <c r="F4">
-        <v>0.997</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5168,19 +5168,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.433</v>
+        <v>0.737</v>
       </c>
       <c r="C5">
-        <v>0.349</v>
+        <v>0.172</v>
       </c>
       <c r="D5">
-        <v>0.962</v>
+        <v>0.178</v>
       </c>
       <c r="E5">
-        <v>0.542</v>
+        <v>0.884</v>
       </c>
       <c r="F5">
-        <v>0.434</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5188,19 +5188,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.153</v>
+        <v>0.649</v>
       </c>
       <c r="C6">
-        <v>0.004</v>
+        <v>0.181</v>
       </c>
       <c r="D6">
-        <v>0.646</v>
+        <v>0.902</v>
       </c>
       <c r="E6">
-        <v>0.8169999999999999</v>
+        <v>0.191</v>
       </c>
       <c r="F6">
-        <v>0.895</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5208,19 +5208,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.077</v>
+        <v>0.055</v>
       </c>
       <c r="C7">
-        <v>0.909</v>
+        <v>0.668</v>
       </c>
       <c r="D7">
-        <v>0.356</v>
+        <v>0.762</v>
       </c>
       <c r="E7">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="F7">
-        <v>0.237</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5228,19 +5228,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.574</v>
+        <v>0.182</v>
       </c>
       <c r="C8">
-        <v>0.761</v>
+        <v>0.294</v>
       </c>
       <c r="D8">
-        <v>0.927</v>
+        <v>0.261</v>
       </c>
       <c r="E8">
-        <v>0.083</v>
+        <v>0.542</v>
       </c>
       <c r="F8">
-        <v>0.8080000000000001</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5248,19 +5248,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.414</v>
+        <v>0.367</v>
       </c>
       <c r="C9">
-        <v>0.841</v>
+        <v>0.853</v>
       </c>
       <c r="D9">
-        <v>0.294</v>
+        <v>0.869</v>
       </c>
       <c r="E9">
-        <v>0.916</v>
+        <v>0.664</v>
       </c>
       <c r="F9">
-        <v>0.485</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5268,19 +5268,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.869</v>
+        <v>0.041</v>
       </c>
       <c r="C10">
-        <v>0.5580000000000001</v>
+        <v>0.511</v>
       </c>
       <c r="D10">
-        <v>0.013</v>
+        <v>0.695</v>
       </c>
       <c r="E10">
-        <v>0.031</v>
+        <v>0.986</v>
       </c>
       <c r="F10">
-        <v>0.955</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5288,19 +5288,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.135</v>
+        <v>0.649</v>
       </c>
       <c r="C11">
-        <v>0.308</v>
+        <v>0.455</v>
       </c>
       <c r="D11">
-        <v>0.474</v>
+        <v>0.63</v>
       </c>
       <c r="E11">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="F11">
-        <v>1.119</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5308,19 +5308,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.908</v>
+        <v>0.827</v>
       </c>
       <c r="C12">
-        <v>0.207</v>
+        <v>0.062</v>
       </c>
       <c r="D12">
-        <v>0.264</v>
+        <v>0.777</v>
       </c>
       <c r="E12">
-        <v>0.547</v>
+        <v>0.499</v>
       </c>
       <c r="F12">
-        <v>0.677</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5328,19 +5328,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.212</v>
+        <v>0.598</v>
       </c>
       <c r="C13">
-        <v>0.609</v>
+        <v>0.382</v>
       </c>
       <c r="D13">
-        <v>0.067</v>
+        <v>0.046</v>
       </c>
       <c r="E13">
-        <v>0.625</v>
+        <v>0.206</v>
       </c>
       <c r="F13">
-        <v>1.011</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5348,19 +5348,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.419</v>
+        <v>0.724</v>
       </c>
       <c r="C14">
-        <v>0.339</v>
+        <v>0.171</v>
       </c>
       <c r="D14">
-        <v>0.96</v>
+        <v>0.176</v>
       </c>
       <c r="E14">
-        <v>0.542</v>
+        <v>0.89</v>
       </c>
       <c r="F14">
-        <v>0.438</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5368,19 +5368,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.142</v>
+        <v>0.638</v>
       </c>
       <c r="C15">
-        <v>-0.004</v>
+        <v>0.18</v>
       </c>
       <c r="D15">
-        <v>0.649</v>
+        <v>0.905</v>
       </c>
       <c r="E15">
-        <v>0.819</v>
+        <v>0.218</v>
       </c>
       <c r="F15">
-        <v>0.898</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5388,19 +5388,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.06900000000000001</v>
+        <v>0.047</v>
       </c>
       <c r="C16">
-        <v>0.904</v>
+        <v>0.668</v>
       </c>
       <c r="D16">
-        <v>0.356</v>
+        <v>0.762</v>
       </c>
       <c r="E16">
-        <v>0.83</v>
+        <v>0.636</v>
       </c>
       <c r="F16">
-        <v>0.239</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5408,19 +5408,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.569</v>
+        <v>0.177</v>
       </c>
       <c r="C17">
-        <v>0.757</v>
+        <v>0.294</v>
       </c>
       <c r="D17">
-        <v>0.927</v>
+        <v>0.261</v>
       </c>
       <c r="E17">
-        <v>0.083</v>
+        <v>0.539</v>
       </c>
       <c r="F17">
-        <v>0.8090000000000001</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5428,19 +5428,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.411</v>
+        <v>0.365</v>
       </c>
       <c r="C18">
-        <v>0.839</v>
+        <v>0.853</v>
       </c>
       <c r="D18">
-        <v>0.294</v>
+        <v>0.869</v>
       </c>
       <c r="E18">
-        <v>0.915</v>
+        <v>0.651</v>
       </c>
       <c r="F18">
-        <v>0.486</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5448,19 +5448,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.869</v>
+        <v>0.041</v>
       </c>
       <c r="C19">
-        <v>0.5580000000000001</v>
+        <v>0.511</v>
       </c>
       <c r="D19">
-        <v>0.013</v>
+        <v>0.695</v>
       </c>
       <c r="E19">
-        <v>0.031</v>
+        <v>0.986</v>
       </c>
       <c r="F19">
-        <v>0.955</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5468,19 +5468,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2</v>
+        <v>1.028</v>
       </c>
       <c r="C20">
-        <v>0.431</v>
+        <v>0.47</v>
       </c>
       <c r="D20">
-        <v>0.872</v>
+        <v>1.12</v>
       </c>
       <c r="E20">
-        <v>0.91</v>
+        <v>1.321</v>
       </c>
       <c r="F20">
-        <v>1.954</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5488,19 +5488,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.481</v>
+        <v>1.32</v>
       </c>
       <c r="C21">
-        <v>0.287</v>
+        <v>0.063</v>
       </c>
       <c r="D21">
-        <v>0.484</v>
+        <v>1.378</v>
       </c>
       <c r="E21">
-        <v>0.579</v>
+        <v>0.92</v>
       </c>
       <c r="F21">
-        <v>1.146</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5508,19 +5508,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.333</v>
+        <v>0.951</v>
       </c>
       <c r="C22">
-        <v>0.874</v>
+        <v>0.394</v>
       </c>
       <c r="D22">
-        <v>0.123</v>
+        <v>0.082</v>
       </c>
       <c r="E22">
-        <v>0.661</v>
+        <v>0.39</v>
       </c>
       <c r="F22">
-        <v>1.67</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5528,19 +5528,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.679</v>
+        <v>1.158</v>
       </c>
       <c r="C23">
-        <v>0.483</v>
+        <v>0.176</v>
       </c>
       <c r="D23">
-        <v>1.756</v>
+        <v>0.31</v>
       </c>
       <c r="E23">
-        <v>0.573</v>
+        <v>1.603</v>
       </c>
       <c r="F23">
-        <v>0.722</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5548,19 +5548,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.224</v>
+        <v>1.022</v>
       </c>
       <c r="C24">
-        <v>-0.014</v>
+        <v>0.186</v>
       </c>
       <c r="D24">
-        <v>1.192</v>
+        <v>1.608</v>
       </c>
       <c r="E24">
-        <v>0.867</v>
+        <v>0.418</v>
       </c>
       <c r="F24">
-        <v>1.473</v>
+        <v>1.144</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5568,19 +5568,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.106</v>
+        <v>0.068</v>
       </c>
       <c r="C25">
-        <v>1.309</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="D25">
-        <v>0.652</v>
+        <v>1.351</v>
       </c>
       <c r="E25">
-        <v>0.877</v>
+        <v>1.147</v>
       </c>
       <c r="F25">
-        <v>0.393</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5588,19 +5588,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9350000000000001</v>
+        <v>0.281</v>
       </c>
       <c r="C26">
-        <v>1.097</v>
+        <v>0.304</v>
       </c>
       <c r="D26">
-        <v>1.698</v>
+        <v>0.463</v>
       </c>
       <c r="E26">
-        <v>0.08699999999999999</v>
+        <v>0.964</v>
       </c>
       <c r="F26">
-        <v>1.326</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5608,19 +5608,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.677</v>
+        <v>0.588</v>
       </c>
       <c r="C27">
-        <v>1.218</v>
+        <v>0.883</v>
       </c>
       <c r="D27">
-        <v>0.539</v>
+        <v>1.541</v>
       </c>
       <c r="E27">
-        <v>0.965</v>
+        <v>1.156</v>
       </c>
       <c r="F27">
-        <v>0.797</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5628,19 +5628,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.436</v>
+        <v>0.066</v>
       </c>
       <c r="C28">
-        <v>0.8110000000000001</v>
+        <v>0.529</v>
       </c>
       <c r="D28">
-        <v>0.024</v>
+        <v>1.232</v>
       </c>
       <c r="E28">
-        <v>0.033</v>
+        <v>1.77</v>
       </c>
       <c r="F28">
-        <v>1.564</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5648,19 +5648,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.286</v>
+        <v>1.218</v>
       </c>
       <c r="C29">
-        <v>0.85</v>
+        <v>0.788</v>
       </c>
       <c r="D29">
-        <v>1.686</v>
+        <v>1.808</v>
       </c>
       <c r="E29">
-        <v>2.292</v>
+        <v>3.122</v>
       </c>
       <c r="F29">
-        <v>4.868</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5668,19 +5668,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.158</v>
+        <v>1.566</v>
       </c>
       <c r="C30">
-        <v>0.5629999999999999</v>
+        <v>0.097</v>
       </c>
       <c r="D30">
-        <v>0.9350000000000001</v>
+        <v>2.223</v>
       </c>
       <c r="E30">
-        <v>1.463</v>
+        <v>2.176</v>
       </c>
       <c r="F30">
-        <v>2.826</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5688,19 +5688,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.482</v>
+        <v>1.128</v>
       </c>
       <c r="C31">
-        <v>1.742</v>
+        <v>0.662</v>
       </c>
       <c r="D31">
-        <v>0.238</v>
+        <v>0.132</v>
       </c>
       <c r="E31">
-        <v>1.664</v>
+        <v>0.928</v>
       </c>
       <c r="F31">
-        <v>4.084</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5708,19 +5708,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.988</v>
+        <v>1.374</v>
       </c>
       <c r="C32">
-        <v>0.96</v>
+        <v>0.293</v>
       </c>
       <c r="D32">
-        <v>3.392</v>
+        <v>0.499</v>
       </c>
       <c r="E32">
-        <v>1.431</v>
+        <v>3.771</v>
       </c>
       <c r="F32">
-        <v>1.764</v>
+        <v>1.553</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5728,19 +5728,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.324</v>
+        <v>1.213</v>
       </c>
       <c r="C33">
-        <v>-0.035</v>
+        <v>0.311</v>
       </c>
       <c r="D33">
-        <v>2.305</v>
+        <v>2.595</v>
       </c>
       <c r="E33">
-        <v>2.183</v>
+        <v>0.999</v>
       </c>
       <c r="F33">
-        <v>3.594</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5748,19 +5748,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.152</v>
+        <v>0.08</v>
       </c>
       <c r="C34">
-        <v>2.621</v>
+        <v>1.173</v>
       </c>
       <c r="D34">
-        <v>1.26</v>
+        <v>2.179</v>
       </c>
       <c r="E34">
-        <v>2.188</v>
+        <v>2.699</v>
       </c>
       <c r="F34">
-        <v>0.96</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5768,19 +5768,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.364</v>
+        <v>0.333</v>
       </c>
       <c r="C35">
-        <v>2.197</v>
+        <v>0.515</v>
       </c>
       <c r="D35">
-        <v>3.281</v>
+        <v>0.747</v>
       </c>
       <c r="E35">
-        <v>0.214</v>
+        <v>2.264</v>
       </c>
       <c r="F35">
-        <v>3.234</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5788,19 +5788,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.988</v>
+        <v>0.698</v>
       </c>
       <c r="C36">
-        <v>2.442</v>
+        <v>1.503</v>
       </c>
       <c r="D36">
-        <v>1.041</v>
+        <v>2.486</v>
       </c>
       <c r="E36">
-        <v>2.391</v>
+        <v>2.709</v>
       </c>
       <c r="F36">
-        <v>1.945</v>
+        <v>1.007</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5808,19 +5808,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.098</v>
+        <v>0.078</v>
       </c>
       <c r="C37">
-        <v>1.627</v>
+        <v>0.901</v>
       </c>
       <c r="D37">
-        <v>0.046</v>
+        <v>1.987</v>
       </c>
       <c r="E37">
-        <v>0.082</v>
+        <v>4.159</v>
       </c>
       <c r="F37">
-        <v>3.813</v>
+        <v>1.281</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5828,19 +5828,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.454</v>
+        <v>1.55</v>
       </c>
       <c r="C38">
-        <v>1.776</v>
+        <v>1.388</v>
       </c>
       <c r="D38">
-        <v>3.517</v>
+        <v>3.204</v>
       </c>
       <c r="E38">
-        <v>5.427</v>
+        <v>7.63</v>
       </c>
       <c r="F38">
-        <v>12.129</v>
+        <v>1.535</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5848,19 +5848,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.454</v>
+        <v>1.993</v>
       </c>
       <c r="C39">
-        <v>1.174</v>
+        <v>0.165</v>
       </c>
       <c r="D39">
-        <v>1.95</v>
+        <v>3.939</v>
       </c>
       <c r="E39">
-        <v>3.467</v>
+        <v>5.319</v>
       </c>
       <c r="F39">
-        <v>7.029</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5868,19 +5868,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.769</v>
+        <v>1.436</v>
       </c>
       <c r="C40">
-        <v>3.649</v>
+        <v>1.167</v>
       </c>
       <c r="D40">
-        <v>0.496</v>
+        <v>0.234</v>
       </c>
       <c r="E40">
-        <v>3.94</v>
+        <v>2.271</v>
       </c>
       <c r="F40">
-        <v>10.145</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5888,19 +5888,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.581</v>
+        <v>1.749</v>
       </c>
       <c r="C41">
-        <v>2.01</v>
+        <v>0.515</v>
       </c>
       <c r="D41">
-        <v>7.073</v>
+        <v>0.884</v>
       </c>
       <c r="E41">
-        <v>3.384</v>
+        <v>9.208</v>
       </c>
       <c r="F41">
-        <v>4.381</v>
+        <v>2.688</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5908,19 +5908,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.517</v>
+        <v>1.544</v>
       </c>
       <c r="C42">
-        <v>-0.077</v>
+        <v>0.547</v>
       </c>
       <c r="D42">
-        <v>4.807</v>
+        <v>4.599</v>
       </c>
       <c r="E42">
-        <v>5.169</v>
+        <v>2.446</v>
       </c>
       <c r="F42">
-        <v>8.923999999999999</v>
+        <v>3.184</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5928,19 +5928,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.242</v>
+        <v>0.101</v>
       </c>
       <c r="C43">
-        <v>5.495</v>
+        <v>2.075</v>
       </c>
       <c r="D43">
-        <v>2.628</v>
+        <v>3.861</v>
       </c>
       <c r="E43">
-        <v>5.173</v>
+        <v>6.591</v>
       </c>
       <c r="F43">
-        <v>2.384</v>
+        <v>1.066</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5948,19 +5948,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.185</v>
+        <v>0.424</v>
       </c>
       <c r="C44">
-        <v>4.607</v>
+        <v>0.911</v>
       </c>
       <c r="D44">
-        <v>6.842</v>
+        <v>1.324</v>
       </c>
       <c r="E44">
-        <v>0.505</v>
+        <v>5.527</v>
       </c>
       <c r="F44">
-        <v>8.029999999999999</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5968,19 +5968,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.583</v>
+        <v>0.889</v>
       </c>
       <c r="C45">
-        <v>5.121</v>
+        <v>2.661</v>
       </c>
       <c r="D45">
-        <v>2.171</v>
+        <v>4.405</v>
       </c>
       <c r="E45">
-        <v>5.646</v>
+        <v>6.611</v>
       </c>
       <c r="F45">
-        <v>4.829</v>
+        <v>1.742</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5988,19 +5988,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3.362</v>
+        <v>0.099</v>
       </c>
       <c r="C46">
-        <v>3.413</v>
+        <v>1.596</v>
       </c>
       <c r="D46">
-        <v>0.096</v>
+        <v>3.521</v>
       </c>
       <c r="E46">
-        <v>0.194</v>
+        <v>10.154</v>
       </c>
       <c r="F46">
-        <v>9.467000000000001</v>
+        <v>2.216</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6008,19 +6008,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.665</v>
+        <v>5.748</v>
       </c>
       <c r="C47">
-        <v>3.504</v>
+        <v>3.865</v>
       </c>
       <c r="D47">
-        <v>4.546</v>
+        <v>7.291</v>
       </c>
       <c r="E47">
-        <v>14.295</v>
+        <v>13.082</v>
       </c>
       <c r="F47">
-        <v>18.146</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6028,19 +6028,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.072</v>
+        <v>7.397</v>
       </c>
       <c r="C48">
-        <v>2.316</v>
+        <v>0.453</v>
       </c>
       <c r="D48">
-        <v>2.52</v>
+        <v>8.962</v>
       </c>
       <c r="E48">
-        <v>9.132999999999999</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="F48">
-        <v>10.515</v>
+        <v>1.114</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6048,19 +6048,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.128</v>
+        <v>5.327</v>
       </c>
       <c r="C49">
-        <v>7.203</v>
+        <v>3.251</v>
       </c>
       <c r="D49">
-        <v>0.641</v>
+        <v>0.532</v>
       </c>
       <c r="E49">
-        <v>10.378</v>
+        <v>3.894</v>
       </c>
       <c r="F49">
-        <v>15.174</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6068,19 +6068,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.321</v>
+        <v>6.494</v>
       </c>
       <c r="C50">
-        <v>3.967</v>
+        <v>1.431</v>
       </c>
       <c r="D50">
-        <v>9.141999999999999</v>
+        <v>2.011</v>
       </c>
       <c r="E50">
-        <v>8.911</v>
+        <v>15.787</v>
       </c>
       <c r="F50">
-        <v>6.553</v>
+        <v>5.561</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6088,19 +6088,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.759</v>
+        <v>5.733</v>
       </c>
       <c r="C51">
-        <v>-0.153</v>
+        <v>1.522</v>
       </c>
       <c r="D51">
-        <v>6.213</v>
+        <v>10.464</v>
       </c>
       <c r="E51">
-        <v>13.615</v>
+        <v>4.195</v>
       </c>
       <c r="F51">
-        <v>13.347</v>
+        <v>6.587</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6108,19 +6108,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.355</v>
+        <v>0.37</v>
       </c>
       <c r="C52">
-        <v>10.85</v>
+        <v>5.788</v>
       </c>
       <c r="D52">
-        <v>3.397</v>
+        <v>8.785</v>
       </c>
       <c r="E52">
-        <v>13.622</v>
+        <v>11.3</v>
       </c>
       <c r="F52">
-        <v>3.566</v>
+        <v>2.206</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6128,19 +6128,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.209</v>
+        <v>1.573</v>
       </c>
       <c r="C53">
-        <v>9.096</v>
+        <v>2.54</v>
       </c>
       <c r="D53">
-        <v>8.843</v>
+        <v>3.012</v>
       </c>
       <c r="E53">
-        <v>1.329</v>
+        <v>9.475</v>
       </c>
       <c r="F53">
-        <v>12.01</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6148,19 +6148,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.325</v>
+        <v>3.303</v>
       </c>
       <c r="C54">
-        <v>10.112</v>
+        <v>7.425</v>
       </c>
       <c r="D54">
-        <v>2.806</v>
+        <v>10.023</v>
       </c>
       <c r="E54">
-        <v>14.864</v>
+        <v>11.333</v>
       </c>
       <c r="F54">
-        <v>7.223</v>
+        <v>3.604</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6168,19 +6168,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.938</v>
+        <v>0.369</v>
       </c>
       <c r="C55">
-        <v>6.739</v>
+        <v>4.454</v>
       </c>
       <c r="D55">
-        <v>0.124</v>
+        <v>8.012</v>
       </c>
       <c r="E55">
-        <v>0.511</v>
+        <v>17.408</v>
       </c>
       <c r="F55">
-        <v>14.159</v>
+        <v>4.584</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6188,19 +6188,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.011</v>
+        <v>15.418</v>
       </c>
       <c r="C56">
-        <v>7.05</v>
+        <v>9.464</v>
       </c>
       <c r="D56">
-        <v>6.289</v>
+        <v>15.781</v>
       </c>
       <c r="E56">
-        <v>36.471</v>
+        <v>24.094</v>
       </c>
       <c r="F56">
-        <v>29.553</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6208,19 +6208,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7.72</v>
+        <v>19.842</v>
       </c>
       <c r="C57">
-        <v>4.66</v>
+        <v>1.107</v>
       </c>
       <c r="D57">
-        <v>3.486</v>
+        <v>19.399</v>
       </c>
       <c r="E57">
-        <v>23.302</v>
+        <v>16.797</v>
       </c>
       <c r="F57">
-        <v>17.124</v>
+        <v>2.235</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6228,19 +6228,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.716</v>
+        <v>14.289</v>
       </c>
       <c r="C58">
-        <v>14.495</v>
+        <v>7.962</v>
       </c>
       <c r="D58">
-        <v>0.887</v>
+        <v>1.152</v>
       </c>
       <c r="E58">
-        <v>26.478</v>
+        <v>7.172</v>
       </c>
       <c r="F58">
-        <v>24.709</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6248,19 +6248,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3.532</v>
+        <v>17.421</v>
       </c>
       <c r="C59">
-        <v>7.983</v>
+        <v>3.504</v>
       </c>
       <c r="D59">
-        <v>12.646</v>
+        <v>4.353</v>
       </c>
       <c r="E59">
-        <v>22.734</v>
+        <v>29.075</v>
       </c>
       <c r="F59">
-        <v>10.671</v>
+        <v>11.137</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6268,19 +6268,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.155</v>
+        <v>15.38</v>
       </c>
       <c r="C60">
-        <v>-0.309</v>
+        <v>3.727</v>
       </c>
       <c r="D60">
-        <v>8.595000000000001</v>
+        <v>22.65</v>
       </c>
       <c r="E60">
-        <v>34.737</v>
+        <v>7.727</v>
       </c>
       <c r="F60">
-        <v>21.734</v>
+        <v>13.191</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6288,19 +6288,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.54</v>
+        <v>0.992</v>
       </c>
       <c r="C61">
-        <v>21.836</v>
+        <v>14.177</v>
       </c>
       <c r="D61">
-        <v>4.699</v>
+        <v>19.016</v>
       </c>
       <c r="E61">
-        <v>34.753</v>
+        <v>20.812</v>
       </c>
       <c r="F61">
-        <v>5.807</v>
+        <v>4.418</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6308,19 +6308,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.885</v>
+        <v>4.22</v>
       </c>
       <c r="C62">
-        <v>18.306</v>
+        <v>6.221</v>
       </c>
       <c r="D62">
-        <v>12.233</v>
+        <v>6.519</v>
       </c>
       <c r="E62">
-        <v>3.39</v>
+        <v>17.45</v>
       </c>
       <c r="F62">
-        <v>19.557</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6328,19 +6328,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3.539</v>
+        <v>8.862</v>
       </c>
       <c r="C63">
-        <v>20.351</v>
+        <v>18.188</v>
       </c>
       <c r="D63">
-        <v>3.882</v>
+        <v>21.695</v>
       </c>
       <c r="E63">
-        <v>37.92</v>
+        <v>20.872</v>
       </c>
       <c r="F63">
-        <v>11.762</v>
+        <v>7.217</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6348,19 +6348,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7.517</v>
+        <v>0.991</v>
       </c>
       <c r="C64">
-        <v>13.563</v>
+        <v>10.911</v>
       </c>
       <c r="D64">
-        <v>0.172</v>
+        <v>17.342</v>
       </c>
       <c r="E64">
-        <v>1.303</v>
+        <v>32.061</v>
       </c>
       <c r="F64">
-        <v>23.057</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6368,19 +6368,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.649</v>
+        <v>37.644</v>
       </c>
       <c r="C65">
-        <v>19.392</v>
+        <v>24.678</v>
       </c>
       <c r="D65">
-        <v>8.932</v>
+        <v>17.81</v>
       </c>
       <c r="E65">
-        <v>67.64100000000001</v>
+        <v>52.047</v>
       </c>
       <c r="F65">
-        <v>96.56100000000001</v>
+        <v>13.895</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6388,19 +6388,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>20.24</v>
+        <v>48.445</v>
       </c>
       <c r="C66">
-        <v>12.817</v>
+        <v>2.885</v>
       </c>
       <c r="D66">
-        <v>4.951</v>
+        <v>21.893</v>
       </c>
       <c r="E66">
-        <v>43.217</v>
+        <v>36.284</v>
       </c>
       <c r="F66">
-        <v>55.948</v>
+        <v>4.837</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6408,19 +6408,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.498</v>
+        <v>34.887</v>
       </c>
       <c r="C67">
-        <v>39.872</v>
+        <v>20.761</v>
       </c>
       <c r="D67">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="E67">
-        <v>49.108</v>
+        <v>15.493</v>
       </c>
       <c r="F67">
-        <v>80.729</v>
+        <v>1.476</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6428,19 +6428,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>9.26</v>
+        <v>42.534</v>
       </c>
       <c r="C68">
-        <v>21.959</v>
+        <v>9.135999999999999</v>
       </c>
       <c r="D68">
-        <v>17.961</v>
+        <v>4.913</v>
       </c>
       <c r="E68">
-        <v>42.164</v>
+        <v>62.806</v>
       </c>
       <c r="F68">
-        <v>34.863</v>
+        <v>24.093</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6448,19 +6448,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3.027</v>
+        <v>37.551</v>
       </c>
       <c r="C69">
-        <v>-0.85</v>
+        <v>9.718</v>
       </c>
       <c r="D69">
-        <v>12.207</v>
+        <v>25.562</v>
       </c>
       <c r="E69">
-        <v>64.425</v>
+        <v>16.692</v>
       </c>
       <c r="F69">
-        <v>71.008</v>
+        <v>28.536</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6468,19 +6468,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.415</v>
+        <v>2.422</v>
       </c>
       <c r="C70">
-        <v>60.066</v>
+        <v>36.969</v>
       </c>
       <c r="D70">
-        <v>6.674</v>
+        <v>21.461</v>
       </c>
       <c r="E70">
-        <v>64.455</v>
+        <v>44.956</v>
       </c>
       <c r="F70">
-        <v>18.972</v>
+        <v>9.557</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6488,19 +6488,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>12.808</v>
+        <v>10.303</v>
       </c>
       <c r="C71">
-        <v>50.356</v>
+        <v>16.222</v>
       </c>
       <c r="D71">
-        <v>17.374</v>
+        <v>7.357</v>
       </c>
       <c r="E71">
-        <v>6.287</v>
+        <v>37.694</v>
       </c>
       <c r="F71">
-        <v>63.895</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6508,19 +6508,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>9.279</v>
+        <v>21.637</v>
       </c>
       <c r="C72">
-        <v>55.981</v>
+        <v>47.428</v>
       </c>
       <c r="D72">
-        <v>5.513</v>
+        <v>24.484</v>
       </c>
       <c r="E72">
-        <v>70.328</v>
+        <v>45.086</v>
       </c>
       <c r="F72">
-        <v>38.427</v>
+        <v>15.613</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6528,19 +6528,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>19.71</v>
+        <v>2.42</v>
       </c>
       <c r="C73">
-        <v>37.309</v>
+        <v>28.452</v>
       </c>
       <c r="D73">
-        <v>0.244</v>
+        <v>19.572</v>
       </c>
       <c r="E73">
-        <v>2.417</v>
+        <v>69.256</v>
       </c>
       <c r="F73">
-        <v>75.33</v>
+        <v>19.859</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6548,19 +6548,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.884</v>
+        <v>92.58199999999999</v>
       </c>
       <c r="C74">
-        <v>48.973</v>
+        <v>62.793</v>
       </c>
       <c r="D74">
-        <v>12.933</v>
+        <v>21.05</v>
       </c>
       <c r="E74">
-        <v>133.782</v>
+        <v>109.094</v>
       </c>
       <c r="F74">
-        <v>258.778</v>
+        <v>29.332</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6568,19 +6568,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>44.965</v>
+        <v>119.147</v>
       </c>
       <c r="C75">
-        <v>32.369</v>
+        <v>7.34</v>
       </c>
       <c r="D75">
-        <v>7.169</v>
+        <v>25.876</v>
       </c>
       <c r="E75">
-        <v>85.476</v>
+        <v>76.054</v>
       </c>
       <c r="F75">
-        <v>149.936</v>
+        <v>10.211</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6588,19 +6588,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>9.993</v>
+        <v>85.80200000000001</v>
       </c>
       <c r="C76">
-        <v>100.696</v>
+        <v>52.826</v>
       </c>
       <c r="D76">
-        <v>1.824</v>
+        <v>1.537</v>
       </c>
       <c r="E76">
-        <v>97.126</v>
+        <v>32.475</v>
       </c>
       <c r="F76">
-        <v>216.347</v>
+        <v>3.116</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6608,19 +6608,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>20.572</v>
+        <v>104.609</v>
       </c>
       <c r="C77">
-        <v>55.457</v>
+        <v>23.246</v>
       </c>
       <c r="D77">
-        <v>26.006</v>
+        <v>5.807</v>
       </c>
       <c r="E77">
-        <v>83.393</v>
+        <v>131.645</v>
       </c>
       <c r="F77">
-        <v>93.43000000000001</v>
+        <v>50.854</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6628,19 +6628,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6.724</v>
+        <v>92.354</v>
       </c>
       <c r="C78">
-        <v>-2.147</v>
+        <v>24.727</v>
       </c>
       <c r="D78">
-        <v>17.675</v>
+        <v>30.212</v>
       </c>
       <c r="E78">
-        <v>127.421</v>
+        <v>34.988</v>
       </c>
       <c r="F78">
-        <v>190.296</v>
+        <v>60.232</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6648,19 +6648,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.143</v>
+        <v>5.956</v>
       </c>
       <c r="C79">
-        <v>151.694</v>
+        <v>94.068</v>
       </c>
       <c r="D79">
-        <v>9.663</v>
+        <v>25.365</v>
       </c>
       <c r="E79">
-        <v>127.48</v>
+        <v>94.23099999999999</v>
       </c>
       <c r="F79">
-        <v>50.843</v>
+        <v>20.172</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6668,19 +6668,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>28.454</v>
+        <v>25.339</v>
       </c>
       <c r="C80">
-        <v>127.173</v>
+        <v>41.277</v>
       </c>
       <c r="D80">
-        <v>25.156</v>
+        <v>8.695</v>
       </c>
       <c r="E80">
-        <v>12.435</v>
+        <v>79.009</v>
       </c>
       <c r="F80">
-        <v>171.234</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6688,19 +6688,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>20.614</v>
+        <v>53.215</v>
       </c>
       <c r="C81">
-        <v>141.378</v>
+        <v>120.682</v>
       </c>
       <c r="D81">
-        <v>7.982</v>
+        <v>28.938</v>
       </c>
       <c r="E81">
-        <v>139.096</v>
+        <v>94.503</v>
       </c>
       <c r="F81">
-        <v>102.981</v>
+        <v>32.955</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6708,19 +6708,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>43.788</v>
+        <v>5.952</v>
       </c>
       <c r="C82">
-        <v>94.223</v>
+        <v>72.39700000000001</v>
       </c>
       <c r="D82">
-        <v>0.353</v>
+        <v>23.133</v>
       </c>
       <c r="E82">
-        <v>4.78</v>
+        <v>145.165</v>
       </c>
       <c r="F82">
-        <v>201.878</v>
+        <v>41.917</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6728,19 +6728,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>12.442</v>
+        <v>238.568</v>
       </c>
       <c r="C83">
-        <v>84.504</v>
+        <v>164.373</v>
       </c>
       <c r="D83">
-        <v>36.995</v>
+        <v>24.073</v>
       </c>
       <c r="E83">
-        <v>253.385</v>
+        <v>176.027</v>
       </c>
       <c r="F83">
-        <v>363.756</v>
+        <v>77.33199999999999</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6748,19 +6748,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>95.084</v>
+        <v>307.022</v>
       </c>
       <c r="C84">
-        <v>55.853</v>
+        <v>19.214</v>
       </c>
       <c r="D84">
-        <v>20.507</v>
+        <v>29.592</v>
       </c>
       <c r="E84">
-        <v>161.893</v>
+        <v>122.716</v>
       </c>
       <c r="F84">
-        <v>210.76</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6768,19 +6768,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>21.131</v>
+        <v>221.097</v>
       </c>
       <c r="C85">
-        <v>173.753</v>
+        <v>138.283</v>
       </c>
       <c r="D85">
-        <v>5.218</v>
+        <v>1.758</v>
       </c>
       <c r="E85">
-        <v>183.958</v>
+        <v>52.4</v>
       </c>
       <c r="F85">
-        <v>304.112</v>
+        <v>8.215</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6788,19 +6788,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>43.502</v>
+        <v>269.56</v>
       </c>
       <c r="C86">
-        <v>95.69199999999999</v>
+        <v>60.851</v>
       </c>
       <c r="D86">
-        <v>74.392</v>
+        <v>6.641</v>
       </c>
       <c r="E86">
-        <v>157.948</v>
+        <v>212.414</v>
       </c>
       <c r="F86">
-        <v>131.332</v>
+        <v>134.07</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6808,19 +6808,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>14.218</v>
+        <v>237.981</v>
       </c>
       <c r="C87">
-        <v>-3.705</v>
+        <v>64.72799999999999</v>
       </c>
       <c r="D87">
-        <v>50.561</v>
+        <v>34.55</v>
       </c>
       <c r="E87">
-        <v>241.337</v>
+        <v>56.454</v>
       </c>
       <c r="F87">
-        <v>267.493</v>
+        <v>158.794</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6828,19 +6828,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6.646</v>
+        <v>15.348</v>
       </c>
       <c r="C88">
-        <v>261.752</v>
+        <v>246.242</v>
       </c>
       <c r="D88">
-        <v>27.642</v>
+        <v>29.007</v>
       </c>
       <c r="E88">
-        <v>241.449</v>
+        <v>152.045</v>
       </c>
       <c r="F88">
-        <v>71.468</v>
+        <v>53.181</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6848,19 +6848,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>60.17</v>
+        <v>65.295</v>
       </c>
       <c r="C89">
-        <v>219.44</v>
+        <v>108.051</v>
       </c>
       <c r="D89">
-        <v>71.961</v>
+        <v>9.944000000000001</v>
       </c>
       <c r="E89">
-        <v>23.552</v>
+        <v>127.484</v>
       </c>
       <c r="F89">
-        <v>240.698</v>
+        <v>10.295</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6868,19 +6868,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>43.591</v>
+        <v>137.126</v>
       </c>
       <c r="C90">
-        <v>243.951</v>
+        <v>315.909</v>
       </c>
       <c r="D90">
-        <v>22.834</v>
+        <v>33.093</v>
       </c>
       <c r="E90">
-        <v>263.45</v>
+        <v>152.484</v>
       </c>
       <c r="F90">
-        <v>144.757</v>
+        <v>86.88200000000001</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6888,19 +6888,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>92.596</v>
+        <v>15.337</v>
       </c>
       <c r="C91">
-        <v>162.584</v>
+        <v>189.513</v>
       </c>
       <c r="D91">
-        <v>1.01</v>
+        <v>26.455</v>
       </c>
       <c r="E91">
-        <v>9.053000000000001</v>
+        <v>234.229</v>
       </c>
       <c r="F91">
-        <v>283.773</v>
+        <v>110.509</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6908,19 +6908,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>26.254</v>
+        <v>608.093</v>
       </c>
       <c r="C92">
-        <v>156.541</v>
+        <v>426.71</v>
       </c>
       <c r="D92">
-        <v>83.735</v>
+        <v>28.155</v>
       </c>
       <c r="E92">
-        <v>488.785</v>
+        <v>298.761</v>
       </c>
       <c r="F92">
-        <v>558.9450000000001</v>
+        <v>191.296</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6928,19 +6928,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>200.637</v>
+        <v>782.577</v>
       </c>
       <c r="C93">
-        <v>103.466</v>
+        <v>49.879</v>
       </c>
       <c r="D93">
-        <v>46.416</v>
+        <v>34.61</v>
       </c>
       <c r="E93">
-        <v>312.295</v>
+        <v>208.279</v>
       </c>
       <c r="F93">
-        <v>323.853</v>
+        <v>66.592</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6948,19 +6948,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>44.589</v>
+        <v>563.5599999999999</v>
       </c>
       <c r="C94">
-        <v>321.872</v>
+        <v>358.98</v>
       </c>
       <c r="D94">
-        <v>11.81</v>
+        <v>2.056</v>
       </c>
       <c r="E94">
-        <v>354.859</v>
+        <v>88.93600000000001</v>
       </c>
       <c r="F94">
-        <v>467.297</v>
+        <v>20.322</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6968,19 +6968,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>91.794</v>
+        <v>687.0890000000001</v>
       </c>
       <c r="C95">
-        <v>177.266</v>
+        <v>157.968</v>
       </c>
       <c r="D95">
-        <v>168.38</v>
+        <v>7.767</v>
       </c>
       <c r="E95">
-        <v>304.685</v>
+        <v>360.518</v>
       </c>
       <c r="F95">
-        <v>201.804</v>
+        <v>331.648</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6988,19 +6988,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>30.002</v>
+        <v>606.596</v>
       </c>
       <c r="C96">
-        <v>-6.863</v>
+        <v>168.033</v>
       </c>
       <c r="D96">
-        <v>114.441</v>
+        <v>40.409</v>
       </c>
       <c r="E96">
-        <v>465.544</v>
+        <v>95.816</v>
       </c>
       <c r="F96">
-        <v>411.028</v>
+        <v>392.808</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -7008,19 +7008,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>14.024</v>
+        <v>39.121</v>
       </c>
       <c r="C97">
-        <v>484.886</v>
+        <v>639.241</v>
       </c>
       <c r="D97">
-        <v>62.565</v>
+        <v>33.926</v>
       </c>
       <c r="E97">
-        <v>465.76</v>
+        <v>258.057</v>
       </c>
       <c r="F97">
-        <v>109.817</v>
+        <v>131.554</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -7028,19 +7028,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>126.965</v>
+        <v>166.432</v>
       </c>
       <c r="C98">
-        <v>406.505</v>
+        <v>280.499</v>
       </c>
       <c r="D98">
-        <v>162.878</v>
+        <v>11.63</v>
       </c>
       <c r="E98">
-        <v>45.432</v>
+        <v>216.371</v>
       </c>
       <c r="F98">
-        <v>369.855</v>
+        <v>25.466</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7048,19 +7048,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>91.982</v>
+        <v>349.524</v>
       </c>
       <c r="C99">
-        <v>451.911</v>
+        <v>820.095</v>
       </c>
       <c r="D99">
-        <v>51.683</v>
+        <v>38.704</v>
       </c>
       <c r="E99">
-        <v>508.2</v>
+        <v>258.802</v>
       </c>
       <c r="F99">
-        <v>222.433</v>
+        <v>214.919</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7068,19 +7068,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>195.387</v>
+        <v>39.093</v>
       </c>
       <c r="C100">
-        <v>301.181</v>
+        <v>491.973</v>
       </c>
       <c r="D100">
-        <v>2.286</v>
+        <v>30.941</v>
       </c>
       <c r="E100">
-        <v>17.464</v>
+        <v>397.544</v>
       </c>
       <c r="F100">
-        <v>436.044</v>
+        <v>273.365</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7088,19 +7088,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>34.795</v>
+        <v>931.889</v>
       </c>
       <c r="C101">
-        <v>185.637</v>
+        <v>931.242</v>
       </c>
       <c r="D101">
-        <v>109.492</v>
+        <v>131.063</v>
       </c>
       <c r="E101">
-        <v>715.663</v>
+        <v>381.073</v>
       </c>
       <c r="F101">
-        <v>791.803</v>
+        <v>266.023</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -7108,19 +7108,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>265.906</v>
+        <v>1199.281</v>
       </c>
       <c r="C102">
-        <v>122.697</v>
+        <v>108.855</v>
       </c>
       <c r="D102">
-        <v>60.694</v>
+        <v>161.11</v>
       </c>
       <c r="E102">
-        <v>457.252</v>
+        <v>265.662</v>
       </c>
       <c r="F102">
-        <v>458.771</v>
+        <v>92.605</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7128,19 +7128,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>59.094</v>
+        <v>863.643</v>
       </c>
       <c r="C103">
-        <v>381.699</v>
+        <v>783.4299999999999</v>
       </c>
       <c r="D103">
-        <v>15.443</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="E103">
-        <v>519.573</v>
+        <v>113.439</v>
       </c>
       <c r="F103">
-        <v>661.974</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -7148,19 +7148,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>121.655</v>
+        <v>1052.948</v>
       </c>
       <c r="C104">
-        <v>210.215</v>
+        <v>344.746</v>
       </c>
       <c r="D104">
-        <v>220.175</v>
+        <v>36.155</v>
       </c>
       <c r="E104">
-        <v>446.109</v>
+        <v>459.845</v>
       </c>
       <c r="F104">
-        <v>285.876</v>
+        <v>461.201</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -7168,19 +7168,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>39.762</v>
+        <v>929.5940000000001</v>
       </c>
       <c r="C105">
-        <v>-8.138999999999999</v>
+        <v>366.712</v>
       </c>
       <c r="D105">
-        <v>149.643</v>
+        <v>188.107</v>
       </c>
       <c r="E105">
-        <v>681.634</v>
+        <v>122.214</v>
       </c>
       <c r="F105">
-        <v>582.263</v>
+        <v>546.253</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -7188,19 +7188,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>18.586</v>
+        <v>59.952</v>
       </c>
       <c r="C106">
-        <v>575.0119999999999</v>
+        <v>1395.065</v>
       </c>
       <c r="D106">
-        <v>81.81</v>
+        <v>157.928</v>
       </c>
       <c r="E106">
-        <v>681.95</v>
+        <v>329.155</v>
       </c>
       <c r="F106">
-        <v>155.567</v>
+        <v>182.944</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -7208,19 +7208,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>168.268</v>
+        <v>255.053</v>
       </c>
       <c r="C107">
-        <v>482.062</v>
+        <v>612.155</v>
       </c>
       <c r="D107">
-        <v>212.98</v>
+        <v>54.139</v>
       </c>
       <c r="E107">
-        <v>66.52</v>
+        <v>275.984</v>
       </c>
       <c r="F107">
-        <v>523.937</v>
+        <v>35.414</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -7228,19 +7228,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>121.904</v>
+        <v>535.638</v>
       </c>
       <c r="C108">
-        <v>535.908</v>
+        <v>1789.757</v>
       </c>
       <c r="D108">
-        <v>67.581</v>
+        <v>180.173</v>
       </c>
       <c r="E108">
-        <v>744.09</v>
+        <v>330.105</v>
       </c>
       <c r="F108">
-        <v>315.099</v>
+        <v>298.874</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -7248,19 +7248,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>258.948</v>
+        <v>59.909</v>
       </c>
       <c r="C109">
-        <v>357.162</v>
+        <v>1073.671</v>
       </c>
       <c r="D109">
-        <v>2.989</v>
+        <v>144.03</v>
       </c>
       <c r="E109">
-        <v>25.57</v>
+        <v>507.072</v>
       </c>
       <c r="F109">
-        <v>617.701</v>
+        <v>380.151</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -7268,19 +7268,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>49.286</v>
+        <v>1556.685</v>
       </c>
       <c r="C110">
-        <v>231.441</v>
+        <v>2111.856</v>
       </c>
       <c r="D110">
-        <v>152.877</v>
+        <v>345.506</v>
       </c>
       <c r="E110">
-        <v>1104.281</v>
+        <v>509.114</v>
       </c>
       <c r="F110">
-        <v>1161.643</v>
+        <v>401.935</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -7288,19 +7288,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>376.645</v>
+        <v>2003.353</v>
       </c>
       <c r="C111">
-        <v>152.971</v>
+        <v>246.86</v>
       </c>
       <c r="D111">
-        <v>84.744</v>
+        <v>424.715</v>
       </c>
       <c r="E111">
-        <v>705.548</v>
+        <v>354.925</v>
       </c>
       <c r="F111">
-        <v>673.056</v>
+        <v>139.917</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -7308,19 +7308,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>83.70399999999999</v>
+        <v>1442.683</v>
       </c>
       <c r="C112">
-        <v>475.878</v>
+        <v>1776.65</v>
       </c>
       <c r="D112">
-        <v>21.562</v>
+        <v>25.226</v>
       </c>
       <c r="E112">
-        <v>801.71</v>
+        <v>151.554</v>
       </c>
       <c r="F112">
-        <v>971.172</v>
+        <v>42.698</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -7328,19 +7328,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>172.319</v>
+        <v>1758.909</v>
       </c>
       <c r="C113">
-        <v>262.083</v>
+        <v>781.8099999999999</v>
       </c>
       <c r="D113">
-        <v>307.418</v>
+        <v>95.31100000000001</v>
       </c>
       <c r="E113">
-        <v>688.354</v>
+        <v>614.353</v>
       </c>
       <c r="F113">
-        <v>419.404</v>
+        <v>696.83</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -7348,19 +7348,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>56.321</v>
+        <v>1552.851</v>
       </c>
       <c r="C114">
-        <v>-10.147</v>
+        <v>831.624</v>
       </c>
       <c r="D114">
-        <v>208.938</v>
+        <v>495.884</v>
       </c>
       <c r="E114">
-        <v>1051.773</v>
+        <v>163.278</v>
       </c>
       <c r="F114">
-        <v>854.23</v>
+        <v>825.336</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -7368,19 +7368,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>26.326</v>
+        <v>100.147</v>
       </c>
       <c r="C115">
-        <v>716.889</v>
+        <v>3163.706</v>
       </c>
       <c r="D115">
-        <v>114.227</v>
+        <v>416.326</v>
       </c>
       <c r="E115">
-        <v>1052.261</v>
+        <v>439.751</v>
       </c>
       <c r="F115">
-        <v>228.23</v>
+        <v>276.411</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7388,19 +7388,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>238.344</v>
+        <v>426.056</v>
       </c>
       <c r="C116">
-        <v>601.005</v>
+        <v>1388.235</v>
       </c>
       <c r="D116">
-        <v>297.372</v>
+        <v>142.72</v>
       </c>
       <c r="E116">
-        <v>102.642</v>
+        <v>368.715</v>
       </c>
       <c r="F116">
-        <v>768.6609999999999</v>
+        <v>53.507</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -7408,19 +7408,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>172.672</v>
+        <v>894.763</v>
       </c>
       <c r="C117">
-        <v>668.1369999999999</v>
+        <v>4058.783</v>
       </c>
       <c r="D117">
-        <v>94.35899999999999</v>
+        <v>474.969</v>
       </c>
       <c r="E117">
-        <v>1148.144</v>
+        <v>441.021</v>
       </c>
       <c r="F117">
-        <v>462.277</v>
+        <v>451.57</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -7428,19 +7428,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>366.789</v>
+        <v>100.076</v>
       </c>
       <c r="C118">
-        <v>445.287</v>
+        <v>2434.854</v>
       </c>
       <c r="D118">
-        <v>4.173</v>
+        <v>379.689</v>
       </c>
       <c r="E118">
-        <v>39.455</v>
+        <v>677.448</v>
       </c>
       <c r="F118">
-        <v>906.22</v>
+        <v>574.372</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -7448,19 +7448,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>110.804</v>
+        <v>2984.519</v>
       </c>
       <c r="C119">
-        <v>455.773</v>
+        <v>3513.623</v>
       </c>
       <c r="D119">
-        <v>305.768</v>
+        <v>589.881</v>
       </c>
       <c r="E119">
-        <v>1366.897</v>
+        <v>1117.497</v>
       </c>
       <c r="F119">
-        <v>3269.988</v>
+        <v>908.293</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7468,19 +7468,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>846.771</v>
+        <v>3840.884</v>
       </c>
       <c r="C120">
-        <v>301.244</v>
+        <v>410.716</v>
       </c>
       <c r="D120">
-        <v>169.495</v>
+        <v>725.115</v>
       </c>
       <c r="E120">
-        <v>873.3390000000001</v>
+        <v>779.054</v>
       </c>
       <c r="F120">
-        <v>1894.632</v>
+        <v>316.185</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -7488,19 +7488,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>188.183</v>
+        <v>2765.951</v>
       </c>
       <c r="C121">
-        <v>937.14</v>
+        <v>2955.921</v>
       </c>
       <c r="D121">
-        <v>43.126</v>
+        <v>43.068</v>
       </c>
       <c r="E121">
-        <v>992.37</v>
+        <v>332.659</v>
       </c>
       <c r="F121">
-        <v>2733.819</v>
+        <v>96.489</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -7508,19 +7508,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>387.407</v>
+        <v>3372.229</v>
       </c>
       <c r="C122">
-        <v>516.116</v>
+        <v>1300.745</v>
       </c>
       <c r="D122">
-        <v>614.864</v>
+        <v>162.724</v>
       </c>
       <c r="E122">
-        <v>852.056</v>
+        <v>1348.495</v>
       </c>
       <c r="F122">
-        <v>1180.61</v>
+        <v>1574.696</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -7528,19 +7528,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>126.621</v>
+        <v>2977.169</v>
       </c>
       <c r="C123">
-        <v>-19.982</v>
+        <v>1383.623</v>
       </c>
       <c r="D123">
-        <v>417.895</v>
+        <v>846.622</v>
       </c>
       <c r="E123">
-        <v>1301.902</v>
+        <v>358.393</v>
       </c>
       <c r="F123">
-        <v>2404.631</v>
+        <v>1865.093</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -7548,19 +7548,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>59.186</v>
+        <v>192.005</v>
       </c>
       <c r="C124">
-        <v>1411.76</v>
+        <v>5263.65</v>
       </c>
       <c r="D124">
-        <v>228.464</v>
+        <v>710.793</v>
       </c>
       <c r="E124">
-        <v>1302.506</v>
+        <v>965.246</v>
       </c>
       <c r="F124">
-        <v>642.461</v>
+        <v>624.633</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -7568,19 +7568,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>535.8440000000001</v>
+        <v>816.847</v>
       </c>
       <c r="C125">
-        <v>1183.551</v>
+        <v>2309.691</v>
       </c>
       <c r="D125">
-        <v>594.771</v>
+        <v>243.666</v>
       </c>
       <c r="E125">
-        <v>127.052</v>
+        <v>809.323</v>
       </c>
       <c r="F125">
-        <v>2163.756</v>
+        <v>120.915</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -7588,19 +7588,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>388.2</v>
+        <v>1715.464</v>
       </c>
       <c r="C126">
-        <v>1315.753</v>
+        <v>6752.844</v>
       </c>
       <c r="D126">
-        <v>188.727</v>
+        <v>810.913</v>
       </c>
       <c r="E126">
-        <v>1421.191</v>
+        <v>968.033</v>
       </c>
       <c r="F126">
-        <v>1301.296</v>
+        <v>1020.457</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -7608,19 +7608,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>824.6130000000001</v>
+        <v>191.868</v>
       </c>
       <c r="C127">
-        <v>876.897</v>
+        <v>4051.015</v>
       </c>
       <c r="D127">
-        <v>8.347</v>
+        <v>648.242</v>
       </c>
       <c r="E127">
-        <v>48.838</v>
+        <v>1486.987</v>
       </c>
       <c r="F127">
-        <v>2550.981</v>
+        <v>1297.965</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -7628,19 +7628,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>223.181</v>
+        <v>5633.021</v>
       </c>
       <c r="C128">
-        <v>818.205</v>
+        <v>6232.999</v>
       </c>
       <c r="D128">
-        <v>569.347</v>
+        <v>1075.518</v>
       </c>
       <c r="E128">
-        <v>1756.634</v>
+        <v>2157.234</v>
       </c>
       <c r="F128">
-        <v>7467.856</v>
+        <v>1877.88</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -7648,19 +7648,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1705.565</v>
+        <v>7249.336</v>
       </c>
       <c r="C129">
-        <v>540.794</v>
+        <v>728.59</v>
       </c>
       <c r="D129">
-        <v>315.604</v>
+        <v>1322.087</v>
       </c>
       <c r="E129">
-        <v>1122.35</v>
+        <v>1503.898</v>
       </c>
       <c r="F129">
-        <v>4326.878</v>
+        <v>653.707</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -7668,19 +7668,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>379.038</v>
+        <v>5220.493</v>
       </c>
       <c r="C130">
-        <v>1682.355</v>
+        <v>5243.662</v>
       </c>
       <c r="D130">
-        <v>80.30200000000001</v>
+        <v>78.52500000000001</v>
       </c>
       <c r="E130">
-        <v>1275.32</v>
+        <v>642.17</v>
       </c>
       <c r="F130">
-        <v>6243.376</v>
+        <v>199.49</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7688,19 +7688,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>780.3150000000001</v>
+        <v>6364.791</v>
       </c>
       <c r="C131">
-        <v>926.532</v>
+        <v>2307.459</v>
       </c>
       <c r="D131">
-        <v>1144.891</v>
+        <v>296.691</v>
       </c>
       <c r="E131">
-        <v>1094.999</v>
+        <v>2603.156</v>
       </c>
       <c r="F131">
-        <v>2696.225</v>
+        <v>3255.657</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -7708,19 +7708,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>255.04</v>
+        <v>5619.149</v>
       </c>
       <c r="C132">
-        <v>-35.872</v>
+        <v>2454.481</v>
       </c>
       <c r="D132">
-        <v>778.13</v>
+        <v>1543.628</v>
       </c>
       <c r="E132">
-        <v>1673.108</v>
+        <v>691.848</v>
       </c>
       <c r="F132">
-        <v>5491.591</v>
+        <v>3856.047</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -7728,19 +7728,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>119.213</v>
+        <v>362.393</v>
       </c>
       <c r="C133">
-        <v>2534.394</v>
+        <v>9337.463</v>
       </c>
       <c r="D133">
-        <v>425.405</v>
+        <v>1295.974</v>
       </c>
       <c r="E133">
-        <v>1673.884</v>
+        <v>1863.326</v>
       </c>
       <c r="F133">
-        <v>1467.225</v>
+        <v>1291.418</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -7748,19 +7748,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1079.296</v>
+        <v>1541.728</v>
       </c>
       <c r="C134">
-        <v>2124.713</v>
+        <v>4097.281</v>
       </c>
       <c r="D134">
-        <v>1107.477</v>
+        <v>444.271</v>
       </c>
       <c r="E134">
-        <v>163.278</v>
+        <v>1562.33</v>
       </c>
       <c r="F134">
-        <v>4941.492</v>
+        <v>249.99</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7768,19 +7768,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>781.912</v>
+        <v>3237.79</v>
       </c>
       <c r="C135">
-        <v>2362.042</v>
+        <v>11979.222</v>
       </c>
       <c r="D135">
-        <v>351.414</v>
+        <v>1478.521</v>
       </c>
       <c r="E135">
-        <v>1826.409</v>
+        <v>1868.706</v>
       </c>
       <c r="F135">
-        <v>2971.843</v>
+        <v>2109.777</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -7788,19 +7788,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1660.934</v>
+        <v>362.134</v>
       </c>
       <c r="C136">
-        <v>1574.207</v>
+        <v>7186.306</v>
       </c>
       <c r="D136">
-        <v>15.542</v>
+        <v>1181.926</v>
       </c>
       <c r="E136">
-        <v>62.763</v>
+        <v>2870.503</v>
       </c>
       <c r="F136">
-        <v>5825.819</v>
+        <v>2683.52</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -7808,19 +7808,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>317.251</v>
+        <v>15840.551</v>
       </c>
       <c r="C137">
-        <v>2419.612</v>
+        <v>14944.095</v>
       </c>
       <c r="D137">
-        <v>665.36</v>
+        <v>2037.248</v>
       </c>
       <c r="E137">
-        <v>4867.103</v>
+        <v>4572.958</v>
       </c>
       <c r="F137">
-        <v>13096.809</v>
+        <v>2063.053</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -7828,19 +7828,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>2424.457</v>
+        <v>20385.771</v>
       </c>
       <c r="C138">
-        <v>1599.247</v>
+        <v>1746.851</v>
       </c>
       <c r="D138">
-        <v>368.826</v>
+        <v>2504.299</v>
       </c>
       <c r="E138">
-        <v>3109.693</v>
+        <v>3188.001</v>
       </c>
       <c r="F138">
-        <v>7588.295</v>
+        <v>718.167</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -7848,19 +7848,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>538.802</v>
+        <v>14680.486</v>
       </c>
       <c r="C139">
-        <v>4975.095</v>
+        <v>12572.083</v>
       </c>
       <c r="D139">
-        <v>93.84399999999999</v>
+        <v>148.742</v>
       </c>
       <c r="E139">
-        <v>3533.527</v>
+        <v>1361.288</v>
       </c>
       <c r="F139">
-        <v>10949.368</v>
+        <v>219.161</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -7868,19 +7868,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1109.216</v>
+        <v>17898.353</v>
       </c>
       <c r="C140">
-        <v>2739.96</v>
+        <v>5532.31</v>
       </c>
       <c r="D140">
-        <v>1337.961</v>
+        <v>561.9930000000001</v>
       </c>
       <c r="E140">
-        <v>3033.912</v>
+        <v>5518.235</v>
       </c>
       <c r="F140">
-        <v>4728.525</v>
+        <v>3576.688</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -7888,19 +7888,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>362.539</v>
+        <v>15801.542</v>
       </c>
       <c r="C141">
-        <v>-106.082</v>
+        <v>5884.807</v>
       </c>
       <c r="D141">
-        <v>909.351</v>
+        <v>2923.943</v>
       </c>
       <c r="E141">
-        <v>4635.677</v>
+        <v>1466.597</v>
       </c>
       <c r="F141">
-        <v>9630.919</v>
+        <v>4236.281</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -7908,19 +7908,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>169.461</v>
+        <v>1019.081</v>
       </c>
       <c r="C142">
-        <v>7494.762</v>
+        <v>22387.286</v>
       </c>
       <c r="D142">
-        <v>497.144</v>
+        <v>2454.836</v>
       </c>
       <c r="E142">
-        <v>4637.827</v>
+        <v>3949.926</v>
       </c>
       <c r="F142">
-        <v>2573.157</v>
+        <v>1418.761</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7928,19 +7928,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1534.217</v>
+        <v>4335.475</v>
       </c>
       <c r="C143">
-        <v>6283.244</v>
+        <v>9823.546</v>
       </c>
       <c r="D143">
-        <v>1294.238</v>
+        <v>841.539</v>
       </c>
       <c r="E143">
-        <v>452.393</v>
+        <v>3311.866</v>
       </c>
       <c r="F143">
-        <v>8666.179</v>
+        <v>274.641</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7948,19 +7948,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1111.486</v>
+        <v>9104.950000000001</v>
       </c>
       <c r="C144">
-        <v>6985.078</v>
+        <v>28721.106</v>
       </c>
       <c r="D144">
-        <v>410.675</v>
+        <v>2800.617</v>
       </c>
       <c r="E144">
-        <v>5060.428</v>
+        <v>3961.33</v>
       </c>
       <c r="F144">
-        <v>5211.892</v>
+        <v>2317.816</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7968,19 +7968,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>2361.014</v>
+        <v>1018.353</v>
       </c>
       <c r="C145">
-        <v>4655.278</v>
+        <v>17229.722</v>
       </c>
       <c r="D145">
-        <v>18.163</v>
+        <v>2238.806</v>
       </c>
       <c r="E145">
-        <v>173.897</v>
+        <v>6084.965</v>
       </c>
       <c r="F145">
-        <v>10217.074</v>
+        <v>2948.134</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -7988,19 +7988,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>475.089</v>
+        <v>39401.666</v>
       </c>
       <c r="C146">
-        <v>5944.611</v>
+        <v>33309.076</v>
       </c>
       <c r="D146">
-        <v>810.609</v>
+        <v>3864.808</v>
       </c>
       <c r="E146">
-        <v>10523.067</v>
+        <v>9266.014999999999</v>
       </c>
       <c r="F146">
-        <v>23977.582</v>
+        <v>2349.315</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -8008,19 +8008,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>3630.665</v>
+        <v>50707.411</v>
       </c>
       <c r="C147">
-        <v>3929.101</v>
+        <v>3893.577</v>
       </c>
       <c r="D147">
-        <v>449.341</v>
+        <v>4750.838</v>
       </c>
       <c r="E147">
-        <v>6723.405</v>
+        <v>6459.729</v>
       </c>
       <c r="F147">
-        <v>13892.618</v>
+        <v>817.817</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -8028,19 +8028,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>806.865</v>
+        <v>36516.129</v>
       </c>
       <c r="C148">
-        <v>12223.035</v>
+        <v>28022.07</v>
       </c>
       <c r="D148">
-        <v>114.33</v>
+        <v>282.175</v>
       </c>
       <c r="E148">
-        <v>7639.768</v>
+        <v>2758.327</v>
       </c>
       <c r="F148">
-        <v>20046.057</v>
+        <v>249.571</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -8048,19 +8048,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1661.069</v>
+        <v>44520.226</v>
       </c>
       <c r="C149">
-        <v>6731.656</v>
+        <v>12331.034</v>
       </c>
       <c r="D149">
-        <v>1630.04</v>
+        <v>1066.142</v>
       </c>
       <c r="E149">
-        <v>6559.561</v>
+        <v>11181.395</v>
       </c>
       <c r="F149">
-        <v>8656.964</v>
+        <v>4072.977</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -8068,19 +8068,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>542.908</v>
+        <v>39304.635</v>
       </c>
       <c r="C150">
-        <v>-260.627</v>
+        <v>13116.718</v>
       </c>
       <c r="D150">
-        <v>1107.864</v>
+        <v>5546.933</v>
       </c>
       <c r="E150">
-        <v>10022.705</v>
+        <v>2971.711</v>
       </c>
       <c r="F150">
-        <v>17632.246</v>
+        <v>4824.093</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -8088,19 +8088,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>253.771</v>
+        <v>2534.854</v>
       </c>
       <c r="C151">
-        <v>18413.465</v>
+        <v>49899.296</v>
       </c>
       <c r="D151">
-        <v>605.671</v>
+        <v>4657.003</v>
       </c>
       <c r="E151">
-        <v>10027.354</v>
+        <v>8003.589</v>
       </c>
       <c r="F151">
-        <v>4710.925</v>
+        <v>1615.623</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -8108,19 +8108,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>2297.516</v>
+        <v>10784.027</v>
       </c>
       <c r="C152">
-        <v>15436.954</v>
+        <v>21895.822</v>
       </c>
       <c r="D152">
-        <v>1576.772</v>
+        <v>1596.461</v>
       </c>
       <c r="E152">
-        <v>978.11</v>
+        <v>6710.712</v>
       </c>
       <c r="F152">
-        <v>15866.004</v>
+        <v>312.749</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -8128,19 +8128,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1664.469</v>
+        <v>22647.583</v>
       </c>
       <c r="C153">
-        <v>17161.251</v>
+        <v>64016.824</v>
       </c>
       <c r="D153">
-        <v>500.326</v>
+        <v>5312.975</v>
       </c>
       <c r="E153">
-        <v>10941.051</v>
+        <v>8026.696</v>
       </c>
       <c r="F153">
-        <v>9541.91</v>
+        <v>2639.428</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -8148,19 +8148,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>3535.658</v>
+        <v>2533.044</v>
       </c>
       <c r="C154">
-        <v>11437.295</v>
+        <v>38403.538</v>
       </c>
       <c r="D154">
-        <v>22.128</v>
+        <v>4247.179</v>
       </c>
       <c r="E154">
-        <v>375.979</v>
+        <v>12329.739</v>
       </c>
       <c r="F154">
-        <v>18705.376</v>
+        <v>3357.207</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -8168,19 +8168,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1461.944</v>
+        <v>52602.422</v>
       </c>
       <c r="C155">
-        <v>8757.204</v>
+        <v>73562.147</v>
       </c>
       <c r="D155">
-        <v>1212.757</v>
+        <v>9874.210999999999</v>
       </c>
       <c r="E155">
-        <v>18481.965</v>
+        <v>12349.836</v>
       </c>
       <c r="F155">
-        <v>26788.724</v>
+        <v>10213.058</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -8188,19 +8188,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>11172.285</v>
+        <v>67695.935</v>
       </c>
       <c r="C156">
-        <v>5788.089</v>
+        <v>8598.853999999999</v>
       </c>
       <c r="D156">
-        <v>672.2619999999999</v>
+        <v>12137.932</v>
       </c>
       <c r="E156">
-        <v>11808.51</v>
+        <v>8609.59</v>
       </c>
       <c r="F156">
-        <v>15521.395</v>
+        <v>3555.256</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -8208,19 +8208,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>2482.885</v>
+        <v>48750.142</v>
       </c>
       <c r="C157">
-        <v>18006.159</v>
+        <v>61885.945</v>
       </c>
       <c r="D157">
-        <v>171.05</v>
+        <v>720.9299999999999</v>
       </c>
       <c r="E157">
-        <v>13417.945</v>
+        <v>3676.325</v>
       </c>
       <c r="F157">
-        <v>22396.266</v>
+        <v>1084.948</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -8228,19 +8228,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5111.443</v>
+        <v>59435.855</v>
       </c>
       <c r="C158">
-        <v>9916.626</v>
+        <v>27232.738</v>
       </c>
       <c r="D158">
-        <v>2438.713</v>
+        <v>2723.889</v>
       </c>
       <c r="E158">
-        <v>11520.746</v>
+        <v>14902.673</v>
       </c>
       <c r="F158">
-        <v>9671.91</v>
+        <v>17706.248</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -8248,19 +8248,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1670.636</v>
+        <v>52472.882</v>
       </c>
       <c r="C159">
-        <v>-383.938</v>
+        <v>28967.899</v>
       </c>
       <c r="D159">
-        <v>1657.482</v>
+        <v>14171.878</v>
       </c>
       <c r="E159">
-        <v>17603.165</v>
+        <v>3960.726</v>
       </c>
       <c r="F159">
-        <v>19699.458</v>
+        <v>20971.536</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -8268,19 +8268,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>780.904</v>
+        <v>3384.107</v>
       </c>
       <c r="C160">
-        <v>27125.487</v>
+        <v>110201.176</v>
       </c>
       <c r="D160">
-        <v>906.148</v>
+        <v>11898.193</v>
       </c>
       <c r="E160">
-        <v>17611.33</v>
+        <v>10667.262</v>
       </c>
       <c r="F160">
-        <v>5263.236</v>
+        <v>7023.517</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -8288,19 +8288,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7069.917</v>
+        <v>14397.004</v>
       </c>
       <c r="C161">
-        <v>22740.69</v>
+        <v>48356.301</v>
       </c>
       <c r="D161">
-        <v>2359.018</v>
+        <v>4078.804</v>
       </c>
       <c r="E161">
-        <v>1717.883</v>
+        <v>8944.102999999999</v>
       </c>
       <c r="F161">
-        <v>17726.141</v>
+        <v>1359.598</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -8308,19 +8308,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5121.906</v>
+        <v>30235.212</v>
       </c>
       <c r="C162">
-        <v>25280.809</v>
+        <v>141379.336</v>
       </c>
       <c r="D162">
-        <v>748.5410000000001</v>
+        <v>13574.138</v>
       </c>
       <c r="E162">
-        <v>19216.083</v>
+        <v>10698.06</v>
       </c>
       <c r="F162">
-        <v>10660.608</v>
+        <v>11474.253</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -8328,19 +8328,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>10879.929</v>
+        <v>3381.691</v>
       </c>
       <c r="C163">
-        <v>16848.659</v>
+        <v>84813.122</v>
       </c>
       <c r="D163">
-        <v>33.106</v>
+        <v>10851.132</v>
       </c>
       <c r="E163">
-        <v>660.343</v>
+        <v>16433.198</v>
       </c>
       <c r="F163">
-        <v>20898.403</v>
+        <v>14594.618</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -8348,19 +8348,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>3593.501</v>
+        <v>76113.25199999999</v>
       </c>
       <c r="C164">
-        <v>13942.999</v>
+        <v>161777.738</v>
       </c>
       <c r="D164">
-        <v>1790.755</v>
+        <v>23151.033</v>
       </c>
       <c r="E164">
-        <v>33334.636</v>
+        <v>17471.38</v>
       </c>
       <c r="F164">
-        <v>31073.246</v>
+        <v>27881.337</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -8368,19 +8368,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>27461.804</v>
+        <v>97952.86199999999</v>
       </c>
       <c r="C165">
-        <v>9215.648999999999</v>
+        <v>18910.584</v>
       </c>
       <c r="D165">
-        <v>992.6609999999999</v>
+        <v>28458.544</v>
       </c>
       <c r="E165">
-        <v>21298.189</v>
+        <v>12180.034</v>
       </c>
       <c r="F165">
-        <v>18003.848</v>
+        <v>9705.741</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -8388,19 +8388,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6103.004</v>
+        <v>70539.183</v>
       </c>
       <c r="C166">
-        <v>28668.952</v>
+        <v>136099.456</v>
       </c>
       <c r="D166">
-        <v>252.572</v>
+        <v>1690.289</v>
       </c>
       <c r="E166">
-        <v>24201.015</v>
+        <v>5200.917</v>
       </c>
       <c r="F166">
-        <v>25978.269</v>
+        <v>2961.875</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -8408,19 +8408,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>12564.077</v>
+        <v>86000.91099999999</v>
       </c>
       <c r="C167">
-        <v>15789.002</v>
+        <v>59890.187</v>
       </c>
       <c r="D167">
-        <v>3600.999</v>
+        <v>6386.419</v>
       </c>
       <c r="E167">
-        <v>20779.169</v>
+        <v>21082.893</v>
       </c>
       <c r="F167">
-        <v>11218.811</v>
+        <v>48337.517</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -8428,19 +8428,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>4106.472</v>
+        <v>75925.814</v>
       </c>
       <c r="C168">
-        <v>-611.296</v>
+        <v>63706.15</v>
       </c>
       <c r="D168">
-        <v>2447.435</v>
+        <v>33227.325</v>
       </c>
       <c r="E168">
-        <v>31749.606</v>
+        <v>5603.26</v>
       </c>
       <c r="F168">
-        <v>22850.141</v>
+        <v>57251.653</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -8448,19 +8448,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1919.485</v>
+        <v>4896.645</v>
       </c>
       <c r="C169">
-        <v>43188.516</v>
+        <v>242354.223</v>
       </c>
       <c r="D169">
-        <v>1338.017</v>
+        <v>27896.453</v>
       </c>
       <c r="E169">
-        <v>31764.332</v>
+        <v>15091.033</v>
       </c>
       <c r="F169">
-        <v>6105.025</v>
+        <v>19173.987</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -8468,19 +8468,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>17378.063</v>
+        <v>20831.794</v>
       </c>
       <c r="C170">
-        <v>36207.153</v>
+        <v>106345.088</v>
       </c>
       <c r="D170">
-        <v>3483.322</v>
+        <v>9563.146000000001</v>
       </c>
       <c r="E170">
-        <v>3098.426</v>
+        <v>12653.271</v>
       </c>
       <c r="F170">
-        <v>20561.216</v>
+        <v>3711.661</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -8488,19 +8488,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>12589.795</v>
+        <v>43748.942</v>
       </c>
       <c r="C171">
-        <v>40251.466</v>
+        <v>310921.175</v>
       </c>
       <c r="D171">
-        <v>1105.294</v>
+        <v>31825.866</v>
       </c>
       <c r="E171">
-        <v>34658.714</v>
+        <v>15134.603</v>
       </c>
       <c r="F171">
-        <v>12365.639</v>
+        <v>31324.361</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -8508,19 +8508,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>26743.185</v>
+        <v>4893.149</v>
       </c>
       <c r="C172">
-        <v>26826.01</v>
+        <v>186520.861</v>
       </c>
       <c r="D172">
-        <v>48.884</v>
+        <v>25441.518</v>
       </c>
       <c r="E172">
-        <v>1191.015</v>
+        <v>23248.134</v>
       </c>
       <c r="F172">
-        <v>24240.842</v>
+        <v>39842.862</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -8528,19 +8528,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7509.295</v>
+        <v>164343.163</v>
       </c>
       <c r="C173">
-        <v>43581.581</v>
+        <v>458558.384</v>
       </c>
       <c r="D173">
-        <v>5776.849</v>
+        <v>23562.935</v>
       </c>
       <c r="E173">
-        <v>42186.286</v>
+        <v>42309.033</v>
       </c>
       <c r="F173">
-        <v>34887.324</v>
+        <v>46303.083</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -8548,19 +8548,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>57386.592</v>
+        <v>211499.085</v>
       </c>
       <c r="C174">
-        <v>28805.321</v>
+        <v>53601.979</v>
       </c>
       <c r="D174">
-        <v>3202.254</v>
+        <v>28964.877</v>
       </c>
       <c r="E174">
-        <v>26953.691</v>
+        <v>29495.407</v>
       </c>
       <c r="F174">
-        <v>20213.726</v>
+        <v>16118.514</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -8568,19 +8568,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>12753.372</v>
+        <v>152307.675</v>
       </c>
       <c r="C175">
-        <v>89610.439</v>
+        <v>385773.391</v>
       </c>
       <c r="D175">
-        <v>814.779</v>
+        <v>1720.363</v>
       </c>
       <c r="E175">
-        <v>30627.331</v>
+        <v>12594.642</v>
       </c>
       <c r="F175">
-        <v>29166.965</v>
+        <v>4918.844</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -8588,19 +8588,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>26254.996</v>
+        <v>185692.522</v>
       </c>
       <c r="C176">
-        <v>49351.625</v>
+        <v>169758.508</v>
       </c>
       <c r="D176">
-        <v>11616.568</v>
+        <v>6500.046</v>
       </c>
       <c r="E176">
-        <v>26296.851</v>
+        <v>51054.743</v>
       </c>
       <c r="F176">
-        <v>12595.861</v>
+        <v>80275.06200000001</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -8608,19 +8608,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>8581.244000000001</v>
+        <v>163938.448</v>
       </c>
       <c r="C177">
-        <v>-1910.726</v>
+        <v>180574.84</v>
       </c>
       <c r="D177">
-        <v>7895.252</v>
+        <v>33818.504</v>
       </c>
       <c r="E177">
-        <v>40180.368</v>
+        <v>13568.963</v>
       </c>
       <c r="F177">
-        <v>25654.876</v>
+        <v>95078.943</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -8628,19 +8628,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>4011.124</v>
+        <v>10572.799</v>
       </c>
       <c r="C178">
-        <v>134994.187</v>
+        <v>686952.125</v>
       </c>
       <c r="D178">
-        <v>4316.348</v>
+        <v>28392.785</v>
       </c>
       <c r="E178">
-        <v>40199.005</v>
+        <v>36544.739</v>
       </c>
       <c r="F178">
-        <v>6854.385</v>
+        <v>31842.616</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -8648,19 +8648,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>36314.724</v>
+        <v>44979.853</v>
       </c>
       <c r="C179">
-        <v>113172.566</v>
+        <v>301434.748</v>
       </c>
       <c r="D179">
-        <v>11236.951</v>
+        <v>9733.293</v>
       </c>
       <c r="E179">
-        <v>3921.179</v>
+        <v>30641.406</v>
       </c>
       <c r="F179">
-        <v>23084.997</v>
+        <v>6164.028</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -8668,19 +8668,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>26308.739</v>
+        <v>94462.387</v>
       </c>
       <c r="C180">
-        <v>125813.861</v>
+        <v>881304.89</v>
       </c>
       <c r="D180">
-        <v>3565.601</v>
+        <v>32392.11</v>
       </c>
       <c r="E180">
-        <v>43861.958</v>
+        <v>36650.248</v>
       </c>
       <c r="F180">
-        <v>13883.456</v>
+        <v>52020.981</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -8688,19 +8688,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>55884.903</v>
+        <v>10565.251</v>
       </c>
       <c r="C181">
-        <v>83849.961</v>
+        <v>528692.673</v>
       </c>
       <c r="D181">
-        <v>157.697</v>
+        <v>25894.172</v>
       </c>
       <c r="E181">
-        <v>1507.276</v>
+        <v>56298.132</v>
       </c>
       <c r="F181">
-        <v>27216.278</v>
+        <v>66167.822</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -8708,19 +8708,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>16080.851</v>
+        <v>326527.497</v>
       </c>
       <c r="C182">
-        <v>112269.26</v>
+        <v>1213438.856</v>
       </c>
       <c r="D182">
-        <v>13748.969</v>
+        <v>24210.466</v>
       </c>
       <c r="E182">
-        <v>56142.476</v>
+        <v>88808.91099999999</v>
       </c>
       <c r="F182">
-        <v>39922.458</v>
+        <v>83153.45600000001</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -8728,19 +8728,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>122891.067</v>
+        <v>420219.896</v>
       </c>
       <c r="C183">
-        <v>74204.56</v>
+        <v>141841.751</v>
       </c>
       <c r="D183">
-        <v>7621.402</v>
+        <v>29760.859</v>
       </c>
       <c r="E183">
-        <v>35870.59</v>
+        <v>61912.428</v>
       </c>
       <c r="F183">
-        <v>23131.084</v>
+        <v>28946.456</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -8748,19 +8748,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>27310.831</v>
+        <v>302614.62</v>
       </c>
       <c r="C184">
-        <v>230842.879</v>
+        <v>1020834.944</v>
       </c>
       <c r="D184">
-        <v>1939.184</v>
+        <v>1767.64</v>
       </c>
       <c r="E184">
-        <v>40759.554</v>
+        <v>26436.824</v>
       </c>
       <c r="F184">
-        <v>33376.505</v>
+        <v>8833.513000000001</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -8768,19 +8768,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>56224.013</v>
+        <v>368945.768</v>
       </c>
       <c r="C185">
-        <v>127133.304</v>
+        <v>449215.578</v>
       </c>
       <c r="D185">
-        <v>27647.568</v>
+        <v>6678.673</v>
       </c>
       <c r="E185">
-        <v>34996.452</v>
+        <v>107166.621</v>
       </c>
       <c r="F185">
-        <v>14413.766</v>
+        <v>144162.082</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -8788,19 +8788,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>18376.387</v>
+        <v>325723.384</v>
       </c>
       <c r="C186">
-        <v>-4922.167</v>
+        <v>477837.795</v>
       </c>
       <c r="D186">
-        <v>18790.793</v>
+        <v>34747.868</v>
       </c>
       <c r="E186">
-        <v>53472.955</v>
+        <v>28481.975</v>
       </c>
       <c r="F186">
-        <v>29357.531</v>
+        <v>170747.652</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -8808,19 +8808,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>8589.66</v>
+        <v>21006.713</v>
       </c>
       <c r="C187">
-        <v>347754.649</v>
+        <v>1817815.2</v>
       </c>
       <c r="D187">
-        <v>10272.959</v>
+        <v>29173.045</v>
       </c>
       <c r="E187">
-        <v>53497.757</v>
+        <v>76709.351</v>
       </c>
       <c r="F187">
-        <v>7843.648</v>
+        <v>57184.607</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -8828,19 +8828,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>77766.514</v>
+        <v>89368.84600000001</v>
       </c>
       <c r="C188">
-        <v>291540.598</v>
+        <v>797657.721</v>
       </c>
       <c r="D188">
-        <v>26744.076</v>
+        <v>10000.773</v>
       </c>
       <c r="E188">
-        <v>5218.395</v>
+        <v>64317.941</v>
       </c>
       <c r="F188">
-        <v>26416.753</v>
+        <v>11069.678</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -8848,19 +8848,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>56339.101</v>
+        <v>187683.906</v>
       </c>
       <c r="C189">
-        <v>324105.475</v>
+        <v>2332112.19</v>
       </c>
       <c r="D189">
-        <v>8486.172</v>
+        <v>33282.275</v>
       </c>
       <c r="E189">
-        <v>58372.499</v>
+        <v>76930.82000000001</v>
       </c>
       <c r="F189">
-        <v>15887.194</v>
+        <v>93421.951</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -8868,19 +8868,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>119675.261</v>
+        <v>20991.715</v>
       </c>
       <c r="C190">
-        <v>216003.478</v>
+        <v>1399028.465</v>
       </c>
       <c r="D190">
-        <v>375.321</v>
+        <v>26605.768</v>
       </c>
       <c r="E190">
-        <v>2005.917</v>
+        <v>118172.774</v>
       </c>
       <c r="F190">
-        <v>31144.284</v>
+        <v>118827.575</v>
       </c>
     </row>
   </sheetData>

--- a/Experimentos2/DABA.xlsx
+++ b/Experimentos2/DABA.xlsx
@@ -722,19 +722,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.697</v>
+        <v>0.237</v>
       </c>
       <c r="C11">
-        <v>0.502</v>
+        <v>0.952</v>
       </c>
       <c r="D11">
-        <v>0.7</v>
+        <v>0.778</v>
       </c>
       <c r="E11">
-        <v>0.8070000000000001</v>
+        <v>0.737</v>
       </c>
       <c r="F11">
-        <v>0.509</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -742,19 +742,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.88</v>
+        <v>0.123</v>
       </c>
       <c r="C12">
-        <v>0.114</v>
+        <v>0.645</v>
       </c>
       <c r="D12">
-        <v>0.843</v>
+        <v>0.891</v>
       </c>
       <c r="E12">
-        <v>0.58</v>
+        <v>0.497</v>
       </c>
       <c r="F12">
-        <v>0.173</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -762,19 +762,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.655</v>
+        <v>0.895</v>
       </c>
       <c r="C13">
-        <v>0.439</v>
+        <v>0.341</v>
       </c>
       <c r="D13">
-        <v>0.112</v>
+        <v>0.47</v>
       </c>
       <c r="E13">
-        <v>0.282</v>
+        <v>0.448</v>
       </c>
       <c r="F13">
-        <v>0.055</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -782,19 +782,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.786</v>
+        <v>0.96</v>
       </c>
       <c r="C14">
-        <v>0.233</v>
+        <v>0.859</v>
       </c>
       <c r="D14">
-        <v>0.239</v>
+        <v>0.707</v>
       </c>
       <c r="E14">
-        <v>0.948</v>
+        <v>0.501</v>
       </c>
       <c r="F14">
-        <v>0.706</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -802,19 +802,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.704</v>
+        <v>1.063</v>
       </c>
       <c r="C15">
-        <v>0.246</v>
+        <v>0.705</v>
       </c>
       <c r="D15">
-        <v>0.975</v>
+        <v>0.594</v>
       </c>
       <c r="E15">
-        <v>0.303</v>
+        <v>0.377</v>
       </c>
       <c r="F15">
-        <v>0.834</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -822,19 +822,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.117</v>
+        <v>0.594</v>
       </c>
       <c r="C16">
-        <v>0.739</v>
+        <v>0.248</v>
       </c>
       <c r="D16">
-        <v>0.828</v>
+        <v>0.377</v>
       </c>
       <c r="E16">
-        <v>0.694</v>
+        <v>0.421</v>
       </c>
       <c r="F16">
-        <v>0.28</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -842,19 +842,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.252</v>
+        <v>0.794</v>
       </c>
       <c r="C17">
-        <v>0.369</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="D17">
-        <v>0.327</v>
+        <v>0.616</v>
       </c>
       <c r="E17">
-        <v>0.586</v>
+        <v>0.234</v>
       </c>
       <c r="F17">
-        <v>0.055</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -862,19 +862,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.444</v>
+        <v>0.573</v>
       </c>
       <c r="C18">
-        <v>0.9320000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="D18">
-        <v>0.9350000000000001</v>
+        <v>0.119</v>
       </c>
       <c r="E18">
-        <v>0.6860000000000001</v>
+        <v>0.828</v>
       </c>
       <c r="F18">
-        <v>0.456</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -882,19 +882,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.124</v>
+        <v>0.12</v>
       </c>
       <c r="C19">
-        <v>0.594</v>
+        <v>0.865</v>
       </c>
       <c r="D19">
-        <v>0.761</v>
+        <v>0.82</v>
       </c>
       <c r="E19">
-        <v>1.037</v>
+        <v>0.802</v>
       </c>
       <c r="F19">
-        <v>0.579</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -902,19 +902,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.725</v>
+        <v>0.451</v>
       </c>
       <c r="C20">
-        <v>0.972</v>
+        <v>2.073</v>
       </c>
       <c r="D20">
-        <v>1.82</v>
+        <v>2.112</v>
       </c>
       <c r="E20">
-        <v>2.128</v>
+        <v>1.652</v>
       </c>
       <c r="F20">
-        <v>1.02</v>
+        <v>1.006</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -922,19 +922,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="C21">
-        <v>0.177</v>
+        <v>1.378</v>
       </c>
       <c r="D21">
-        <v>2.221</v>
+        <v>2.441</v>
       </c>
       <c r="E21">
-        <v>1.5</v>
+        <v>1.085</v>
       </c>
       <c r="F21">
-        <v>0.353</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -942,19 +942,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.606</v>
+        <v>1.865</v>
       </c>
       <c r="C22">
-        <v>0.833</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="D22">
-        <v>0.194</v>
+        <v>1.229</v>
       </c>
       <c r="E22">
-        <v>0.672</v>
+        <v>0.973</v>
       </c>
       <c r="F22">
-        <v>0.109</v>
+        <v>1.877</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -962,19 +962,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.944</v>
+        <v>2.001</v>
       </c>
       <c r="C23">
-        <v>0.409</v>
+        <v>1.849</v>
       </c>
       <c r="D23">
-        <v>0.549</v>
+        <v>1.914</v>
       </c>
       <c r="E23">
-        <v>2.551</v>
+        <v>1.118</v>
       </c>
       <c r="F23">
-        <v>1.671</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -982,19 +982,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.726</v>
+        <v>2.22</v>
       </c>
       <c r="C24">
-        <v>0.432</v>
+        <v>1.499</v>
       </c>
       <c r="D24">
-        <v>2.583</v>
+        <v>1.582</v>
       </c>
       <c r="E24">
-        <v>0.721</v>
+        <v>0.795</v>
       </c>
       <c r="F24">
-        <v>1.978</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1002,19 +1002,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.185</v>
+        <v>1.201</v>
       </c>
       <c r="C25">
-        <v>1.43</v>
+        <v>0.466</v>
       </c>
       <c r="D25">
-        <v>2.179</v>
+        <v>0.961</v>
       </c>
       <c r="E25">
-        <v>1.841</v>
+        <v>0.927</v>
       </c>
       <c r="F25">
-        <v>0.663</v>
+        <v>2.126</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1022,19 +1022,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.533</v>
+        <v>1.629</v>
       </c>
       <c r="C26">
-        <v>0.673</v>
+        <v>1.74</v>
       </c>
       <c r="D26">
-        <v>0.79</v>
+        <v>1.649</v>
       </c>
       <c r="E26">
-        <v>1.55</v>
+        <v>0.492</v>
       </c>
       <c r="F26">
-        <v>0.129</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1042,19 +1042,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.032</v>
+        <v>1.147</v>
       </c>
       <c r="C27">
-        <v>1.815</v>
+        <v>0.845</v>
       </c>
       <c r="D27">
-        <v>2.476</v>
+        <v>0.219</v>
       </c>
       <c r="E27">
-        <v>1.842</v>
+        <v>1.921</v>
       </c>
       <c r="F27">
-        <v>1.082</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1062,19 +1062,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.19</v>
+        <v>0.163</v>
       </c>
       <c r="C28">
-        <v>1.123</v>
+        <v>1.842</v>
       </c>
       <c r="D28">
-        <v>1.993</v>
+        <v>2.237</v>
       </c>
       <c r="E28">
-        <v>2.807</v>
+        <v>1.843</v>
       </c>
       <c r="F28">
-        <v>1.376</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1082,19 +1082,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.943</v>
+        <v>0.966</v>
       </c>
       <c r="C29">
-        <v>1.76</v>
+        <v>4.692</v>
       </c>
       <c r="D29">
-        <v>3.628</v>
+        <v>3.673</v>
       </c>
       <c r="E29">
-        <v>5.25</v>
+        <v>2.793</v>
       </c>
       <c r="F29">
-        <v>1.89</v>
+        <v>1.589</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1102,19 +1102,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.766</v>
+        <v>0.373</v>
       </c>
       <c r="C30">
-        <v>0.274</v>
+        <v>3.086</v>
       </c>
       <c r="D30">
-        <v>4.444</v>
+        <v>4.255</v>
       </c>
       <c r="E30">
-        <v>3.676</v>
+        <v>1.819</v>
       </c>
       <c r="F30">
-        <v>0.657</v>
+        <v>0.824</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1122,19 +1122,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.734</v>
+        <v>4.291</v>
       </c>
       <c r="C31">
-        <v>1.495</v>
+        <v>1.493</v>
       </c>
       <c r="D31">
-        <v>0.326</v>
+        <v>2.117</v>
       </c>
       <c r="E31">
-        <v>1.6</v>
+        <v>1.628</v>
       </c>
       <c r="F31">
-        <v>0.201</v>
+        <v>3.094</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1142,19 +1142,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.318</v>
+        <v>4.609</v>
       </c>
       <c r="C32">
-        <v>0.702</v>
+        <v>4.169</v>
       </c>
       <c r="D32">
-        <v>1.048</v>
+        <v>3.326</v>
       </c>
       <c r="E32">
-        <v>6.322</v>
+        <v>1.885</v>
       </c>
       <c r="F32">
-        <v>3.224</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1162,19 +1162,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.939</v>
+        <v>5.123</v>
       </c>
       <c r="C33">
-        <v>0.743</v>
+        <v>3.359</v>
       </c>
       <c r="D33">
-        <v>5.178</v>
+        <v>2.738</v>
       </c>
       <c r="E33">
-        <v>1.72</v>
+        <v>1.318</v>
       </c>
       <c r="F33">
-        <v>3.818</v>
+        <v>1.137</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1182,19 +1182,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.265</v>
+        <v>2.721</v>
       </c>
       <c r="C34">
-        <v>2.603</v>
+        <v>0.972</v>
       </c>
       <c r="D34">
-        <v>4.358</v>
+        <v>1.644</v>
       </c>
       <c r="E34">
-        <v>4.54</v>
+        <v>1.557</v>
       </c>
       <c r="F34">
-        <v>1.279</v>
+        <v>3.513</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1202,19 +1202,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.866</v>
+        <v>3.727</v>
       </c>
       <c r="C35">
-        <v>1.188</v>
+        <v>3.912</v>
       </c>
       <c r="D35">
-        <v>1.537</v>
+        <v>2.858</v>
       </c>
       <c r="E35">
-        <v>3.814</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="F35">
-        <v>0.248</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1222,19 +1222,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.73</v>
+        <v>2.59</v>
       </c>
       <c r="C36">
-        <v>3.318</v>
+        <v>1.844</v>
       </c>
       <c r="D36">
-        <v>4.962</v>
+        <v>0.336</v>
       </c>
       <c r="E36">
-        <v>4.551</v>
+        <v>3.278</v>
       </c>
       <c r="F36">
-        <v>2.089</v>
+        <v>1.082</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1242,19 +1242,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.268</v>
+        <v>0.271</v>
       </c>
       <c r="C37">
-        <v>2.024</v>
+        <v>4.144</v>
       </c>
       <c r="D37">
-        <v>3.98</v>
+        <v>3.895</v>
       </c>
       <c r="E37">
-        <v>6.966</v>
+        <v>3.137</v>
       </c>
       <c r="F37">
-        <v>2.657</v>
+        <v>1.516</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1262,19 +1262,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.493</v>
+        <v>2.202</v>
       </c>
       <c r="C38">
-        <v>3.148</v>
+        <v>10.782</v>
       </c>
       <c r="D38">
-        <v>6.832</v>
+        <v>5.634</v>
       </c>
       <c r="E38">
-        <v>12.88</v>
+        <v>4.321</v>
       </c>
       <c r="F38">
-        <v>3.425</v>
+        <v>2.237</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1282,19 +1282,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.759</v>
+        <v>0.783</v>
       </c>
       <c r="C39">
-        <v>0.439</v>
+        <v>7.055</v>
       </c>
       <c r="D39">
-        <v>8.382999999999999</v>
+        <v>6.534</v>
       </c>
       <c r="E39">
-        <v>8.994999999999999</v>
+        <v>2.802</v>
       </c>
       <c r="F39">
-        <v>1.192</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1302,19 +1302,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.17</v>
+        <v>10.155</v>
       </c>
       <c r="C40">
-        <v>2.662</v>
+        <v>3.359</v>
       </c>
       <c r="D40">
-        <v>0.5600000000000001</v>
+        <v>3.233</v>
       </c>
       <c r="E40">
-        <v>3.871</v>
+        <v>2.505</v>
       </c>
       <c r="F40">
-        <v>0.364</v>
+        <v>4.438</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1322,19 +1322,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.067</v>
+        <v>10.915</v>
       </c>
       <c r="C41">
-        <v>1.217</v>
+        <v>9.566000000000001</v>
       </c>
       <c r="D41">
-        <v>1.932</v>
+        <v>5.1</v>
       </c>
       <c r="E41">
-        <v>15.53</v>
+        <v>2.911</v>
       </c>
       <c r="F41">
-        <v>5.912</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1342,19 +1342,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4.483</v>
+        <v>12.144</v>
       </c>
       <c r="C42">
-        <v>1.29</v>
+        <v>7.686</v>
       </c>
       <c r="D42">
-        <v>9.776999999999999</v>
+        <v>4.191</v>
       </c>
       <c r="E42">
-        <v>4.166</v>
+        <v>2.02</v>
       </c>
       <c r="F42">
-        <v>7.002</v>
+        <v>1.632</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1362,19 +1362,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.366</v>
+        <v>6.396</v>
       </c>
       <c r="C43">
-        <v>4.678</v>
+        <v>2.147</v>
       </c>
       <c r="D43">
-        <v>8.218999999999999</v>
+        <v>2.502</v>
       </c>
       <c r="E43">
-        <v>11.131</v>
+        <v>2.399</v>
       </c>
       <c r="F43">
-        <v>2.345</v>
+        <v>5.044</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1382,19 +1382,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.29</v>
+        <v>8.802</v>
       </c>
       <c r="C44">
-        <v>2.099</v>
+        <v>8.967000000000001</v>
       </c>
       <c r="D44">
-        <v>2.861</v>
+        <v>4.377</v>
       </c>
       <c r="E44">
-        <v>9.340999999999999</v>
+        <v>1.239</v>
       </c>
       <c r="F44">
-        <v>0.454</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1402,19 +1402,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.619</v>
+        <v>6.081</v>
       </c>
       <c r="C45">
-        <v>5.979</v>
+        <v>4.169</v>
       </c>
       <c r="D45">
-        <v>9.367000000000001</v>
+        <v>0.483</v>
       </c>
       <c r="E45">
-        <v>11.162</v>
+        <v>5.09</v>
       </c>
       <c r="F45">
-        <v>3.831</v>
+        <v>1.553</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1422,19 +1422,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.367</v>
+        <v>0.533</v>
       </c>
       <c r="C46">
-        <v>3.62</v>
+        <v>9.504</v>
       </c>
       <c r="D46">
-        <v>7.501</v>
+        <v>5.978</v>
       </c>
       <c r="E46">
-        <v>17.12</v>
+        <v>4.866</v>
       </c>
       <c r="F46">
-        <v>4.873</v>
+        <v>2.177</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1442,19 +1442,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>10.241</v>
+        <v>4.82</v>
       </c>
       <c r="C47">
-        <v>7.013</v>
+        <v>20.713</v>
       </c>
       <c r="D47">
-        <v>14.123</v>
+        <v>9.071</v>
       </c>
       <c r="E47">
-        <v>25.962</v>
+        <v>9.311999999999999</v>
       </c>
       <c r="F47">
-        <v>6.625</v>
+        <v>3.066</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1462,19 +1462,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>13.156</v>
+        <v>1.649</v>
       </c>
       <c r="C48">
-        <v>0.892</v>
+        <v>13.527</v>
       </c>
       <c r="D48">
-        <v>17.345</v>
+        <v>10.527</v>
       </c>
       <c r="E48">
-        <v>18.115</v>
+        <v>6.016</v>
       </c>
       <c r="F48">
-        <v>2.306</v>
+        <v>1.611</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1482,19 +1482,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>9.497</v>
+        <v>22.586</v>
       </c>
       <c r="C49">
-        <v>5.913</v>
+        <v>6.401</v>
       </c>
       <c r="D49">
-        <v>1.092</v>
+        <v>5.188</v>
       </c>
       <c r="E49">
-        <v>7.765</v>
+        <v>5.372</v>
       </c>
       <c r="F49">
-        <v>0.704</v>
+        <v>6.141</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1502,19 +1502,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>11.561</v>
+        <v>24.283</v>
       </c>
       <c r="C50">
-        <v>2.648</v>
+        <v>18.367</v>
       </c>
       <c r="D50">
-        <v>3.943</v>
+        <v>8.208</v>
       </c>
       <c r="E50">
-        <v>31.317</v>
+        <v>6.256</v>
       </c>
       <c r="F50">
-        <v>11.473</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1522,19 +1522,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>10.216</v>
+        <v>27.029</v>
       </c>
       <c r="C51">
-        <v>2.812</v>
+        <v>14.742</v>
       </c>
       <c r="D51">
-        <v>20.241</v>
+        <v>6.737</v>
       </c>
       <c r="E51">
-        <v>8.361000000000001</v>
+        <v>4.319</v>
       </c>
       <c r="F51">
-        <v>13.589</v>
+        <v>2.259</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1542,19 +1542,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.736</v>
+        <v>14.187</v>
       </c>
       <c r="C52">
-        <v>10.466</v>
+        <v>4.063</v>
       </c>
       <c r="D52">
-        <v>17.004</v>
+        <v>4.006</v>
       </c>
       <c r="E52">
-        <v>22.431</v>
+        <v>5.145</v>
       </c>
       <c r="F52">
-        <v>4.551</v>
+        <v>6.984</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1562,19 +1562,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.863</v>
+        <v>19.562</v>
       </c>
       <c r="C53">
-        <v>4.639</v>
+        <v>17.211</v>
       </c>
       <c r="D53">
-        <v>5.873</v>
+        <v>7.038</v>
       </c>
       <c r="E53">
-        <v>18.816</v>
+        <v>2.629</v>
       </c>
       <c r="F53">
-        <v>0.881</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1582,19 +1582,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.922</v>
+        <v>13.483</v>
       </c>
       <c r="C54">
-        <v>13.404</v>
+        <v>7.961</v>
       </c>
       <c r="D54">
-        <v>19.39</v>
+        <v>0.741</v>
       </c>
       <c r="E54">
-        <v>22.495</v>
+        <v>10.989</v>
       </c>
       <c r="F54">
-        <v>7.435</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1602,19 +1602,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.736</v>
+        <v>1.088</v>
       </c>
       <c r="C55">
-        <v>8.074</v>
+        <v>18.246</v>
       </c>
       <c r="D55">
-        <v>15.513</v>
+        <v>9.628</v>
       </c>
       <c r="E55">
-        <v>34.528</v>
+        <v>10.5</v>
       </c>
       <c r="F55">
-        <v>9.457000000000001</v>
+        <v>3.014</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1622,19 +1622,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>25.659</v>
+        <v>10.527</v>
       </c>
       <c r="C56">
-        <v>16.477</v>
+        <v>38.05</v>
       </c>
       <c r="D56">
-        <v>29.904</v>
+        <v>14.894</v>
       </c>
       <c r="E56">
-        <v>50.056</v>
+        <v>21.814</v>
       </c>
       <c r="F56">
-        <v>13.045</v>
+        <v>4.143</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1642,19 +1642,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>32.998</v>
+        <v>3.536</v>
       </c>
       <c r="C57">
-        <v>1.999</v>
+        <v>24.825</v>
       </c>
       <c r="D57">
-        <v>36.744</v>
+        <v>17.292</v>
       </c>
       <c r="E57">
-        <v>34.912</v>
+        <v>14.068</v>
       </c>
       <c r="F57">
-        <v>4.541</v>
+        <v>2.182</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1662,19 +1662,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>23.786</v>
+        <v>49.689</v>
       </c>
       <c r="C58">
-        <v>13.875</v>
+        <v>11.711</v>
       </c>
       <c r="D58">
-        <v>2.244</v>
+        <v>8.5</v>
       </c>
       <c r="E58">
-        <v>14.937</v>
+        <v>12.554</v>
       </c>
       <c r="F58">
-        <v>1.386</v>
+        <v>8.340999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1682,19 +1682,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>28.982</v>
+        <v>53.429</v>
       </c>
       <c r="C59">
-        <v>6.152</v>
+        <v>33.732</v>
       </c>
       <c r="D59">
-        <v>8.295999999999999</v>
+        <v>13.474</v>
       </c>
       <c r="E59">
-        <v>60.392</v>
+        <v>14.633</v>
       </c>
       <c r="F59">
-        <v>22.61</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1702,19 +1702,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>25.596</v>
+        <v>59.483</v>
       </c>
       <c r="C60">
-        <v>6.539</v>
+        <v>27.061</v>
       </c>
       <c r="D60">
-        <v>42.891</v>
+        <v>11.051</v>
       </c>
       <c r="E60">
-        <v>16.088</v>
+        <v>10.079</v>
       </c>
       <c r="F60">
-        <v>26.78</v>
+        <v>3.069</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1722,19 +1722,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.728</v>
+        <v>31.174</v>
       </c>
       <c r="C61">
-        <v>24.643</v>
+        <v>7.408</v>
       </c>
       <c r="D61">
-        <v>36.02</v>
+        <v>6.554</v>
       </c>
       <c r="E61">
-        <v>43.243</v>
+        <v>12.022</v>
       </c>
       <c r="F61">
-        <v>8.968999999999999</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1742,19 +1742,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7.083</v>
+        <v>43.022</v>
       </c>
       <c r="C62">
-        <v>10.86</v>
+        <v>31.604</v>
       </c>
       <c r="D62">
-        <v>12.392</v>
+        <v>11.547</v>
       </c>
       <c r="E62">
-        <v>36.266</v>
+        <v>6.11</v>
       </c>
       <c r="F62">
-        <v>1.736</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1762,19 +1762,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>14.784</v>
+        <v>29.622</v>
       </c>
       <c r="C63">
-        <v>31.592</v>
+        <v>14.581</v>
       </c>
       <c r="D63">
-        <v>41.085</v>
+        <v>1.178</v>
       </c>
       <c r="E63">
-        <v>43.367</v>
+        <v>25.759</v>
       </c>
       <c r="F63">
-        <v>14.652</v>
+        <v>2.921</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1782,19 +1782,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.727</v>
+        <v>2.298</v>
       </c>
       <c r="C64">
-        <v>18.985</v>
+        <v>33.509</v>
       </c>
       <c r="D64">
-        <v>32.855</v>
+        <v>15.812</v>
       </c>
       <c r="E64">
-        <v>66.589</v>
+        <v>24.608</v>
       </c>
       <c r="F64">
-        <v>18.637</v>
+        <v>4.095</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1802,19 +1802,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>63.303</v>
+        <v>26.187</v>
       </c>
       <c r="C65">
-        <v>41.155</v>
+        <v>81.584</v>
       </c>
       <c r="D65">
-        <v>47.714</v>
+        <v>21.562</v>
       </c>
       <c r="E65">
-        <v>102.103</v>
+        <v>41.694</v>
       </c>
       <c r="F65">
-        <v>26.94</v>
+        <v>6.065</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1822,19 +1822,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>81.443</v>
+        <v>8.714</v>
       </c>
       <c r="C66">
-        <v>4.884</v>
+        <v>53.195</v>
       </c>
       <c r="D66">
-        <v>58.637</v>
+        <v>25.039</v>
       </c>
       <c r="E66">
-        <v>71.196</v>
+        <v>26.872</v>
       </c>
       <c r="F66">
-        <v>9.378</v>
+        <v>3.198</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1842,19 +1842,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>58.673</v>
+        <v>124.067</v>
       </c>
       <c r="C67">
-        <v>34.636</v>
+        <v>25.044</v>
       </c>
       <c r="D67">
-        <v>3.544</v>
+        <v>12.293</v>
       </c>
       <c r="E67">
-        <v>30.43</v>
+        <v>23.975</v>
       </c>
       <c r="F67">
-        <v>2.862</v>
+        <v>12.243</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1862,19 +1862,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>71.51600000000001</v>
+        <v>133.414</v>
       </c>
       <c r="C68">
-        <v>15.288</v>
+        <v>72.315</v>
       </c>
       <c r="D68">
-        <v>13.209</v>
+        <v>19.504</v>
       </c>
       <c r="E68">
-        <v>123.198</v>
+        <v>27.953</v>
       </c>
       <c r="F68">
-        <v>46.703</v>
+        <v>1.282</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1882,19 +1882,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>63.147</v>
+        <v>148.545</v>
       </c>
       <c r="C69">
-        <v>16.257</v>
+        <v>57.995</v>
       </c>
       <c r="D69">
-        <v>68.453</v>
+        <v>15.991</v>
       </c>
       <c r="E69">
-        <v>32.78</v>
+        <v>19.238</v>
       </c>
       <c r="F69">
-        <v>55.316</v>
+        <v>4.505</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1902,19 +1902,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.15</v>
+        <v>77.791</v>
       </c>
       <c r="C70">
-        <v>61.612</v>
+        <v>15.807</v>
       </c>
       <c r="D70">
-        <v>57.481</v>
+        <v>9.472</v>
       </c>
       <c r="E70">
-        <v>88.199</v>
+        <v>22.957</v>
       </c>
       <c r="F70">
-        <v>18.526</v>
+        <v>13.932</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1922,19 +1922,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>17.386</v>
+        <v>107.403</v>
       </c>
       <c r="C71">
-        <v>27.082</v>
+        <v>67.746</v>
       </c>
       <c r="D71">
-        <v>19.749</v>
+        <v>16.71</v>
       </c>
       <c r="E71">
-        <v>73.95999999999999</v>
+        <v>11.645</v>
       </c>
       <c r="F71">
-        <v>3.586</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1942,19 +1942,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>36.421</v>
+        <v>73.91200000000001</v>
       </c>
       <c r="C72">
-        <v>79.02</v>
+        <v>31.205</v>
       </c>
       <c r="D72">
-        <v>65.569</v>
+        <v>1.678</v>
       </c>
       <c r="E72">
-        <v>88.453</v>
+        <v>49.244</v>
       </c>
       <c r="F72">
-        <v>30.265</v>
+        <v>4.288</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1962,19 +1962,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.147</v>
+        <v>5.619</v>
       </c>
       <c r="C73">
-        <v>47.437</v>
+        <v>71.836</v>
       </c>
       <c r="D73">
-        <v>52.427</v>
+        <v>22.894</v>
       </c>
       <c r="E73">
-        <v>135.845</v>
+        <v>47.041</v>
       </c>
       <c r="F73">
-        <v>38.496</v>
+        <v>6.011</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1982,19 +1982,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>155.885</v>
+        <v>66.724</v>
       </c>
       <c r="C74">
-        <v>103.948</v>
+        <v>181.354</v>
       </c>
       <c r="D74">
-        <v>68.764</v>
+        <v>29.455</v>
       </c>
       <c r="E74">
-        <v>211.197</v>
+        <v>75.691</v>
       </c>
       <c r="F74">
-        <v>56.272</v>
+        <v>9.224</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2002,19 +2002,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>200.59</v>
+        <v>22.117</v>
       </c>
       <c r="C75">
-        <v>12.224</v>
+        <v>118.212</v>
       </c>
       <c r="D75">
-        <v>84.51300000000001</v>
+        <v>34.209</v>
       </c>
       <c r="E75">
-        <v>147.25</v>
+        <v>48.768</v>
       </c>
       <c r="F75">
-        <v>19.589</v>
+        <v>4.866</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2022,19 +2022,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>144.475</v>
+        <v>316.602</v>
       </c>
       <c r="C76">
-        <v>87.462</v>
+        <v>55.6</v>
       </c>
       <c r="D76">
-        <v>5.081</v>
+        <v>16.783</v>
       </c>
       <c r="E76">
-        <v>62.905</v>
+        <v>43.506</v>
       </c>
       <c r="F76">
-        <v>5.978</v>
+        <v>18.643</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2042,19 +2042,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>176.125</v>
+        <v>340.463</v>
       </c>
       <c r="C77">
-        <v>38.534</v>
+        <v>160.738</v>
       </c>
       <c r="D77">
-        <v>19.016</v>
+        <v>26.642</v>
       </c>
       <c r="E77">
-        <v>254.843</v>
+        <v>50.732</v>
       </c>
       <c r="F77">
-        <v>97.557</v>
+        <v>1.952</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2062,19 +2062,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>155.501</v>
+        <v>379.091</v>
       </c>
       <c r="C78">
-        <v>40.984</v>
+        <v>128.888</v>
       </c>
       <c r="D78">
-        <v>98.66500000000001</v>
+        <v>21.839</v>
       </c>
       <c r="E78">
-        <v>67.768</v>
+        <v>34.901</v>
       </c>
       <c r="F78">
-        <v>115.548</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2082,19 +2082,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>10.106</v>
+        <v>198.464</v>
       </c>
       <c r="C79">
-        <v>155.68</v>
+        <v>35.056</v>
       </c>
       <c r="D79">
-        <v>82.846</v>
+        <v>12.926</v>
       </c>
       <c r="E79">
-        <v>182.43</v>
+        <v>41.657</v>
       </c>
       <c r="F79">
-        <v>38.698</v>
+        <v>21.216</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2102,19 +2102,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>42.725</v>
+        <v>274.06</v>
       </c>
       <c r="C80">
-        <v>68.35899999999999</v>
+        <v>150.575</v>
       </c>
       <c r="D80">
-        <v>28.444</v>
+        <v>22.822</v>
       </c>
       <c r="E80">
-        <v>152.969</v>
+        <v>21.11</v>
       </c>
       <c r="F80">
-        <v>7.491</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2122,19 +2122,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>89.636</v>
+        <v>188.561</v>
       </c>
       <c r="C81">
-        <v>199.702</v>
+        <v>69.303</v>
       </c>
       <c r="D81">
-        <v>94.50700000000001</v>
+        <v>2.27</v>
       </c>
       <c r="E81">
-        <v>182.956</v>
+        <v>89.405</v>
       </c>
       <c r="F81">
-        <v>63.22</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2142,19 +2142,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>10.099</v>
+        <v>14.216</v>
       </c>
       <c r="C82">
-        <v>119.834</v>
+        <v>159.673</v>
       </c>
       <c r="D82">
-        <v>75.56</v>
+        <v>31.277</v>
       </c>
       <c r="E82">
-        <v>281.01</v>
+        <v>85.404</v>
       </c>
       <c r="F82">
-        <v>80.413</v>
+        <v>9.153</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2162,19 +2162,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>394.453</v>
+        <v>171.969</v>
       </c>
       <c r="C83">
-        <v>268.321</v>
+        <v>411.639</v>
       </c>
       <c r="D83">
-        <v>92.837</v>
+        <v>61.212</v>
       </c>
       <c r="E83">
-        <v>387.224</v>
+        <v>143.953</v>
       </c>
       <c r="F83">
-        <v>133.604</v>
+        <v>18.508</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2182,19 +2182,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>507.612</v>
+        <v>56.915</v>
       </c>
       <c r="C84">
-        <v>31.438</v>
+        <v>268.282</v>
       </c>
       <c r="D84">
-        <v>114.105</v>
+        <v>71.10299999999999</v>
       </c>
       <c r="E84">
-        <v>269.966</v>
+        <v>92.733</v>
       </c>
       <c r="F84">
-        <v>46.509</v>
+        <v>9.765000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2202,19 +2202,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>365.572</v>
+        <v>816.477</v>
       </c>
       <c r="C85">
-        <v>225.745</v>
+        <v>126.128</v>
       </c>
       <c r="D85">
-        <v>6.839</v>
+        <v>34.847</v>
       </c>
       <c r="E85">
-        <v>115.305</v>
+        <v>82.72199999999999</v>
       </c>
       <c r="F85">
-        <v>14.193</v>
+        <v>37.422</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2222,19 +2222,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>445.685</v>
+        <v>878.021</v>
       </c>
       <c r="C86">
-        <v>99.38500000000001</v>
+        <v>364.833</v>
       </c>
       <c r="D86">
-        <v>25.657</v>
+        <v>55.36</v>
       </c>
       <c r="E86">
-        <v>467.257</v>
+        <v>96.46899999999999</v>
       </c>
       <c r="F86">
-        <v>231.627</v>
+        <v>3.918</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2242,19 +2242,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>393.482</v>
+        <v>977.654</v>
       </c>
       <c r="C87">
-        <v>105.712</v>
+        <v>292.521</v>
       </c>
       <c r="D87">
-        <v>133.215</v>
+        <v>45.367</v>
       </c>
       <c r="E87">
-        <v>124.222</v>
+        <v>66.351</v>
       </c>
       <c r="F87">
-        <v>274.342</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2262,19 +2262,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>25.454</v>
+        <v>511.765</v>
       </c>
       <c r="C88">
-        <v>401.922</v>
+        <v>79.486</v>
       </c>
       <c r="D88">
-        <v>111.853</v>
+        <v>26.822</v>
       </c>
       <c r="E88">
-        <v>334.475</v>
+        <v>79.205</v>
       </c>
       <c r="F88">
-        <v>91.879</v>
+        <v>42.587</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2282,19 +2282,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>108.02</v>
+        <v>706.749</v>
       </c>
       <c r="C89">
-        <v>176.41</v>
+        <v>341.758</v>
       </c>
       <c r="D89">
-        <v>38.388</v>
+        <v>47.412</v>
       </c>
       <c r="E89">
-        <v>280.453</v>
+        <v>40.115</v>
       </c>
       <c r="F89">
-        <v>17.786</v>
+        <v>2.005</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2302,19 +2302,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>226.762</v>
+        <v>486.222</v>
       </c>
       <c r="C90">
-        <v>515.611</v>
+        <v>157.239</v>
       </c>
       <c r="D90">
-        <v>127.6</v>
+        <v>4.652</v>
       </c>
       <c r="E90">
-        <v>335.44</v>
+        <v>170.043</v>
       </c>
       <c r="F90">
-        <v>150.102</v>
+        <v>13.108</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2322,19 +2322,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>25.436</v>
+        <v>36.536</v>
       </c>
       <c r="C91">
-        <v>309.347</v>
+        <v>362.415</v>
       </c>
       <c r="D91">
-        <v>102.015</v>
+        <v>65.003</v>
       </c>
       <c r="E91">
-        <v>515.239</v>
+        <v>162.432</v>
       </c>
       <c r="F91">
-        <v>190.922</v>
+        <v>18.373</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2342,19 +2342,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1002.546</v>
+        <v>444.115</v>
       </c>
       <c r="C92">
-        <v>695.0309999999999</v>
+        <v>938.244</v>
       </c>
       <c r="D92">
-        <v>120.992</v>
+        <v>142.62</v>
       </c>
       <c r="E92">
-        <v>685.985</v>
+        <v>277.403</v>
       </c>
       <c r="F92">
-        <v>324.9</v>
+        <v>40.081</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2362,19 +2362,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1290.189</v>
+        <v>146.897</v>
       </c>
       <c r="C93">
-        <v>81.31699999999999</v>
+        <v>611.455</v>
       </c>
       <c r="D93">
-        <v>148.715</v>
+        <v>165.679</v>
       </c>
       <c r="E93">
-        <v>478.245</v>
+        <v>178.683</v>
       </c>
       <c r="F93">
-        <v>113.101</v>
+        <v>21.148</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2382,19 +2382,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>929.1319999999999</v>
+        <v>2109.071</v>
       </c>
       <c r="C94">
-        <v>584.725</v>
+        <v>287.408</v>
       </c>
       <c r="D94">
-        <v>8.895</v>
+        <v>81.15300000000001</v>
       </c>
       <c r="E94">
-        <v>204.241</v>
+        <v>159.388</v>
       </c>
       <c r="F94">
-        <v>34.515</v>
+        <v>81.04900000000001</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2402,19 +2402,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1132.774</v>
+        <v>2268.057</v>
       </c>
       <c r="C95">
-        <v>257.353</v>
+        <v>831.548</v>
       </c>
       <c r="D95">
-        <v>33.424</v>
+        <v>128.977</v>
       </c>
       <c r="E95">
-        <v>827.775</v>
+        <v>185.883</v>
       </c>
       <c r="F95">
-        <v>563.275</v>
+        <v>8.486000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2422,19 +2422,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1000.078</v>
+        <v>2525.438</v>
       </c>
       <c r="C96">
-        <v>273.745</v>
+        <v>666.7089999999999</v>
       </c>
       <c r="D96">
-        <v>173.624</v>
+        <v>105.679</v>
       </c>
       <c r="E96">
-        <v>220.038</v>
+        <v>127.835</v>
       </c>
       <c r="F96">
-        <v>667.15</v>
+        <v>29.823</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2442,19 +2442,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>64.575</v>
+        <v>1321.909</v>
       </c>
       <c r="C97">
-        <v>1041.163</v>
+        <v>181.086</v>
       </c>
       <c r="D97">
-        <v>145.779</v>
+        <v>62.444</v>
       </c>
       <c r="E97">
-        <v>592.532</v>
+        <v>152.61</v>
       </c>
       <c r="F97">
-        <v>223.433</v>
+        <v>92.236</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2462,19 +2462,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>274.452</v>
+        <v>1825.611</v>
       </c>
       <c r="C98">
-        <v>456.909</v>
+        <v>778.947</v>
       </c>
       <c r="D98">
-        <v>50.018</v>
+        <v>110.447</v>
       </c>
       <c r="E98">
-        <v>496.824</v>
+        <v>77.26900000000001</v>
       </c>
       <c r="F98">
-        <v>43.252</v>
+        <v>4.342</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2482,19 +2482,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>576.2859999999999</v>
+        <v>1255.924</v>
       </c>
       <c r="C99">
-        <v>1335.706</v>
+        <v>358.327</v>
       </c>
       <c r="D99">
-        <v>166.304</v>
+        <v>10.758</v>
       </c>
       <c r="E99">
-        <v>594.242</v>
+        <v>327.687</v>
       </c>
       <c r="F99">
-        <v>365.021</v>
+        <v>28.39</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2502,19 +2502,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>64.529</v>
+        <v>94.252</v>
       </c>
       <c r="C100">
-        <v>801.3200000000001</v>
+        <v>826.0359999999999</v>
       </c>
       <c r="D100">
-        <v>132.956</v>
+        <v>151.458</v>
       </c>
       <c r="E100">
-        <v>912.783</v>
+        <v>313.019</v>
       </c>
       <c r="F100">
-        <v>464.287</v>
+        <v>39.793</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2522,19 +2522,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1934.435</v>
+        <v>1023.087</v>
       </c>
       <c r="C101">
-        <v>1626.273</v>
+        <v>2214.44</v>
       </c>
       <c r="D101">
-        <v>252.055</v>
+        <v>281.335</v>
       </c>
       <c r="E101">
-        <v>1067.058</v>
+        <v>573.659</v>
       </c>
       <c r="F101">
-        <v>590.923</v>
+        <v>85.021</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2542,19 +2542,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>2489.47</v>
+        <v>338.327</v>
       </c>
       <c r="C102">
-        <v>190.172</v>
+        <v>1443.114</v>
       </c>
       <c r="D102">
-        <v>309.825</v>
+        <v>326.831</v>
       </c>
       <c r="E102">
-        <v>743.907</v>
+        <v>369.49</v>
       </c>
       <c r="F102">
-        <v>205.706</v>
+        <v>44.86</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2562,19 +2562,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1792.775</v>
+        <v>4858.976</v>
       </c>
       <c r="C103">
-        <v>1368.155</v>
+        <v>678.261</v>
       </c>
       <c r="D103">
-        <v>18.464</v>
+        <v>160.056</v>
       </c>
       <c r="E103">
-        <v>317.68</v>
+        <v>329.585</v>
       </c>
       <c r="F103">
-        <v>62.775</v>
+        <v>171.928</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2582,19 +2582,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>2185.722</v>
+        <v>5225.263</v>
       </c>
       <c r="C104">
-        <v>602.099</v>
+        <v>1962.604</v>
       </c>
       <c r="D104">
-        <v>69.57899999999999</v>
+        <v>254.416</v>
       </c>
       <c r="E104">
-        <v>1287.62</v>
+        <v>384.38</v>
       </c>
       <c r="F104">
-        <v>1024.476</v>
+        <v>18.001</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2602,19 +2602,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1929.672</v>
+        <v>5818.242</v>
       </c>
       <c r="C105">
-        <v>640.457</v>
+        <v>1573.531</v>
       </c>
       <c r="D105">
-        <v>361.731</v>
+        <v>208.447</v>
       </c>
       <c r="E105">
-        <v>342.252</v>
+        <v>264.328</v>
       </c>
       <c r="F105">
-        <v>1213.403</v>
+        <v>63.263</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2622,19 +2622,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>124.527</v>
+        <v>3045.435</v>
       </c>
       <c r="C106">
-        <v>2436.228</v>
+        <v>427.307</v>
       </c>
       <c r="D106">
-        <v>303.707</v>
+        <v>123.142</v>
       </c>
       <c r="E106">
-        <v>921.687</v>
+        <v>315.567</v>
       </c>
       <c r="F106">
-        <v>406.377</v>
+        <v>195.659</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2642,19 +2642,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>529.505</v>
+        <v>4205.913</v>
       </c>
       <c r="C107">
-        <v>1069.064</v>
+        <v>1838.448</v>
       </c>
       <c r="D107">
-        <v>104.157</v>
+        <v>217.855</v>
       </c>
       <c r="E107">
-        <v>772.808</v>
+        <v>159.75</v>
       </c>
       <c r="F107">
-        <v>78.666</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2662,19 +2662,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1111.924</v>
+        <v>2893.412</v>
       </c>
       <c r="C108">
-        <v>3125.463</v>
+        <v>845.652</v>
       </c>
       <c r="D108">
-        <v>346.477</v>
+        <v>21.162</v>
       </c>
       <c r="E108">
-        <v>924.347</v>
+        <v>677.653</v>
       </c>
       <c r="F108">
-        <v>663.895</v>
+        <v>60.223</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2682,19 +2682,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>124.438</v>
+        <v>217.039</v>
       </c>
       <c r="C109">
-        <v>1874.991</v>
+        <v>1949.593</v>
       </c>
       <c r="D109">
-        <v>276.986</v>
+        <v>298.773</v>
       </c>
       <c r="E109">
-        <v>1419.855</v>
+        <v>647.318</v>
       </c>
       <c r="F109">
-        <v>844.438</v>
+        <v>84.41200000000001</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2702,19 +2702,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>3491.12</v>
+        <v>2308.955</v>
       </c>
       <c r="C110">
-        <v>3738.129</v>
+        <v>5259.907</v>
       </c>
       <c r="D110">
-        <v>597.561</v>
+        <v>533.12</v>
       </c>
       <c r="E110">
-        <v>1576.172</v>
+        <v>1206.623</v>
       </c>
       <c r="F110">
-        <v>992.8579999999999</v>
+        <v>179.528</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2722,19 +2722,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>4492.823</v>
+        <v>763.484</v>
       </c>
       <c r="C111">
-        <v>437.032</v>
+        <v>3427.755</v>
       </c>
       <c r="D111">
-        <v>734.54</v>
+        <v>619.343</v>
       </c>
       <c r="E111">
-        <v>1098.832</v>
+        <v>777.158</v>
       </c>
       <c r="F111">
-        <v>345.623</v>
+        <v>94.72499999999999</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2742,19 +2742,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>3235.458</v>
+        <v>10966.376</v>
       </c>
       <c r="C112">
-        <v>3144.805</v>
+        <v>1610.978</v>
       </c>
       <c r="D112">
-        <v>43.69</v>
+        <v>303.275</v>
       </c>
       <c r="E112">
-        <v>469.234</v>
+        <v>693.218</v>
       </c>
       <c r="F112">
-        <v>105.473</v>
+        <v>363.041</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2762,19 +2762,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>3944.631</v>
+        <v>11793.068</v>
       </c>
       <c r="C113">
-        <v>1383.909</v>
+        <v>4661.714</v>
       </c>
       <c r="D113">
-        <v>164.89</v>
+        <v>482.104</v>
       </c>
       <c r="E113">
-        <v>1901.973</v>
+        <v>808.478</v>
       </c>
       <c r="F113">
-        <v>1721.306</v>
+        <v>38.011</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2782,19 +2782,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>3482.523</v>
+        <v>13131.394</v>
       </c>
       <c r="C114">
-        <v>1472.081</v>
+        <v>3737.538</v>
       </c>
       <c r="D114">
-        <v>857.615</v>
+        <v>394.984</v>
       </c>
       <c r="E114">
-        <v>505.53</v>
+        <v>555.952</v>
       </c>
       <c r="F114">
-        <v>2038.739</v>
+        <v>133.585</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2802,19 +2802,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>224.674</v>
+        <v>6873.299</v>
       </c>
       <c r="C115">
-        <v>5599.934</v>
+        <v>1014.88</v>
       </c>
       <c r="D115">
-        <v>720.033</v>
+        <v>233.317</v>
       </c>
       <c r="E115">
-        <v>1361.438</v>
+        <v>663.732</v>
       </c>
       <c r="F115">
-        <v>682.788</v>
+        <v>413.151</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2822,19 +2822,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>955.561</v>
+        <v>9492.444</v>
       </c>
       <c r="C116">
-        <v>2457.299</v>
+        <v>4366.803</v>
       </c>
       <c r="D116">
-        <v>246.877</v>
+        <v>412.814</v>
       </c>
       <c r="E116">
-        <v>1141.523</v>
+        <v>335.974</v>
       </c>
       <c r="F116">
-        <v>132.173</v>
+        <v>19.447</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2842,19 +2842,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>2006.687</v>
+        <v>6530.19</v>
       </c>
       <c r="C117">
-        <v>7184.246</v>
+        <v>2008.587</v>
       </c>
       <c r="D117">
-        <v>821.446</v>
+        <v>40.047</v>
       </c>
       <c r="E117">
-        <v>1365.368</v>
+        <v>1425.371</v>
       </c>
       <c r="F117">
-        <v>1115.465</v>
+        <v>127.166</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2862,19 +2862,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>224.514</v>
+        <v>489.743</v>
       </c>
       <c r="C118">
-        <v>4309.845</v>
+        <v>4630.808</v>
       </c>
       <c r="D118">
-        <v>656.675</v>
+        <v>566.168</v>
       </c>
       <c r="E118">
-        <v>2097.303</v>
+        <v>1361.563</v>
       </c>
       <c r="F118">
-        <v>1418.81</v>
+        <v>178.243</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2882,19 +2882,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6475.639</v>
+        <v>3878.814</v>
       </c>
       <c r="C119">
-        <v>7251.752</v>
+        <v>8894.474</v>
       </c>
       <c r="D119">
-        <v>1187.442</v>
+        <v>833.946</v>
       </c>
       <c r="E119">
-        <v>2693.669</v>
+        <v>1986.789</v>
       </c>
       <c r="F119">
-        <v>1901.151</v>
+        <v>355.9</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2902,19 +2902,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>8333.707</v>
+        <v>1282.539</v>
       </c>
       <c r="C120">
-        <v>847.748</v>
+        <v>5796.295</v>
       </c>
       <c r="D120">
-        <v>1459.655</v>
+        <v>968.828</v>
       </c>
       <c r="E120">
-        <v>1877.886</v>
+        <v>1279.633</v>
       </c>
       <c r="F120">
-        <v>661.808</v>
+        <v>187.785</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2922,19 +2922,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6001.409</v>
+        <v>18422.63</v>
       </c>
       <c r="C121">
-        <v>6100.726</v>
+        <v>2724.115</v>
       </c>
       <c r="D121">
-        <v>86.758</v>
+        <v>474.389</v>
       </c>
       <c r="E121">
-        <v>801.893</v>
+        <v>1141.417</v>
       </c>
       <c r="F121">
-        <v>201.962</v>
+        <v>719.701</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2942,19 +2942,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7316.86</v>
+        <v>19811.41</v>
       </c>
       <c r="C122">
-        <v>2684.654</v>
+        <v>7882.927</v>
       </c>
       <c r="D122">
-        <v>327.614</v>
+        <v>754.139</v>
       </c>
       <c r="E122">
-        <v>3250.468</v>
+        <v>1331.204</v>
       </c>
       <c r="F122">
-        <v>3296.002</v>
+        <v>75.354</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2962,19 +2962,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6459.692</v>
+        <v>22059.697</v>
       </c>
       <c r="C123">
-        <v>2855.704</v>
+        <v>6320.14</v>
       </c>
       <c r="D123">
-        <v>1704.237</v>
+        <v>617.853</v>
       </c>
       <c r="E123">
-        <v>863.923</v>
+        <v>915.396</v>
       </c>
       <c r="F123">
-        <v>3903.832</v>
+        <v>264.822</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2982,19 +2982,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>416.679</v>
+        <v>11546.569</v>
       </c>
       <c r="C124">
-        <v>10863.584</v>
+        <v>1716.11</v>
       </c>
       <c r="D124">
-        <v>1430.826</v>
+        <v>364.951</v>
       </c>
       <c r="E124">
-        <v>2326.684</v>
+        <v>1092.866</v>
       </c>
       <c r="F124">
-        <v>1307.421</v>
+        <v>819.04</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3002,19 +3002,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1772.408</v>
+        <v>15946.535</v>
       </c>
       <c r="C125">
-        <v>4766.99</v>
+        <v>7384.231</v>
       </c>
       <c r="D125">
-        <v>490.543</v>
+        <v>645.746</v>
       </c>
       <c r="E125">
-        <v>1950.846</v>
+        <v>553.181</v>
       </c>
       <c r="F125">
-        <v>253.088</v>
+        <v>38.552</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3022,19 +3022,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>3722.151</v>
+        <v>10970.171</v>
       </c>
       <c r="C126">
-        <v>13937.09</v>
+        <v>3396.474</v>
       </c>
       <c r="D126">
-        <v>1632.359</v>
+        <v>62.61</v>
       </c>
       <c r="E126">
-        <v>2333.401</v>
+        <v>2346.978</v>
       </c>
       <c r="F126">
-        <v>2135.922</v>
+        <v>252.097</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3042,19 +3042,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>416.382</v>
+        <v>822.675</v>
       </c>
       <c r="C127">
-        <v>8360.860000000001</v>
+        <v>7830.664</v>
       </c>
       <c r="D127">
-        <v>1304.917</v>
+        <v>885.644</v>
       </c>
       <c r="E127">
-        <v>3584.29</v>
+        <v>2241.912</v>
       </c>
       <c r="F127">
-        <v>2716.775</v>
+        <v>353.353</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3062,19 +3062,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>12108.66</v>
+        <v>5925.757</v>
       </c>
       <c r="C128">
-        <v>13484.751</v>
+        <v>13525.213</v>
       </c>
       <c r="D128">
-        <v>2262.96</v>
+        <v>1211.489</v>
       </c>
       <c r="E128">
-        <v>4850.903</v>
+        <v>3009.337</v>
       </c>
       <c r="F128">
-        <v>3779.031</v>
+        <v>694.562</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3082,19 +3082,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>15583.043</v>
+        <v>1959.336</v>
       </c>
       <c r="C129">
-        <v>1576.338</v>
+        <v>8814.011</v>
       </c>
       <c r="D129">
-        <v>2781.742</v>
+        <v>1407.439</v>
       </c>
       <c r="E129">
-        <v>3381.784</v>
+        <v>1938.217</v>
       </c>
       <c r="F129">
-        <v>1315.515</v>
+        <v>366.475</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3102,19 +3102,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>11221.902</v>
+        <v>28144.857</v>
       </c>
       <c r="C130">
-        <v>11344.388</v>
+        <v>4142.344</v>
       </c>
       <c r="D130">
-        <v>165.283</v>
+        <v>689.141</v>
       </c>
       <c r="E130">
-        <v>1444.063</v>
+        <v>1728.863</v>
       </c>
       <c r="F130">
-        <v>401.452</v>
+        <v>1404.545</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3122,19 +3122,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>13681.651</v>
+        <v>30266.545</v>
       </c>
       <c r="C131">
-        <v>4992.113</v>
+        <v>11987.019</v>
       </c>
       <c r="D131">
-        <v>624.3049999999999</v>
+        <v>1095.549</v>
       </c>
       <c r="E131">
-        <v>5853.624</v>
+        <v>2016.331</v>
       </c>
       <c r="F131">
-        <v>6551.659</v>
+        <v>147.058</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3142,19 +3142,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>12078.841</v>
+        <v>33701.333</v>
       </c>
       <c r="C132">
-        <v>5310.185</v>
+        <v>9610.588</v>
       </c>
       <c r="D132">
-        <v>3247.865</v>
+        <v>897.558</v>
       </c>
       <c r="E132">
-        <v>1555.771</v>
+        <v>1386.512</v>
       </c>
       <c r="F132">
-        <v>7759.879</v>
+        <v>516.818</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3162,19 +3162,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>779.072</v>
+        <v>17640.057</v>
       </c>
       <c r="C133">
-        <v>20201.047</v>
+        <v>2609.535</v>
       </c>
       <c r="D133">
-        <v>2726.8</v>
+        <v>530.154</v>
       </c>
       <c r="E133">
-        <v>4190.01</v>
+        <v>1655.323</v>
       </c>
       <c r="F133">
-        <v>2598.839</v>
+        <v>1598.411</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3182,19 +3182,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>3314.136</v>
+        <v>24362.04</v>
       </c>
       <c r="C134">
-        <v>8864.271000000001</v>
+        <v>11228.684</v>
       </c>
       <c r="D134">
-        <v>934.814</v>
+        <v>938.081</v>
       </c>
       <c r="E134">
-        <v>3513.176</v>
+        <v>837.87</v>
       </c>
       <c r="F134">
-        <v>503.078</v>
+        <v>75.23699999999999</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3202,19 +3202,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6959.941</v>
+        <v>16759.473</v>
       </c>
       <c r="C135">
-        <v>25916.312</v>
+        <v>5164.757</v>
       </c>
       <c r="D135">
-        <v>3110.88</v>
+        <v>90.92700000000001</v>
       </c>
       <c r="E135">
-        <v>4202.107</v>
+        <v>3554.91</v>
       </c>
       <c r="F135">
-        <v>4245.699</v>
+        <v>491.984</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3222,19 +3222,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>778.516</v>
+        <v>1256.786</v>
       </c>
       <c r="C136">
-        <v>15547.166</v>
+        <v>11907.545</v>
       </c>
       <c r="D136">
-        <v>2486.843</v>
+        <v>1286.593</v>
       </c>
       <c r="E136">
-        <v>6454.793</v>
+        <v>3395.768</v>
       </c>
       <c r="F136">
-        <v>5400.295</v>
+        <v>689.592</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3242,19 +3242,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>27949.211</v>
+        <v>13051.003</v>
       </c>
       <c r="C137">
-        <v>28428.846</v>
+        <v>27948.146</v>
       </c>
       <c r="D137">
-        <v>4300.208</v>
+        <v>2261.372</v>
       </c>
       <c r="E137">
-        <v>9423.861000000001</v>
+        <v>5322.869</v>
       </c>
       <c r="F137">
-        <v>5842.084</v>
+        <v>1181.166</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3262,19 +3262,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>35968.814</v>
+        <v>4315.213</v>
       </c>
       <c r="C138">
-        <v>3323.189</v>
+        <v>18213.011</v>
       </c>
       <c r="D138">
-        <v>5286.041</v>
+        <v>2627.142</v>
       </c>
       <c r="E138">
-        <v>6569.785</v>
+        <v>3428.274</v>
       </c>
       <c r="F138">
-        <v>2033.682</v>
+        <v>623.224</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3282,19 +3282,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>25902.388</v>
+        <v>61987.155</v>
       </c>
       <c r="C139">
-        <v>23916.471</v>
+        <v>8559.57</v>
       </c>
       <c r="D139">
-        <v>314.025</v>
+        <v>1286.33</v>
       </c>
       <c r="E139">
-        <v>2805.351</v>
+        <v>3057.969</v>
       </c>
       <c r="F139">
-        <v>620.6130000000001</v>
+        <v>2388.557</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3302,19 +3302,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>31580.004</v>
+        <v>66660.038</v>
       </c>
       <c r="C140">
-        <v>10524.423</v>
+        <v>24769.653</v>
       </c>
       <c r="D140">
-        <v>1186.298</v>
+        <v>2044.952</v>
       </c>
       <c r="E140">
-        <v>11371.859</v>
+        <v>3566.442</v>
       </c>
       <c r="F140">
-        <v>10128.347</v>
+        <v>250.085</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3322,19 +3322,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>27880.383</v>
+        <v>74224.94</v>
       </c>
       <c r="C141">
-        <v>11194.992</v>
+        <v>19859.042</v>
       </c>
       <c r="D141">
-        <v>6171.808</v>
+        <v>1675.371</v>
       </c>
       <c r="E141">
-        <v>3022.368</v>
+        <v>2452.42</v>
       </c>
       <c r="F141">
-        <v>11996.16</v>
+        <v>878.896</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3342,19 +3342,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1798.153</v>
+        <v>38851.003</v>
       </c>
       <c r="C142">
-        <v>42588.333</v>
+        <v>5392.203</v>
       </c>
       <c r="D142">
-        <v>5181.636</v>
+        <v>989.556</v>
       </c>
       <c r="E142">
-        <v>8139.936</v>
+        <v>2927.892</v>
       </c>
       <c r="F142">
-        <v>4017.6</v>
+        <v>2718.244</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3362,19 +3362,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7649.611</v>
+        <v>53655.742</v>
       </c>
       <c r="C143">
-        <v>18687.817</v>
+        <v>23202.644</v>
       </c>
       <c r="D143">
-        <v>1776.353</v>
+        <v>1751.014</v>
       </c>
       <c r="E143">
-        <v>6825.042</v>
+        <v>1481.983</v>
       </c>
       <c r="F143">
-        <v>777.7190000000001</v>
+        <v>127.947</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3382,19 +3382,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>16064.891</v>
+        <v>36911.572</v>
       </c>
       <c r="C144">
-        <v>54637.418</v>
+        <v>10672.264</v>
       </c>
       <c r="D144">
-        <v>5911.497</v>
+        <v>169.672</v>
       </c>
       <c r="E144">
-        <v>8163.437</v>
+        <v>6287.877</v>
       </c>
       <c r="F144">
-        <v>6563.515</v>
+        <v>836.664</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3402,19 +3402,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1796.869</v>
+        <v>2767.891</v>
       </c>
       <c r="C145">
-        <v>32776.888</v>
+        <v>24605.428</v>
       </c>
       <c r="D145">
-        <v>4725.649</v>
+        <v>2401.564</v>
       </c>
       <c r="E145">
-        <v>12539.758</v>
+        <v>6006.387</v>
       </c>
       <c r="F145">
-        <v>8348.429</v>
+        <v>1172.714</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3422,19 +3422,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>67350.87699999999</v>
+        <v>31360.887</v>
       </c>
       <c r="C146">
-        <v>61737.922</v>
+        <v>62605.477</v>
       </c>
       <c r="D146">
-        <v>8165.016</v>
+        <v>4566.28</v>
       </c>
       <c r="E146">
-        <v>18689.876</v>
+        <v>9919.889999999999</v>
       </c>
       <c r="F146">
-        <v>8191.399</v>
+        <v>1919.358</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3442,19 +3442,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>86676.22500000001</v>
+        <v>10369.156</v>
       </c>
       <c r="C147">
-        <v>7216.766</v>
+        <v>40798.171</v>
       </c>
       <c r="D147">
-        <v>10036.879</v>
+        <v>5304.872</v>
       </c>
       <c r="E147">
-        <v>13029.514</v>
+        <v>6389.039</v>
       </c>
       <c r="F147">
-        <v>2851.499</v>
+        <v>1012.72</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3462,19 +3462,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>62418.517</v>
+        <v>148952.374</v>
       </c>
       <c r="C148">
-        <v>51938.541</v>
+        <v>19173.865</v>
       </c>
       <c r="D148">
-        <v>596.2</v>
+        <v>2597.396</v>
       </c>
       <c r="E148">
-        <v>5563.678</v>
+        <v>5698.922</v>
       </c>
       <c r="F148">
-        <v>870.184</v>
+        <v>3881.332</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3482,19 +3482,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>76100.23</v>
+        <v>160181.112</v>
       </c>
       <c r="C149">
-        <v>22855.457</v>
+        <v>55485.456</v>
       </c>
       <c r="D149">
-        <v>2252.44</v>
+        <v>4129.267</v>
       </c>
       <c r="E149">
-        <v>22553.254</v>
+        <v>6646.535</v>
       </c>
       <c r="F149">
-        <v>14201.324</v>
+        <v>406.38</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3502,19 +3502,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>67185.018</v>
+        <v>178359.249</v>
       </c>
       <c r="C150">
-        <v>24311.71</v>
+        <v>44485.382</v>
       </c>
       <c r="D150">
-        <v>11718.741</v>
+        <v>3382.978</v>
       </c>
       <c r="E150">
-        <v>5994.079</v>
+        <v>4570.394</v>
       </c>
       <c r="F150">
-        <v>16820.253</v>
+        <v>1428.179</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3522,19 +3522,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>4333.007</v>
+        <v>93357.18700000001</v>
       </c>
       <c r="C151">
-        <v>92487.629</v>
+        <v>12078.766</v>
       </c>
       <c r="D151">
-        <v>9838.638999999999</v>
+        <v>1998.125</v>
       </c>
       <c r="E151">
-        <v>16143.525</v>
+        <v>5456.505</v>
       </c>
       <c r="F151">
-        <v>5633.223</v>
+        <v>4417.063</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3542,19 +3542,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>18433.638</v>
+        <v>128932.344</v>
       </c>
       <c r="C152">
-        <v>40583.639</v>
+        <v>51975.258</v>
       </c>
       <c r="D152">
-        <v>3372.814</v>
+        <v>3535.723</v>
       </c>
       <c r="E152">
-        <v>13535.754</v>
+        <v>2761.845</v>
       </c>
       <c r="F152">
-        <v>1090.468</v>
+        <v>207.91</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3562,19 +3562,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>38712.474</v>
+        <v>88696.817</v>
       </c>
       <c r="C153">
-        <v>118654.242</v>
+        <v>23906.43</v>
       </c>
       <c r="D153">
-        <v>11224.472</v>
+        <v>342.548</v>
       </c>
       <c r="E153">
-        <v>16190.133</v>
+        <v>11718.321</v>
       </c>
       <c r="F153">
-        <v>9202.942999999999</v>
+        <v>1359.553</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3582,19 +3582,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>4329.913</v>
+        <v>6651.007</v>
       </c>
       <c r="C154">
-        <v>71180.42600000001</v>
+        <v>55117.581</v>
       </c>
       <c r="D154">
-        <v>8972.828</v>
+        <v>4849.366</v>
       </c>
       <c r="E154">
-        <v>24869.497</v>
+        <v>11193.724</v>
       </c>
       <c r="F154">
-        <v>11705.636</v>
+        <v>1905.624</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3602,19 +3602,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>119953.299</v>
+        <v>56350.622</v>
       </c>
       <c r="C155">
-        <v>135300.069</v>
+        <v>139020.606</v>
       </c>
       <c r="D155">
-        <v>18039.227</v>
+        <v>8460.23</v>
       </c>
       <c r="E155">
-        <v>31039.712</v>
+        <v>21649.275</v>
       </c>
       <c r="F155">
-        <v>18404.457</v>
+        <v>3358.116</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3622,19 +3622,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>154372.16</v>
+        <v>18631.712</v>
       </c>
       <c r="C156">
-        <v>15815.62</v>
+        <v>90595.656</v>
       </c>
       <c r="D156">
-        <v>22174.811</v>
+        <v>9828.674000000001</v>
       </c>
       <c r="E156">
-        <v>21639.104</v>
+        <v>13943.486</v>
       </c>
       <c r="F156">
-        <v>6406.755</v>
+        <v>1771.859</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3642,19 +3642,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>111168.659</v>
+        <v>267644.431</v>
       </c>
       <c r="C157">
-        <v>113824.486</v>
+        <v>42577.073</v>
       </c>
       <c r="D157">
-        <v>1317.13</v>
+        <v>4812.333</v>
       </c>
       <c r="E157">
-        <v>9240.003000000001</v>
+        <v>12437.363</v>
       </c>
       <c r="F157">
-        <v>1955.132</v>
+        <v>6790.793</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3662,19 +3662,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>135536.085</v>
+        <v>287820.745</v>
       </c>
       <c r="C158">
-        <v>50088.195</v>
+        <v>123210.003</v>
       </c>
       <c r="D158">
-        <v>4976.329</v>
+        <v>7650.544</v>
       </c>
       <c r="E158">
-        <v>37455.927</v>
+        <v>14505.45</v>
       </c>
       <c r="F158">
-        <v>31907.572</v>
+        <v>711.004</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3682,19 +3682,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>119657.9</v>
+        <v>320484.06</v>
       </c>
       <c r="C159">
-        <v>53279.609</v>
+        <v>98783.416</v>
       </c>
       <c r="D159">
-        <v>25890.619</v>
+        <v>6267.838</v>
       </c>
       <c r="E159">
-        <v>9954.805</v>
+        <v>9974.445</v>
       </c>
       <c r="F159">
-        <v>37791.789</v>
+        <v>2498.747</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3702,19 +3702,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7717.114</v>
+        <v>167748.434</v>
       </c>
       <c r="C160">
-        <v>202688.805</v>
+        <v>26821.811</v>
       </c>
       <c r="D160">
-        <v>21736.832</v>
+        <v>3702.019</v>
       </c>
       <c r="E160">
-        <v>26810.787</v>
+        <v>11908.308</v>
       </c>
       <c r="F160">
-        <v>12656.74</v>
+        <v>7728.11</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3722,19 +3722,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>32830.642</v>
+        <v>231671.518</v>
       </c>
       <c r="C161">
-        <v>88939.94</v>
+        <v>115415.314</v>
       </c>
       <c r="D161">
-        <v>7451.618</v>
+        <v>6550.841</v>
       </c>
       <c r="E161">
-        <v>22479.857</v>
+        <v>6027.437</v>
       </c>
       <c r="F161">
-        <v>2450.066</v>
+        <v>363.76</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3742,19 +3742,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>68947.686</v>
+        <v>159374.466</v>
       </c>
       <c r="C162">
-        <v>260033.578</v>
+        <v>53086.129</v>
       </c>
       <c r="D162">
-        <v>24798.61</v>
+        <v>634.6079999999999</v>
       </c>
       <c r="E162">
-        <v>26888.193</v>
+        <v>25574.201</v>
       </c>
       <c r="F162">
-        <v>20677.196</v>
+        <v>2378.679</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3762,19 +3762,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7711.604</v>
+        <v>11950.77</v>
       </c>
       <c r="C163">
-        <v>155993.548</v>
+        <v>122393.105</v>
       </c>
       <c r="D163">
-        <v>19823.96</v>
+        <v>8984.724</v>
       </c>
       <c r="E163">
-        <v>41302.695</v>
+        <v>24429.312</v>
       </c>
       <c r="F163">
-        <v>26300.254</v>
+        <v>3334.087</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3782,19 +3782,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>196066.551</v>
+        <v>93343.022</v>
       </c>
       <c r="C164">
-        <v>297077.807</v>
+        <v>308162.424</v>
       </c>
       <c r="D164">
-        <v>41190.26</v>
+        <v>15298.317</v>
       </c>
       <c r="E164">
-        <v>48511.092</v>
+        <v>48944.452</v>
       </c>
       <c r="F164">
-        <v>46285.794</v>
+        <v>6022.586</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3802,19 +3802,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>252325.022</v>
+        <v>30862.805</v>
       </c>
       <c r="C165">
-        <v>34726.204</v>
+        <v>200820.388</v>
       </c>
       <c r="D165">
-        <v>50633.355</v>
+        <v>17772.832</v>
       </c>
       <c r="E165">
-        <v>33819.138</v>
+        <v>31523.263</v>
       </c>
       <c r="F165">
-        <v>16112.496</v>
+        <v>3177.727</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3822,19 +3822,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>181707.842</v>
+        <v>443344.734</v>
       </c>
       <c r="C166">
-        <v>249923.942</v>
+        <v>94379.133</v>
       </c>
       <c r="D166">
-        <v>3007.419</v>
+        <v>8701.939</v>
       </c>
       <c r="E166">
-        <v>14440.92</v>
+        <v>28118.231</v>
       </c>
       <c r="F166">
-        <v>4917.007</v>
+        <v>12178.893</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3842,19 +3842,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>221536.996</v>
+        <v>476766.179</v>
       </c>
       <c r="C167">
-        <v>109978.382</v>
+        <v>273115.567</v>
       </c>
       <c r="D167">
-        <v>11362.748</v>
+        <v>13834.187</v>
       </c>
       <c r="E167">
-        <v>58538.82</v>
+        <v>32793.747</v>
       </c>
       <c r="F167">
-        <v>80245.08900000001</v>
+        <v>1275.144</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3862,19 +3862,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>195583.714</v>
+        <v>530871.958</v>
       </c>
       <c r="C168">
-        <v>116985.759</v>
+        <v>218969.933</v>
       </c>
       <c r="D168">
-        <v>59117.944</v>
+        <v>11333.883</v>
       </c>
       <c r="E168">
-        <v>15558.065</v>
+        <v>22550.085</v>
       </c>
       <c r="F168">
-        <v>95043.442</v>
+        <v>4481.358</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3882,19 +3882,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>12613.759</v>
+        <v>277870.08</v>
       </c>
       <c r="C169">
-        <v>445043.028</v>
+        <v>59454.949</v>
       </c>
       <c r="D169">
-        <v>49633.285</v>
+        <v>6694.193</v>
       </c>
       <c r="E169">
-        <v>41901.82</v>
+        <v>26922.148</v>
       </c>
       <c r="F169">
-        <v>31830.727</v>
+        <v>13859.917</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3902,19 +3902,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>53662.436</v>
+        <v>383756.708</v>
       </c>
       <c r="C170">
-        <v>195285.028</v>
+        <v>255837.329</v>
       </c>
       <c r="D170">
-        <v>17014.764</v>
+        <v>11845.629</v>
       </c>
       <c r="E170">
-        <v>35133.128</v>
+        <v>13626.72</v>
       </c>
       <c r="F170">
-        <v>6161.727</v>
+        <v>652.3819999999999</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3922,19 +3922,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>112696.628</v>
+        <v>263998.859</v>
       </c>
       <c r="C171">
-        <v>570954.753</v>
+        <v>117674.221</v>
       </c>
       <c r="D171">
-        <v>56624.476</v>
+        <v>1147.489</v>
       </c>
       <c r="E171">
-        <v>42022.796</v>
+        <v>57817.895</v>
       </c>
       <c r="F171">
-        <v>52001.557</v>
+        <v>4266.023</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3942,19 +3942,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>12604.753</v>
+        <v>19796.029</v>
       </c>
       <c r="C172">
-        <v>342514.409</v>
+        <v>271304.775</v>
       </c>
       <c r="D172">
-        <v>45265.478</v>
+        <v>16246.743</v>
       </c>
       <c r="E172">
-        <v>64550.829</v>
+        <v>55229.539</v>
       </c>
       <c r="F172">
-        <v>66143.11599999999</v>
+        <v>5979.492</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3962,19 +3962,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>360409.714</v>
+        <v>142563.347</v>
       </c>
       <c r="C173">
-        <v>755636.191</v>
+        <v>509353.125</v>
       </c>
       <c r="D173">
-        <v>64753.195</v>
+        <v>32309.741</v>
       </c>
       <c r="E173">
-        <v>90820.125</v>
+        <v>94740.613</v>
       </c>
       <c r="F173">
-        <v>92588.87699999999</v>
+        <v>14263.971</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3982,19 +3982,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>463824.107</v>
+        <v>47136.915</v>
       </c>
       <c r="C174">
-        <v>88328.183</v>
+        <v>331930.432</v>
       </c>
       <c r="D174">
-        <v>79598.232</v>
+        <v>37535.879</v>
       </c>
       <c r="E174">
-        <v>63314.545</v>
+        <v>61018.814</v>
       </c>
       <c r="F174">
-        <v>32231.01</v>
+        <v>7526.17</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4002,19 +4002,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>334015.517</v>
+        <v>677123.186</v>
       </c>
       <c r="C175">
-        <v>635697.333</v>
+        <v>155996.614</v>
       </c>
       <c r="D175">
-        <v>4727.782</v>
+        <v>18378.291</v>
       </c>
       <c r="E175">
-        <v>27035.562</v>
+        <v>54427.771</v>
       </c>
       <c r="F175">
-        <v>9835.851000000001</v>
+        <v>28844.648</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4022,19 +4022,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>407229.518</v>
+        <v>728167.972</v>
       </c>
       <c r="C176">
-        <v>279736.89</v>
+        <v>451425.141</v>
       </c>
       <c r="D176">
-        <v>17862.794</v>
+        <v>29217.52</v>
       </c>
       <c r="E176">
-        <v>109593.563</v>
+        <v>63478.061</v>
       </c>
       <c r="F176">
-        <v>160520.151</v>
+        <v>3020.067</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4042,19 +4042,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>359522.162</v>
+        <v>810804.072</v>
       </c>
       <c r="C177">
-        <v>297560.599</v>
+        <v>361929.314</v>
       </c>
       <c r="D177">
-        <v>92936.448</v>
+        <v>23936.916</v>
       </c>
       <c r="E177">
-        <v>29127.028</v>
+        <v>43649.638</v>
       </c>
       <c r="F177">
-        <v>190122.385</v>
+        <v>10613.707</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4062,19 +4062,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>23186.558</v>
+        <v>424392.696</v>
       </c>
       <c r="C178">
-        <v>1131995.153</v>
+        <v>98271.393</v>
       </c>
       <c r="D178">
-        <v>78026.07000000001</v>
+        <v>14137.961</v>
       </c>
       <c r="E178">
-        <v>78446.55899999999</v>
+        <v>52112.541</v>
       </c>
       <c r="F178">
-        <v>63673.343</v>
+        <v>32826.007</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4082,19 +4082,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>98642.289</v>
+        <v>586114.0159999999</v>
       </c>
       <c r="C179">
-        <v>496719.776</v>
+        <v>422866.418</v>
       </c>
       <c r="D179">
-        <v>26748.057</v>
+        <v>25017.716</v>
       </c>
       <c r="E179">
-        <v>65774.534</v>
+        <v>26376.884</v>
       </c>
       <c r="F179">
-        <v>12325.755</v>
+        <v>1545.11</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4102,19 +4102,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>207159.015</v>
+        <v>403207.092</v>
       </c>
       <c r="C180">
-        <v>1452259.643</v>
+        <v>194500.423</v>
       </c>
       <c r="D180">
-        <v>89016.586</v>
+        <v>2423.406</v>
       </c>
       <c r="E180">
-        <v>78673.04399999999</v>
+        <v>111916.734</v>
       </c>
       <c r="F180">
-        <v>104022.538</v>
+        <v>10103.704</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4122,19 +4122,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>23170.004</v>
+        <v>30234.557</v>
       </c>
       <c r="C181">
-        <v>871207.0820000001</v>
+        <v>448432.133</v>
       </c>
       <c r="D181">
-        <v>71159.64999999999</v>
+        <v>34312.802</v>
       </c>
       <c r="E181">
-        <v>120848.961</v>
+        <v>106906.512</v>
       </c>
       <c r="F181">
-        <v>132310.938</v>
+        <v>14161.907</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4142,19 +4142,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>686937.211</v>
+        <v>210459.46</v>
       </c>
       <c r="C182">
-        <v>1969075.047</v>
+        <v>763516.542</v>
       </c>
       <c r="D182">
-        <v>88963.66099999999</v>
+        <v>70807.099</v>
       </c>
       <c r="E182">
-        <v>179629.036</v>
+        <v>176348.706</v>
       </c>
       <c r="F182">
-        <v>175742.333</v>
+        <v>35713.793</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4162,19 +4162,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>884044.003</v>
+        <v>69585.95</v>
       </c>
       <c r="C183">
-        <v>230169.934</v>
+        <v>497561.232</v>
       </c>
       <c r="D183">
-        <v>109359.091</v>
+        <v>82260.242</v>
       </c>
       <c r="E183">
-        <v>125226.973</v>
+        <v>113579.457</v>
       </c>
       <c r="F183">
-        <v>61177.466</v>
+        <v>18843.846</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4182,19 +4182,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>636630.137</v>
+        <v>999604.764</v>
       </c>
       <c r="C184">
-        <v>1656532.277</v>
+        <v>233837.734</v>
       </c>
       <c r="D184">
-        <v>6495.422</v>
+        <v>40276.163</v>
       </c>
       <c r="E184">
-        <v>53472.386</v>
+        <v>101310.989</v>
       </c>
       <c r="F184">
-        <v>18669.364</v>
+        <v>72220.54700000001</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4202,19 +4202,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>776175.286</v>
+        <v>1074959.758</v>
       </c>
       <c r="C185">
-        <v>728952.468</v>
+        <v>676682.921</v>
       </c>
       <c r="D185">
-        <v>24541.467</v>
+        <v>64030.46</v>
       </c>
       <c r="E185">
-        <v>216760.184</v>
+        <v>118157.063</v>
       </c>
       <c r="F185">
-        <v>304682.233</v>
+        <v>7561.572</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4222,19 +4222,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>685245.546</v>
+        <v>1196951.509</v>
       </c>
       <c r="C186">
-        <v>775398.394</v>
+        <v>542529.335</v>
       </c>
       <c r="D186">
-        <v>127684.316</v>
+        <v>52457.954</v>
       </c>
       <c r="E186">
-        <v>57609.003</v>
+        <v>81248.735</v>
       </c>
       <c r="F186">
-        <v>360870.037</v>
+        <v>26574.349</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4242,19 +4242,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>44193.271</v>
+        <v>626510.7439999999</v>
       </c>
       <c r="C187">
-        <v>2949810.353</v>
+        <v>147308.053</v>
       </c>
       <c r="D187">
-        <v>107199.115</v>
+        <v>30983.429</v>
       </c>
       <c r="E187">
-        <v>155155.91</v>
+        <v>97001.455</v>
       </c>
       <c r="F187">
-        <v>120857.95</v>
+        <v>82188.97900000001</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4262,19 +4262,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>188011.135</v>
+        <v>865252.249</v>
       </c>
       <c r="C188">
-        <v>1294377.497</v>
+        <v>633873.606</v>
       </c>
       <c r="D188">
-        <v>36748.83</v>
+        <v>54826.54</v>
       </c>
       <c r="E188">
-        <v>130092.475</v>
+        <v>49097.491</v>
       </c>
       <c r="F188">
-        <v>23395.433</v>
+        <v>3868.61</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4282,19 +4282,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>394842.921</v>
+        <v>595235.443</v>
       </c>
       <c r="C189">
-        <v>3784371.833</v>
+        <v>291554.66</v>
       </c>
       <c r="D189">
-        <v>122298.861</v>
+        <v>5310.844</v>
       </c>
       <c r="E189">
-        <v>155603.864</v>
+        <v>208320.079</v>
       </c>
       <c r="F189">
-        <v>197444.489</v>
+        <v>25297.415</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4302,19 +4302,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>44161.719</v>
+        <v>44633.801</v>
       </c>
       <c r="C190">
-        <v>2270235.547</v>
+        <v>672196.424</v>
       </c>
       <c r="D190">
-        <v>97765.41800000001</v>
+        <v>75196.83</v>
       </c>
       <c r="E190">
-        <v>239021.735</v>
+        <v>198994.127</v>
       </c>
       <c r="F190">
-        <v>251138.513</v>
+        <v>35458.248</v>
       </c>
     </row>
   </sheetData>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05955214130674402</v>
+        <v>0.04079159253563612</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1818823984290107</v>
+        <v>0.08691274912186304</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4412,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003404457822306063</v>
+        <v>0.06515138410145309</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4420,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.04387801147054079</v>
+        <v>0.066661037893298</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4428,7 +4428,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02037398100422457</v>
+        <v>0.08517390122943123</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4436,7 +4436,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08034350245408674</v>
+        <v>0.114471188225914</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4444,7 +4444,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04568632274335221</v>
+        <v>0.04226728304428627</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4452,7 +4452,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.18676899612354</v>
+        <v>0.1214386417736362</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4460,7 +4460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1880350761600455</v>
+        <v>0.1051373670336869</v>
       </c>
     </row>
   </sheetData>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05955214130674402</v>
+        <v>0.04079159253563612</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1818823984290107</v>
+        <v>0.08691274912186304</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003404457822306063</v>
+        <v>0.06515138410145309</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.04387801147054079</v>
+        <v>0.066661037893298</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02037398100422457</v>
+        <v>0.08517390122943123</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08034350245408674</v>
+        <v>0.114471188225914</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04568632274335221</v>
+        <v>0.04226728304428627</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.18676899612354</v>
+        <v>0.1214386417736362</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1880350761600455</v>
+        <v>0.1051373670336869</v>
       </c>
     </row>
   </sheetData>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.398516134638038</v>
+        <v>1.232182873165537</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8847870217049661</v>
+        <v>1.122558122898953</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9864879321090136</v>
+        <v>0.8742614862190753</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.140274785021091</v>
+        <v>0.7959926311406395</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.176798031982991</v>
+        <v>0.8859991293279819</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.167150274564057</v>
+        <v>0.8468197126482644</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.234225885432126</v>
+        <v>0.9384454820893031</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.27179658226963</v>
+        <v>0.9167673778298387</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8139077319340228</v>
+        <v>1.089742858132323</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.398516134638038</v>
+        <v>1.232182873165537</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8847870217049661</v>
+        <v>1.122558122898953</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9864879321090136</v>
+        <v>0.8742614862190753</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.140274785021091</v>
+        <v>0.7959926311406395</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.176798031982991</v>
+        <v>0.8859991293279819</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.167150274564057</v>
+        <v>0.8468197126482644</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.234225885432126</v>
+        <v>0.9384454820893031</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.27179658226963</v>
+        <v>0.9167673778298387</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8139077319340228</v>
+        <v>1.089742858132323</v>
       </c>
     </row>
   </sheetData>
@@ -4788,19 +4788,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.618</v>
+        <v>0.163</v>
       </c>
       <c r="C3">
-        <v>0.035</v>
+        <v>0.249</v>
       </c>
       <c r="D3">
-        <v>0.773</v>
+        <v>0.879</v>
       </c>
       <c r="E3">
-        <v>0.795</v>
+        <v>0.386</v>
       </c>
       <c r="F3">
-        <v>0.377</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4808,19 +4808,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.116</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="C4">
-        <v>0.358</v>
+        <v>0.753</v>
       </c>
       <c r="D4">
-        <v>0.392</v>
+        <v>0.111</v>
       </c>
       <c r="E4">
-        <v>0.867</v>
+        <v>0.141</v>
       </c>
       <c r="F4">
-        <v>0.352</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4828,19 +4828,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.952</v>
+        <v>0.652</v>
       </c>
       <c r="C5">
-        <v>0.8080000000000001</v>
+        <v>0.359</v>
       </c>
       <c r="D5">
-        <v>0.604</v>
+        <v>0.265</v>
       </c>
       <c r="E5">
-        <v>0.425</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="F5">
-        <v>0.486</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4848,19 +4848,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.869</v>
+        <v>0.953</v>
       </c>
       <c r="C6">
-        <v>0.928</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D6">
-        <v>0.068</v>
+        <v>0.057</v>
       </c>
       <c r="E6">
-        <v>0.5590000000000001</v>
+        <v>0.339</v>
       </c>
       <c r="F6">
-        <v>0.573</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4868,19 +4868,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9370000000000001</v>
+        <v>0.971</v>
       </c>
       <c r="C7">
-        <v>0.978</v>
+        <v>0.72</v>
       </c>
       <c r="D7">
-        <v>0.044</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="E7">
-        <v>0.317</v>
+        <v>0.453</v>
       </c>
       <c r="F7">
-        <v>0.853</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4888,19 +4888,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.323</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="C8">
-        <v>0.726</v>
+        <v>0.799</v>
       </c>
       <c r="D8">
-        <v>0.851</v>
+        <v>0.402</v>
       </c>
       <c r="E8">
-        <v>0.12</v>
+        <v>0.587</v>
       </c>
       <c r="F8">
-        <v>0.23</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4908,19 +4908,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.409</v>
+        <v>0.123</v>
       </c>
       <c r="C9">
-        <v>0.375</v>
+        <v>0.112</v>
       </c>
       <c r="D9">
-        <v>0.409</v>
+        <v>0.092</v>
       </c>
       <c r="E9">
-        <v>0.386</v>
+        <v>0.122</v>
       </c>
       <c r="F9">
-        <v>0.51</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4928,19 +4928,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.843</v>
+        <v>0.857</v>
       </c>
       <c r="C10">
-        <v>0.646</v>
+        <v>0.724</v>
       </c>
       <c r="D10">
-        <v>0.425</v>
+        <v>0.555</v>
       </c>
       <c r="E10">
-        <v>0.498</v>
+        <v>0.429</v>
       </c>
       <c r="F10">
-        <v>0.049</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4948,19 +4948,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.196</v>
+        <v>0.213</v>
       </c>
       <c r="C11">
-        <v>0.652</v>
+        <v>0.667</v>
       </c>
       <c r="D11">
-        <v>0.736</v>
+        <v>0.348</v>
       </c>
       <c r="E11">
-        <v>0.165</v>
+        <v>0.719</v>
       </c>
       <c r="F11">
-        <v>0.96</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4968,19 +4968,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.45</v>
+        <v>0.131</v>
       </c>
       <c r="C12">
-        <v>0.999</v>
+        <v>0.104</v>
       </c>
       <c r="D12">
-        <v>0.01</v>
+        <v>0.665</v>
       </c>
       <c r="E12">
-        <v>0.512</v>
+        <v>0.378</v>
       </c>
       <c r="F12">
-        <v>0.398</v>
+        <v>0.926</v>
       </c>
     </row>
   </sheetData>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.03243696835504817</v>
+        <v>0.8575748590391605</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2662821890685697</v>
+        <v>0.8694148967960006</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7999857177561073</v>
+        <v>0.0447601633026854</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1746970352000441</v>
+        <v>0.4746562340853355</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6764442653674172</v>
+        <v>0.5449454403381275</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3171145471749074</v>
+        <v>0.8031070611585291</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2397261285481355</v>
+        <v>0.2030539519660669</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.328102143121342</v>
+        <v>0.5566403874402911</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7475210386385953</v>
+        <v>0.09824911507208001</v>
       </c>
     </row>
   </sheetData>
@@ -5108,19 +5108,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.671</v>
+        <v>0.195</v>
       </c>
       <c r="C2">
-        <v>0.456</v>
+        <v>0.914</v>
       </c>
       <c r="D2">
-        <v>0.627</v>
+        <v>0.704</v>
       </c>
       <c r="E2">
-        <v>0.6909999999999999</v>
+        <v>0.636</v>
       </c>
       <c r="F2">
-        <v>0.247</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5128,19 +5128,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.846</v>
+        <v>0.075</v>
       </c>
       <c r="C3">
-        <v>0.063</v>
+        <v>0.601</v>
       </c>
       <c r="D3">
-        <v>0.777</v>
+        <v>0.825</v>
       </c>
       <c r="E3">
-        <v>0.475</v>
+        <v>0.404</v>
       </c>
       <c r="F3">
-        <v>0.093</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5148,19 +5148,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.614</v>
+        <v>0.842</v>
       </c>
       <c r="C4">
-        <v>0.383</v>
+        <v>0.29</v>
       </c>
       <c r="D4">
-        <v>0.046</v>
+        <v>0.404</v>
       </c>
       <c r="E4">
-        <v>0.186</v>
+        <v>0.362</v>
       </c>
       <c r="F4">
-        <v>0.025</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5168,19 +5168,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.737</v>
+        <v>0.901</v>
       </c>
       <c r="C5">
-        <v>0.172</v>
+        <v>0.802</v>
       </c>
       <c r="D5">
-        <v>0.178</v>
+        <v>0.647</v>
       </c>
       <c r="E5">
-        <v>0.884</v>
+        <v>0.44</v>
       </c>
       <c r="F5">
-        <v>0.696</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5188,19 +5188,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.649</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.181</v>
+        <v>0.643</v>
       </c>
       <c r="D6">
-        <v>0.902</v>
+        <v>0.52</v>
       </c>
       <c r="E6">
-        <v>0.191</v>
+        <v>0.279</v>
       </c>
       <c r="F6">
-        <v>0.828</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5208,19 +5208,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.055</v>
+        <v>0.526</v>
       </c>
       <c r="C7">
-        <v>0.668</v>
+        <v>0.18</v>
       </c>
       <c r="D7">
-        <v>0.762</v>
+        <v>0.311</v>
       </c>
       <c r="E7">
-        <v>0.63</v>
+        <v>0.36</v>
       </c>
       <c r="F7">
-        <v>0.276</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5228,19 +5228,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.182</v>
+        <v>0.72</v>
       </c>
       <c r="C8">
-        <v>0.294</v>
+        <v>0.743</v>
       </c>
       <c r="D8">
-        <v>0.261</v>
+        <v>0.55</v>
       </c>
       <c r="E8">
-        <v>0.542</v>
+        <v>0.189</v>
       </c>
       <c r="F8">
-        <v>0.052</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5248,19 +5248,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.367</v>
+        <v>0.495</v>
       </c>
       <c r="C9">
-        <v>0.853</v>
+        <v>0.342</v>
       </c>
       <c r="D9">
-        <v>0.869</v>
+        <v>0.053</v>
       </c>
       <c r="E9">
-        <v>0.664</v>
+        <v>0.799</v>
       </c>
       <c r="F9">
-        <v>0.453</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5268,19 +5268,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.041</v>
+        <v>0.037</v>
       </c>
       <c r="C10">
-        <v>0.511</v>
+        <v>0.782</v>
       </c>
       <c r="D10">
-        <v>0.695</v>
+        <v>0.754</v>
       </c>
       <c r="E10">
-        <v>0.986</v>
+        <v>0.751</v>
       </c>
       <c r="F10">
-        <v>0.579</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5288,19 +5288,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.649</v>
+        <v>0.189</v>
       </c>
       <c r="C11">
-        <v>0.455</v>
+        <v>0.905</v>
       </c>
       <c r="D11">
-        <v>0.63</v>
+        <v>0.708</v>
       </c>
       <c r="E11">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="F11">
-        <v>0.319</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5308,19 +5308,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.827</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C12">
-        <v>0.062</v>
+        <v>0.593</v>
       </c>
       <c r="D12">
-        <v>0.777</v>
+        <v>0.825</v>
       </c>
       <c r="E12">
-        <v>0.499</v>
+        <v>0.416</v>
       </c>
       <c r="F12">
-        <v>0.115</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5328,19 +5328,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.598</v>
+        <v>0.838</v>
       </c>
       <c r="C13">
-        <v>0.382</v>
+        <v>0.284</v>
       </c>
       <c r="D13">
-        <v>0.046</v>
+        <v>0.404</v>
       </c>
       <c r="E13">
-        <v>0.206</v>
+        <v>0.372</v>
       </c>
       <c r="F13">
-        <v>0.033</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5348,19 +5348,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.724</v>
+        <v>0.898</v>
       </c>
       <c r="C14">
-        <v>0.171</v>
+        <v>0.797</v>
       </c>
       <c r="D14">
-        <v>0.176</v>
+        <v>0.644</v>
       </c>
       <c r="E14">
-        <v>0.89</v>
+        <v>0.443</v>
       </c>
       <c r="F14">
-        <v>0.699</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5368,19 +5368,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.638</v>
+        <v>0.997</v>
       </c>
       <c r="C15">
-        <v>0.18</v>
+        <v>0.639</v>
       </c>
       <c r="D15">
-        <v>0.905</v>
+        <v>0.524</v>
       </c>
       <c r="E15">
-        <v>0.218</v>
+        <v>0.292</v>
       </c>
       <c r="F15">
-        <v>0.83</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5388,19 +5388,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.047</v>
+        <v>0.524</v>
       </c>
       <c r="C16">
-        <v>0.668</v>
+        <v>0.177</v>
       </c>
       <c r="D16">
-        <v>0.762</v>
+        <v>0.311</v>
       </c>
       <c r="E16">
-        <v>0.636</v>
+        <v>0.363</v>
       </c>
       <c r="F16">
-        <v>0.277</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5408,19 +5408,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.177</v>
+        <v>0.719</v>
       </c>
       <c r="C17">
-        <v>0.294</v>
+        <v>0.741</v>
       </c>
       <c r="D17">
-        <v>0.261</v>
+        <v>0.55</v>
       </c>
       <c r="E17">
-        <v>0.539</v>
+        <v>0.187</v>
       </c>
       <c r="F17">
-        <v>0.053</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5428,19 +5428,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.365</v>
+        <v>0.494</v>
       </c>
       <c r="C18">
-        <v>0.853</v>
+        <v>0.341</v>
       </c>
       <c r="D18">
-        <v>0.869</v>
+        <v>0.053</v>
       </c>
       <c r="E18">
-        <v>0.651</v>
+        <v>0.793</v>
       </c>
       <c r="F18">
-        <v>0.454</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5448,19 +5448,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.041</v>
+        <v>0.037</v>
       </c>
       <c r="C19">
-        <v>0.511</v>
+        <v>0.782</v>
       </c>
       <c r="D19">
-        <v>0.695</v>
+        <v>0.754</v>
       </c>
       <c r="E19">
-        <v>0.986</v>
+        <v>0.751</v>
       </c>
       <c r="F19">
-        <v>0.579</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5468,19 +5468,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.028</v>
+        <v>0.214</v>
       </c>
       <c r="C20">
-        <v>0.47</v>
+        <v>1.121</v>
       </c>
       <c r="D20">
-        <v>1.12</v>
+        <v>1.334</v>
       </c>
       <c r="E20">
-        <v>1.321</v>
+        <v>0.915</v>
       </c>
       <c r="F20">
-        <v>0.511</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5488,19 +5488,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.32</v>
+        <v>0.077</v>
       </c>
       <c r="C21">
-        <v>0.063</v>
+        <v>0.733</v>
       </c>
       <c r="D21">
-        <v>1.378</v>
+        <v>1.55</v>
       </c>
       <c r="E21">
-        <v>0.92</v>
+        <v>0.588</v>
       </c>
       <c r="F21">
-        <v>0.18</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5508,19 +5508,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.951</v>
+        <v>0.97</v>
       </c>
       <c r="C22">
-        <v>0.394</v>
+        <v>0.348</v>
       </c>
       <c r="D22">
-        <v>0.082</v>
+        <v>0.759</v>
       </c>
       <c r="E22">
-        <v>0.39</v>
+        <v>0.525</v>
       </c>
       <c r="F22">
-        <v>0.054</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5528,19 +5528,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.158</v>
+        <v>1.041</v>
       </c>
       <c r="C23">
-        <v>0.176</v>
+        <v>0.99</v>
       </c>
       <c r="D23">
-        <v>0.31</v>
+        <v>1.207</v>
       </c>
       <c r="E23">
-        <v>1.603</v>
+        <v>0.617</v>
       </c>
       <c r="F23">
-        <v>0.965</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5548,19 +5548,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.022</v>
+        <v>1.157</v>
       </c>
       <c r="C24">
-        <v>0.186</v>
+        <v>0.794</v>
       </c>
       <c r="D24">
-        <v>1.608</v>
+        <v>0.988</v>
       </c>
       <c r="E24">
         <v>0.418</v>
       </c>
       <c r="F24">
-        <v>1.144</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5568,19 +5568,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.068</v>
+        <v>0.607</v>
       </c>
       <c r="C25">
-        <v>0.6909999999999999</v>
+        <v>0.218</v>
       </c>
       <c r="D25">
-        <v>1.351</v>
+        <v>0.584</v>
       </c>
       <c r="E25">
-        <v>1.147</v>
+        <v>0.506</v>
       </c>
       <c r="F25">
-        <v>0.383</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5588,19 +5588,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.281</v>
+        <v>0.835</v>
       </c>
       <c r="C26">
-        <v>0.304</v>
+        <v>0.924</v>
       </c>
       <c r="D26">
-        <v>0.463</v>
+        <v>1.033</v>
       </c>
       <c r="E26">
-        <v>0.964</v>
+        <v>0.258</v>
       </c>
       <c r="F26">
-        <v>0.074</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5608,19 +5608,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.588</v>
+        <v>0.574</v>
       </c>
       <c r="C27">
-        <v>0.883</v>
+        <v>0.425</v>
       </c>
       <c r="D27">
-        <v>1.541</v>
+        <v>0.1</v>
       </c>
       <c r="E27">
-        <v>1.156</v>
+        <v>1.093</v>
       </c>
       <c r="F27">
-        <v>0.626</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5628,19 +5628,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.066</v>
+        <v>0.043</v>
       </c>
       <c r="C28">
-        <v>0.529</v>
+        <v>0.977</v>
       </c>
       <c r="D28">
-        <v>1.232</v>
+        <v>1.417</v>
       </c>
       <c r="E28">
-        <v>1.77</v>
+        <v>1.041</v>
       </c>
       <c r="F28">
-        <v>0.797</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5648,19 +5648,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.218</v>
+        <v>0.515</v>
       </c>
       <c r="C29">
-        <v>0.788</v>
+        <v>2.619</v>
       </c>
       <c r="D29">
-        <v>1.808</v>
+        <v>1.561</v>
       </c>
       <c r="E29">
-        <v>3.122</v>
+        <v>1.141</v>
       </c>
       <c r="F29">
-        <v>0.87</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5668,19 +5668,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.566</v>
+        <v>0.173</v>
       </c>
       <c r="C30">
-        <v>0.097</v>
+        <v>1.708</v>
       </c>
       <c r="D30">
-        <v>2.223</v>
+        <v>1.814</v>
       </c>
       <c r="E30">
-        <v>2.176</v>
+        <v>0.734</v>
       </c>
       <c r="F30">
-        <v>0.304</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5688,19 +5688,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.128</v>
+        <v>2.426</v>
       </c>
       <c r="C31">
-        <v>0.662</v>
+        <v>0.804</v>
       </c>
       <c r="D31">
-        <v>0.132</v>
+        <v>0.888</v>
       </c>
       <c r="E31">
-        <v>0.928</v>
+        <v>0.655</v>
       </c>
       <c r="F31">
-        <v>0.092</v>
+        <v>1.217</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5708,19 +5708,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.374</v>
+        <v>2.608</v>
       </c>
       <c r="C32">
-        <v>0.293</v>
+        <v>2.32</v>
       </c>
       <c r="D32">
-        <v>0.499</v>
+        <v>1.412</v>
       </c>
       <c r="E32">
-        <v>3.771</v>
+        <v>0.767</v>
       </c>
       <c r="F32">
-        <v>1.553</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5728,19 +5728,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.213</v>
+        <v>2.903</v>
       </c>
       <c r="C33">
-        <v>0.311</v>
+        <v>1.86</v>
       </c>
       <c r="D33">
-        <v>2.595</v>
+        <v>1.156</v>
       </c>
       <c r="E33">
-        <v>0.999</v>
+        <v>0.523</v>
       </c>
       <c r="F33">
-        <v>1.84</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5748,19 +5748,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.08</v>
+        <v>1.52</v>
       </c>
       <c r="C34">
-        <v>1.173</v>
+        <v>0.506</v>
       </c>
       <c r="D34">
-        <v>2.179</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="E34">
-        <v>2.699</v>
+        <v>0.63</v>
       </c>
       <c r="F34">
-        <v>0.616</v>
+        <v>1.387</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5768,19 +5768,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.333</v>
+        <v>2.098</v>
       </c>
       <c r="C35">
-        <v>0.515</v>
+        <v>2.172</v>
       </c>
       <c r="D35">
-        <v>0.747</v>
+        <v>1.209</v>
       </c>
       <c r="E35">
-        <v>2.264</v>
+        <v>0.32</v>
       </c>
       <c r="F35">
-        <v>0.119</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5788,19 +5788,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.698</v>
+        <v>1.443</v>
       </c>
       <c r="C36">
-        <v>1.503</v>
+        <v>0.999</v>
       </c>
       <c r="D36">
-        <v>2.486</v>
+        <v>0.117</v>
       </c>
       <c r="E36">
-        <v>2.709</v>
+        <v>1.357</v>
       </c>
       <c r="F36">
-        <v>1.007</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5808,19 +5808,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.078</v>
+        <v>0.108</v>
       </c>
       <c r="C37">
-        <v>0.901</v>
+        <v>2.302</v>
       </c>
       <c r="D37">
-        <v>1.987</v>
+        <v>1.658</v>
       </c>
       <c r="E37">
-        <v>4.159</v>
+        <v>1.294</v>
       </c>
       <c r="F37">
-        <v>1.281</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5828,19 +5828,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.55</v>
+        <v>1.236</v>
       </c>
       <c r="C38">
-        <v>1.388</v>
+        <v>6.09</v>
       </c>
       <c r="D38">
-        <v>3.204</v>
+        <v>1.961</v>
       </c>
       <c r="E38">
-        <v>7.63</v>
+        <v>1.528</v>
       </c>
       <c r="F38">
-        <v>1.535</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5848,19 +5848,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.993</v>
+        <v>0.41</v>
       </c>
       <c r="C39">
-        <v>0.165</v>
+        <v>3.969</v>
       </c>
       <c r="D39">
-        <v>3.939</v>
+        <v>2.279</v>
       </c>
       <c r="E39">
-        <v>5.319</v>
+        <v>0.983</v>
       </c>
       <c r="F39">
-        <v>0.535</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5868,19 +5868,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.436</v>
+        <v>5.864</v>
       </c>
       <c r="C40">
-        <v>1.167</v>
+        <v>1.866</v>
       </c>
       <c r="D40">
-        <v>0.234</v>
+        <v>1.116</v>
       </c>
       <c r="E40">
-        <v>2.271</v>
+        <v>0.877</v>
       </c>
       <c r="F40">
-        <v>0.163</v>
+        <v>1.344</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5888,19 +5888,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.749</v>
+        <v>6.306</v>
       </c>
       <c r="C41">
-        <v>0.515</v>
+        <v>5.397</v>
       </c>
       <c r="D41">
-        <v>0.884</v>
+        <v>1.774</v>
       </c>
       <c r="E41">
-        <v>9.208</v>
+        <v>1.026</v>
       </c>
       <c r="F41">
-        <v>2.688</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5908,19 +5908,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.544</v>
+        <v>7.021</v>
       </c>
       <c r="C42">
-        <v>0.547</v>
+        <v>4.327</v>
       </c>
       <c r="D42">
-        <v>4.599</v>
+        <v>1.453</v>
       </c>
       <c r="E42">
-        <v>2.446</v>
+        <v>0.702</v>
       </c>
       <c r="F42">
-        <v>3.184</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5928,19 +5928,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.101</v>
+        <v>3.675</v>
       </c>
       <c r="C43">
-        <v>2.075</v>
+        <v>1.175</v>
       </c>
       <c r="D43">
-        <v>3.861</v>
+        <v>0.858</v>
       </c>
       <c r="E43">
-        <v>6.591</v>
+        <v>0.842</v>
       </c>
       <c r="F43">
-        <v>1.066</v>
+        <v>1.531</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5948,19 +5948,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.424</v>
+        <v>5.075</v>
       </c>
       <c r="C44">
-        <v>0.911</v>
+        <v>5.055</v>
       </c>
       <c r="D44">
-        <v>1.324</v>
+        <v>1.519</v>
       </c>
       <c r="E44">
-        <v>5.527</v>
+        <v>0.427</v>
       </c>
       <c r="F44">
-        <v>0.206</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5968,19 +5968,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.889</v>
+        <v>3.491</v>
       </c>
       <c r="C45">
-        <v>2.661</v>
+        <v>2.325</v>
       </c>
       <c r="D45">
-        <v>4.405</v>
+        <v>0.147</v>
       </c>
       <c r="E45">
-        <v>6.611</v>
+        <v>1.812</v>
       </c>
       <c r="F45">
-        <v>1.742</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5988,19 +5988,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.099</v>
+        <v>0.262</v>
       </c>
       <c r="C46">
-        <v>1.596</v>
+        <v>5.36</v>
       </c>
       <c r="D46">
-        <v>3.521</v>
+        <v>2.083</v>
       </c>
       <c r="E46">
-        <v>10.154</v>
+        <v>1.729</v>
       </c>
       <c r="F46">
-        <v>2.216</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6008,19 +6008,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5.748</v>
+        <v>2.618</v>
       </c>
       <c r="C47">
-        <v>3.865</v>
+        <v>9.930999999999999</v>
       </c>
       <c r="D47">
-        <v>7.291</v>
+        <v>3.437</v>
       </c>
       <c r="E47">
-        <v>13.082</v>
+        <v>4.991</v>
       </c>
       <c r="F47">
-        <v>3.2</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6028,19 +6028,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7.397</v>
+        <v>0.866</v>
       </c>
       <c r="C48">
-        <v>0.453</v>
+        <v>6.472</v>
       </c>
       <c r="D48">
-        <v>8.962</v>
+        <v>3.993</v>
       </c>
       <c r="E48">
-        <v>9.119999999999999</v>
+        <v>3.214</v>
       </c>
       <c r="F48">
-        <v>1.114</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6048,19 +6048,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.327</v>
+        <v>12.431</v>
       </c>
       <c r="C49">
-        <v>3.251</v>
+        <v>3.042</v>
       </c>
       <c r="D49">
-        <v>0.532</v>
+        <v>1.955</v>
       </c>
       <c r="E49">
-        <v>3.894</v>
+        <v>2.867</v>
       </c>
       <c r="F49">
-        <v>0.34</v>
+        <v>1.703</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6068,19 +6068,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6.494</v>
+        <v>13.368</v>
       </c>
       <c r="C50">
-        <v>1.431</v>
+        <v>8.801</v>
       </c>
       <c r="D50">
-        <v>2.011</v>
+        <v>3.108</v>
       </c>
       <c r="E50">
-        <v>15.787</v>
+        <v>3.345</v>
       </c>
       <c r="F50">
-        <v>5.561</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6088,19 +6088,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.733</v>
+        <v>14.885</v>
       </c>
       <c r="C51">
-        <v>1.522</v>
+        <v>7.056</v>
       </c>
       <c r="D51">
-        <v>10.464</v>
+        <v>2.546</v>
       </c>
       <c r="E51">
-        <v>4.195</v>
+        <v>2.299</v>
       </c>
       <c r="F51">
-        <v>6.587</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6108,19 +6108,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.37</v>
+        <v>7.791</v>
       </c>
       <c r="C52">
-        <v>5.788</v>
+        <v>1.916</v>
       </c>
       <c r="D52">
-        <v>8.785</v>
+        <v>1.504</v>
       </c>
       <c r="E52">
-        <v>11.3</v>
+        <v>2.746</v>
       </c>
       <c r="F52">
-        <v>2.206</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6128,19 +6128,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.573</v>
+        <v>10.76</v>
       </c>
       <c r="C53">
-        <v>2.54</v>
+        <v>8.244</v>
       </c>
       <c r="D53">
-        <v>3.012</v>
+        <v>2.661</v>
       </c>
       <c r="E53">
-        <v>9.475</v>
+        <v>1.39</v>
       </c>
       <c r="F53">
-        <v>0.427</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6148,19 +6148,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.303</v>
+        <v>7.402</v>
       </c>
       <c r="C54">
-        <v>7.425</v>
+        <v>3.792</v>
       </c>
       <c r="D54">
-        <v>10.023</v>
+        <v>0.258</v>
       </c>
       <c r="E54">
-        <v>11.333</v>
+        <v>5.899</v>
       </c>
       <c r="F54">
-        <v>3.604</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6168,19 +6168,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.369</v>
+        <v>0.555</v>
       </c>
       <c r="C55">
-        <v>4.454</v>
+        <v>8.742000000000001</v>
       </c>
       <c r="D55">
-        <v>8.012</v>
+        <v>3.65</v>
       </c>
       <c r="E55">
-        <v>17.408</v>
+        <v>5.634</v>
       </c>
       <c r="F55">
-        <v>4.584</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6188,19 +6188,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>15.418</v>
+        <v>5.707</v>
       </c>
       <c r="C56">
-        <v>9.464</v>
+        <v>17.337</v>
       </c>
       <c r="D56">
-        <v>15.781</v>
+        <v>5.823</v>
       </c>
       <c r="E56">
-        <v>24.094</v>
+        <v>12.502</v>
       </c>
       <c r="F56">
-        <v>6.42</v>
+        <v>1.077</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6208,19 +6208,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>19.842</v>
+        <v>1.887</v>
       </c>
       <c r="C57">
-        <v>1.107</v>
+        <v>11.298</v>
       </c>
       <c r="D57">
-        <v>19.399</v>
+        <v>6.765</v>
       </c>
       <c r="E57">
-        <v>16.797</v>
+        <v>8.052</v>
       </c>
       <c r="F57">
-        <v>2.235</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6228,19 +6228,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>14.289</v>
+        <v>27.103</v>
       </c>
       <c r="C58">
-        <v>7.962</v>
+        <v>5.31</v>
       </c>
       <c r="D58">
-        <v>1.152</v>
+        <v>3.312</v>
       </c>
       <c r="E58">
-        <v>7.172</v>
+        <v>7.182</v>
       </c>
       <c r="F58">
-        <v>0.6820000000000001</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6248,19 +6248,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>17.421</v>
+        <v>29.146</v>
       </c>
       <c r="C59">
-        <v>3.504</v>
+        <v>15.365</v>
       </c>
       <c r="D59">
-        <v>4.353</v>
+        <v>5.266</v>
       </c>
       <c r="E59">
-        <v>29.075</v>
+        <v>8.377000000000001</v>
       </c>
       <c r="F59">
-        <v>11.137</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6268,19 +6268,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>15.38</v>
+        <v>32.454</v>
       </c>
       <c r="C60">
-        <v>3.727</v>
+        <v>12.319</v>
       </c>
       <c r="D60">
-        <v>22.65</v>
+        <v>4.314</v>
       </c>
       <c r="E60">
-        <v>7.727</v>
+        <v>5.76</v>
       </c>
       <c r="F60">
-        <v>13.191</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6288,19 +6288,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.992</v>
+        <v>16.987</v>
       </c>
       <c r="C61">
-        <v>14.177</v>
+        <v>3.345</v>
       </c>
       <c r="D61">
-        <v>19.016</v>
+        <v>2.548</v>
       </c>
       <c r="E61">
-        <v>20.812</v>
+        <v>6.877</v>
       </c>
       <c r="F61">
-        <v>4.418</v>
+        <v>2.506</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6308,19 +6308,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.22</v>
+        <v>23.46</v>
       </c>
       <c r="C62">
-        <v>6.221</v>
+        <v>14.393</v>
       </c>
       <c r="D62">
-        <v>6.519</v>
+        <v>4.509</v>
       </c>
       <c r="E62">
-        <v>17.45</v>
+        <v>3.481</v>
       </c>
       <c r="F62">
-        <v>0.855</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6328,19 +6328,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>8.862</v>
+        <v>16.139</v>
       </c>
       <c r="C63">
-        <v>18.188</v>
+        <v>6.62</v>
       </c>
       <c r="D63">
-        <v>21.695</v>
+        <v>0.437</v>
       </c>
       <c r="E63">
-        <v>20.872</v>
+        <v>14.77</v>
       </c>
       <c r="F63">
-        <v>7.217</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6348,19 +6348,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.991</v>
+        <v>1.21</v>
       </c>
       <c r="C64">
-        <v>10.911</v>
+        <v>15.263</v>
       </c>
       <c r="D64">
-        <v>17.342</v>
+        <v>6.184</v>
       </c>
       <c r="E64">
-        <v>32.061</v>
+        <v>14.108</v>
       </c>
       <c r="F64">
-        <v>9.18</v>
+        <v>1.081</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6368,19 +6368,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>37.644</v>
+        <v>15.66</v>
       </c>
       <c r="C65">
-        <v>24.678</v>
+        <v>43.534</v>
       </c>
       <c r="D65">
-        <v>17.81</v>
+        <v>6.668</v>
       </c>
       <c r="E65">
-        <v>52.047</v>
+        <v>19.88</v>
       </c>
       <c r="F65">
-        <v>13.895</v>
+        <v>1.922</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6388,19 +6388,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>48.445</v>
+        <v>5.178</v>
       </c>
       <c r="C66">
-        <v>2.885</v>
+        <v>28.37</v>
       </c>
       <c r="D66">
-        <v>21.893</v>
+        <v>7.747</v>
       </c>
       <c r="E66">
-        <v>36.284</v>
+        <v>12.804</v>
       </c>
       <c r="F66">
-        <v>4.837</v>
+        <v>1.016</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6408,19 +6408,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>34.887</v>
+        <v>74.378</v>
       </c>
       <c r="C67">
-        <v>20.761</v>
+        <v>13.333</v>
       </c>
       <c r="D67">
-        <v>1.3</v>
+        <v>3.793</v>
       </c>
       <c r="E67">
-        <v>15.493</v>
+        <v>11.421</v>
       </c>
       <c r="F67">
-        <v>1.476</v>
+        <v>3.902</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6428,19 +6428,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>42.534</v>
+        <v>79.985</v>
       </c>
       <c r="C68">
-        <v>9.135999999999999</v>
+        <v>38.583</v>
       </c>
       <c r="D68">
-        <v>4.913</v>
+        <v>6.03</v>
       </c>
       <c r="E68">
-        <v>62.806</v>
+        <v>13.32</v>
       </c>
       <c r="F68">
-        <v>24.093</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6448,19 +6448,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>37.551</v>
+        <v>89.062</v>
       </c>
       <c r="C69">
-        <v>9.718</v>
+        <v>30.934</v>
       </c>
       <c r="D69">
-        <v>25.562</v>
+        <v>4.94</v>
       </c>
       <c r="E69">
-        <v>16.692</v>
+        <v>9.159000000000001</v>
       </c>
       <c r="F69">
-        <v>28.536</v>
+        <v>1.436</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6468,19 +6468,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2.422</v>
+        <v>46.617</v>
       </c>
       <c r="C70">
-        <v>36.969</v>
+        <v>8.398999999999999</v>
       </c>
       <c r="D70">
-        <v>21.461</v>
+        <v>2.918</v>
       </c>
       <c r="E70">
-        <v>44.956</v>
+        <v>10.935</v>
       </c>
       <c r="F70">
-        <v>9.557</v>
+        <v>4.442</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6488,19 +6488,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>10.303</v>
+        <v>64.381</v>
       </c>
       <c r="C71">
-        <v>16.222</v>
+        <v>36.142</v>
       </c>
       <c r="D71">
-        <v>7.357</v>
+        <v>5.163</v>
       </c>
       <c r="E71">
-        <v>37.694</v>
+        <v>5.535</v>
       </c>
       <c r="F71">
-        <v>1.85</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6508,19 +6508,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>21.637</v>
+        <v>44.29</v>
       </c>
       <c r="C72">
-        <v>47.428</v>
+        <v>16.624</v>
       </c>
       <c r="D72">
-        <v>24.484</v>
+        <v>0.5</v>
       </c>
       <c r="E72">
-        <v>45.086</v>
+        <v>23.485</v>
       </c>
       <c r="F72">
-        <v>15.613</v>
+        <v>1.367</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6528,19 +6528,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.42</v>
+        <v>3.321</v>
       </c>
       <c r="C73">
-        <v>28.452</v>
+        <v>38.327</v>
       </c>
       <c r="D73">
-        <v>19.572</v>
+        <v>7.082</v>
       </c>
       <c r="E73">
-        <v>69.256</v>
+        <v>22.433</v>
       </c>
       <c r="F73">
-        <v>19.859</v>
+        <v>1.916</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6548,19 +6548,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>92.58199999999999</v>
+        <v>40.537</v>
       </c>
       <c r="C74">
-        <v>62.793</v>
+        <v>99.77</v>
       </c>
       <c r="D74">
-        <v>21.05</v>
+        <v>7.893</v>
       </c>
       <c r="E74">
-        <v>109.094</v>
+        <v>33.997</v>
       </c>
       <c r="F74">
-        <v>29.332</v>
+        <v>3.159</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6568,19 +6568,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>119.147</v>
+        <v>13.403</v>
       </c>
       <c r="C75">
-        <v>7.34</v>
+        <v>65.017</v>
       </c>
       <c r="D75">
-        <v>25.876</v>
+        <v>9.17</v>
       </c>
       <c r="E75">
-        <v>76.054</v>
+        <v>21.896</v>
       </c>
       <c r="F75">
-        <v>10.211</v>
+        <v>1.668</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6588,19 +6588,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>85.80200000000001</v>
+        <v>192.535</v>
       </c>
       <c r="C76">
-        <v>52.826</v>
+        <v>30.556</v>
       </c>
       <c r="D76">
-        <v>1.537</v>
+        <v>4.49</v>
       </c>
       <c r="E76">
-        <v>32.475</v>
+        <v>19.531</v>
       </c>
       <c r="F76">
-        <v>3.116</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6608,19 +6608,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>104.609</v>
+        <v>207.049</v>
       </c>
       <c r="C77">
-        <v>23.246</v>
+        <v>88.423</v>
       </c>
       <c r="D77">
-        <v>5.807</v>
+        <v>7.138</v>
       </c>
       <c r="E77">
-        <v>131.645</v>
+        <v>22.779</v>
       </c>
       <c r="F77">
-        <v>50.854</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6628,19 +6628,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>92.354</v>
+        <v>230.546</v>
       </c>
       <c r="C78">
-        <v>24.727</v>
+        <v>70.893</v>
       </c>
       <c r="D78">
-        <v>30.212</v>
+        <v>5.848</v>
       </c>
       <c r="E78">
-        <v>34.988</v>
+        <v>15.663</v>
       </c>
       <c r="F78">
-        <v>60.232</v>
+        <v>2.355</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6648,19 +6648,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.956</v>
+        <v>120.673</v>
       </c>
       <c r="C79">
-        <v>94.068</v>
+        <v>19.249</v>
       </c>
       <c r="D79">
-        <v>25.365</v>
+        <v>3.454</v>
       </c>
       <c r="E79">
-        <v>94.23099999999999</v>
+        <v>18.7</v>
       </c>
       <c r="F79">
-        <v>20.172</v>
+        <v>7.284</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6668,19 +6668,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>25.339</v>
+        <v>166.657</v>
       </c>
       <c r="C80">
-        <v>41.277</v>
+        <v>82.82899999999999</v>
       </c>
       <c r="D80">
-        <v>8.695</v>
+        <v>6.112</v>
       </c>
       <c r="E80">
-        <v>79.009</v>
+        <v>9.465</v>
       </c>
       <c r="F80">
-        <v>3.905</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6688,19 +6688,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>53.215</v>
+        <v>114.649</v>
       </c>
       <c r="C81">
-        <v>120.682</v>
+        <v>38.098</v>
       </c>
       <c r="D81">
-        <v>28.938</v>
+        <v>0.592</v>
       </c>
       <c r="E81">
-        <v>94.503</v>
+        <v>40.161</v>
       </c>
       <c r="F81">
-        <v>32.955</v>
+        <v>2.242</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6708,19 +6708,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.952</v>
+        <v>8.597</v>
       </c>
       <c r="C82">
-        <v>72.39700000000001</v>
+        <v>87.837</v>
       </c>
       <c r="D82">
-        <v>23.133</v>
+        <v>8.382999999999999</v>
       </c>
       <c r="E82">
-        <v>145.165</v>
+        <v>38.363</v>
       </c>
       <c r="F82">
-        <v>41.917</v>
+        <v>3.142</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6728,19 +6728,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>238.568</v>
+        <v>105.245</v>
       </c>
       <c r="C83">
-        <v>164.373</v>
+        <v>230.285</v>
       </c>
       <c r="D83">
-        <v>24.073</v>
+        <v>31.757</v>
       </c>
       <c r="E83">
-        <v>176.027</v>
+        <v>68.262</v>
       </c>
       <c r="F83">
-        <v>77.33199999999999</v>
+        <v>9.284000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6748,19 +6748,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>307.022</v>
+        <v>34.798</v>
       </c>
       <c r="C84">
-        <v>19.214</v>
+        <v>150.07</v>
       </c>
       <c r="D84">
-        <v>29.592</v>
+        <v>36.894</v>
       </c>
       <c r="E84">
-        <v>122.716</v>
+        <v>43.965</v>
       </c>
       <c r="F84">
-        <v>26.92</v>
+        <v>4.899</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6768,19 +6768,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>221.097</v>
+        <v>499.875</v>
       </c>
       <c r="C85">
-        <v>138.283</v>
+        <v>70.52800000000001</v>
       </c>
       <c r="D85">
-        <v>1.758</v>
+        <v>18.064</v>
       </c>
       <c r="E85">
-        <v>52.4</v>
+        <v>39.216</v>
       </c>
       <c r="F85">
-        <v>8.215</v>
+        <v>18.779</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6788,19 +6788,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>269.56</v>
+        <v>537.558</v>
       </c>
       <c r="C86">
-        <v>60.851</v>
+        <v>204.095</v>
       </c>
       <c r="D86">
-        <v>6.641</v>
+        <v>28.718</v>
       </c>
       <c r="E86">
-        <v>212.414</v>
+        <v>45.737</v>
       </c>
       <c r="F86">
-        <v>134.07</v>
+        <v>1.966</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6808,19 +6808,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>237.981</v>
+        <v>598.563</v>
       </c>
       <c r="C87">
-        <v>64.72799999999999</v>
+        <v>163.633</v>
       </c>
       <c r="D87">
-        <v>34.55</v>
+        <v>23.528</v>
       </c>
       <c r="E87">
-        <v>56.454</v>
+        <v>31.45</v>
       </c>
       <c r="F87">
-        <v>158.794</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6828,19 +6828,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>15.348</v>
+        <v>313.301</v>
       </c>
       <c r="C88">
-        <v>246.242</v>
+        <v>44.43</v>
       </c>
       <c r="D88">
-        <v>29.007</v>
+        <v>13.896</v>
       </c>
       <c r="E88">
-        <v>152.045</v>
+        <v>37.548</v>
       </c>
       <c r="F88">
-        <v>53.181</v>
+        <v>21.371</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6848,19 +6848,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>65.295</v>
+        <v>432.689</v>
       </c>
       <c r="C89">
-        <v>108.051</v>
+        <v>191.183</v>
       </c>
       <c r="D89">
-        <v>9.944000000000001</v>
+        <v>24.59</v>
       </c>
       <c r="E89">
-        <v>127.484</v>
+        <v>19.005</v>
       </c>
       <c r="F89">
-        <v>10.295</v>
+        <v>1.006</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6868,19 +6868,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>137.126</v>
+        <v>297.661</v>
       </c>
       <c r="C90">
-        <v>315.909</v>
+        <v>87.93600000000001</v>
       </c>
       <c r="D90">
-        <v>33.093</v>
+        <v>2.382</v>
       </c>
       <c r="E90">
-        <v>152.484</v>
+        <v>80.63800000000001</v>
       </c>
       <c r="F90">
-        <v>86.88200000000001</v>
+        <v>6.578</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6888,19 +6888,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>15.337</v>
+        <v>22.32</v>
       </c>
       <c r="C91">
-        <v>189.513</v>
+        <v>202.742</v>
       </c>
       <c r="D91">
-        <v>26.455</v>
+        <v>33.726</v>
       </c>
       <c r="E91">
-        <v>234.229</v>
+        <v>77.02800000000001</v>
       </c>
       <c r="F91">
-        <v>110.509</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6908,19 +6908,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>608.093</v>
+        <v>272.146</v>
       </c>
       <c r="C92">
-        <v>426.71</v>
+        <v>526.605</v>
       </c>
       <c r="D92">
-        <v>28.155</v>
+        <v>81.408</v>
       </c>
       <c r="E92">
-        <v>298.761</v>
+        <v>133.45</v>
       </c>
       <c r="F92">
-        <v>191.296</v>
+        <v>21.573</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6928,19 +6928,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>782.577</v>
+        <v>89.982</v>
       </c>
       <c r="C93">
-        <v>49.879</v>
+        <v>343.173</v>
       </c>
       <c r="D93">
-        <v>34.61</v>
+        <v>94.57599999999999</v>
       </c>
       <c r="E93">
-        <v>208.279</v>
+        <v>85.95</v>
       </c>
       <c r="F93">
-        <v>66.592</v>
+        <v>11.383</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6948,19 +6948,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>563.5599999999999</v>
+        <v>1292.594</v>
       </c>
       <c r="C94">
-        <v>358.98</v>
+        <v>161.28</v>
       </c>
       <c r="D94">
-        <v>2.056</v>
+        <v>46.306</v>
       </c>
       <c r="E94">
-        <v>88.93600000000001</v>
+        <v>76.666</v>
       </c>
       <c r="F94">
-        <v>20.322</v>
+        <v>43.627</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6968,19 +6968,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>687.0890000000001</v>
+        <v>1390.036</v>
       </c>
       <c r="C95">
-        <v>157.968</v>
+        <v>466.715</v>
       </c>
       <c r="D95">
-        <v>7.767</v>
+        <v>73.617</v>
       </c>
       <c r="E95">
-        <v>360.518</v>
+        <v>89.414</v>
       </c>
       <c r="F95">
-        <v>331.648</v>
+        <v>4.568</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6988,19 +6988,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>606.596</v>
+        <v>1547.784</v>
       </c>
       <c r="C96">
-        <v>168.033</v>
+        <v>374.188</v>
       </c>
       <c r="D96">
-        <v>40.409</v>
+        <v>60.312</v>
       </c>
       <c r="E96">
-        <v>95.816</v>
+        <v>61.484</v>
       </c>
       <c r="F96">
-        <v>392.808</v>
+        <v>16.053</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -7008,19 +7008,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>39.121</v>
+        <v>810.144</v>
       </c>
       <c r="C97">
-        <v>639.241</v>
+        <v>101.6</v>
       </c>
       <c r="D97">
-        <v>33.926</v>
+        <v>35.622</v>
       </c>
       <c r="E97">
-        <v>258.057</v>
+        <v>73.405</v>
       </c>
       <c r="F97">
-        <v>131.554</v>
+        <v>49.649</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -7028,19 +7028,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>166.432</v>
+        <v>1118.862</v>
       </c>
       <c r="C98">
-        <v>280.499</v>
+        <v>437.189</v>
       </c>
       <c r="D98">
-        <v>11.63</v>
+        <v>63.035</v>
       </c>
       <c r="E98">
-        <v>216.371</v>
+        <v>37.154</v>
       </c>
       <c r="F98">
-        <v>25.466</v>
+        <v>2.337</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7048,19 +7048,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>349.524</v>
+        <v>769.702</v>
       </c>
       <c r="C99">
-        <v>820.095</v>
+        <v>201.088</v>
       </c>
       <c r="D99">
-        <v>38.704</v>
+        <v>6.106</v>
       </c>
       <c r="E99">
-        <v>258.802</v>
+        <v>157.644</v>
       </c>
       <c r="F99">
-        <v>214.919</v>
+        <v>15.282</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7068,19 +7068,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>39.093</v>
+        <v>57.716</v>
       </c>
       <c r="C100">
-        <v>491.973</v>
+        <v>463.621</v>
       </c>
       <c r="D100">
-        <v>30.941</v>
+        <v>86.455</v>
       </c>
       <c r="E100">
-        <v>397.544</v>
+        <v>150.587</v>
       </c>
       <c r="F100">
-        <v>273.365</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7088,19 +7088,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>931.889</v>
+        <v>578.972</v>
       </c>
       <c r="C101">
-        <v>931.242</v>
+        <v>1276.196</v>
       </c>
       <c r="D101">
-        <v>131.063</v>
+        <v>138.715</v>
       </c>
       <c r="E101">
-        <v>381.073</v>
+        <v>296.256</v>
       </c>
       <c r="F101">
-        <v>266.023</v>
+        <v>44.94</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -7108,19 +7108,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1199.281</v>
+        <v>191.43</v>
       </c>
       <c r="C102">
-        <v>108.855</v>
+        <v>831.659</v>
       </c>
       <c r="D102">
-        <v>161.11</v>
+        <v>161.152</v>
       </c>
       <c r="E102">
-        <v>265.662</v>
+        <v>190.807</v>
       </c>
       <c r="F102">
-        <v>92.605</v>
+        <v>23.712</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7128,19 +7128,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>863.643</v>
+        <v>2749.905</v>
       </c>
       <c r="C103">
-        <v>783.4299999999999</v>
+        <v>390.853</v>
       </c>
       <c r="D103">
-        <v>9.569000000000001</v>
+        <v>78.90300000000001</v>
       </c>
       <c r="E103">
-        <v>113.439</v>
+        <v>170.197</v>
       </c>
       <c r="F103">
-        <v>28.26</v>
+        <v>90.879</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -7148,19 +7148,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1052.948</v>
+        <v>2957.206</v>
       </c>
       <c r="C104">
-        <v>344.746</v>
+        <v>1131.056</v>
       </c>
       <c r="D104">
-        <v>36.155</v>
+        <v>125.439</v>
       </c>
       <c r="E104">
-        <v>459.845</v>
+        <v>198.497</v>
       </c>
       <c r="F104">
-        <v>461.201</v>
+        <v>9.515000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -7168,19 +7168,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>929.5940000000001</v>
+        <v>3292.804</v>
       </c>
       <c r="C105">
-        <v>366.712</v>
+        <v>906.822</v>
       </c>
       <c r="D105">
-        <v>188.107</v>
+        <v>102.768</v>
       </c>
       <c r="E105">
-        <v>122.214</v>
+        <v>136.493</v>
       </c>
       <c r="F105">
-        <v>546.253</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -7188,19 +7188,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>59.952</v>
+        <v>1723.526</v>
       </c>
       <c r="C106">
-        <v>1395.065</v>
+        <v>246.221</v>
       </c>
       <c r="D106">
-        <v>157.928</v>
+        <v>60.698</v>
       </c>
       <c r="E106">
-        <v>329.155</v>
+        <v>162.957</v>
       </c>
       <c r="F106">
-        <v>182.944</v>
+        <v>103.423</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -7208,19 +7208,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>255.053</v>
+        <v>2380.302</v>
       </c>
       <c r="C107">
-        <v>612.155</v>
+        <v>1059.501</v>
       </c>
       <c r="D107">
-        <v>54.139</v>
+        <v>107.408</v>
       </c>
       <c r="E107">
-        <v>275.984</v>
+        <v>82.48099999999999</v>
       </c>
       <c r="F107">
-        <v>35.414</v>
+        <v>4.868</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -7228,19 +7228,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>535.638</v>
+        <v>1637.488</v>
       </c>
       <c r="C108">
-        <v>1789.757</v>
+        <v>487.325</v>
       </c>
       <c r="D108">
-        <v>180.173</v>
+        <v>10.404</v>
       </c>
       <c r="E108">
-        <v>330.105</v>
+        <v>349.966</v>
       </c>
       <c r="F108">
-        <v>298.874</v>
+        <v>31.833</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -7248,19 +7248,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>59.909</v>
+        <v>122.787</v>
       </c>
       <c r="C109">
-        <v>1073.671</v>
+        <v>1123.557</v>
       </c>
       <c r="D109">
-        <v>144.03</v>
+        <v>147.315</v>
       </c>
       <c r="E109">
-        <v>507.072</v>
+        <v>334.299</v>
       </c>
       <c r="F109">
-        <v>380.151</v>
+        <v>44.619</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -7268,19 +7268,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1556.685</v>
+        <v>1285.868</v>
       </c>
       <c r="C110">
-        <v>2111.856</v>
+        <v>3045.467</v>
       </c>
       <c r="D110">
-        <v>345.506</v>
+        <v>251.785</v>
       </c>
       <c r="E110">
-        <v>509.114</v>
+        <v>632.9640000000001</v>
       </c>
       <c r="F110">
-        <v>401.935</v>
+        <v>94.50700000000001</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -7288,19 +7288,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>2003.353</v>
+        <v>425.157</v>
       </c>
       <c r="C111">
-        <v>246.86</v>
+        <v>1984.641</v>
       </c>
       <c r="D111">
-        <v>424.715</v>
+        <v>292.512</v>
       </c>
       <c r="E111">
-        <v>354.925</v>
+        <v>407.668</v>
       </c>
       <c r="F111">
-        <v>139.917</v>
+        <v>49.865</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -7308,19 +7308,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1442.683</v>
+        <v>6107.4</v>
       </c>
       <c r="C112">
-        <v>1776.65</v>
+        <v>932.717</v>
       </c>
       <c r="D112">
-        <v>25.226</v>
+        <v>143.219</v>
       </c>
       <c r="E112">
-        <v>151.554</v>
+        <v>363.633</v>
       </c>
       <c r="F112">
-        <v>42.698</v>
+        <v>191.113</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -7328,19 +7328,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1758.909</v>
+        <v>6567.805</v>
       </c>
       <c r="C113">
-        <v>781.8099999999999</v>
+        <v>2699.11</v>
       </c>
       <c r="D113">
-        <v>95.31100000000001</v>
+        <v>227.688</v>
       </c>
       <c r="E113">
-        <v>614.353</v>
+        <v>424.098</v>
       </c>
       <c r="F113">
-        <v>696.83</v>
+        <v>20.01</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -7348,19 +7348,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1552.851</v>
+        <v>7313.152</v>
       </c>
       <c r="C114">
-        <v>831.624</v>
+        <v>2164.007</v>
       </c>
       <c r="D114">
-        <v>495.884</v>
+        <v>186.537</v>
       </c>
       <c r="E114">
-        <v>163.278</v>
+        <v>291.624</v>
       </c>
       <c r="F114">
-        <v>825.336</v>
+        <v>70.322</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -7368,19 +7368,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>100.147</v>
+        <v>3827.864</v>
       </c>
       <c r="C115">
-        <v>3163.706</v>
+        <v>587.573</v>
       </c>
       <c r="D115">
-        <v>416.326</v>
+        <v>110.175</v>
       </c>
       <c r="E115">
-        <v>439.751</v>
+        <v>348.165</v>
       </c>
       <c r="F115">
-        <v>276.411</v>
+        <v>217.492</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7388,19 +7388,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>426.056</v>
+        <v>5286.531</v>
       </c>
       <c r="C116">
-        <v>1388.235</v>
+        <v>2528.355</v>
       </c>
       <c r="D116">
-        <v>142.72</v>
+        <v>194.959</v>
       </c>
       <c r="E116">
-        <v>368.715</v>
+        <v>176.224</v>
       </c>
       <c r="F116">
-        <v>53.507</v>
+        <v>10.237</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -7408,19 +7408,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>894.763</v>
+        <v>3636.778</v>
       </c>
       <c r="C117">
-        <v>4058.783</v>
+        <v>1162.935</v>
       </c>
       <c r="D117">
-        <v>474.969</v>
+        <v>18.885</v>
       </c>
       <c r="E117">
-        <v>441.021</v>
+        <v>747.718</v>
       </c>
       <c r="F117">
-        <v>451.57</v>
+        <v>66.943</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -7428,19 +7428,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>100.076</v>
+        <v>272.704</v>
       </c>
       <c r="C118">
-        <v>2434.854</v>
+        <v>2681.215</v>
       </c>
       <c r="D118">
-        <v>379.689</v>
+        <v>267.395</v>
       </c>
       <c r="E118">
-        <v>677.448</v>
+        <v>714.245</v>
       </c>
       <c r="F118">
-        <v>574.372</v>
+        <v>93.831</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -7448,19 +7448,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>2984.519</v>
+        <v>1569.859</v>
       </c>
       <c r="C119">
-        <v>3513.623</v>
+        <v>3634.567</v>
       </c>
       <c r="D119">
-        <v>589.881</v>
+        <v>300.826</v>
       </c>
       <c r="E119">
-        <v>1117.497</v>
+        <v>780.1660000000001</v>
       </c>
       <c r="F119">
-        <v>908.293</v>
+        <v>176.372</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7468,19 +7468,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>3840.884</v>
+        <v>519.0549999999999</v>
       </c>
       <c r="C120">
-        <v>410.716</v>
+        <v>2368.54</v>
       </c>
       <c r="D120">
-        <v>725.115</v>
+        <v>349.485</v>
       </c>
       <c r="E120">
-        <v>779.054</v>
+        <v>502.475</v>
       </c>
       <c r="F120">
-        <v>316.185</v>
+        <v>93.06</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -7488,19 +7488,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>2765.951</v>
+        <v>7456.254</v>
       </c>
       <c r="C121">
-        <v>2955.921</v>
+        <v>1113.137</v>
       </c>
       <c r="D121">
-        <v>43.068</v>
+        <v>171.114</v>
       </c>
       <c r="E121">
-        <v>332.659</v>
+        <v>448.199</v>
       </c>
       <c r="F121">
-        <v>96.489</v>
+        <v>356.66</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -7508,19 +7508,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>3372.229</v>
+        <v>8018.342</v>
       </c>
       <c r="C122">
-        <v>1300.745</v>
+        <v>3221.213</v>
       </c>
       <c r="D122">
-        <v>162.724</v>
+        <v>272.035</v>
       </c>
       <c r="E122">
-        <v>1348.495</v>
+        <v>522.726</v>
       </c>
       <c r="F122">
-        <v>1574.696</v>
+        <v>37.343</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -7528,19 +7528,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>2977.169</v>
+        <v>8928.303</v>
       </c>
       <c r="C123">
-        <v>1383.623</v>
+        <v>2582.602</v>
       </c>
       <c r="D123">
-        <v>846.622</v>
+        <v>222.869</v>
       </c>
       <c r="E123">
-        <v>358.393</v>
+        <v>359.444</v>
       </c>
       <c r="F123">
-        <v>1865.093</v>
+        <v>131.237</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -7548,19 +7548,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>192.005</v>
+        <v>4673.27</v>
       </c>
       <c r="C124">
-        <v>5263.65</v>
+        <v>701.23</v>
       </c>
       <c r="D124">
-        <v>710.793</v>
+        <v>131.634</v>
       </c>
       <c r="E124">
-        <v>965.246</v>
+        <v>429.134</v>
       </c>
       <c r="F124">
-        <v>624.633</v>
+        <v>405.889</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -7568,19 +7568,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>816.847</v>
+        <v>6454.091</v>
       </c>
       <c r="C125">
-        <v>2309.691</v>
+        <v>3017.428</v>
       </c>
       <c r="D125">
-        <v>243.666</v>
+        <v>232.932</v>
       </c>
       <c r="E125">
-        <v>809.323</v>
+        <v>217.207</v>
       </c>
       <c r="F125">
-        <v>120.915</v>
+        <v>19.105</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -7588,19 +7588,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1715.464</v>
+        <v>4439.981</v>
       </c>
       <c r="C126">
-        <v>6752.844</v>
+        <v>1387.887</v>
       </c>
       <c r="D126">
-        <v>810.913</v>
+        <v>22.563</v>
       </c>
       <c r="E126">
-        <v>968.033</v>
+        <v>921.607</v>
       </c>
       <c r="F126">
-        <v>1020.457</v>
+        <v>124.931</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -7608,19 +7608,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>191.868</v>
+        <v>332.932</v>
       </c>
       <c r="C127">
-        <v>4051.015</v>
+        <v>3199.856</v>
       </c>
       <c r="D127">
-        <v>648.242</v>
+        <v>319.476</v>
       </c>
       <c r="E127">
-        <v>1486.987</v>
+        <v>880.349</v>
       </c>
       <c r="F127">
-        <v>1297.965</v>
+        <v>175.11</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -7628,19 +7628,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5633.021</v>
+        <v>2046.943</v>
       </c>
       <c r="C128">
-        <v>6232.999</v>
+        <v>4630.739</v>
       </c>
       <c r="D128">
-        <v>1075.518</v>
+        <v>377.543</v>
       </c>
       <c r="E128">
-        <v>2157.234</v>
+        <v>1022.548</v>
       </c>
       <c r="F128">
-        <v>1877.88</v>
+        <v>338.662</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -7648,19 +7648,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7249.336</v>
+        <v>676.797</v>
       </c>
       <c r="C129">
-        <v>728.59</v>
+        <v>3017.716</v>
       </c>
       <c r="D129">
-        <v>1322.087</v>
+        <v>438.611</v>
       </c>
       <c r="E129">
-        <v>1503.898</v>
+        <v>658.5839999999999</v>
       </c>
       <c r="F129">
-        <v>653.707</v>
+        <v>178.69</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -7668,19 +7668,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5220.493</v>
+        <v>9722.227000000001</v>
       </c>
       <c r="C130">
-        <v>5243.662</v>
+        <v>1418.229</v>
       </c>
       <c r="D130">
-        <v>78.52500000000001</v>
+        <v>214.752</v>
       </c>
       <c r="E130">
-        <v>642.17</v>
+        <v>587.446</v>
       </c>
       <c r="F130">
-        <v>199.49</v>
+        <v>684.8440000000001</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7688,19 +7688,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6364.791</v>
+        <v>10455.135</v>
       </c>
       <c r="C131">
-        <v>2307.459</v>
+        <v>4104.092</v>
       </c>
       <c r="D131">
-        <v>296.691</v>
+        <v>341.41</v>
       </c>
       <c r="E131">
-        <v>2603.156</v>
+        <v>685.127</v>
       </c>
       <c r="F131">
-        <v>3255.657</v>
+        <v>71.70399999999999</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -7708,19 +7708,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5619.149</v>
+        <v>11641.636</v>
       </c>
       <c r="C132">
-        <v>2454.481</v>
+        <v>3290.448</v>
       </c>
       <c r="D132">
-        <v>1543.628</v>
+        <v>279.705</v>
       </c>
       <c r="E132">
-        <v>691.848</v>
+        <v>471.116</v>
       </c>
       <c r="F132">
-        <v>3856.047</v>
+        <v>251.996</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -7728,19 +7728,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>362.393</v>
+        <v>6093.488</v>
       </c>
       <c r="C133">
-        <v>9337.463</v>
+        <v>893.425</v>
       </c>
       <c r="D133">
-        <v>1295.974</v>
+        <v>165.203</v>
       </c>
       <c r="E133">
-        <v>1863.326</v>
+        <v>562.457</v>
       </c>
       <c r="F133">
-        <v>1291.418</v>
+        <v>779.371</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -7748,19 +7748,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1541.728</v>
+        <v>8415.504999999999</v>
       </c>
       <c r="C134">
-        <v>4097.281</v>
+        <v>3844.453</v>
       </c>
       <c r="D134">
-        <v>444.271</v>
+        <v>292.335</v>
       </c>
       <c r="E134">
-        <v>1562.33</v>
+        <v>284.689</v>
       </c>
       <c r="F134">
-        <v>249.99</v>
+        <v>36.685</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7768,19 +7768,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>3237.79</v>
+        <v>5789.302</v>
       </c>
       <c r="C135">
-        <v>11979.222</v>
+        <v>1768.283</v>
       </c>
       <c r="D135">
-        <v>1478.521</v>
+        <v>28.317</v>
       </c>
       <c r="E135">
-        <v>1868.706</v>
+        <v>1207.932</v>
       </c>
       <c r="F135">
-        <v>2109.777</v>
+        <v>239.887</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -7788,19 +7788,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>362.134</v>
+        <v>434.111</v>
       </c>
       <c r="C136">
-        <v>7186.306</v>
+        <v>4076.881</v>
       </c>
       <c r="D136">
-        <v>1181.926</v>
+        <v>400.949</v>
       </c>
       <c r="E136">
-        <v>2870.503</v>
+        <v>1153.856</v>
       </c>
       <c r="F136">
-        <v>2683.52</v>
+        <v>336.239</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -7808,19 +7808,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>15840.551</v>
+        <v>7125.246</v>
       </c>
       <c r="C137">
-        <v>14944.095</v>
+        <v>14422.933</v>
       </c>
       <c r="D137">
-        <v>2037.248</v>
+        <v>1049.883</v>
       </c>
       <c r="E137">
-        <v>4572.958</v>
+        <v>2313.532</v>
       </c>
       <c r="F137">
-        <v>2063.053</v>
+        <v>486.604</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -7828,19 +7828,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>20385.771</v>
+        <v>2355.877</v>
       </c>
       <c r="C138">
-        <v>1746.851</v>
+        <v>9399</v>
       </c>
       <c r="D138">
-        <v>2504.299</v>
+        <v>1219.703</v>
       </c>
       <c r="E138">
-        <v>3188.001</v>
+        <v>1490.057</v>
       </c>
       <c r="F138">
-        <v>718.167</v>
+        <v>256.749</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -7848,19 +7848,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>14680.486</v>
+        <v>33842.298</v>
       </c>
       <c r="C139">
-        <v>12572.083</v>
+        <v>4417.226</v>
       </c>
       <c r="D139">
-        <v>148.742</v>
+        <v>597.189</v>
       </c>
       <c r="E139">
-        <v>1361.288</v>
+        <v>1329.106</v>
       </c>
       <c r="F139">
-        <v>219.161</v>
+        <v>984.0119999999999</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -7868,19 +7868,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>17898.353</v>
+        <v>36393.493</v>
       </c>
       <c r="C140">
-        <v>5532.31</v>
+        <v>12782.634</v>
       </c>
       <c r="D140">
-        <v>561.9930000000001</v>
+        <v>949.403</v>
       </c>
       <c r="E140">
-        <v>5518.235</v>
+        <v>1550.111</v>
       </c>
       <c r="F140">
-        <v>3576.688</v>
+        <v>103.027</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -7888,19 +7888,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>15801.542</v>
+        <v>40523.607</v>
       </c>
       <c r="C141">
-        <v>5884.807</v>
+        <v>10248.454</v>
       </c>
       <c r="D141">
-        <v>2923.943</v>
+        <v>777.813</v>
       </c>
       <c r="E141">
-        <v>1466.597</v>
+        <v>1065.908</v>
       </c>
       <c r="F141">
-        <v>4236.281</v>
+        <v>362.078</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -7908,19 +7908,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1019.081</v>
+        <v>21210.946</v>
       </c>
       <c r="C142">
-        <v>22387.286</v>
+        <v>2782.668</v>
       </c>
       <c r="D142">
-        <v>2454.836</v>
+        <v>459.402</v>
       </c>
       <c r="E142">
-        <v>3949.926</v>
+        <v>1272.569</v>
       </c>
       <c r="F142">
-        <v>1418.761</v>
+        <v>1119.833</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7928,19 +7928,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>4335.475</v>
+        <v>29293.702</v>
       </c>
       <c r="C143">
-        <v>9823.546</v>
+        <v>11973.96</v>
       </c>
       <c r="D143">
-        <v>841.539</v>
+        <v>812.933</v>
       </c>
       <c r="E143">
-        <v>3311.866</v>
+        <v>644.1130000000001</v>
       </c>
       <c r="F143">
-        <v>274.641</v>
+        <v>52.71</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7948,19 +7948,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>9104.950000000001</v>
+        <v>20152.099</v>
       </c>
       <c r="C144">
-        <v>28721.106</v>
+        <v>5507.507</v>
       </c>
       <c r="D144">
-        <v>2800.617</v>
+        <v>78.745</v>
       </c>
       <c r="E144">
-        <v>3961.33</v>
+        <v>2732.967</v>
       </c>
       <c r="F144">
-        <v>2317.816</v>
+        <v>344.68</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7968,19 +7968,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1018.353</v>
+        <v>1511.105</v>
       </c>
       <c r="C145">
-        <v>17229.722</v>
+        <v>12697.883</v>
       </c>
       <c r="D145">
-        <v>2238.806</v>
+        <v>1114.971</v>
       </c>
       <c r="E145">
-        <v>6084.965</v>
+        <v>2610.619</v>
       </c>
       <c r="F145">
-        <v>2948.134</v>
+        <v>483.122</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -7988,19 +7988,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>39401.666</v>
+        <v>18309.884</v>
       </c>
       <c r="C146">
-        <v>33309.076</v>
+        <v>34657.331</v>
       </c>
       <c r="D146">
-        <v>3864.808</v>
+        <v>2304.908</v>
       </c>
       <c r="E146">
-        <v>9266.014999999999</v>
+        <v>4597.021</v>
       </c>
       <c r="F146">
-        <v>2349.315</v>
+        <v>738.192</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -8008,19 +8008,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>50707.411</v>
+        <v>6053.943</v>
       </c>
       <c r="C147">
-        <v>3893.577</v>
+        <v>22585.16</v>
       </c>
       <c r="D147">
-        <v>4750.838</v>
+        <v>2677.73</v>
       </c>
       <c r="E147">
-        <v>6459.729</v>
+        <v>2960.765</v>
       </c>
       <c r="F147">
-        <v>817.817</v>
+        <v>389.496</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -8028,19 +8028,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>36516.129</v>
+        <v>86965.219</v>
       </c>
       <c r="C148">
-        <v>28022.07</v>
+        <v>10614.295</v>
       </c>
       <c r="D148">
-        <v>282.175</v>
+        <v>1311.066</v>
       </c>
       <c r="E148">
-        <v>2758.327</v>
+        <v>2640.953</v>
       </c>
       <c r="F148">
-        <v>249.571</v>
+        <v>1492.775</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -8048,19 +8048,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>44520.226</v>
+        <v>93521.07399999999</v>
       </c>
       <c r="C149">
-        <v>12331.034</v>
+        <v>30715.803</v>
       </c>
       <c r="D149">
-        <v>1066.142</v>
+        <v>2084.315</v>
       </c>
       <c r="E149">
-        <v>11181.395</v>
+        <v>3080.093</v>
       </c>
       <c r="F149">
-        <v>4072.977</v>
+        <v>156.295</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -8068,19 +8068,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>39304.635</v>
+        <v>104134.309</v>
       </c>
       <c r="C150">
-        <v>13116.718</v>
+        <v>24626.34</v>
       </c>
       <c r="D150">
-        <v>5546.933</v>
+        <v>1707.607</v>
       </c>
       <c r="E150">
-        <v>2971.711</v>
+        <v>2117.974</v>
       </c>
       <c r="F150">
-        <v>4824.093</v>
+        <v>549.283</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -8088,19 +8088,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>2534.854</v>
+        <v>54506.184</v>
       </c>
       <c r="C151">
-        <v>49899.296</v>
+        <v>6686.563</v>
       </c>
       <c r="D151">
-        <v>4657.003</v>
+        <v>1008.569</v>
       </c>
       <c r="E151">
-        <v>8003.589</v>
+        <v>2528.613</v>
       </c>
       <c r="F151">
-        <v>1615.623</v>
+        <v>1698.819</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -8108,19 +8108,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>10784.027</v>
+        <v>75276.602</v>
       </c>
       <c r="C152">
-        <v>21895.822</v>
+        <v>28772.614</v>
       </c>
       <c r="D152">
-        <v>1596.461</v>
+        <v>1784.709</v>
       </c>
       <c r="E152">
-        <v>6710.712</v>
+        <v>1279.862</v>
       </c>
       <c r="F152">
-        <v>312.749</v>
+        <v>79.96299999999999</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -8128,19 +8128,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>22647.583</v>
+        <v>51785.245</v>
       </c>
       <c r="C153">
-        <v>64016.824</v>
+        <v>13234.166</v>
       </c>
       <c r="D153">
-        <v>5312.975</v>
+        <v>172.876</v>
       </c>
       <c r="E153">
-        <v>8026.696</v>
+        <v>5430.444</v>
       </c>
       <c r="F153">
-        <v>2639.428</v>
+        <v>522.889</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -8148,19 +8148,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>2533.044</v>
+        <v>3883.116</v>
       </c>
       <c r="C154">
-        <v>38403.538</v>
+        <v>30512.153</v>
       </c>
       <c r="D154">
-        <v>4247.179</v>
+        <v>2447.802</v>
       </c>
       <c r="E154">
-        <v>12329.739</v>
+        <v>5187.337</v>
       </c>
       <c r="F154">
-        <v>3357.207</v>
+        <v>732.91</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -8168,19 +8168,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>52602.422</v>
+        <v>24989.735</v>
       </c>
       <c r="C155">
-        <v>73562.147</v>
+        <v>76415.129</v>
       </c>
       <c r="D155">
-        <v>9874.210999999999</v>
+        <v>3893.95</v>
       </c>
       <c r="E155">
-        <v>12349.836</v>
+        <v>11729.385</v>
       </c>
       <c r="F155">
-        <v>10213.058</v>
+        <v>1438.758</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -8188,19 +8188,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>67695.935</v>
+        <v>8262.556</v>
       </c>
       <c r="C156">
-        <v>8598.853999999999</v>
+        <v>49797.485</v>
       </c>
       <c r="D156">
-        <v>12137.932</v>
+        <v>4523.802</v>
       </c>
       <c r="E156">
-        <v>8609.59</v>
+        <v>7554.447</v>
       </c>
       <c r="F156">
-        <v>3555.256</v>
+        <v>759.139</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -8208,19 +8208,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>48750.142</v>
+        <v>118692.057</v>
       </c>
       <c r="C157">
-        <v>61885.945</v>
+        <v>23403.208</v>
       </c>
       <c r="D157">
-        <v>720.9299999999999</v>
+        <v>2214.937</v>
       </c>
       <c r="E157">
-        <v>3676.325</v>
+        <v>6738.441</v>
       </c>
       <c r="F157">
-        <v>1084.948</v>
+        <v>2909.461</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -8228,19 +8228,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>59435.855</v>
+        <v>127639.633</v>
       </c>
       <c r="C158">
-        <v>27232.738</v>
+        <v>67724.54700000001</v>
       </c>
       <c r="D158">
-        <v>2723.889</v>
+        <v>3521.277</v>
       </c>
       <c r="E158">
-        <v>14902.673</v>
+        <v>7858.915</v>
       </c>
       <c r="F158">
-        <v>17706.248</v>
+        <v>304.624</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -8248,19 +8248,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>52472.882</v>
+        <v>142124.811</v>
       </c>
       <c r="C159">
-        <v>28967.899</v>
+        <v>54298.034</v>
       </c>
       <c r="D159">
-        <v>14171.878</v>
+        <v>2884.86</v>
       </c>
       <c r="E159">
-        <v>3960.726</v>
+        <v>5404.051</v>
       </c>
       <c r="F159">
-        <v>20971.536</v>
+        <v>1070.568</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -8268,19 +8268,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>3384.107</v>
+        <v>74391.247</v>
       </c>
       <c r="C160">
-        <v>110201.176</v>
+        <v>14743.045</v>
       </c>
       <c r="D160">
-        <v>11898.193</v>
+        <v>1703.894</v>
       </c>
       <c r="E160">
-        <v>10667.262</v>
+        <v>6451.803</v>
       </c>
       <c r="F160">
-        <v>7023.517</v>
+        <v>3311.047</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -8288,19 +8288,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>14397.004</v>
+        <v>102739.174</v>
       </c>
       <c r="C161">
-        <v>48356.301</v>
+        <v>63440.056</v>
       </c>
       <c r="D161">
-        <v>4078.804</v>
+        <v>3015.118</v>
       </c>
       <c r="E161">
-        <v>8944.102999999999</v>
+        <v>3265.592</v>
       </c>
       <c r="F161">
-        <v>1359.598</v>
+        <v>155.85</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -8308,19 +8308,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>30235.212</v>
+        <v>70677.649</v>
       </c>
       <c r="C162">
-        <v>141379.336</v>
+        <v>29179.699</v>
       </c>
       <c r="D162">
-        <v>13574.138</v>
+        <v>292.06</v>
       </c>
       <c r="E162">
-        <v>10698.06</v>
+        <v>13855.88</v>
       </c>
       <c r="F162">
-        <v>11474.253</v>
+        <v>1019.126</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -8328,19 +8328,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>3381.691</v>
+        <v>5299.763</v>
       </c>
       <c r="C163">
-        <v>84813.122</v>
+        <v>67275.524</v>
       </c>
       <c r="D163">
-        <v>10851.132</v>
+        <v>4135.358</v>
       </c>
       <c r="E163">
-        <v>16433.198</v>
+        <v>13235.588</v>
       </c>
       <c r="F163">
-        <v>14594.618</v>
+        <v>1428.463</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -8348,19 +8348,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>76113.25199999999</v>
+        <v>36992.4</v>
       </c>
       <c r="C164">
-        <v>161777.738</v>
+        <v>169141.818</v>
       </c>
       <c r="D164">
-        <v>23151.033</v>
+        <v>6838.087</v>
       </c>
       <c r="E164">
-        <v>17471.38</v>
+        <v>27295.177</v>
       </c>
       <c r="F164">
-        <v>27881.337</v>
+        <v>2664.47</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -8368,19 +8368,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>97952.86199999999</v>
+        <v>12231.093</v>
       </c>
       <c r="C165">
-        <v>18910.584</v>
+        <v>110224.732</v>
       </c>
       <c r="D165">
-        <v>28458.544</v>
+        <v>7944.158</v>
       </c>
       <c r="E165">
-        <v>12180.034</v>
+        <v>17579.777</v>
       </c>
       <c r="F165">
-        <v>9705.741</v>
+        <v>1405.868</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -8388,19 +8388,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>70539.183</v>
+        <v>175700.303</v>
       </c>
       <c r="C166">
-        <v>136099.456</v>
+        <v>51802.06</v>
       </c>
       <c r="D166">
-        <v>1690.289</v>
+        <v>3889.606</v>
       </c>
       <c r="E166">
-        <v>5200.917</v>
+        <v>15680.868</v>
       </c>
       <c r="F166">
-        <v>2961.875</v>
+        <v>5388.1</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -8408,19 +8408,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>86000.91099999999</v>
+        <v>188945.434</v>
       </c>
       <c r="C167">
-        <v>59890.187</v>
+        <v>149905.564</v>
       </c>
       <c r="D167">
-        <v>6386.419</v>
+        <v>6183.643</v>
       </c>
       <c r="E167">
-        <v>21082.893</v>
+        <v>18288.297</v>
       </c>
       <c r="F167">
-        <v>48337.517</v>
+        <v>564.14</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -8428,19 +8428,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>75925.814</v>
+        <v>210387.898</v>
       </c>
       <c r="C168">
-        <v>63706.15</v>
+        <v>120186.517</v>
       </c>
       <c r="D168">
-        <v>33227.325</v>
+        <v>5066.045</v>
       </c>
       <c r="E168">
-        <v>5603.26</v>
+        <v>12575.64</v>
       </c>
       <c r="F168">
-        <v>57251.653</v>
+        <v>1982.611</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -8448,19 +8448,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>4896.645</v>
+        <v>110121.646</v>
       </c>
       <c r="C169">
-        <v>242354.223</v>
+        <v>32633.138</v>
       </c>
       <c r="D169">
-        <v>27896.453</v>
+        <v>2992.174</v>
       </c>
       <c r="E169">
-        <v>15091.033</v>
+        <v>15013.84</v>
       </c>
       <c r="F169">
-        <v>19173.987</v>
+        <v>6131.807</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -8468,19 +8468,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>20831.794</v>
+        <v>152085.19</v>
       </c>
       <c r="C170">
-        <v>106345.088</v>
+        <v>140422.015</v>
       </c>
       <c r="D170">
-        <v>9563.146000000001</v>
+        <v>5294.788</v>
       </c>
       <c r="E170">
-        <v>12653.271</v>
+        <v>7599.283</v>
       </c>
       <c r="F170">
-        <v>3711.661</v>
+        <v>288.622</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -8488,19 +8488,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>43748.942</v>
+        <v>104624.393</v>
       </c>
       <c r="C171">
-        <v>310921.175</v>
+        <v>64588.092</v>
       </c>
       <c r="D171">
-        <v>31825.866</v>
+        <v>512.881</v>
       </c>
       <c r="E171">
-        <v>15134.603</v>
+        <v>32243.694</v>
       </c>
       <c r="F171">
-        <v>31324.361</v>
+        <v>1887.344</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -8508,19 +8508,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>4893.149</v>
+        <v>7845.259</v>
       </c>
       <c r="C172">
-        <v>186520.861</v>
+        <v>148911.67</v>
       </c>
       <c r="D172">
-        <v>25441.518</v>
+        <v>7262.019</v>
       </c>
       <c r="E172">
-        <v>23248.134</v>
+        <v>30800.227</v>
       </c>
       <c r="F172">
-        <v>39842.862</v>
+        <v>2645.405</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -8528,19 +8528,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>164343.163</v>
+        <v>49220.325</v>
       </c>
       <c r="C173">
-        <v>458558.384</v>
+        <v>201190.701</v>
       </c>
       <c r="D173">
-        <v>23562.935</v>
+        <v>17011.424</v>
       </c>
       <c r="E173">
-        <v>42309.033</v>
+        <v>45796.161</v>
       </c>
       <c r="F173">
-        <v>46303.083</v>
+        <v>8241.385</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -8548,19 +8548,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>211499.085</v>
+        <v>16274.11</v>
       </c>
       <c r="C174">
-        <v>53601.979</v>
+        <v>131110.044</v>
       </c>
       <c r="D174">
-        <v>28964.877</v>
+        <v>19763.047</v>
       </c>
       <c r="E174">
-        <v>29495.407</v>
+        <v>29495.551</v>
       </c>
       <c r="F174">
-        <v>16118.514</v>
+        <v>4348.443</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -8568,19 +8568,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>152307.675</v>
+        <v>233778.452</v>
       </c>
       <c r="C175">
-        <v>385773.391</v>
+        <v>61617.481</v>
       </c>
       <c r="D175">
-        <v>1720.363</v>
+        <v>9676.352000000001</v>
       </c>
       <c r="E175">
-        <v>12594.642</v>
+        <v>26309.54</v>
       </c>
       <c r="F175">
-        <v>4918.844</v>
+        <v>16665.755</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -8588,19 +8588,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>185692.522</v>
+        <v>251401.793</v>
       </c>
       <c r="C176">
-        <v>169758.508</v>
+        <v>178309.574</v>
       </c>
       <c r="D176">
-        <v>6500.046</v>
+        <v>15383.333</v>
       </c>
       <c r="E176">
-        <v>51054.743</v>
+        <v>30684.314</v>
       </c>
       <c r="F176">
-        <v>80275.06200000001</v>
+        <v>1744.923</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -8608,19 +8608,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>163938.448</v>
+        <v>279932.114</v>
       </c>
       <c r="C177">
-        <v>180574.84</v>
+        <v>142959.381</v>
       </c>
       <c r="D177">
-        <v>33818.504</v>
+        <v>12603.033</v>
       </c>
       <c r="E177">
-        <v>13568.963</v>
+        <v>21099.553</v>
       </c>
       <c r="F177">
-        <v>95078.943</v>
+        <v>6132.349</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -8628,19 +8628,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>10572.799</v>
+        <v>146522.616</v>
       </c>
       <c r="C178">
-        <v>686952.125</v>
+        <v>38816.444</v>
       </c>
       <c r="D178">
-        <v>28392.785</v>
+        <v>7443.768</v>
       </c>
       <c r="E178">
-        <v>36544.739</v>
+        <v>25190.393</v>
       </c>
       <c r="F178">
-        <v>31842.616</v>
+        <v>18966.09</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -8648,19 +8648,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>44979.853</v>
+        <v>202357.308</v>
       </c>
       <c r="C179">
-        <v>301434.748</v>
+        <v>167029.089</v>
       </c>
       <c r="D179">
-        <v>9733.293</v>
+        <v>13172.087</v>
       </c>
       <c r="E179">
-        <v>30641.406</v>
+        <v>12750.164</v>
       </c>
       <c r="F179">
-        <v>6164.028</v>
+        <v>892.728</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -8668,19 +8668,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>94462.387</v>
+        <v>139208.233</v>
       </c>
       <c r="C180">
-        <v>881304.89</v>
+        <v>76826.202</v>
       </c>
       <c r="D180">
-        <v>32392.11</v>
+        <v>1275.917</v>
       </c>
       <c r="E180">
-        <v>36650.248</v>
+        <v>54098.839</v>
       </c>
       <c r="F180">
-        <v>52020.981</v>
+        <v>5837.681</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -8688,19 +8688,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10565.251</v>
+        <v>10438.528</v>
       </c>
       <c r="C181">
-        <v>528692.673</v>
+        <v>177127.358</v>
       </c>
       <c r="D181">
-        <v>25894.172</v>
+        <v>18066.059</v>
       </c>
       <c r="E181">
-        <v>56298.132</v>
+        <v>51676.973</v>
       </c>
       <c r="F181">
-        <v>66167.822</v>
+        <v>8182.415</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -8708,19 +8708,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>326527.497</v>
+        <v>67896.113</v>
       </c>
       <c r="C182">
-        <v>1213438.856</v>
+        <v>254163.417</v>
       </c>
       <c r="D182">
-        <v>24210.466</v>
+        <v>38497.358</v>
       </c>
       <c r="E182">
-        <v>88808.91099999999</v>
+        <v>81608.09299999999</v>
       </c>
       <c r="F182">
-        <v>83153.45600000001</v>
+        <v>21449.822</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -8728,19 +8728,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>420219.896</v>
+        <v>22449.035</v>
       </c>
       <c r="C183">
-        <v>141841.751</v>
+        <v>165630.8</v>
       </c>
       <c r="D183">
-        <v>29760.859</v>
+        <v>44724.363</v>
       </c>
       <c r="E183">
-        <v>61912.428</v>
+        <v>52560.643</v>
       </c>
       <c r="F183">
-        <v>28946.456</v>
+        <v>11317.676</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -8748,19 +8748,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>302614.62</v>
+        <v>322481.578</v>
       </c>
       <c r="C184">
-        <v>1020834.944</v>
+        <v>77841.12</v>
       </c>
       <c r="D184">
-        <v>1767.64</v>
+        <v>21897.872</v>
       </c>
       <c r="E184">
-        <v>26436.824</v>
+        <v>46883.218</v>
       </c>
       <c r="F184">
-        <v>8833.513000000001</v>
+        <v>43375.899</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -8768,19 +8768,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>368945.768</v>
+        <v>346791.786</v>
       </c>
       <c r="C185">
-        <v>449215.578</v>
+        <v>225257.78</v>
       </c>
       <c r="D185">
-        <v>6678.673</v>
+        <v>34812.94</v>
       </c>
       <c r="E185">
-        <v>107166.621</v>
+        <v>54679.002</v>
       </c>
       <c r="F185">
-        <v>144162.082</v>
+        <v>4541.505</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -8788,19 +8788,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>325723.384</v>
+        <v>386147.437</v>
       </c>
       <c r="C186">
-        <v>477837.795</v>
+        <v>180600.021</v>
       </c>
       <c r="D186">
-        <v>34747.868</v>
+        <v>28521.038</v>
       </c>
       <c r="E186">
-        <v>28481.975</v>
+        <v>37599.097</v>
       </c>
       <c r="F186">
-        <v>170747.652</v>
+        <v>15960.642</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -8808,19 +8808,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>21006.713</v>
+        <v>202118.048</v>
       </c>
       <c r="C187">
-        <v>1817815.2</v>
+        <v>49036.66</v>
       </c>
       <c r="D187">
-        <v>29173.045</v>
+        <v>16845.468</v>
       </c>
       <c r="E187">
-        <v>76709.351</v>
+        <v>44888.914</v>
       </c>
       <c r="F187">
-        <v>57184.607</v>
+        <v>49362.972</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -8828,19 +8828,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>89368.84600000001</v>
+        <v>279138.233</v>
       </c>
       <c r="C188">
-        <v>797657.721</v>
+        <v>211007.188</v>
       </c>
       <c r="D188">
-        <v>10000.773</v>
+        <v>29808.824</v>
       </c>
       <c r="E188">
-        <v>64317.941</v>
+        <v>22720.607</v>
       </c>
       <c r="F188">
-        <v>11069.678</v>
+        <v>2323.5</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -8848,19 +8848,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>187683.906</v>
+        <v>192028.351</v>
       </c>
       <c r="C189">
-        <v>2332112.19</v>
+        <v>97054.23699999999</v>
       </c>
       <c r="D189">
-        <v>33282.275</v>
+        <v>2887.438</v>
       </c>
       <c r="E189">
-        <v>76930.82000000001</v>
+        <v>96403.345</v>
       </c>
       <c r="F189">
-        <v>93421.951</v>
+        <v>15193.711</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -8868,19 +8868,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>20991.715</v>
+        <v>14399.244</v>
       </c>
       <c r="C190">
-        <v>1399028.465</v>
+        <v>223764.291</v>
       </c>
       <c r="D190">
-        <v>26605.768</v>
+        <v>40884.028</v>
       </c>
       <c r="E190">
-        <v>118172.774</v>
+        <v>92087.61500000001</v>
       </c>
       <c r="F190">
-        <v>118827.575</v>
+        <v>21296.341</v>
       </c>
     </row>
   </sheetData>

--- a/Experimentos2/DABA.xlsx
+++ b/Experimentos2/DABA.xlsx
@@ -722,19 +722,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.237</v>
+        <v>0.967</v>
       </c>
       <c r="C11">
-        <v>0.952</v>
+        <v>0.193</v>
       </c>
       <c r="D11">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.646</v>
+      </c>
+      <c r="F11">
         <v>0.778</v>
-      </c>
-      <c r="E11">
-        <v>0.737</v>
-      </c>
-      <c r="F11">
-        <v>0.464</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -742,19 +742,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.123</v>
+        <v>0.363</v>
       </c>
       <c r="C12">
-        <v>0.645</v>
+        <v>0.259</v>
       </c>
       <c r="D12">
-        <v>0.891</v>
+        <v>0.925</v>
       </c>
       <c r="E12">
-        <v>0.497</v>
+        <v>0.134</v>
       </c>
       <c r="F12">
-        <v>0.221</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -762,19 +762,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.895</v>
+        <v>0.315</v>
       </c>
       <c r="C13">
-        <v>0.341</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="D13">
-        <v>0.47</v>
+        <v>0.67</v>
       </c>
       <c r="E13">
-        <v>0.448</v>
+        <v>0.68</v>
       </c>
       <c r="F13">
-        <v>0.737</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -782,19 +782,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.96</v>
+        <v>1.006</v>
       </c>
       <c r="C14">
-        <v>0.859</v>
+        <v>0.712</v>
       </c>
       <c r="D14">
-        <v>0.707</v>
+        <v>0.535</v>
       </c>
       <c r="E14">
-        <v>0.501</v>
+        <v>0.721</v>
       </c>
       <c r="F14">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -802,19 +802,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.063</v>
+        <v>0.847</v>
       </c>
       <c r="C15">
-        <v>0.705</v>
+        <v>0.308</v>
       </c>
       <c r="D15">
-        <v>0.594</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E15">
-        <v>0.377</v>
+        <v>0.17</v>
       </c>
       <c r="F15">
-        <v>0.269</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -822,19 +822,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.594</v>
+        <v>0.54</v>
       </c>
       <c r="C16">
-        <v>0.248</v>
+        <v>0.444</v>
       </c>
       <c r="D16">
-        <v>0.377</v>
+        <v>0.919</v>
       </c>
       <c r="E16">
-        <v>0.421</v>
+        <v>0.503</v>
       </c>
       <c r="F16">
-        <v>0.826</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -842,19 +842,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.794</v>
+        <v>0.359</v>
       </c>
       <c r="C17">
-        <v>0.8159999999999999</v>
+        <v>0.384</v>
       </c>
       <c r="D17">
-        <v>0.616</v>
+        <v>0.097</v>
       </c>
       <c r="E17">
-        <v>0.234</v>
+        <v>0.415</v>
       </c>
       <c r="F17">
-        <v>0.04</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -862,19 +862,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.573</v>
+        <v>0.492</v>
       </c>
       <c r="C18">
-        <v>0.42</v>
+        <v>0.352</v>
       </c>
       <c r="D18">
-        <v>0.119</v>
+        <v>0.46</v>
       </c>
       <c r="E18">
-        <v>0.828</v>
+        <v>0.143</v>
       </c>
       <c r="F18">
-        <v>0.255</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -882,19 +882,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.12</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="C19">
-        <v>0.865</v>
+        <v>0.218</v>
       </c>
       <c r="D19">
-        <v>0.82</v>
+        <v>0.778</v>
       </c>
       <c r="E19">
-        <v>0.802</v>
+        <v>0.917</v>
       </c>
       <c r="F19">
-        <v>0.356</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -902,19 +902,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.451</v>
+        <v>2.167</v>
       </c>
       <c r="C20">
-        <v>2.073</v>
+        <v>0.393</v>
       </c>
       <c r="D20">
-        <v>2.112</v>
+        <v>0.113</v>
       </c>
       <c r="E20">
-        <v>1.652</v>
+        <v>1.413</v>
       </c>
       <c r="F20">
-        <v>1.006</v>
+        <v>1.871</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -922,19 +922,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2</v>
+        <v>0.762</v>
       </c>
       <c r="C21">
-        <v>1.378</v>
+        <v>0.552</v>
       </c>
       <c r="D21">
-        <v>2.441</v>
+        <v>2.359</v>
       </c>
       <c r="E21">
-        <v>1.085</v>
+        <v>0.216</v>
       </c>
       <c r="F21">
-        <v>0.512</v>
+        <v>1.219</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -942,19 +942,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.865</v>
+        <v>0.647</v>
       </c>
       <c r="C22">
-        <v>0.6889999999999999</v>
+        <v>2.236</v>
       </c>
       <c r="D22">
-        <v>1.229</v>
+        <v>1.678</v>
       </c>
       <c r="E22">
-        <v>0.973</v>
+        <v>1.504</v>
       </c>
       <c r="F22">
-        <v>1.877</v>
+        <v>1.236</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -962,19 +962,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.001</v>
+        <v>2.244</v>
       </c>
       <c r="C23">
-        <v>1.849</v>
+        <v>1.671</v>
       </c>
       <c r="D23">
-        <v>1.914</v>
+        <v>1.321</v>
       </c>
       <c r="E23">
-        <v>1.118</v>
+        <v>1.618</v>
       </c>
       <c r="F23">
-        <v>0.199</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -982,19 +982,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.22</v>
+        <v>1.871</v>
       </c>
       <c r="C24">
-        <v>1.499</v>
+        <v>0.66</v>
       </c>
       <c r="D24">
-        <v>1.582</v>
+        <v>1.727</v>
       </c>
       <c r="E24">
-        <v>0.795</v>
+        <v>0.297</v>
       </c>
       <c r="F24">
-        <v>0.6889999999999999</v>
+        <v>1.339</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1002,19 +1002,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.201</v>
+        <v>1.155</v>
       </c>
       <c r="C25">
-        <v>0.466</v>
+        <v>0.994</v>
       </c>
       <c r="D25">
-        <v>0.961</v>
+        <v>2.343</v>
       </c>
       <c r="E25">
-        <v>0.927</v>
+        <v>1.106</v>
       </c>
       <c r="F25">
-        <v>2.126</v>
+        <v>1.258</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1022,19 +1022,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.629</v>
+        <v>0.731</v>
       </c>
       <c r="C26">
-        <v>1.74</v>
+        <v>0.841</v>
       </c>
       <c r="D26">
-        <v>1.649</v>
+        <v>0.149</v>
       </c>
       <c r="E26">
-        <v>0.492</v>
+        <v>0.91</v>
       </c>
       <c r="F26">
-        <v>0.101</v>
+        <v>2.319</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1042,19 +1042,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.147</v>
+        <v>1.035</v>
       </c>
       <c r="C27">
-        <v>0.845</v>
+        <v>0.757</v>
       </c>
       <c r="D27">
-        <v>0.219</v>
+        <v>1.118</v>
       </c>
       <c r="E27">
-        <v>1.921</v>
+        <v>0.283</v>
       </c>
       <c r="F27">
-        <v>0.655</v>
+        <v>2.215</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1062,19 +1062,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.163</v>
+        <v>2.074</v>
       </c>
       <c r="C28">
-        <v>1.842</v>
+        <v>0.419</v>
       </c>
       <c r="D28">
-        <v>2.237</v>
+        <v>1.966</v>
       </c>
       <c r="E28">
-        <v>1.843</v>
+        <v>2.086</v>
       </c>
       <c r="F28">
-        <v>0.917</v>
+        <v>1.211</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1082,19 +1082,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.966</v>
+        <v>4.524</v>
       </c>
       <c r="C29">
-        <v>4.692</v>
+        <v>0.868</v>
       </c>
       <c r="D29">
-        <v>3.673</v>
+        <v>0.143</v>
       </c>
       <c r="E29">
-        <v>2.793</v>
+        <v>2.2</v>
       </c>
       <c r="F29">
-        <v>1.589</v>
+        <v>3.626</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1102,19 +1102,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.373</v>
+        <v>1.538</v>
       </c>
       <c r="C30">
-        <v>3.086</v>
+        <v>1.261</v>
       </c>
       <c r="D30">
-        <v>4.255</v>
+        <v>3.908</v>
       </c>
       <c r="E30">
-        <v>1.819</v>
+        <v>0.3</v>
       </c>
       <c r="F30">
-        <v>0.824</v>
+        <v>2.388</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1122,19 +1122,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.291</v>
+        <v>1.292</v>
       </c>
       <c r="C31">
-        <v>1.493</v>
+        <v>5.445</v>
       </c>
       <c r="D31">
-        <v>2.117</v>
+        <v>2.767</v>
       </c>
       <c r="E31">
-        <v>1.628</v>
+        <v>2.35</v>
       </c>
       <c r="F31">
-        <v>3.094</v>
+        <v>2.435</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1142,19 +1142,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.609</v>
+        <v>4.681</v>
       </c>
       <c r="C32">
-        <v>4.169</v>
+        <v>4.039</v>
       </c>
       <c r="D32">
-        <v>3.326</v>
+        <v>2.17</v>
       </c>
       <c r="E32">
-        <v>1.885</v>
+        <v>2.539</v>
       </c>
       <c r="F32">
-        <v>0.326</v>
+        <v>3.911</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1162,19 +1162,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.123</v>
+        <v>3.887</v>
       </c>
       <c r="C33">
-        <v>3.359</v>
+        <v>1.524</v>
       </c>
       <c r="D33">
-        <v>2.738</v>
+        <v>2.847</v>
       </c>
       <c r="E33">
-        <v>1.318</v>
+        <v>0.428</v>
       </c>
       <c r="F33">
-        <v>1.137</v>
+        <v>2.645</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1182,19 +1182,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.721</v>
+        <v>2.365</v>
       </c>
       <c r="C34">
-        <v>0.972</v>
+        <v>2.352</v>
       </c>
       <c r="D34">
-        <v>1.644</v>
+        <v>3.881</v>
       </c>
       <c r="E34">
-        <v>1.557</v>
+        <v>1.725</v>
       </c>
       <c r="F34">
-        <v>3.513</v>
+        <v>2.485</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1202,19 +1202,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.727</v>
+        <v>1.463</v>
       </c>
       <c r="C35">
-        <v>3.912</v>
+        <v>1.97</v>
       </c>
       <c r="D35">
-        <v>2.858</v>
+        <v>0.205</v>
       </c>
       <c r="E35">
-        <v>0.8120000000000001</v>
+        <v>1.418</v>
       </c>
       <c r="F35">
-        <v>0.166</v>
+        <v>4.583</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1222,19 +1222,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.59</v>
+        <v>2.106</v>
       </c>
       <c r="C36">
-        <v>1.844</v>
+        <v>1.76</v>
       </c>
       <c r="D36">
-        <v>0.336</v>
+        <v>1.829</v>
       </c>
       <c r="E36">
-        <v>3.278</v>
+        <v>0.426</v>
       </c>
       <c r="F36">
-        <v>1.082</v>
+        <v>4.377</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1242,19 +1242,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.271</v>
+        <v>4.311</v>
       </c>
       <c r="C37">
-        <v>4.144</v>
+        <v>0.918</v>
       </c>
       <c r="D37">
-        <v>3.895</v>
+        <v>3.249</v>
       </c>
       <c r="E37">
-        <v>3.137</v>
+        <v>3.286</v>
       </c>
       <c r="F37">
-        <v>1.516</v>
+        <v>2.394</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1262,19 +1262,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.202</v>
+        <v>9.346</v>
       </c>
       <c r="C38">
-        <v>10.782</v>
+        <v>2.039</v>
       </c>
       <c r="D38">
-        <v>5.634</v>
+        <v>0.177</v>
       </c>
       <c r="E38">
-        <v>4.321</v>
+        <v>3.019</v>
       </c>
       <c r="F38">
-        <v>2.237</v>
+        <v>6.665</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1282,19 +1282,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.783</v>
+        <v>3.122</v>
       </c>
       <c r="C39">
-        <v>7.055</v>
+        <v>3.015</v>
       </c>
       <c r="D39">
-        <v>6.534</v>
+        <v>5.649</v>
       </c>
       <c r="E39">
-        <v>2.802</v>
+        <v>0.388</v>
       </c>
       <c r="F39">
-        <v>1.17</v>
+        <v>4.402</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1302,19 +1302,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>10.155</v>
+        <v>2.608</v>
       </c>
       <c r="C40">
-        <v>3.359</v>
+        <v>13.41</v>
       </c>
       <c r="D40">
-        <v>3.233</v>
+        <v>3.991</v>
       </c>
       <c r="E40">
-        <v>2.505</v>
+        <v>3.23</v>
       </c>
       <c r="F40">
-        <v>4.438</v>
+        <v>4.496</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1322,19 +1322,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>10.915</v>
+        <v>9.67</v>
       </c>
       <c r="C41">
-        <v>9.566000000000001</v>
+        <v>9.916</v>
       </c>
       <c r="D41">
-        <v>5.1</v>
+        <v>3.124</v>
       </c>
       <c r="E41">
-        <v>2.911</v>
+        <v>3.497</v>
       </c>
       <c r="F41">
-        <v>0.466</v>
+        <v>7.226</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1342,19 +1342,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>12.144</v>
+        <v>8.013999999999999</v>
       </c>
       <c r="C42">
-        <v>7.686</v>
+        <v>3.666</v>
       </c>
       <c r="D42">
-        <v>4.191</v>
+        <v>4.106</v>
       </c>
       <c r="E42">
-        <v>2.02</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F42">
-        <v>1.632</v>
+        <v>4.887</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1362,19 +1362,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6.396</v>
+        <v>4.842</v>
       </c>
       <c r="C43">
-        <v>2.147</v>
+        <v>5.723</v>
       </c>
       <c r="D43">
-        <v>2.502</v>
+        <v>5.61</v>
       </c>
       <c r="E43">
-        <v>2.399</v>
+        <v>2.369</v>
       </c>
       <c r="F43">
-        <v>5.044</v>
+        <v>4.592</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1382,19 +1382,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>8.802</v>
+        <v>2.961</v>
       </c>
       <c r="C44">
-        <v>8.967000000000001</v>
+        <v>4.773</v>
       </c>
       <c r="D44">
-        <v>4.377</v>
+        <v>0.268</v>
       </c>
       <c r="E44">
-        <v>1.239</v>
+        <v>1.947</v>
       </c>
       <c r="F44">
-        <v>0.238</v>
+        <v>8.468999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1402,19 +1402,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6.081</v>
+        <v>4.3</v>
       </c>
       <c r="C45">
-        <v>4.169</v>
+        <v>4.25</v>
       </c>
       <c r="D45">
-        <v>0.483</v>
+        <v>2.628</v>
       </c>
       <c r="E45">
-        <v>5.09</v>
+        <v>0.575</v>
       </c>
       <c r="F45">
-        <v>1.553</v>
+        <v>8.087999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1422,19 +1422,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.533</v>
+        <v>8.895</v>
       </c>
       <c r="C46">
-        <v>9.504</v>
+        <v>2.158</v>
       </c>
       <c r="D46">
-        <v>5.978</v>
+        <v>4.691</v>
       </c>
       <c r="E46">
-        <v>4.866</v>
+        <v>4.535</v>
       </c>
       <c r="F46">
-        <v>2.177</v>
+        <v>4.424</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1442,19 +1442,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.82</v>
+        <v>16.28</v>
       </c>
       <c r="C47">
-        <v>20.713</v>
+        <v>4.706</v>
       </c>
       <c r="D47">
-        <v>9.071</v>
+        <v>0.245</v>
       </c>
       <c r="E47">
-        <v>9.311999999999999</v>
+        <v>5.871</v>
       </c>
       <c r="F47">
-        <v>3.066</v>
+        <v>10.224</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1462,19 +1462,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.649</v>
+        <v>5.399</v>
       </c>
       <c r="C48">
-        <v>13.527</v>
+        <v>7.012</v>
       </c>
       <c r="D48">
-        <v>10.527</v>
+        <v>9.076000000000001</v>
       </c>
       <c r="E48">
-        <v>6.016</v>
+        <v>0.707</v>
       </c>
       <c r="F48">
-        <v>1.611</v>
+        <v>6.759</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1482,19 +1482,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>22.586</v>
+        <v>4.5</v>
       </c>
       <c r="C49">
-        <v>6.401</v>
+        <v>31.57</v>
       </c>
       <c r="D49">
-        <v>5.188</v>
+        <v>6.4</v>
       </c>
       <c r="E49">
-        <v>5.372</v>
+        <v>6.288</v>
       </c>
       <c r="F49">
-        <v>6.141</v>
+        <v>6.908</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1502,19 +1502,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>24.283</v>
+        <v>16.845</v>
       </c>
       <c r="C50">
-        <v>18.367</v>
+        <v>23.315</v>
       </c>
       <c r="D50">
-        <v>8.208</v>
+        <v>5.002</v>
       </c>
       <c r="E50">
-        <v>6.256</v>
+        <v>6.816</v>
       </c>
       <c r="F50">
-        <v>0.644</v>
+        <v>11.105</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1522,19 +1522,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>27.029</v>
+        <v>13.949</v>
       </c>
       <c r="C51">
-        <v>14.742</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="D51">
-        <v>6.737</v>
+        <v>6.585</v>
       </c>
       <c r="E51">
-        <v>4.319</v>
+        <v>1.054</v>
       </c>
       <c r="F51">
-        <v>2.259</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1542,19 +1542,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>14.187</v>
+        <v>8.404</v>
       </c>
       <c r="C52">
-        <v>4.063</v>
+        <v>13.409</v>
       </c>
       <c r="D52">
-        <v>4.006</v>
+        <v>9.013</v>
       </c>
       <c r="E52">
-        <v>5.145</v>
+        <v>4.601</v>
       </c>
       <c r="F52">
-        <v>6.984</v>
+        <v>7.057</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1562,19 +1562,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>19.562</v>
+        <v>5.115</v>
       </c>
       <c r="C53">
-        <v>17.211</v>
+        <v>11.164</v>
       </c>
       <c r="D53">
-        <v>7.038</v>
+        <v>0.392</v>
       </c>
       <c r="E53">
-        <v>2.629</v>
+        <v>3.775</v>
       </c>
       <c r="F53">
-        <v>0.329</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1582,19 +1582,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>13.483</v>
+        <v>7.455</v>
       </c>
       <c r="C54">
-        <v>7.961</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="D54">
-        <v>0.741</v>
+        <v>4.201</v>
       </c>
       <c r="E54">
-        <v>10.989</v>
+        <v>1.083</v>
       </c>
       <c r="F54">
-        <v>2.15</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1602,19 +1602,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.088</v>
+        <v>15.488</v>
       </c>
       <c r="C55">
-        <v>18.246</v>
+        <v>4.985</v>
       </c>
       <c r="D55">
-        <v>9.628</v>
+        <v>7.53</v>
       </c>
       <c r="E55">
-        <v>10.5</v>
+        <v>8.856</v>
       </c>
       <c r="F55">
-        <v>3.014</v>
+        <v>6.799</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1622,19 +1622,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>10.527</v>
+        <v>26.907</v>
       </c>
       <c r="C56">
-        <v>38.05</v>
+        <v>10.91</v>
       </c>
       <c r="D56">
-        <v>14.894</v>
+        <v>0.367</v>
       </c>
       <c r="E56">
-        <v>21.814</v>
+        <v>12.71</v>
       </c>
       <c r="F56">
-        <v>4.143</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1642,19 +1642,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.536</v>
+        <v>8.888</v>
       </c>
       <c r="C57">
-        <v>24.825</v>
+        <v>16.31</v>
       </c>
       <c r="D57">
-        <v>17.292</v>
+        <v>15.224</v>
       </c>
       <c r="E57">
-        <v>14.068</v>
+        <v>1.475</v>
       </c>
       <c r="F57">
-        <v>2.182</v>
+        <v>9.643000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1662,19 +1662,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>49.689</v>
+        <v>7.399</v>
       </c>
       <c r="C58">
-        <v>11.711</v>
+        <v>73.818</v>
       </c>
       <c r="D58">
-        <v>8.5</v>
+        <v>10.722</v>
       </c>
       <c r="E58">
-        <v>12.554</v>
+        <v>13.618</v>
       </c>
       <c r="F58">
-        <v>8.340999999999999</v>
+        <v>9.859</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1682,19 +1682,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>53.429</v>
+        <v>27.842</v>
       </c>
       <c r="C59">
-        <v>33.732</v>
+        <v>54.486</v>
       </c>
       <c r="D59">
-        <v>13.474</v>
+        <v>8.371</v>
       </c>
       <c r="E59">
-        <v>14.633</v>
+        <v>14.769</v>
       </c>
       <c r="F59">
-        <v>0.874</v>
+        <v>15.85</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1702,19 +1702,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>59.483</v>
+        <v>23.045</v>
       </c>
       <c r="C60">
-        <v>27.061</v>
+        <v>19.908</v>
       </c>
       <c r="D60">
-        <v>11.051</v>
+        <v>11.033</v>
       </c>
       <c r="E60">
-        <v>10.079</v>
+        <v>2.23</v>
       </c>
       <c r="F60">
-        <v>3.069</v>
+        <v>10.719</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1722,19 +1722,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>31.174</v>
+        <v>13.863</v>
       </c>
       <c r="C61">
-        <v>7.408</v>
+        <v>31.289</v>
       </c>
       <c r="D61">
-        <v>6.554</v>
+        <v>15.118</v>
       </c>
       <c r="E61">
-        <v>12.022</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="F61">
-        <v>9.49</v>
+        <v>10.072</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1742,19 +1742,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>43.022</v>
+        <v>8.416</v>
       </c>
       <c r="C62">
-        <v>31.604</v>
+        <v>26.032</v>
       </c>
       <c r="D62">
-        <v>11.547</v>
+        <v>0.614</v>
       </c>
       <c r="E62">
-        <v>6.11</v>
+        <v>8.154</v>
       </c>
       <c r="F62">
-        <v>0.447</v>
+        <v>18.578</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1762,19 +1762,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>29.622</v>
+        <v>12.291</v>
       </c>
       <c r="C63">
-        <v>14.581</v>
+        <v>23.137</v>
       </c>
       <c r="D63">
-        <v>1.178</v>
+        <v>7.023</v>
       </c>
       <c r="E63">
-        <v>25.759</v>
+        <v>2.298</v>
       </c>
       <c r="F63">
-        <v>2.921</v>
+        <v>17.742</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1782,19 +1782,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.298</v>
+        <v>25.593</v>
       </c>
       <c r="C64">
-        <v>33.509</v>
+        <v>11.562</v>
       </c>
       <c r="D64">
-        <v>15.812</v>
+        <v>12.623</v>
       </c>
       <c r="E64">
-        <v>24.608</v>
+        <v>19.208</v>
       </c>
       <c r="F64">
-        <v>4.095</v>
+        <v>9.704000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1802,19 +1802,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>26.187</v>
+        <v>59.878</v>
       </c>
       <c r="C65">
-        <v>81.584</v>
+        <v>22.149</v>
       </c>
       <c r="D65">
-        <v>21.562</v>
+        <v>0.615</v>
       </c>
       <c r="E65">
-        <v>41.694</v>
+        <v>22.828</v>
       </c>
       <c r="F65">
-        <v>6.065</v>
+        <v>30.338</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1822,19 +1822,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>8.714</v>
+        <v>19.712</v>
       </c>
       <c r="C66">
-        <v>53.195</v>
+        <v>33.154</v>
       </c>
       <c r="D66">
-        <v>25.039</v>
+        <v>27.693</v>
       </c>
       <c r="E66">
-        <v>26.872</v>
+        <v>2.612</v>
       </c>
       <c r="F66">
-        <v>3.198</v>
+        <v>20.068</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1842,19 +1842,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>124.067</v>
+        <v>16.392</v>
       </c>
       <c r="C67">
-        <v>25.044</v>
+        <v>150.353</v>
       </c>
       <c r="D67">
-        <v>12.293</v>
+        <v>19.488</v>
       </c>
       <c r="E67">
-        <v>23.975</v>
+        <v>24.462</v>
       </c>
       <c r="F67">
-        <v>12.243</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1862,19 +1862,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>133.414</v>
+        <v>61.962</v>
       </c>
       <c r="C68">
-        <v>72.315</v>
+        <v>110.954</v>
       </c>
       <c r="D68">
-        <v>19.504</v>
+        <v>15.203</v>
       </c>
       <c r="E68">
-        <v>27.953</v>
+        <v>26.534</v>
       </c>
       <c r="F68">
-        <v>1.282</v>
+        <v>32.99</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1882,19 +1882,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>148.545</v>
+        <v>51.268</v>
       </c>
       <c r="C69">
-        <v>57.995</v>
+        <v>40.486</v>
       </c>
       <c r="D69">
-        <v>15.991</v>
+        <v>20.054</v>
       </c>
       <c r="E69">
-        <v>19.238</v>
+        <v>3.97</v>
       </c>
       <c r="F69">
-        <v>4.505</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1902,19 +1902,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>77.791</v>
+        <v>30.801</v>
       </c>
       <c r="C70">
-        <v>15.807</v>
+        <v>63.68</v>
       </c>
       <c r="D70">
-        <v>9.472</v>
+        <v>27.5</v>
       </c>
       <c r="E70">
-        <v>22.957</v>
+        <v>17.863</v>
       </c>
       <c r="F70">
-        <v>13.932</v>
+        <v>20.963</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1922,19 +1922,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>107.403</v>
+        <v>18.658</v>
       </c>
       <c r="C71">
-        <v>67.746</v>
+        <v>52.966</v>
       </c>
       <c r="D71">
-        <v>16.71</v>
+        <v>1.065</v>
       </c>
       <c r="E71">
-        <v>11.645</v>
+        <v>14.632</v>
       </c>
       <c r="F71">
-        <v>0.656</v>
+        <v>38.668</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1942,19 +1942,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>73.91200000000001</v>
+        <v>27.296</v>
       </c>
       <c r="C72">
-        <v>31.205</v>
+        <v>47.066</v>
       </c>
       <c r="D72">
-        <v>1.678</v>
+        <v>12.746</v>
       </c>
       <c r="E72">
-        <v>49.244</v>
+        <v>4.095</v>
       </c>
       <c r="F72">
-        <v>4.288</v>
+        <v>36.928</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1962,19 +1962,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.619</v>
+        <v>56.948</v>
       </c>
       <c r="C73">
-        <v>71.836</v>
+        <v>23.477</v>
       </c>
       <c r="D73">
-        <v>22.894</v>
+        <v>22.952</v>
       </c>
       <c r="E73">
-        <v>47.041</v>
+        <v>34.522</v>
       </c>
       <c r="F73">
-        <v>6.011</v>
+        <v>20.198</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1982,19 +1982,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>66.724</v>
+        <v>142.658</v>
       </c>
       <c r="C74">
-        <v>181.354</v>
+        <v>43.649</v>
       </c>
       <c r="D74">
-        <v>29.455</v>
+        <v>1.092</v>
       </c>
       <c r="E74">
-        <v>75.691</v>
+        <v>38.845</v>
       </c>
       <c r="F74">
-        <v>9.224</v>
+        <v>69.81999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2002,19 +2002,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>22.117</v>
+        <v>46.887</v>
       </c>
       <c r="C75">
-        <v>118.212</v>
+        <v>65.376</v>
       </c>
       <c r="D75">
-        <v>34.209</v>
+        <v>51.682</v>
       </c>
       <c r="E75">
-        <v>48.768</v>
+        <v>4.412</v>
       </c>
       <c r="F75">
-        <v>4.866</v>
+        <v>46.186</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2022,19 +2022,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>316.602</v>
+        <v>38.97</v>
       </c>
       <c r="C76">
-        <v>55.6</v>
+        <v>296.764</v>
       </c>
       <c r="D76">
-        <v>16.783</v>
+        <v>36.353</v>
       </c>
       <c r="E76">
-        <v>43.506</v>
+        <v>41.628</v>
       </c>
       <c r="F76">
-        <v>18.643</v>
+        <v>47.228</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2042,19 +2042,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>340.463</v>
+        <v>147.627</v>
       </c>
       <c r="C77">
-        <v>160.738</v>
+        <v>218.977</v>
       </c>
       <c r="D77">
-        <v>26.642</v>
+        <v>28.347</v>
       </c>
       <c r="E77">
-        <v>50.732</v>
+        <v>45.158</v>
       </c>
       <c r="F77">
-        <v>1.952</v>
+        <v>75.928</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2062,19 +2062,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>379.091</v>
+        <v>122.128</v>
       </c>
       <c r="C78">
-        <v>128.888</v>
+        <v>79.851</v>
       </c>
       <c r="D78">
-        <v>21.839</v>
+        <v>37.41</v>
       </c>
       <c r="E78">
-        <v>34.901</v>
+        <v>6.725</v>
       </c>
       <c r="F78">
-        <v>6.86</v>
+        <v>51.347</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2082,19 +2082,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>198.464</v>
+        <v>73.327</v>
       </c>
       <c r="C79">
-        <v>35.056</v>
+        <v>125.644</v>
       </c>
       <c r="D79">
-        <v>12.926</v>
+        <v>51.322</v>
       </c>
       <c r="E79">
-        <v>41.657</v>
+        <v>30.389</v>
       </c>
       <c r="F79">
-        <v>21.216</v>
+        <v>48.247</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2102,19 +2102,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>274.06</v>
+        <v>44.373</v>
       </c>
       <c r="C80">
-        <v>150.575</v>
+        <v>104.491</v>
       </c>
       <c r="D80">
-        <v>22.822</v>
+        <v>1.933</v>
       </c>
       <c r="E80">
-        <v>21.11</v>
+        <v>24.886</v>
       </c>
       <c r="F80">
-        <v>0.999</v>
+        <v>88.996</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2122,19 +2122,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>188.561</v>
+        <v>64.96899999999999</v>
       </c>
       <c r="C81">
-        <v>69.303</v>
+        <v>92.842</v>
       </c>
       <c r="D81">
-        <v>2.27</v>
+        <v>23.757</v>
       </c>
       <c r="E81">
-        <v>89.405</v>
+        <v>6.939</v>
       </c>
       <c r="F81">
-        <v>6.53</v>
+        <v>84.992</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2142,19 +2142,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>14.216</v>
+        <v>135.672</v>
       </c>
       <c r="C82">
-        <v>159.673</v>
+        <v>46.27</v>
       </c>
       <c r="D82">
-        <v>31.277</v>
+        <v>42.824</v>
       </c>
       <c r="E82">
-        <v>85.404</v>
+        <v>58.764</v>
       </c>
       <c r="F82">
-        <v>9.153</v>
+        <v>46.487</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2162,19 +2162,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>171.969</v>
+        <v>327.094</v>
       </c>
       <c r="C83">
-        <v>411.639</v>
+        <v>74.821</v>
       </c>
       <c r="D83">
-        <v>61.212</v>
+        <v>1.91</v>
       </c>
       <c r="E83">
-        <v>143.953</v>
+        <v>55.521</v>
       </c>
       <c r="F83">
-        <v>18.508</v>
+        <v>124.662</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2182,19 +2182,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>56.915</v>
+        <v>107.433</v>
       </c>
       <c r="C84">
-        <v>268.282</v>
+        <v>112.093</v>
       </c>
       <c r="D84">
-        <v>71.10299999999999</v>
+        <v>92.80800000000001</v>
       </c>
       <c r="E84">
-        <v>92.733</v>
+        <v>6.286</v>
       </c>
       <c r="F84">
-        <v>9.765000000000001</v>
+        <v>82.465</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2202,19 +2202,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>816.477</v>
+        <v>89.274</v>
       </c>
       <c r="C85">
-        <v>126.128</v>
+        <v>509.038</v>
       </c>
       <c r="D85">
-        <v>34.847</v>
+        <v>65.265</v>
       </c>
       <c r="E85">
-        <v>82.72199999999999</v>
+        <v>59.501</v>
       </c>
       <c r="F85">
-        <v>37.422</v>
+        <v>84.32599999999999</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2222,19 +2222,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>878.021</v>
+        <v>338.491</v>
       </c>
       <c r="C86">
-        <v>364.833</v>
+        <v>375.594</v>
       </c>
       <c r="D86">
-        <v>55.36</v>
+        <v>50.88</v>
       </c>
       <c r="E86">
-        <v>96.46899999999999</v>
+        <v>64.54900000000001</v>
       </c>
       <c r="F86">
-        <v>3.918</v>
+        <v>135.57</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2242,19 +2242,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>977.654</v>
+        <v>280.006</v>
       </c>
       <c r="C87">
-        <v>292.521</v>
+        <v>136.924</v>
       </c>
       <c r="D87">
-        <v>45.367</v>
+        <v>67.164</v>
       </c>
       <c r="E87">
-        <v>66.351</v>
+        <v>9.593</v>
       </c>
       <c r="F87">
-        <v>13.77</v>
+        <v>91.68000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2262,19 +2262,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>511.765</v>
+        <v>168.076</v>
       </c>
       <c r="C88">
-        <v>79.486</v>
+        <v>215.483</v>
       </c>
       <c r="D88">
-        <v>26.822</v>
+        <v>92.161</v>
       </c>
       <c r="E88">
-        <v>79.205</v>
+        <v>43.431</v>
       </c>
       <c r="F88">
-        <v>42.587</v>
+        <v>86.145</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2282,19 +2282,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>706.749</v>
+        <v>101.667</v>
       </c>
       <c r="C89">
-        <v>341.758</v>
+        <v>179.195</v>
       </c>
       <c r="D89">
-        <v>47.412</v>
+        <v>3.421</v>
       </c>
       <c r="E89">
-        <v>40.115</v>
+        <v>35.562</v>
       </c>
       <c r="F89">
-        <v>2.005</v>
+        <v>158.903</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2302,19 +2302,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>486.222</v>
+        <v>148.906</v>
       </c>
       <c r="C90">
-        <v>157.239</v>
+        <v>159.21</v>
       </c>
       <c r="D90">
-        <v>4.652</v>
+        <v>42.633</v>
       </c>
       <c r="E90">
-        <v>170.043</v>
+        <v>9.9</v>
       </c>
       <c r="F90">
-        <v>13.108</v>
+        <v>151.754</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2322,19 +2322,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>36.536</v>
+        <v>311.071</v>
       </c>
       <c r="C91">
-        <v>362.415</v>
+        <v>79.31699999999999</v>
       </c>
       <c r="D91">
-        <v>65.003</v>
+        <v>76.892</v>
       </c>
       <c r="E91">
-        <v>162.432</v>
+        <v>84.004</v>
       </c>
       <c r="F91">
-        <v>18.373</v>
+        <v>83.003</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2342,19 +2342,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>444.115</v>
+        <v>744.689</v>
       </c>
       <c r="C92">
-        <v>938.244</v>
+        <v>122.585</v>
       </c>
       <c r="D92">
-        <v>142.62</v>
+        <v>3.34</v>
       </c>
       <c r="E92">
-        <v>277.403</v>
+        <v>73.14</v>
       </c>
       <c r="F92">
-        <v>40.081</v>
+        <v>206.93</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2362,19 +2362,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>146.897</v>
+        <v>244.52</v>
       </c>
       <c r="C93">
-        <v>611.455</v>
+        <v>183.676</v>
       </c>
       <c r="D93">
-        <v>165.679</v>
+        <v>164.724</v>
       </c>
       <c r="E93">
-        <v>178.683</v>
+        <v>8.266</v>
       </c>
       <c r="F93">
-        <v>21.148</v>
+        <v>136.886</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2382,19 +2382,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2109.071</v>
+        <v>203.171</v>
       </c>
       <c r="C94">
-        <v>287.408</v>
+        <v>834.3</v>
       </c>
       <c r="D94">
-        <v>81.15300000000001</v>
+        <v>115.823</v>
       </c>
       <c r="E94">
-        <v>159.388</v>
+        <v>78.38500000000001</v>
       </c>
       <c r="F94">
-        <v>81.04900000000001</v>
+        <v>139.976</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2402,19 +2402,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>2268.057</v>
+        <v>770.64</v>
       </c>
       <c r="C95">
-        <v>831.548</v>
+        <v>615.574</v>
       </c>
       <c r="D95">
-        <v>128.977</v>
+        <v>90.283</v>
       </c>
       <c r="E95">
-        <v>185.883</v>
+        <v>85.036</v>
       </c>
       <c r="F95">
-        <v>8.486000000000001</v>
+        <v>225.037</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2422,19 +2422,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>2525.438</v>
+        <v>637.4690000000001</v>
       </c>
       <c r="C96">
-        <v>666.7089999999999</v>
+        <v>224.376</v>
       </c>
       <c r="D96">
-        <v>105.679</v>
+        <v>119.195</v>
       </c>
       <c r="E96">
-        <v>127.835</v>
+        <v>12.623</v>
       </c>
       <c r="F96">
-        <v>29.823</v>
+        <v>152.183</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2442,19 +2442,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1321.909</v>
+        <v>382.604</v>
       </c>
       <c r="C97">
-        <v>181.086</v>
+        <v>353.141</v>
       </c>
       <c r="D97">
-        <v>62.444</v>
+        <v>163.576</v>
       </c>
       <c r="E97">
-        <v>152.61</v>
+        <v>57.21</v>
       </c>
       <c r="F97">
-        <v>92.236</v>
+        <v>142.995</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2462,19 +2462,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1825.611</v>
+        <v>231.39</v>
       </c>
       <c r="C98">
-        <v>778.947</v>
+        <v>293.662</v>
       </c>
       <c r="D98">
-        <v>110.447</v>
+        <v>6.023</v>
       </c>
       <c r="E98">
-        <v>77.26900000000001</v>
+        <v>46.842</v>
       </c>
       <c r="F98">
-        <v>4.342</v>
+        <v>263.769</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2482,19 +2482,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1255.924</v>
+        <v>338.954</v>
       </c>
       <c r="C99">
-        <v>358.327</v>
+        <v>260.904</v>
       </c>
       <c r="D99">
-        <v>10.758</v>
+        <v>75.64100000000001</v>
       </c>
       <c r="E99">
-        <v>327.687</v>
+        <v>13.028</v>
       </c>
       <c r="F99">
-        <v>28.39</v>
+        <v>251.902</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2502,19 +2502,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>94.252</v>
+        <v>708.204</v>
       </c>
       <c r="C100">
-        <v>826.0359999999999</v>
+        <v>129.954</v>
       </c>
       <c r="D100">
-        <v>151.458</v>
+        <v>136.466</v>
       </c>
       <c r="E100">
-        <v>313.019</v>
+        <v>110.671</v>
       </c>
       <c r="F100">
-        <v>39.793</v>
+        <v>137.78</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2522,19 +2522,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1023.087</v>
+        <v>1811.58</v>
       </c>
       <c r="C101">
-        <v>2214.44</v>
+        <v>172.309</v>
       </c>
       <c r="D101">
-        <v>281.335</v>
+        <v>8.044</v>
       </c>
       <c r="E101">
-        <v>573.659</v>
+        <v>141.921</v>
       </c>
       <c r="F101">
-        <v>85.021</v>
+        <v>375.902</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2542,19 +2542,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>338.327</v>
+        <v>594.756</v>
       </c>
       <c r="C102">
-        <v>1443.114</v>
+        <v>258.196</v>
       </c>
       <c r="D102">
-        <v>326.831</v>
+        <v>401.298</v>
       </c>
       <c r="E102">
-        <v>369.49</v>
+        <v>15.996</v>
       </c>
       <c r="F102">
-        <v>44.86</v>
+        <v>248.662</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2562,19 +2562,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>4858.976</v>
+        <v>494.161</v>
       </c>
       <c r="C103">
-        <v>678.261</v>
+        <v>1172.909</v>
       </c>
       <c r="D103">
-        <v>160.056</v>
+        <v>282.138</v>
       </c>
       <c r="E103">
-        <v>329.585</v>
+        <v>152.103</v>
       </c>
       <c r="F103">
-        <v>171.928</v>
+        <v>254.276</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2582,19 +2582,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5225.263</v>
+        <v>1874.715</v>
       </c>
       <c r="C104">
-        <v>1962.604</v>
+        <v>865.402</v>
       </c>
       <c r="D104">
-        <v>254.416</v>
+        <v>219.903</v>
       </c>
       <c r="E104">
-        <v>384.38</v>
+        <v>165.012</v>
       </c>
       <c r="F104">
-        <v>18.001</v>
+        <v>408.795</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2602,19 +2602,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5818.242</v>
+        <v>1550.733</v>
       </c>
       <c r="C105">
-        <v>1573.531</v>
+        <v>315.417</v>
       </c>
       <c r="D105">
-        <v>208.447</v>
+        <v>290.355</v>
       </c>
       <c r="E105">
-        <v>264.328</v>
+        <v>24.453</v>
       </c>
       <c r="F105">
-        <v>63.263</v>
+        <v>276.451</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2622,19 +2622,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>3045.435</v>
+        <v>930.6900000000001</v>
       </c>
       <c r="C106">
-        <v>427.307</v>
+        <v>496.448</v>
       </c>
       <c r="D106">
-        <v>123.142</v>
+        <v>398.501</v>
       </c>
       <c r="E106">
-        <v>315.567</v>
+        <v>111</v>
       </c>
       <c r="F106">
-        <v>195.659</v>
+        <v>259.76</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2642,19 +2642,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>4205.913</v>
+        <v>562.813</v>
       </c>
       <c r="C107">
-        <v>1838.448</v>
+        <v>412.826</v>
       </c>
       <c r="D107">
-        <v>217.855</v>
+        <v>14.582</v>
       </c>
       <c r="E107">
-        <v>159.75</v>
+        <v>90.876</v>
       </c>
       <c r="F107">
-        <v>9.210000000000001</v>
+        <v>479.154</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2662,19 +2662,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>2893.412</v>
+        <v>824.498</v>
       </c>
       <c r="C108">
-        <v>845.652</v>
+        <v>366.771</v>
       </c>
       <c r="D108">
-        <v>21.162</v>
+        <v>184.224</v>
       </c>
       <c r="E108">
-        <v>677.653</v>
+        <v>25.24</v>
       </c>
       <c r="F108">
-        <v>60.223</v>
+        <v>457.597</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2682,19 +2682,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>217.039</v>
+        <v>1722.819</v>
       </c>
       <c r="C109">
-        <v>1949.593</v>
+        <v>182.669</v>
       </c>
       <c r="D109">
-        <v>298.773</v>
+        <v>332.44</v>
       </c>
       <c r="E109">
-        <v>647.318</v>
+        <v>214.772</v>
       </c>
       <c r="F109">
-        <v>84.41200000000001</v>
+        <v>250.287</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2702,19 +2702,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>2308.955</v>
+        <v>4458.096</v>
       </c>
       <c r="C110">
-        <v>5259.907</v>
+        <v>224.789</v>
       </c>
       <c r="D110">
-        <v>533.12</v>
+        <v>20.726</v>
       </c>
       <c r="E110">
-        <v>1206.623</v>
+        <v>310.011</v>
       </c>
       <c r="F110">
-        <v>179.528</v>
+        <v>702.377</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2722,19 +2722,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>763.484</v>
+        <v>1463.547</v>
       </c>
       <c r="C111">
-        <v>3427.755</v>
+        <v>336.846</v>
       </c>
       <c r="D111">
-        <v>619.343</v>
+        <v>1039.104</v>
       </c>
       <c r="E111">
-        <v>777.158</v>
+        <v>34.888</v>
       </c>
       <c r="F111">
-        <v>94.72499999999999</v>
+        <v>464.627</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2742,19 +2742,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>10966.376</v>
+        <v>1215.987</v>
       </c>
       <c r="C112">
-        <v>1610.978</v>
+        <v>1530.283</v>
       </c>
       <c r="D112">
-        <v>303.275</v>
+        <v>730.525</v>
       </c>
       <c r="E112">
-        <v>693.218</v>
+        <v>332.257</v>
       </c>
       <c r="F112">
-        <v>363.041</v>
+        <v>475.118</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2762,19 +2762,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>11793.068</v>
+        <v>4613.469</v>
       </c>
       <c r="C113">
-        <v>4661.714</v>
+        <v>1129.075</v>
       </c>
       <c r="D113">
-        <v>482.104</v>
+        <v>569.36</v>
       </c>
       <c r="E113">
-        <v>808.478</v>
+        <v>360.461</v>
       </c>
       <c r="F113">
-        <v>38.011</v>
+        <v>763.838</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2782,19 +2782,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>13131.394</v>
+        <v>3816.164</v>
       </c>
       <c r="C114">
-        <v>3737.538</v>
+        <v>411.503</v>
       </c>
       <c r="D114">
-        <v>394.984</v>
+        <v>751.804</v>
       </c>
       <c r="E114">
-        <v>555.952</v>
+        <v>53.364</v>
       </c>
       <c r="F114">
-        <v>133.585</v>
+        <v>516.552</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2802,19 +2802,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6873.299</v>
+        <v>2290.265</v>
       </c>
       <c r="C115">
-        <v>1014.88</v>
+        <v>647.697</v>
       </c>
       <c r="D115">
-        <v>233.317</v>
+        <v>1031.861</v>
       </c>
       <c r="E115">
-        <v>663.732</v>
+        <v>242.454</v>
       </c>
       <c r="F115">
-        <v>413.151</v>
+        <v>485.364</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2822,19 +2822,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>9492.444</v>
+        <v>1384.937</v>
       </c>
       <c r="C116">
-        <v>4366.803</v>
+        <v>538.5940000000001</v>
       </c>
       <c r="D116">
-        <v>412.814</v>
+        <v>37.657</v>
       </c>
       <c r="E116">
-        <v>335.974</v>
+        <v>198.488</v>
       </c>
       <c r="F116">
-        <v>19.447</v>
+        <v>895.3049999999999</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2842,19 +2842,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6530.19</v>
+        <v>2028.932</v>
       </c>
       <c r="C117">
-        <v>2008.587</v>
+        <v>478.505</v>
       </c>
       <c r="D117">
-        <v>40.047</v>
+        <v>476.965</v>
       </c>
       <c r="E117">
-        <v>1425.371</v>
+        <v>55.084</v>
       </c>
       <c r="F117">
-        <v>127.166</v>
+        <v>855.025</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2862,19 +2862,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>489.743</v>
+        <v>4239.66</v>
       </c>
       <c r="C118">
-        <v>4630.808</v>
+        <v>238.305</v>
       </c>
       <c r="D118">
-        <v>566.168</v>
+        <v>860.788</v>
       </c>
       <c r="E118">
-        <v>1361.563</v>
+        <v>469.178</v>
       </c>
       <c r="F118">
-        <v>178.243</v>
+        <v>467.664</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2882,19 +2882,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>3878.814</v>
+        <v>8272.611000000001</v>
       </c>
       <c r="C119">
-        <v>8894.474</v>
+        <v>500.851</v>
       </c>
       <c r="D119">
-        <v>833.946</v>
+        <v>44.275</v>
       </c>
       <c r="E119">
-        <v>1986.789</v>
+        <v>488.95</v>
       </c>
       <c r="F119">
-        <v>355.9</v>
+        <v>1351.243</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2902,19 +2902,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1282.539</v>
+        <v>2715.766</v>
       </c>
       <c r="C120">
-        <v>5796.295</v>
+        <v>750.575</v>
       </c>
       <c r="D120">
-        <v>968.828</v>
+        <v>2223.444</v>
       </c>
       <c r="E120">
-        <v>1279.633</v>
+        <v>54.999</v>
       </c>
       <c r="F120">
-        <v>187.785</v>
+        <v>893.856</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2922,19 +2922,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>18422.63</v>
+        <v>2256.38</v>
       </c>
       <c r="C121">
-        <v>2724.115</v>
+        <v>3410.206</v>
       </c>
       <c r="D121">
-        <v>474.389</v>
+        <v>1563.133</v>
       </c>
       <c r="E121">
-        <v>1141.417</v>
+        <v>524.038</v>
       </c>
       <c r="F121">
-        <v>719.701</v>
+        <v>914.039</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2942,19 +2942,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>19811.41</v>
+        <v>8560.93</v>
       </c>
       <c r="C122">
-        <v>7882.927</v>
+        <v>2516.095</v>
       </c>
       <c r="D122">
-        <v>754.139</v>
+        <v>1218.266</v>
       </c>
       <c r="E122">
-        <v>1331.204</v>
+        <v>568.524</v>
       </c>
       <c r="F122">
-        <v>75.354</v>
+        <v>1469.483</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2962,19 +2962,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>22059.697</v>
+        <v>7081.408</v>
       </c>
       <c r="C123">
-        <v>6320.14</v>
+        <v>916.952</v>
       </c>
       <c r="D123">
-        <v>617.853</v>
+        <v>1608.667</v>
       </c>
       <c r="E123">
-        <v>915.396</v>
+        <v>84.14100000000001</v>
       </c>
       <c r="F123">
-        <v>264.822</v>
+        <v>993.75</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2982,19 +2982,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>11546.569</v>
+        <v>4249.868</v>
       </c>
       <c r="C124">
-        <v>1716.11</v>
+        <v>1443.322</v>
       </c>
       <c r="D124">
-        <v>364.951</v>
+        <v>2207.945</v>
       </c>
       <c r="E124">
-        <v>1092.866</v>
+        <v>382.392</v>
       </c>
       <c r="F124">
-        <v>819.04</v>
+        <v>933.75</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3002,19 +3002,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>15946.535</v>
+        <v>2569.893</v>
       </c>
       <c r="C125">
-        <v>7384.231</v>
+        <v>1200.18</v>
       </c>
       <c r="D125">
-        <v>645.746</v>
+        <v>80.505</v>
       </c>
       <c r="E125">
-        <v>553.181</v>
+        <v>313.045</v>
       </c>
       <c r="F125">
-        <v>38.552</v>
+        <v>1722.401</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3022,19 +3022,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>10970.171</v>
+        <v>3764.924</v>
       </c>
       <c r="C126">
-        <v>3396.474</v>
+        <v>1066.269</v>
       </c>
       <c r="D126">
-        <v>62.61</v>
+        <v>1020.555</v>
       </c>
       <c r="E126">
-        <v>2346.978</v>
+        <v>86.854</v>
       </c>
       <c r="F126">
-        <v>252.097</v>
+        <v>1644.909</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3042,19 +3042,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>822.675</v>
+        <v>7867.27</v>
       </c>
       <c r="C127">
-        <v>7830.664</v>
+        <v>530.972</v>
       </c>
       <c r="D127">
-        <v>885.644</v>
+        <v>1841.876</v>
       </c>
       <c r="E127">
-        <v>2241.912</v>
+        <v>740.003</v>
       </c>
       <c r="F127">
-        <v>353.353</v>
+        <v>899.699</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3062,19 +3062,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5925.757</v>
+        <v>14254.528</v>
       </c>
       <c r="C128">
-        <v>13525.213</v>
+        <v>1275.177</v>
       </c>
       <c r="D128">
-        <v>1211.489</v>
+        <v>91.078</v>
       </c>
       <c r="E128">
-        <v>3009.337</v>
+        <v>685</v>
       </c>
       <c r="F128">
-        <v>694.562</v>
+        <v>2620.33</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3082,19 +3082,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1959.336</v>
+        <v>4679.494</v>
       </c>
       <c r="C129">
-        <v>8814.011</v>
+        <v>1911.044</v>
       </c>
       <c r="D129">
-        <v>1407.439</v>
+        <v>4577.281</v>
       </c>
       <c r="E129">
-        <v>1938.217</v>
+        <v>77.033</v>
       </c>
       <c r="F129">
-        <v>366.475</v>
+        <v>1733.365</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3102,19 +3102,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>28144.857</v>
+        <v>3887.923</v>
       </c>
       <c r="C130">
-        <v>4142.344</v>
+        <v>8683.200999999999</v>
       </c>
       <c r="D130">
-        <v>689.141</v>
+        <v>3217.914</v>
       </c>
       <c r="E130">
-        <v>1728.863</v>
+        <v>734.159</v>
       </c>
       <c r="F130">
-        <v>1404.545</v>
+        <v>1772.504</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3122,19 +3122,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>30266.545</v>
+        <v>14751.333</v>
       </c>
       <c r="C131">
-        <v>11987.019</v>
+        <v>6406.547</v>
       </c>
       <c r="D131">
-        <v>1095.549</v>
+        <v>2507.945</v>
       </c>
       <c r="E131">
-        <v>2016.331</v>
+        <v>796.484</v>
       </c>
       <c r="F131">
-        <v>147.058</v>
+        <v>2849.621</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3142,19 +3142,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>33701.333</v>
+        <v>12201.959</v>
       </c>
       <c r="C132">
-        <v>9610.588</v>
+        <v>2334.686</v>
       </c>
       <c r="D132">
-        <v>897.558</v>
+        <v>3311.654</v>
       </c>
       <c r="E132">
-        <v>1386.512</v>
+        <v>117.861</v>
       </c>
       <c r="F132">
-        <v>516.818</v>
+        <v>1927.079</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3162,19 +3162,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>17640.057</v>
+        <v>7322.915</v>
       </c>
       <c r="C133">
-        <v>2609.535</v>
+        <v>3674.97</v>
       </c>
       <c r="D133">
-        <v>530.154</v>
+        <v>4545.373</v>
       </c>
       <c r="E133">
-        <v>1655.323</v>
+        <v>535.712</v>
       </c>
       <c r="F133">
-        <v>1598.411</v>
+        <v>1810.727</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3182,19 +3182,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>24362.04</v>
+        <v>4428.139</v>
       </c>
       <c r="C134">
-        <v>11228.684</v>
+        <v>3055.863</v>
       </c>
       <c r="D134">
-        <v>938.081</v>
+        <v>165.664</v>
       </c>
       <c r="E134">
-        <v>837.87</v>
+        <v>438.557</v>
       </c>
       <c r="F134">
-        <v>75.23699999999999</v>
+        <v>3340.079</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3202,19 +3202,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>16759.473</v>
+        <v>6487.304</v>
       </c>
       <c r="C135">
-        <v>5164.757</v>
+        <v>2714.888</v>
       </c>
       <c r="D135">
-        <v>90.92700000000001</v>
+        <v>2100.922</v>
       </c>
       <c r="E135">
-        <v>3554.91</v>
+        <v>121.662</v>
       </c>
       <c r="F135">
-        <v>491.984</v>
+        <v>3189.806</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3222,19 +3222,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1256.786</v>
+        <v>13556.083</v>
       </c>
       <c r="C136">
-        <v>11907.545</v>
+        <v>1351.874</v>
       </c>
       <c r="D136">
-        <v>1286.593</v>
+        <v>3791.756</v>
       </c>
       <c r="E136">
-        <v>3395.768</v>
+        <v>1036.726</v>
       </c>
       <c r="F136">
-        <v>689.592</v>
+        <v>1744.696</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3242,19 +3242,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>13051.003</v>
+        <v>21105.966</v>
       </c>
       <c r="C137">
-        <v>27948.146</v>
+        <v>2979.047</v>
       </c>
       <c r="D137">
-        <v>2261.372</v>
+        <v>188.211</v>
       </c>
       <c r="E137">
-        <v>5322.869</v>
+        <v>1412.57</v>
       </c>
       <c r="F137">
-        <v>1181.166</v>
+        <v>5362.042</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3262,19 +3262,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>4315.213</v>
+        <v>6928.666</v>
       </c>
       <c r="C138">
-        <v>18213.011</v>
+        <v>4464.604</v>
       </c>
       <c r="D138">
-        <v>2627.142</v>
+        <v>9462.317999999999</v>
       </c>
       <c r="E138">
-        <v>3428.274</v>
+        <v>158.805</v>
       </c>
       <c r="F138">
-        <v>623.224</v>
+        <v>3547.025</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3282,19 +3282,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>61987.155</v>
+        <v>5756.624</v>
       </c>
       <c r="C139">
-        <v>8559.57</v>
+        <v>20286.189</v>
       </c>
       <c r="D139">
-        <v>1286.33</v>
+        <v>6652.165</v>
       </c>
       <c r="E139">
-        <v>3057.969</v>
+        <v>1513.948</v>
       </c>
       <c r="F139">
-        <v>2388.557</v>
+        <v>3627.116</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3302,19 +3302,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>66660.038</v>
+        <v>21841.562</v>
       </c>
       <c r="C140">
-        <v>24769.653</v>
+        <v>14967.311</v>
       </c>
       <c r="D140">
-        <v>2044.952</v>
+        <v>5184.481</v>
       </c>
       <c r="E140">
-        <v>3566.442</v>
+        <v>1642.476</v>
       </c>
       <c r="F140">
-        <v>250.085</v>
+        <v>5831.246</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3322,19 +3322,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>74224.94</v>
+        <v>18066.824</v>
       </c>
       <c r="C141">
-        <v>19859.042</v>
+        <v>5454.346</v>
       </c>
       <c r="D141">
-        <v>1675.371</v>
+        <v>6845.949</v>
       </c>
       <c r="E141">
-        <v>2452.42</v>
+        <v>243.002</v>
       </c>
       <c r="F141">
-        <v>878.896</v>
+        <v>3943.426</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3342,19 +3342,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>38851.003</v>
+        <v>10842.655</v>
       </c>
       <c r="C142">
-        <v>5392.203</v>
+        <v>8585.611000000001</v>
       </c>
       <c r="D142">
-        <v>989.556</v>
+        <v>9396.356</v>
       </c>
       <c r="E142">
-        <v>2927.892</v>
+        <v>1104.705</v>
       </c>
       <c r="F142">
-        <v>2718.244</v>
+        <v>3705.333</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3362,19 +3362,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>53655.742</v>
+        <v>6556.496</v>
       </c>
       <c r="C143">
-        <v>23202.644</v>
+        <v>7139.21</v>
       </c>
       <c r="D143">
-        <v>1751.014</v>
+        <v>342.399</v>
       </c>
       <c r="E143">
-        <v>1481.983</v>
+        <v>904.35</v>
       </c>
       <c r="F143">
-        <v>127.947</v>
+        <v>6834.881</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3382,19 +3382,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>36911.572</v>
+        <v>9605.404</v>
       </c>
       <c r="C144">
-        <v>10672.264</v>
+        <v>6342.6</v>
       </c>
       <c r="D144">
-        <v>169.672</v>
+        <v>4343.062</v>
       </c>
       <c r="E144">
-        <v>6287.877</v>
+        <v>250.84</v>
       </c>
       <c r="F144">
-        <v>836.664</v>
+        <v>6527.374</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3402,19 +3402,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>2767.891</v>
+        <v>20071.812</v>
       </c>
       <c r="C145">
-        <v>24605.428</v>
+        <v>3158.232</v>
       </c>
       <c r="D145">
-        <v>2401.564</v>
+        <v>7838.441</v>
       </c>
       <c r="E145">
-        <v>6006.387</v>
+        <v>2137.909</v>
       </c>
       <c r="F145">
-        <v>1172.714</v>
+        <v>3570.212</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3422,19 +3422,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>31360.887</v>
+        <v>29244.863</v>
       </c>
       <c r="C146">
-        <v>62605.477</v>
+        <v>6854.582</v>
       </c>
       <c r="D146">
-        <v>4566.28</v>
+        <v>389.388</v>
       </c>
       <c r="E146">
-        <v>9919.889999999999</v>
+        <v>3236.255</v>
       </c>
       <c r="F146">
-        <v>1919.358</v>
+        <v>11117.222</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3442,19 +3442,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>10369.156</v>
+        <v>9600.482</v>
       </c>
       <c r="C147">
-        <v>40798.171</v>
+        <v>10272.8</v>
       </c>
       <c r="D147">
-        <v>5304.872</v>
+        <v>19579.98</v>
       </c>
       <c r="E147">
-        <v>6389.039</v>
+        <v>363.77</v>
       </c>
       <c r="F147">
-        <v>1012.72</v>
+        <v>7354.113</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3462,19 +3462,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>148952.374</v>
+        <v>7976.474</v>
       </c>
       <c r="C148">
-        <v>19173.865</v>
+        <v>46677.748</v>
       </c>
       <c r="D148">
-        <v>2597.396</v>
+        <v>13765.027</v>
       </c>
       <c r="E148">
-        <v>5698.922</v>
+        <v>3468.521</v>
       </c>
       <c r="F148">
-        <v>3881.332</v>
+        <v>7520.167</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3482,19 +3482,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>160181.112</v>
+        <v>30264.121</v>
       </c>
       <c r="C149">
-        <v>55485.456</v>
+        <v>34439.184</v>
       </c>
       <c r="D149">
-        <v>4129.267</v>
+        <v>10727.998</v>
       </c>
       <c r="E149">
-        <v>6646.535</v>
+        <v>3762.99</v>
       </c>
       <c r="F149">
-        <v>406.38</v>
+        <v>12090.031</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3502,19 +3502,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>178359.249</v>
+        <v>25033.76</v>
       </c>
       <c r="C150">
-        <v>44485.382</v>
+        <v>12550.164</v>
       </c>
       <c r="D150">
-        <v>3382.978</v>
+        <v>14166.017</v>
       </c>
       <c r="E150">
-        <v>4570.394</v>
+        <v>556.673</v>
       </c>
       <c r="F150">
-        <v>1428.179</v>
+        <v>8175.978</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3522,19 +3522,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>93357.18700000001</v>
+        <v>15023.792</v>
       </c>
       <c r="C151">
-        <v>12078.766</v>
+        <v>19755.102</v>
       </c>
       <c r="D151">
-        <v>1998.125</v>
+        <v>19443.487</v>
       </c>
       <c r="E151">
-        <v>5456.505</v>
+        <v>2530.91</v>
       </c>
       <c r="F151">
-        <v>4417.063</v>
+        <v>7682.336</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3542,19 +3542,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>128932.344</v>
+        <v>9084.794</v>
       </c>
       <c r="C152">
-        <v>51975.258</v>
+        <v>16426.981</v>
       </c>
       <c r="D152">
-        <v>3535.723</v>
+        <v>708.444</v>
       </c>
       <c r="E152">
-        <v>2761.845</v>
+        <v>2071.879</v>
       </c>
       <c r="F152">
-        <v>207.91</v>
+        <v>14170.886</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3562,19 +3562,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>88696.817</v>
+        <v>13309.429</v>
       </c>
       <c r="C153">
-        <v>23906.43</v>
+        <v>14594.007</v>
       </c>
       <c r="D153">
-        <v>342.548</v>
+        <v>8986.879000000001</v>
       </c>
       <c r="E153">
-        <v>11718.321</v>
+        <v>574.63</v>
       </c>
       <c r="F153">
-        <v>1359.553</v>
+        <v>13533.326</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3582,19 +3582,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6651.007</v>
+        <v>27811.916</v>
       </c>
       <c r="C154">
-        <v>55117.581</v>
+        <v>7266.881</v>
       </c>
       <c r="D154">
-        <v>4849.366</v>
+        <v>16219.747</v>
       </c>
       <c r="E154">
-        <v>11193.724</v>
+        <v>4898.07</v>
       </c>
       <c r="F154">
-        <v>1905.624</v>
+        <v>7402.187</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3602,19 +3602,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>56350.622</v>
+        <v>56802.294</v>
       </c>
       <c r="C155">
-        <v>139020.606</v>
+        <v>11744.583</v>
       </c>
       <c r="D155">
-        <v>8460.23</v>
+        <v>691.399</v>
       </c>
       <c r="E155">
-        <v>21649.275</v>
+        <v>6788.073</v>
       </c>
       <c r="F155">
-        <v>3358.116</v>
+        <v>17739.545</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3622,19 +3622,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>18631.712</v>
+        <v>18646.963</v>
       </c>
       <c r="C156">
-        <v>90595.656</v>
+        <v>17601.358</v>
       </c>
       <c r="D156">
-        <v>9828.674000000001</v>
+        <v>34768.84</v>
       </c>
       <c r="E156">
-        <v>13943.486</v>
+        <v>762.961</v>
       </c>
       <c r="F156">
-        <v>1771.859</v>
+        <v>11734.822</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3642,19 +3642,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>267644.431</v>
+        <v>15492.648</v>
       </c>
       <c r="C157">
-        <v>42577.073</v>
+        <v>79977.601</v>
       </c>
       <c r="D157">
-        <v>4812.333</v>
+        <v>24443.014</v>
       </c>
       <c r="E157">
-        <v>12437.363</v>
+        <v>7275.257</v>
       </c>
       <c r="F157">
-        <v>6790.793</v>
+        <v>11999.791</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3662,19 +3662,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>287820.745</v>
+        <v>58782.001</v>
       </c>
       <c r="C158">
-        <v>123210.003</v>
+        <v>59008.044</v>
       </c>
       <c r="D158">
-        <v>7650.544</v>
+        <v>19050.049</v>
       </c>
       <c r="E158">
-        <v>14505.45</v>
+        <v>7892.913</v>
       </c>
       <c r="F158">
-        <v>711.004</v>
+        <v>19291.838</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3682,19 +3682,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>320484.06</v>
+        <v>48623.058</v>
       </c>
       <c r="C159">
-        <v>98783.416</v>
+        <v>21503.394</v>
       </c>
       <c r="D159">
-        <v>6267.838</v>
+        <v>25155.066</v>
       </c>
       <c r="E159">
-        <v>9974.445</v>
+        <v>1167.58</v>
       </c>
       <c r="F159">
-        <v>2498.747</v>
+        <v>13046.256</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3702,19 +3702,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>167748.434</v>
+        <v>29180.672</v>
       </c>
       <c r="C160">
-        <v>26821.811</v>
+        <v>33848.336</v>
       </c>
       <c r="D160">
-        <v>3702.019</v>
+        <v>34526.464</v>
       </c>
       <c r="E160">
-        <v>11908.308</v>
+        <v>5308.594</v>
       </c>
       <c r="F160">
-        <v>7728.11</v>
+        <v>12258.561</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3722,19 +3722,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>231671.518</v>
+        <v>17645.34</v>
       </c>
       <c r="C161">
-        <v>115415.314</v>
+        <v>28145.933</v>
       </c>
       <c r="D161">
-        <v>6550.841</v>
+        <v>1257.959</v>
       </c>
       <c r="E161">
-        <v>6027.437</v>
+        <v>4345.764</v>
       </c>
       <c r="F161">
-        <v>363.76</v>
+        <v>22612.22</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3742,19 +3742,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>159374.466</v>
+        <v>25850.86</v>
       </c>
       <c r="C162">
-        <v>53086.129</v>
+        <v>25005.315</v>
       </c>
       <c r="D162">
-        <v>634.6079999999999</v>
+        <v>15958.281</v>
       </c>
       <c r="E162">
-        <v>25574.201</v>
+        <v>1205.245</v>
       </c>
       <c r="F162">
-        <v>2378.679</v>
+        <v>21594.877</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3762,19 +3762,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>11950.77</v>
+        <v>54019.077</v>
       </c>
       <c r="C163">
-        <v>122393.105</v>
+        <v>12451.016</v>
       </c>
       <c r="D163">
-        <v>8984.724</v>
+        <v>28801.95</v>
       </c>
       <c r="E163">
-        <v>24429.312</v>
+        <v>10273.773</v>
       </c>
       <c r="F163">
-        <v>3334.087</v>
+        <v>11811.533</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3782,19 +3782,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>93343.022</v>
+        <v>122076.393</v>
       </c>
       <c r="C164">
-        <v>308162.424</v>
+        <v>18372.77</v>
       </c>
       <c r="D164">
-        <v>15298.317</v>
+        <v>1172.465</v>
       </c>
       <c r="E164">
-        <v>48944.452</v>
+        <v>13964.695</v>
       </c>
       <c r="F164">
-        <v>6022.586</v>
+        <v>25745.553</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3802,19 +3802,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>30862.805</v>
+        <v>40074.972</v>
       </c>
       <c r="C165">
-        <v>200820.388</v>
+        <v>27534.905</v>
       </c>
       <c r="D165">
-        <v>17772.832</v>
+        <v>58962.812</v>
       </c>
       <c r="E165">
-        <v>31523.263</v>
+        <v>1569.546</v>
       </c>
       <c r="F165">
-        <v>3177.727</v>
+        <v>17030.847</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3822,19 +3822,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>443344.734</v>
+        <v>33295.885</v>
       </c>
       <c r="C166">
-        <v>94379.133</v>
+        <v>125114.127</v>
       </c>
       <c r="D166">
-        <v>8701.939</v>
+        <v>41451.725</v>
       </c>
       <c r="E166">
-        <v>28118.231</v>
+        <v>14966.953</v>
       </c>
       <c r="F166">
-        <v>12178.893</v>
+        <v>17415.399</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3842,19 +3842,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>476766.179</v>
+        <v>126331.075</v>
       </c>
       <c r="C167">
-        <v>273115.567</v>
+        <v>92310.08199999999</v>
       </c>
       <c r="D167">
-        <v>13834.187</v>
+        <v>32306.046</v>
       </c>
       <c r="E167">
-        <v>32793.747</v>
+        <v>16237.624</v>
       </c>
       <c r="F167">
-        <v>1275.144</v>
+        <v>27998.408</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3862,19 +3862,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>530871.958</v>
+        <v>104498.011</v>
       </c>
       <c r="C168">
-        <v>218969.933</v>
+        <v>33639.114</v>
       </c>
       <c r="D168">
-        <v>11333.883</v>
+        <v>42659.26</v>
       </c>
       <c r="E168">
-        <v>22550.085</v>
+        <v>2401.947</v>
       </c>
       <c r="F168">
-        <v>4481.358</v>
+        <v>18934.142</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3882,19 +3882,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>277870.08</v>
+        <v>62713.463</v>
       </c>
       <c r="C169">
-        <v>59454.949</v>
+        <v>52951.111</v>
       </c>
       <c r="D169">
-        <v>6694.193</v>
+        <v>58551.778</v>
       </c>
       <c r="E169">
-        <v>26922.148</v>
+        <v>10921.04</v>
       </c>
       <c r="F169">
-        <v>13859.917</v>
+        <v>17790.954</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3902,19 +3902,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>383756.708</v>
+        <v>37922.337</v>
       </c>
       <c r="C170">
-        <v>255837.329</v>
+        <v>44030.471</v>
       </c>
       <c r="D170">
-        <v>11845.629</v>
+        <v>2133.268</v>
       </c>
       <c r="E170">
-        <v>13626.72</v>
+        <v>8940.26</v>
       </c>
       <c r="F170">
-        <v>652.3819999999999</v>
+        <v>32817.307</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3922,19 +3922,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>263998.859</v>
+        <v>55557.207</v>
       </c>
       <c r="C171">
-        <v>117674.221</v>
+        <v>39117.397</v>
       </c>
       <c r="D171">
-        <v>1147.489</v>
+        <v>27062.861</v>
       </c>
       <c r="E171">
-        <v>57817.895</v>
+        <v>2479.434</v>
       </c>
       <c r="F171">
-        <v>4266.023</v>
+        <v>31340.828</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3942,19 +3942,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>19796.029</v>
+        <v>116094.85</v>
       </c>
       <c r="C172">
-        <v>271304.775</v>
+        <v>19477.889</v>
       </c>
       <c r="D172">
-        <v>16246.743</v>
+        <v>48843.841</v>
       </c>
       <c r="E172">
-        <v>55229.539</v>
+        <v>21135.644</v>
       </c>
       <c r="F172">
-        <v>5979.492</v>
+        <v>17142.179</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3962,19 +3962,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>142563.347</v>
+        <v>196262.063</v>
       </c>
       <c r="C173">
-        <v>509353.125</v>
+        <v>41940.574</v>
       </c>
       <c r="D173">
-        <v>32309.741</v>
+        <v>1843.46</v>
       </c>
       <c r="E173">
-        <v>94740.613</v>
+        <v>22956.721</v>
       </c>
       <c r="F173">
-        <v>14263.971</v>
+        <v>53833.092</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3982,19 +3982,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>47136.915</v>
+        <v>64428.448</v>
       </c>
       <c r="C174">
-        <v>331930.432</v>
+        <v>62855.558</v>
       </c>
       <c r="D174">
-        <v>37535.879</v>
+        <v>92708.749</v>
       </c>
       <c r="E174">
-        <v>61018.814</v>
+        <v>2580.165</v>
       </c>
       <c r="F174">
-        <v>7526.17</v>
+        <v>35610.933</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4002,19 +4002,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>677123.186</v>
+        <v>53529.716</v>
       </c>
       <c r="C175">
-        <v>155996.614</v>
+        <v>285605.802</v>
       </c>
       <c r="D175">
-        <v>18378.291</v>
+        <v>65175.605</v>
       </c>
       <c r="E175">
-        <v>54427.771</v>
+        <v>24604.346</v>
       </c>
       <c r="F175">
-        <v>28844.648</v>
+        <v>36415.018</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4022,19 +4022,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>728167.972</v>
+        <v>203102.311</v>
       </c>
       <c r="C176">
-        <v>451425.141</v>
+        <v>210721.939</v>
       </c>
       <c r="D176">
-        <v>29217.52</v>
+        <v>50795.612</v>
       </c>
       <c r="E176">
-        <v>63478.061</v>
+        <v>26693.219</v>
       </c>
       <c r="F176">
-        <v>3020.067</v>
+        <v>58543.736</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4042,19 +4042,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>810804.072</v>
+        <v>168001.313</v>
       </c>
       <c r="C177">
-        <v>361929.314</v>
+        <v>76790.02099999999</v>
       </c>
       <c r="D177">
-        <v>23936.916</v>
+        <v>67074.243</v>
       </c>
       <c r="E177">
-        <v>43649.638</v>
+        <v>3948.56</v>
       </c>
       <c r="F177">
-        <v>10613.707</v>
+        <v>39590.659</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4062,19 +4062,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>424392.696</v>
+        <v>100824.331</v>
       </c>
       <c r="C178">
-        <v>98271.393</v>
+        <v>120874.734</v>
       </c>
       <c r="D178">
-        <v>14137.961</v>
+        <v>92062.469</v>
       </c>
       <c r="E178">
-        <v>52112.541</v>
+        <v>17953.215</v>
       </c>
       <c r="F178">
-        <v>32826.007</v>
+        <v>37200.291</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4082,19 +4082,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>586114.0159999999</v>
+        <v>60967.659</v>
       </c>
       <c r="C179">
-        <v>422866.418</v>
+        <v>100511.027</v>
       </c>
       <c r="D179">
-        <v>25017.716</v>
+        <v>3354.156</v>
       </c>
       <c r="E179">
-        <v>26376.884</v>
+        <v>14696.983</v>
       </c>
       <c r="F179">
-        <v>1545.11</v>
+        <v>68619.893</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4102,19 +4102,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>403207.092</v>
+        <v>89319.224</v>
       </c>
       <c r="C180">
-        <v>194500.423</v>
+        <v>89295.643</v>
       </c>
       <c r="D180">
-        <v>2423.406</v>
+        <v>42551.614</v>
       </c>
       <c r="E180">
-        <v>111916.734</v>
+        <v>4075.943</v>
       </c>
       <c r="F180">
-        <v>10103.704</v>
+        <v>65532.625</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4122,19 +4122,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>30234.557</v>
+        <v>186645.541</v>
       </c>
       <c r="C181">
-        <v>448432.133</v>
+        <v>44463.299</v>
       </c>
       <c r="D181">
-        <v>34312.802</v>
+        <v>76798.424</v>
       </c>
       <c r="E181">
-        <v>106906.512</v>
+        <v>34745.142</v>
       </c>
       <c r="F181">
-        <v>14161.907</v>
+        <v>35843.725</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4142,19 +4142,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>210459.46</v>
+        <v>284774.858</v>
       </c>
       <c r="C182">
-        <v>763516.542</v>
+        <v>104177.511</v>
       </c>
       <c r="D182">
-        <v>70807.099</v>
+        <v>2813.085</v>
       </c>
       <c r="E182">
-        <v>176348.706</v>
+        <v>34933.114</v>
       </c>
       <c r="F182">
-        <v>35713.793</v>
+        <v>123910.443</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4162,19 +4162,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>69585.95</v>
+        <v>93485.19500000001</v>
       </c>
       <c r="C183">
-        <v>497561.232</v>
+        <v>156128.959</v>
       </c>
       <c r="D183">
-        <v>82260.242</v>
+        <v>141473.493</v>
       </c>
       <c r="E183">
-        <v>113579.457</v>
+        <v>3926.199</v>
       </c>
       <c r="F183">
-        <v>18843.846</v>
+        <v>81967.54700000001</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4182,19 +4182,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>999604.764</v>
+        <v>77671.21000000001</v>
       </c>
       <c r="C184">
-        <v>233837.734</v>
+        <v>709425.95</v>
       </c>
       <c r="D184">
-        <v>40276.163</v>
+        <v>99457.92200000001</v>
       </c>
       <c r="E184">
-        <v>101310.989</v>
+        <v>37440.297</v>
       </c>
       <c r="F184">
-        <v>72220.54700000001</v>
+        <v>83818.351</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4202,19 +4202,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1074959.758</v>
+        <v>294700.01</v>
       </c>
       <c r="C185">
-        <v>676682.921</v>
+        <v>523419.347</v>
       </c>
       <c r="D185">
-        <v>64030.46</v>
+        <v>77514.056</v>
       </c>
       <c r="E185">
-        <v>118157.063</v>
+        <v>40618.926</v>
       </c>
       <c r="F185">
-        <v>7561.572</v>
+        <v>134753.178</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4222,19 +4222,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1196951.509</v>
+        <v>243768.705</v>
       </c>
       <c r="C186">
-        <v>542529.335</v>
+        <v>190741.251</v>
       </c>
       <c r="D186">
-        <v>52457.954</v>
+        <v>102355.243</v>
       </c>
       <c r="E186">
-        <v>81248.735</v>
+        <v>6008.479</v>
       </c>
       <c r="F186">
-        <v>26574.349</v>
+        <v>91127.89</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4242,19 +4242,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>626510.7439999999</v>
+        <v>146295.369</v>
       </c>
       <c r="C187">
-        <v>147308.053</v>
+        <v>300244.785</v>
       </c>
       <c r="D187">
-        <v>30983.429</v>
+        <v>140487.269</v>
       </c>
       <c r="E187">
-        <v>97001.455</v>
+        <v>27319.301</v>
       </c>
       <c r="F187">
-        <v>82188.97900000001</v>
+        <v>85625.855</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4262,19 +4262,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>865252.249</v>
+        <v>88463.614</v>
       </c>
       <c r="C188">
-        <v>633873.606</v>
+        <v>249662.673</v>
       </c>
       <c r="D188">
-        <v>54826.54</v>
+        <v>5118.407</v>
       </c>
       <c r="E188">
-        <v>49097.491</v>
+        <v>22364.307</v>
       </c>
       <c r="F188">
-        <v>3868.61</v>
+        <v>157945.996</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4282,19 +4282,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>595235.443</v>
+        <v>129601.538</v>
       </c>
       <c r="C189">
-        <v>291554.66</v>
+        <v>221804.395</v>
       </c>
       <c r="D189">
-        <v>5310.844</v>
+        <v>64933.718</v>
       </c>
       <c r="E189">
-        <v>208320.079</v>
+        <v>6202.318</v>
       </c>
       <c r="F189">
-        <v>25297.415</v>
+        <v>150839.87</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4302,19 +4302,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>44633.801</v>
+        <v>270821.35</v>
       </c>
       <c r="C190">
-        <v>672196.424</v>
+        <v>110443.794</v>
       </c>
       <c r="D190">
-        <v>75196.83</v>
+        <v>117194.341</v>
       </c>
       <c r="E190">
-        <v>198994.127</v>
+        <v>52871.502</v>
       </c>
       <c r="F190">
-        <v>35458.248</v>
+        <v>82503.376</v>
       </c>
     </row>
   </sheetData>
@@ -4355,10 +4355,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04079159253563612</v>
+        <v>0.9919493176866236</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.08691274912186304</v>
+        <v>0.4622264640159637</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4412,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06515138410145309</v>
+        <v>0.1192927626642634</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4420,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.066661037893298</v>
+        <v>0.8626683922555326</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4428,7 +4428,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08517390122943123</v>
+        <v>0.6617779272738914</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4436,7 +4436,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.114471188225914</v>
+        <v>0.2670238672603775</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4444,7 +4444,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04226728304428627</v>
+        <v>0.4308373568097598</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4452,7 +4452,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1214386417736362</v>
+        <v>0.7017871998991889</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4460,7 +4460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1051373670336869</v>
+        <v>0.2870413851495643</v>
       </c>
     </row>
   </sheetData>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04079159253563612</v>
+        <v>0.9919493176866236</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.08691274912186304</v>
+        <v>0.4622264640159637</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06515138410145309</v>
+        <v>0.1192927626642634</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.066661037893298</v>
+        <v>0.8626683922555326</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08517390122943123</v>
+        <v>0.6617779272738914</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.114471188225914</v>
+        <v>0.2670238672603775</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04226728304428627</v>
+        <v>0.4308373568097598</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1214386417736362</v>
+        <v>0.7017871998991889</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1051373670336869</v>
+        <v>0.2870413851495643</v>
       </c>
     </row>
   </sheetData>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.232182873165537</v>
+        <v>68.62056225598076</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.122558122898953</v>
+        <v>65.23998758946044</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8742614862190753</v>
+        <v>46.3088010474365</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7959926311406395</v>
+        <v>45.39461267816555</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8859991293279819</v>
+        <v>59.84772285671749</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8468197126482644</v>
+        <v>63.44123367089189</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9384454820893031</v>
+        <v>69.1549204024018</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9167673778298387</v>
+        <v>67.76508000467753</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.089742858132323</v>
+        <v>46.44465447674369</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.232182873165537</v>
+        <v>68.62056225598076</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.122558122898953</v>
+        <v>65.23998758946044</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8742614862190753</v>
+        <v>46.3088010474365</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7959926311406395</v>
+        <v>45.39461267816555</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8859991293279819</v>
+        <v>59.84772285671749</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8468197126482644</v>
+        <v>63.44123367089189</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9384454820893031</v>
+        <v>69.1549204024018</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9167673778298387</v>
+        <v>67.76508000467753</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.089742858132323</v>
+        <v>46.44465447674369</v>
       </c>
     </row>
   </sheetData>
@@ -4788,19 +4788,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.163</v>
+        <v>0.318</v>
       </c>
       <c r="C3">
-        <v>0.249</v>
+        <v>0.491</v>
       </c>
       <c r="D3">
-        <v>0.879</v>
+        <v>0.669</v>
       </c>
       <c r="E3">
-        <v>0.386</v>
+        <v>0.35</v>
       </c>
       <c r="F3">
-        <v>0.577</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4808,19 +4808,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8169999999999999</v>
+        <v>0.555</v>
       </c>
       <c r="C4">
-        <v>0.753</v>
+        <v>0.887</v>
       </c>
       <c r="D4">
-        <v>0.111</v>
+        <v>0.05</v>
       </c>
       <c r="E4">
-        <v>0.141</v>
+        <v>0.015</v>
       </c>
       <c r="F4">
-        <v>0.041</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4828,19 +4828,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.652</v>
+        <v>0.228</v>
       </c>
       <c r="C5">
-        <v>0.359</v>
+        <v>0.765</v>
       </c>
       <c r="D5">
-        <v>0.265</v>
+        <v>0.302</v>
       </c>
       <c r="E5">
-        <v>0.8110000000000001</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F5">
-        <v>0.081</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4848,19 +4848,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.953</v>
+        <v>0.833</v>
       </c>
       <c r="C6">
-        <v>0.6899999999999999</v>
+        <v>0.465</v>
       </c>
       <c r="D6">
-        <v>0.057</v>
+        <v>0.417</v>
       </c>
       <c r="E6">
-        <v>0.339</v>
+        <v>0.259</v>
       </c>
       <c r="F6">
-        <v>0.204</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4868,19 +4868,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.971</v>
+        <v>0.713</v>
       </c>
       <c r="C7">
-        <v>0.72</v>
+        <v>0.222</v>
       </c>
       <c r="D7">
-        <v>0.8120000000000001</v>
+        <v>0.332</v>
       </c>
       <c r="E7">
-        <v>0.453</v>
+        <v>0.017</v>
       </c>
       <c r="F7">
-        <v>0.664</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4888,19 +4888,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6909999999999999</v>
+        <v>0.872</v>
       </c>
       <c r="C8">
-        <v>0.799</v>
+        <v>0.016</v>
       </c>
       <c r="D8">
-        <v>0.402</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0.587</v>
+        <v>0.7</v>
       </c>
       <c r="F8">
-        <v>0.583</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4908,19 +4908,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.123</v>
+        <v>0.262</v>
       </c>
       <c r="C9">
-        <v>0.112</v>
+        <v>0.995</v>
       </c>
       <c r="D9">
-        <v>0.092</v>
+        <v>0.526</v>
       </c>
       <c r="E9">
-        <v>0.122</v>
+        <v>0.035</v>
       </c>
       <c r="F9">
-        <v>0.456</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4928,19 +4928,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.857</v>
+        <v>0.061</v>
       </c>
       <c r="C10">
-        <v>0.724</v>
+        <v>0.729</v>
       </c>
       <c r="D10">
-        <v>0.555</v>
+        <v>0.553</v>
       </c>
       <c r="E10">
-        <v>0.429</v>
+        <v>0.776</v>
       </c>
       <c r="F10">
-        <v>0.213</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4948,19 +4948,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.213</v>
+        <v>0.664</v>
       </c>
       <c r="C11">
-        <v>0.667</v>
+        <v>0.148</v>
       </c>
       <c r="D11">
-        <v>0.348</v>
+        <v>0.259</v>
       </c>
       <c r="E11">
-        <v>0.719</v>
+        <v>0.534</v>
       </c>
       <c r="F11">
-        <v>0.365</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4968,19 +4968,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.131</v>
+        <v>0.073</v>
       </c>
       <c r="C12">
-        <v>0.104</v>
+        <v>0.922</v>
       </c>
       <c r="D12">
-        <v>0.665</v>
+        <v>0.162</v>
       </c>
       <c r="E12">
-        <v>0.378</v>
+        <v>0.13</v>
       </c>
       <c r="F12">
-        <v>0.926</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8575748590391605</v>
+        <v>0.6952364055243758</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8694148967960006</v>
+        <v>0.5196203991549042</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0447601633026854</v>
+        <v>0.03954696238007205</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4746562340853355</v>
+        <v>0.8226665127246752</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5449454403381275</v>
+        <v>0.9178505347340824</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8031070611585291</v>
+        <v>0.2962236446585448</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2030539519660669</v>
+        <v>0.6084085380250934</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5566403874402911</v>
+        <v>0.1400204254437635</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09824911507208001</v>
+        <v>0.721767625848344</v>
       </c>
     </row>
   </sheetData>
@@ -5108,19 +5108,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.195</v>
+        <v>0.93</v>
       </c>
       <c r="C2">
-        <v>0.914</v>
+        <v>0.164</v>
       </c>
       <c r="D2">
-        <v>0.704</v>
+        <v>0.012</v>
       </c>
       <c r="E2">
-        <v>0.636</v>
+        <v>0.546</v>
       </c>
       <c r="F2">
-        <v>0.164</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5128,19 +5128,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.075</v>
+        <v>0.32</v>
       </c>
       <c r="C3">
-        <v>0.601</v>
+        <v>0.222</v>
       </c>
       <c r="D3">
-        <v>0.825</v>
+        <v>0.859</v>
       </c>
       <c r="E3">
-        <v>0.404</v>
+        <v>0.042</v>
       </c>
       <c r="F3">
-        <v>0.13</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5148,19 +5148,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.842</v>
+        <v>0.266</v>
       </c>
       <c r="C4">
-        <v>0.29</v>
+        <v>0.893</v>
       </c>
       <c r="D4">
-        <v>0.404</v>
+        <v>0.604</v>
       </c>
       <c r="E4">
-        <v>0.362</v>
+        <v>0.595</v>
       </c>
       <c r="F4">
-        <v>0.702</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5168,19 +5168,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.901</v>
+        <v>0.951</v>
       </c>
       <c r="C5">
-        <v>0.802</v>
+        <v>0.66</v>
       </c>
       <c r="D5">
-        <v>0.647</v>
+        <v>0.474</v>
       </c>
       <c r="E5">
-        <v>0.44</v>
+        <v>0.661</v>
       </c>
       <c r="F5">
-        <v>0.06900000000000001</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5188,19 +5188,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.786</v>
       </c>
       <c r="C6">
-        <v>0.643</v>
+        <v>0.25</v>
       </c>
       <c r="D6">
-        <v>0.52</v>
+        <v>0.617</v>
       </c>
       <c r="E6">
-        <v>0.279</v>
+        <v>0.073</v>
       </c>
       <c r="F6">
-        <v>0.263</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5208,19 +5208,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.526</v>
+        <v>0.474</v>
       </c>
       <c r="C7">
-        <v>0.18</v>
+        <v>0.379</v>
       </c>
       <c r="D7">
-        <v>0.311</v>
+        <v>0.853</v>
       </c>
       <c r="E7">
-        <v>0.36</v>
+        <v>0.443</v>
       </c>
       <c r="F7">
-        <v>0.821</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5228,19 +5228,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.72</v>
+        <v>0.287</v>
       </c>
       <c r="C8">
-        <v>0.743</v>
+        <v>0.313</v>
       </c>
       <c r="D8">
-        <v>0.55</v>
+        <v>0.031</v>
       </c>
       <c r="E8">
-        <v>0.189</v>
+        <v>0.369</v>
       </c>
       <c r="F8">
-        <v>0.037</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5248,19 +5248,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.495</v>
+        <v>0.414</v>
       </c>
       <c r="C9">
-        <v>0.342</v>
+        <v>0.275</v>
       </c>
       <c r="D9">
-        <v>0.053</v>
+        <v>0.394</v>
       </c>
       <c r="E9">
-        <v>0.799</v>
+        <v>0.114</v>
       </c>
       <c r="F9">
-        <v>0.252</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5268,19 +5268,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.037</v>
+        <v>0.859</v>
       </c>
       <c r="C10">
-        <v>0.782</v>
+        <v>0.135</v>
       </c>
       <c r="D10">
-        <v>0.754</v>
+        <v>0.712</v>
       </c>
       <c r="E10">
-        <v>0.751</v>
+        <v>0.866</v>
       </c>
       <c r="F10">
-        <v>0.356</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5288,19 +5288,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.189</v>
+        <v>0.919</v>
       </c>
       <c r="C11">
-        <v>0.905</v>
+        <v>0.146</v>
       </c>
       <c r="D11">
-        <v>0.708</v>
+        <v>0.015</v>
       </c>
       <c r="E11">
-        <v>0.65</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F11">
-        <v>0.274</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5308,19 +5308,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.07000000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="C12">
-        <v>0.593</v>
+        <v>0.207</v>
       </c>
       <c r="D12">
-        <v>0.825</v>
+        <v>0.859</v>
       </c>
       <c r="E12">
-        <v>0.416</v>
+        <v>0.053</v>
       </c>
       <c r="F12">
-        <v>0.163</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5328,19 +5328,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.838</v>
+        <v>0.258</v>
       </c>
       <c r="C13">
-        <v>0.284</v>
+        <v>0.88</v>
       </c>
       <c r="D13">
-        <v>0.404</v>
+        <v>0.604</v>
       </c>
       <c r="E13">
-        <v>0.372</v>
+        <v>0.604</v>
       </c>
       <c r="F13">
-        <v>0.715</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5348,19 +5348,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.898</v>
+        <v>0.944</v>
       </c>
       <c r="C14">
-        <v>0.797</v>
+        <v>0.65</v>
       </c>
       <c r="D14">
-        <v>0.644</v>
+        <v>0.472</v>
       </c>
       <c r="E14">
-        <v>0.443</v>
+        <v>0.663</v>
       </c>
       <c r="F14">
-        <v>0.073</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5368,19 +5368,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.997</v>
+        <v>0.781</v>
       </c>
       <c r="C15">
-        <v>0.639</v>
+        <v>0.242</v>
       </c>
       <c r="D15">
-        <v>0.524</v>
+        <v>0.62</v>
       </c>
       <c r="E15">
-        <v>0.292</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F15">
-        <v>0.265</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5388,19 +5388,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.524</v>
+        <v>0.47</v>
       </c>
       <c r="C16">
-        <v>0.177</v>
+        <v>0.373</v>
       </c>
       <c r="D16">
-        <v>0.311</v>
+        <v>0.853</v>
       </c>
       <c r="E16">
-        <v>0.363</v>
+        <v>0.445</v>
       </c>
       <c r="F16">
-        <v>0.823</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5408,19 +5408,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.719</v>
+        <v>0.284</v>
       </c>
       <c r="C17">
-        <v>0.741</v>
+        <v>0.309</v>
       </c>
       <c r="D17">
-        <v>0.55</v>
+        <v>0.031</v>
       </c>
       <c r="E17">
-        <v>0.187</v>
+        <v>0.368</v>
       </c>
       <c r="F17">
-        <v>0.038</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5428,19 +5428,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.494</v>
+        <v>0.413</v>
       </c>
       <c r="C18">
-        <v>0.341</v>
+        <v>0.273</v>
       </c>
       <c r="D18">
-        <v>0.053</v>
+        <v>0.394</v>
       </c>
       <c r="E18">
-        <v>0.793</v>
+        <v>0.108</v>
       </c>
       <c r="F18">
-        <v>0.253</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5448,19 +5448,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.037</v>
+        <v>0.859</v>
       </c>
       <c r="C19">
-        <v>0.782</v>
+        <v>0.135</v>
       </c>
       <c r="D19">
-        <v>0.754</v>
+        <v>0.712</v>
       </c>
       <c r="E19">
-        <v>0.751</v>
+        <v>0.866</v>
       </c>
       <c r="F19">
-        <v>0.356</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5468,19 +5468,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.214</v>
+        <v>1.2</v>
       </c>
       <c r="C20">
-        <v>1.121</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
-        <v>1.334</v>
+        <v>0.028</v>
       </c>
       <c r="E20">
-        <v>0.915</v>
+        <v>0.767</v>
       </c>
       <c r="F20">
-        <v>0.542</v>
+        <v>1.093</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5488,19 +5488,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.077</v>
+        <v>0.399</v>
       </c>
       <c r="C21">
-        <v>0.733</v>
+        <v>0.293</v>
       </c>
       <c r="D21">
-        <v>1.55</v>
+        <v>1.434</v>
       </c>
       <c r="E21">
-        <v>0.588</v>
+        <v>0.082</v>
       </c>
       <c r="F21">
-        <v>0.291</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5508,19 +5508,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.97</v>
+        <v>0.332</v>
       </c>
       <c r="C22">
-        <v>0.348</v>
+        <v>1.299</v>
       </c>
       <c r="D22">
-        <v>0.759</v>
+        <v>1.008</v>
       </c>
       <c r="E22">
-        <v>0.525</v>
+        <v>0.824</v>
       </c>
       <c r="F22">
-        <v>1.14</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5528,19 +5528,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.041</v>
+        <v>1.238</v>
       </c>
       <c r="C23">
-        <v>0.99</v>
+        <v>0.959</v>
       </c>
       <c r="D23">
-        <v>1.207</v>
+        <v>0.786</v>
       </c>
       <c r="E23">
-        <v>0.617</v>
+        <v>0.897</v>
       </c>
       <c r="F23">
-        <v>0.119</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5548,19 +5548,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.157</v>
+        <v>1.024</v>
       </c>
       <c r="C24">
-        <v>0.794</v>
+        <v>0.352</v>
       </c>
       <c r="D24">
-        <v>0.988</v>
+        <v>1.037</v>
       </c>
       <c r="E24">
-        <v>0.418</v>
+        <v>0.127</v>
       </c>
       <c r="F24">
-        <v>0.42</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5568,19 +5568,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.607</v>
+        <v>0.615</v>
       </c>
       <c r="C25">
-        <v>0.218</v>
+        <v>0.55</v>
       </c>
       <c r="D25">
-        <v>0.584</v>
+        <v>1.424</v>
       </c>
       <c r="E25">
-        <v>0.506</v>
+        <v>0.603</v>
       </c>
       <c r="F25">
-        <v>1.3</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5588,19 +5588,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.835</v>
+        <v>0.372</v>
       </c>
       <c r="C26">
-        <v>0.924</v>
+        <v>0.457</v>
       </c>
       <c r="D26">
-        <v>1.033</v>
+        <v>0.052</v>
       </c>
       <c r="E26">
-        <v>0.258</v>
+        <v>0.495</v>
       </c>
       <c r="F26">
-        <v>0.061</v>
+        <v>1.443</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5608,19 +5608,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.574</v>
+        <v>0.543</v>
       </c>
       <c r="C27">
-        <v>0.425</v>
+        <v>0.405</v>
       </c>
       <c r="D27">
-        <v>0.1</v>
+        <v>0.658</v>
       </c>
       <c r="E27">
-        <v>1.093</v>
+        <v>0.14</v>
       </c>
       <c r="F27">
-        <v>0.4</v>
+        <v>1.378</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5628,19 +5628,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.043</v>
+        <v>1.132</v>
       </c>
       <c r="C28">
-        <v>0.977</v>
+        <v>0.201</v>
       </c>
       <c r="D28">
-        <v>1.417</v>
+        <v>1.188</v>
       </c>
       <c r="E28">
-        <v>1.041</v>
+        <v>1.169</v>
       </c>
       <c r="F28">
-        <v>0.5610000000000001</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5648,19 +5648,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.515</v>
+        <v>2.357</v>
       </c>
       <c r="C29">
-        <v>2.619</v>
+        <v>0.475</v>
       </c>
       <c r="D29">
-        <v>1.561</v>
+        <v>0.03</v>
       </c>
       <c r="E29">
-        <v>1.141</v>
+        <v>0.787</v>
       </c>
       <c r="F29">
-        <v>0.583</v>
+        <v>1.755</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5668,19 +5668,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.173</v>
+        <v>0.776</v>
       </c>
       <c r="C30">
-        <v>1.708</v>
+        <v>0.709</v>
       </c>
       <c r="D30">
-        <v>1.814</v>
+        <v>1.549</v>
       </c>
       <c r="E30">
-        <v>0.734</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="F30">
-        <v>0.312</v>
+        <v>1.169</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5688,19 +5688,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.426</v>
+        <v>0.645</v>
       </c>
       <c r="C31">
-        <v>0.804</v>
+        <v>3.209</v>
       </c>
       <c r="D31">
-        <v>0.888</v>
+        <v>1.089</v>
       </c>
       <c r="E31">
-        <v>0.655</v>
+        <v>0.846</v>
       </c>
       <c r="F31">
-        <v>1.217</v>
+        <v>1.199</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5708,19 +5708,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.608</v>
+        <v>2.437</v>
       </c>
       <c r="C32">
-        <v>2.32</v>
+        <v>2.368</v>
       </c>
       <c r="D32">
-        <v>1.412</v>
+        <v>0.849</v>
       </c>
       <c r="E32">
-        <v>0.767</v>
+        <v>0.921</v>
       </c>
       <c r="F32">
-        <v>0.127</v>
+        <v>1.931</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5728,19 +5728,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.903</v>
+        <v>2.016</v>
       </c>
       <c r="C33">
-        <v>1.86</v>
+        <v>0.864</v>
       </c>
       <c r="D33">
-        <v>1.156</v>
+        <v>1.12</v>
       </c>
       <c r="E33">
-        <v>0.523</v>
+        <v>0.131</v>
       </c>
       <c r="F33">
-        <v>0.448</v>
+        <v>1.306</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5748,19 +5748,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.52</v>
+        <v>1.21</v>
       </c>
       <c r="C34">
-        <v>0.506</v>
+        <v>1.358</v>
       </c>
       <c r="D34">
-        <v>0.6830000000000001</v>
+        <v>1.538</v>
       </c>
       <c r="E34">
-        <v>0.63</v>
+        <v>0.619</v>
       </c>
       <c r="F34">
-        <v>1.387</v>
+        <v>1.227</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5768,19 +5768,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.098</v>
+        <v>0.732</v>
       </c>
       <c r="C35">
-        <v>2.172</v>
+        <v>1.129</v>
       </c>
       <c r="D35">
-        <v>1.209</v>
+        <v>0.056</v>
       </c>
       <c r="E35">
-        <v>0.32</v>
+        <v>0.508</v>
       </c>
       <c r="F35">
-        <v>0.065</v>
+        <v>2.264</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5788,19 +5788,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.443</v>
+        <v>1.071</v>
       </c>
       <c r="C36">
-        <v>0.999</v>
+        <v>1.003</v>
       </c>
       <c r="D36">
-        <v>0.117</v>
+        <v>0.711</v>
       </c>
       <c r="E36">
-        <v>1.357</v>
+        <v>0.143</v>
       </c>
       <c r="F36">
-        <v>0.427</v>
+        <v>2.162</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5808,19 +5808,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.108</v>
+        <v>2.237</v>
       </c>
       <c r="C37">
-        <v>2.302</v>
+        <v>0.499</v>
       </c>
       <c r="D37">
-        <v>1.658</v>
+        <v>1.283</v>
       </c>
       <c r="E37">
-        <v>1.294</v>
+        <v>1.2</v>
       </c>
       <c r="F37">
-        <v>0.599</v>
+        <v>1.183</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5828,19 +5828,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.236</v>
+        <v>4.822</v>
       </c>
       <c r="C38">
-        <v>6.09</v>
+        <v>1.171</v>
       </c>
       <c r="D38">
-        <v>1.961</v>
+        <v>0.034</v>
       </c>
       <c r="E38">
-        <v>1.528</v>
+        <v>0.819</v>
       </c>
       <c r="F38">
-        <v>0.648</v>
+        <v>3.039</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5848,19 +5848,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.41</v>
+        <v>1.584</v>
       </c>
       <c r="C39">
-        <v>3.969</v>
+        <v>1.754</v>
       </c>
       <c r="D39">
-        <v>2.279</v>
+        <v>1.741</v>
       </c>
       <c r="E39">
-        <v>0.983</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="F39">
-        <v>0.346</v>
+        <v>2.014</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5868,19 +5868,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.864</v>
+        <v>1.316</v>
       </c>
       <c r="C40">
-        <v>1.866</v>
+        <v>7.965</v>
       </c>
       <c r="D40">
-        <v>1.116</v>
+        <v>1.224</v>
       </c>
       <c r="E40">
-        <v>0.877</v>
+        <v>0.88</v>
       </c>
       <c r="F40">
-        <v>1.344</v>
+        <v>2.061</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5888,19 +5888,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6.306</v>
+        <v>4.989</v>
       </c>
       <c r="C41">
-        <v>5.397</v>
+        <v>5.877</v>
       </c>
       <c r="D41">
-        <v>1.774</v>
+        <v>0.954</v>
       </c>
       <c r="E41">
-        <v>1.026</v>
+        <v>0.958</v>
       </c>
       <c r="F41">
-        <v>0.14</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5908,19 +5908,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7.021</v>
+        <v>4.127</v>
       </c>
       <c r="C42">
-        <v>4.327</v>
+        <v>2.142</v>
       </c>
       <c r="D42">
-        <v>1.453</v>
+        <v>1.259</v>
       </c>
       <c r="E42">
-        <v>0.702</v>
+        <v>0.137</v>
       </c>
       <c r="F42">
-        <v>0.495</v>
+        <v>2.242</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5928,19 +5928,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.675</v>
+        <v>2.477</v>
       </c>
       <c r="C43">
-        <v>1.175</v>
+        <v>3.371</v>
       </c>
       <c r="D43">
-        <v>0.858</v>
+        <v>1.729</v>
       </c>
       <c r="E43">
-        <v>0.842</v>
+        <v>0.644</v>
       </c>
       <c r="F43">
-        <v>1.531</v>
+        <v>2.107</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5948,19 +5948,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.075</v>
+        <v>1.498</v>
       </c>
       <c r="C44">
-        <v>5.055</v>
+        <v>2.803</v>
       </c>
       <c r="D44">
-        <v>1.519</v>
+        <v>0.063</v>
       </c>
       <c r="E44">
-        <v>0.427</v>
+        <v>0.529</v>
       </c>
       <c r="F44">
-        <v>0.07199999999999999</v>
+        <v>3.886</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5968,19 +5968,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.491</v>
+        <v>2.194</v>
       </c>
       <c r="C45">
-        <v>2.325</v>
+        <v>2.49</v>
       </c>
       <c r="D45">
-        <v>0.147</v>
+        <v>0.799</v>
       </c>
       <c r="E45">
-        <v>1.812</v>
+        <v>0.149</v>
       </c>
       <c r="F45">
-        <v>0.471</v>
+        <v>3.711</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5988,19 +5988,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.262</v>
+        <v>4.584</v>
       </c>
       <c r="C46">
-        <v>5.36</v>
+        <v>1.24</v>
       </c>
       <c r="D46">
-        <v>2.083</v>
+        <v>1.442</v>
       </c>
       <c r="E46">
-        <v>1.729</v>
+        <v>1.249</v>
       </c>
       <c r="F46">
-        <v>0.661</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6008,19 +6008,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.618</v>
+        <v>6.934</v>
       </c>
       <c r="C47">
-        <v>9.930999999999999</v>
+        <v>2.667</v>
       </c>
       <c r="D47">
-        <v>3.437</v>
+        <v>0.068</v>
       </c>
       <c r="E47">
-        <v>4.991</v>
+        <v>2.852</v>
       </c>
       <c r="F47">
-        <v>0.829</v>
+        <v>3.559</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6028,19 +6028,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.866</v>
+        <v>2.277</v>
       </c>
       <c r="C48">
-        <v>6.472</v>
+        <v>3.997</v>
       </c>
       <c r="D48">
-        <v>3.993</v>
+        <v>3.427</v>
       </c>
       <c r="E48">
-        <v>3.214</v>
+        <v>0.319</v>
       </c>
       <c r="F48">
-        <v>0.441</v>
+        <v>2.357</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6048,19 +6048,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>12.431</v>
+        <v>1.892</v>
       </c>
       <c r="C49">
-        <v>3.042</v>
+        <v>18.16</v>
       </c>
       <c r="D49">
-        <v>1.955</v>
+        <v>2.409</v>
       </c>
       <c r="E49">
-        <v>2.867</v>
+        <v>3.058</v>
       </c>
       <c r="F49">
-        <v>1.703</v>
+        <v>2.412</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6068,19 +6068,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>13.368</v>
+        <v>7.175</v>
       </c>
       <c r="C50">
-        <v>8.801</v>
+        <v>13.399</v>
       </c>
       <c r="D50">
-        <v>3.108</v>
+        <v>1.878</v>
       </c>
       <c r="E50">
-        <v>3.345</v>
+        <v>3.319</v>
       </c>
       <c r="F50">
-        <v>0.178</v>
+        <v>3.879</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6088,19 +6088,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>14.885</v>
+        <v>5.935</v>
       </c>
       <c r="C51">
-        <v>7.056</v>
+        <v>4.883</v>
       </c>
       <c r="D51">
-        <v>2.546</v>
+        <v>2.479</v>
       </c>
       <c r="E51">
-        <v>2.299</v>
+        <v>0.489</v>
       </c>
       <c r="F51">
-        <v>0.627</v>
+        <v>2.623</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6108,19 +6108,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7.791</v>
+        <v>3.562</v>
       </c>
       <c r="C52">
-        <v>1.916</v>
+        <v>7.686</v>
       </c>
       <c r="D52">
-        <v>1.504</v>
+        <v>3.403</v>
       </c>
       <c r="E52">
-        <v>2.746</v>
+        <v>2.232</v>
       </c>
       <c r="F52">
-        <v>1.94</v>
+        <v>2.465</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6128,19 +6128,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>10.76</v>
+        <v>2.154</v>
       </c>
       <c r="C53">
-        <v>8.244</v>
+        <v>6.391</v>
       </c>
       <c r="D53">
-        <v>2.661</v>
+        <v>0.124</v>
       </c>
       <c r="E53">
-        <v>1.39</v>
+        <v>1.828</v>
       </c>
       <c r="F53">
-        <v>0.091</v>
+        <v>4.547</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6148,19 +6148,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7.402</v>
+        <v>3.155</v>
       </c>
       <c r="C54">
-        <v>3.792</v>
+        <v>5.678</v>
       </c>
       <c r="D54">
-        <v>0.258</v>
+        <v>1.573</v>
       </c>
       <c r="E54">
-        <v>5.899</v>
+        <v>0.508</v>
       </c>
       <c r="F54">
-        <v>0.597</v>
+        <v>4.342</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6168,19 +6168,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.555</v>
+        <v>6.593</v>
       </c>
       <c r="C55">
-        <v>8.742000000000001</v>
+        <v>2.827</v>
       </c>
       <c r="D55">
-        <v>3.65</v>
+        <v>2.839</v>
       </c>
       <c r="E55">
-        <v>5.634</v>
+        <v>4.321</v>
       </c>
       <c r="F55">
-        <v>0.837</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6188,19 +6188,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.707</v>
+        <v>10.627</v>
       </c>
       <c r="C56">
-        <v>17.337</v>
+        <v>6.204</v>
       </c>
       <c r="D56">
-        <v>5.823</v>
+        <v>0.122</v>
       </c>
       <c r="E56">
-        <v>12.502</v>
+        <v>6.839</v>
       </c>
       <c r="F56">
-        <v>1.077</v>
+        <v>4.356</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6208,19 +6208,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.887</v>
+        <v>3.489</v>
       </c>
       <c r="C57">
-        <v>11.298</v>
+        <v>9.298</v>
       </c>
       <c r="D57">
-        <v>6.765</v>
+        <v>6.148</v>
       </c>
       <c r="E57">
-        <v>8.052</v>
+        <v>0.768</v>
       </c>
       <c r="F57">
-        <v>0.571</v>
+        <v>2.884</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6228,19 +6228,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>27.103</v>
+        <v>2.899</v>
       </c>
       <c r="C58">
-        <v>5.31</v>
+        <v>42.248</v>
       </c>
       <c r="D58">
-        <v>3.312</v>
+        <v>4.322</v>
       </c>
       <c r="E58">
-        <v>7.182</v>
+        <v>7.33</v>
       </c>
       <c r="F58">
-        <v>2.2</v>
+        <v>2.951</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6248,19 +6248,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>29.146</v>
+        <v>10.997</v>
       </c>
       <c r="C59">
-        <v>15.365</v>
+        <v>31.171</v>
       </c>
       <c r="D59">
-        <v>5.266</v>
+        <v>3.369</v>
       </c>
       <c r="E59">
-        <v>8.377000000000001</v>
+        <v>7.953</v>
       </c>
       <c r="F59">
-        <v>0.23</v>
+        <v>4.745</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6268,19 +6268,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>32.454</v>
+        <v>9.096</v>
       </c>
       <c r="C60">
-        <v>12.319</v>
+        <v>11.359</v>
       </c>
       <c r="D60">
-        <v>4.314</v>
+        <v>4.448</v>
       </c>
       <c r="E60">
-        <v>5.76</v>
+        <v>1.176</v>
       </c>
       <c r="F60">
-        <v>0.8100000000000001</v>
+        <v>3.209</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6288,19 +6288,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>16.987</v>
+        <v>5.459</v>
       </c>
       <c r="C61">
-        <v>3.345</v>
+        <v>17.88</v>
       </c>
       <c r="D61">
-        <v>2.548</v>
+        <v>6.105</v>
       </c>
       <c r="E61">
-        <v>6.877</v>
+        <v>5.349</v>
       </c>
       <c r="F61">
-        <v>2.506</v>
+        <v>3.015</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6308,19 +6308,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>23.46</v>
+        <v>3.301</v>
       </c>
       <c r="C62">
-        <v>14.393</v>
+        <v>14.868</v>
       </c>
       <c r="D62">
-        <v>4.509</v>
+        <v>0.222</v>
       </c>
       <c r="E62">
-        <v>3.481</v>
+        <v>4.379</v>
       </c>
       <c r="F62">
-        <v>0.118</v>
+        <v>5.562</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6328,19 +6328,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>16.139</v>
+        <v>4.836</v>
       </c>
       <c r="C63">
-        <v>6.62</v>
+        <v>13.209</v>
       </c>
       <c r="D63">
-        <v>0.437</v>
+        <v>2.822</v>
       </c>
       <c r="E63">
-        <v>14.77</v>
+        <v>1.215</v>
       </c>
       <c r="F63">
-        <v>0.771</v>
+        <v>5.312</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6348,19 +6348,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.21</v>
+        <v>10.105</v>
       </c>
       <c r="C64">
-        <v>15.263</v>
+        <v>6.577</v>
       </c>
       <c r="D64">
-        <v>6.184</v>
+        <v>5.093</v>
       </c>
       <c r="E64">
-        <v>14.108</v>
+        <v>10.352</v>
       </c>
       <c r="F64">
-        <v>1.081</v>
+        <v>2.905</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6368,19 +6368,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>15.66</v>
+        <v>32.971</v>
       </c>
       <c r="C65">
-        <v>43.534</v>
+        <v>11.239</v>
       </c>
       <c r="D65">
-        <v>6.668</v>
+        <v>0.248</v>
       </c>
       <c r="E65">
-        <v>19.88</v>
+        <v>10.118</v>
       </c>
       <c r="F65">
-        <v>1.922</v>
+        <v>15.758</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6388,19 +6388,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.178</v>
+        <v>10.824</v>
       </c>
       <c r="C66">
-        <v>28.37</v>
+        <v>16.844</v>
       </c>
       <c r="D66">
-        <v>7.747</v>
+        <v>12.469</v>
       </c>
       <c r="E66">
-        <v>12.804</v>
+        <v>1.137</v>
       </c>
       <c r="F66">
-        <v>1.016</v>
+        <v>10.425</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6408,19 +6408,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>74.378</v>
+        <v>8.993</v>
       </c>
       <c r="C67">
-        <v>13.333</v>
+        <v>76.535</v>
       </c>
       <c r="D67">
-        <v>3.793</v>
+        <v>8.766</v>
       </c>
       <c r="E67">
-        <v>11.421</v>
+        <v>10.844</v>
       </c>
       <c r="F67">
-        <v>3.902</v>
+        <v>10.661</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6428,19 +6428,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>79.985</v>
+        <v>34.12</v>
       </c>
       <c r="C68">
-        <v>38.583</v>
+        <v>56.468</v>
       </c>
       <c r="D68">
-        <v>6.03</v>
+        <v>6.832</v>
       </c>
       <c r="E68">
-        <v>13.32</v>
+        <v>11.765</v>
       </c>
       <c r="F68">
-        <v>0.408</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6448,19 +6448,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>89.062</v>
+        <v>28.223</v>
       </c>
       <c r="C69">
-        <v>30.934</v>
+        <v>20.578</v>
       </c>
       <c r="D69">
-        <v>4.94</v>
+        <v>9.021000000000001</v>
       </c>
       <c r="E69">
-        <v>9.159000000000001</v>
+        <v>1.74</v>
       </c>
       <c r="F69">
-        <v>1.436</v>
+        <v>11.591</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6468,19 +6468,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>46.617</v>
+        <v>16.938</v>
       </c>
       <c r="C70">
-        <v>8.398999999999999</v>
+        <v>32.391</v>
       </c>
       <c r="D70">
-        <v>2.918</v>
+        <v>12.382</v>
       </c>
       <c r="E70">
-        <v>10.935</v>
+        <v>7.913</v>
       </c>
       <c r="F70">
-        <v>4.442</v>
+        <v>10.891</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6488,19 +6488,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>64.381</v>
+        <v>10.242</v>
       </c>
       <c r="C71">
-        <v>36.142</v>
+        <v>26.934</v>
       </c>
       <c r="D71">
-        <v>5.163</v>
+        <v>0.451</v>
       </c>
       <c r="E71">
-        <v>5.535</v>
+        <v>6.478</v>
       </c>
       <c r="F71">
-        <v>0.209</v>
+        <v>20.09</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6508,19 +6508,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>44.29</v>
+        <v>15.005</v>
       </c>
       <c r="C72">
-        <v>16.624</v>
+        <v>23.929</v>
       </c>
       <c r="D72">
-        <v>0.5</v>
+        <v>5.723</v>
       </c>
       <c r="E72">
-        <v>23.485</v>
+        <v>1.797</v>
       </c>
       <c r="F72">
-        <v>1.367</v>
+        <v>19.186</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6528,19 +6528,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3.321</v>
+        <v>31.355</v>
       </c>
       <c r="C73">
-        <v>38.327</v>
+        <v>11.915</v>
       </c>
       <c r="D73">
-        <v>7.082</v>
+        <v>10.329</v>
       </c>
       <c r="E73">
-        <v>22.433</v>
+        <v>15.314</v>
       </c>
       <c r="F73">
-        <v>1.916</v>
+        <v>10.494</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6548,19 +6548,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>40.537</v>
+        <v>82.78</v>
       </c>
       <c r="C74">
-        <v>99.77</v>
+        <v>21.5</v>
       </c>
       <c r="D74">
-        <v>7.893</v>
+        <v>0.477</v>
       </c>
       <c r="E74">
-        <v>33.997</v>
+        <v>16.017</v>
       </c>
       <c r="F74">
-        <v>3.159</v>
+        <v>39.482</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6568,19 +6568,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>13.403</v>
+        <v>27.175</v>
       </c>
       <c r="C75">
-        <v>65.017</v>
+        <v>32.222</v>
       </c>
       <c r="D75">
-        <v>9.17</v>
+        <v>23.989</v>
       </c>
       <c r="E75">
-        <v>21.896</v>
+        <v>1.8</v>
       </c>
       <c r="F75">
-        <v>1.668</v>
+        <v>26.118</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6588,19 +6588,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>192.535</v>
+        <v>22.578</v>
       </c>
       <c r="C76">
-        <v>30.556</v>
+        <v>146.411</v>
       </c>
       <c r="D76">
-        <v>4.49</v>
+        <v>16.865</v>
       </c>
       <c r="E76">
-        <v>19.531</v>
+        <v>17.166</v>
       </c>
       <c r="F76">
-        <v>6.4</v>
+        <v>26.708</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6608,19 +6608,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>207.049</v>
+        <v>85.66500000000001</v>
       </c>
       <c r="C77">
-        <v>88.423</v>
+        <v>108.023</v>
       </c>
       <c r="D77">
-        <v>7.138</v>
+        <v>13.144</v>
       </c>
       <c r="E77">
-        <v>22.779</v>
+        <v>18.624</v>
       </c>
       <c r="F77">
-        <v>0.67</v>
+        <v>42.938</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6628,19 +6628,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>230.546</v>
+        <v>70.86</v>
       </c>
       <c r="C78">
-        <v>70.893</v>
+        <v>39.365</v>
       </c>
       <c r="D78">
-        <v>5.848</v>
+        <v>17.356</v>
       </c>
       <c r="E78">
-        <v>15.663</v>
+        <v>2.755</v>
       </c>
       <c r="F78">
-        <v>2.355</v>
+        <v>29.037</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6648,19 +6648,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>120.673</v>
+        <v>42.526</v>
       </c>
       <c r="C79">
-        <v>19.249</v>
+        <v>61.964</v>
       </c>
       <c r="D79">
-        <v>3.454</v>
+        <v>23.822</v>
       </c>
       <c r="E79">
-        <v>18.7</v>
+        <v>12.526</v>
       </c>
       <c r="F79">
-        <v>7.284</v>
+        <v>27.284</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6668,19 +6668,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>166.657</v>
+        <v>25.715</v>
       </c>
       <c r="C80">
-        <v>82.82899999999999</v>
+        <v>51.525</v>
       </c>
       <c r="D80">
-        <v>6.112</v>
+        <v>0.868</v>
       </c>
       <c r="E80">
-        <v>9.465</v>
+        <v>10.254</v>
       </c>
       <c r="F80">
-        <v>0.343</v>
+        <v>50.328</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6688,19 +6688,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>114.649</v>
+        <v>37.673</v>
       </c>
       <c r="C81">
-        <v>38.098</v>
+        <v>45.776</v>
       </c>
       <c r="D81">
-        <v>0.592</v>
+        <v>11.011</v>
       </c>
       <c r="E81">
-        <v>40.161</v>
+        <v>2.844</v>
       </c>
       <c r="F81">
-        <v>2.242</v>
+        <v>48.064</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6708,19 +6708,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>8.597</v>
+        <v>78.724</v>
       </c>
       <c r="C82">
-        <v>87.837</v>
+        <v>22.793</v>
       </c>
       <c r="D82">
-        <v>8.382999999999999</v>
+        <v>19.872</v>
       </c>
       <c r="E82">
-        <v>38.363</v>
+        <v>24.242</v>
       </c>
       <c r="F82">
-        <v>3.142</v>
+        <v>26.289</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6728,19 +6728,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>105.245</v>
+        <v>184.436</v>
       </c>
       <c r="C83">
-        <v>230.285</v>
+        <v>31.172</v>
       </c>
       <c r="D83">
-        <v>31.757</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="E83">
-        <v>68.262</v>
+        <v>16.676</v>
       </c>
       <c r="F83">
-        <v>9.284000000000001</v>
+        <v>54.842</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6748,19 +6748,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>34.798</v>
+        <v>60.546</v>
       </c>
       <c r="C84">
-        <v>150.07</v>
+        <v>46.717</v>
       </c>
       <c r="D84">
-        <v>36.894</v>
+        <v>41.126</v>
       </c>
       <c r="E84">
-        <v>43.965</v>
+        <v>1.874</v>
       </c>
       <c r="F84">
-        <v>4.899</v>
+        <v>36.279</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6768,19 +6768,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>499.875</v>
+        <v>50.304</v>
       </c>
       <c r="C85">
-        <v>70.52800000000001</v>
+        <v>212.274</v>
       </c>
       <c r="D85">
-        <v>18.064</v>
+        <v>28.912</v>
       </c>
       <c r="E85">
-        <v>39.216</v>
+        <v>17.873</v>
       </c>
       <c r="F85">
-        <v>18.779</v>
+        <v>37.098</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6788,19 +6788,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>537.558</v>
+        <v>190.864</v>
       </c>
       <c r="C86">
-        <v>204.095</v>
+        <v>156.617</v>
       </c>
       <c r="D86">
-        <v>28.718</v>
+        <v>22.533</v>
       </c>
       <c r="E86">
-        <v>45.737</v>
+        <v>19.391</v>
       </c>
       <c r="F86">
-        <v>1.966</v>
+        <v>59.642</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6808,19 +6808,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>598.563</v>
+        <v>157.878</v>
       </c>
       <c r="C87">
-        <v>163.633</v>
+        <v>57.073</v>
       </c>
       <c r="D87">
-        <v>23.528</v>
+        <v>29.754</v>
       </c>
       <c r="E87">
-        <v>31.45</v>
+        <v>2.868</v>
       </c>
       <c r="F87">
-        <v>6.91</v>
+        <v>40.333</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6828,19 +6828,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>313.301</v>
+        <v>94.749</v>
       </c>
       <c r="C88">
-        <v>44.43</v>
+        <v>89.839</v>
       </c>
       <c r="D88">
-        <v>13.896</v>
+        <v>40.839</v>
       </c>
       <c r="E88">
-        <v>37.548</v>
+        <v>13.042</v>
       </c>
       <c r="F88">
-        <v>21.371</v>
+        <v>37.898</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6848,19 +6848,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>432.689</v>
+        <v>57.294</v>
       </c>
       <c r="C89">
-        <v>191.183</v>
+        <v>74.70399999999999</v>
       </c>
       <c r="D89">
-        <v>24.59</v>
+        <v>1.488</v>
       </c>
       <c r="E89">
-        <v>19.005</v>
+        <v>10.676</v>
       </c>
       <c r="F89">
-        <v>1.006</v>
+        <v>69.907</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6868,19 +6868,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>297.661</v>
+        <v>83.937</v>
       </c>
       <c r="C90">
-        <v>87.93600000000001</v>
+        <v>66.36799999999999</v>
       </c>
       <c r="D90">
-        <v>2.382</v>
+        <v>18.876</v>
       </c>
       <c r="E90">
-        <v>80.63800000000001</v>
+        <v>2.961</v>
       </c>
       <c r="F90">
-        <v>6.578</v>
+        <v>66.762</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6888,19 +6888,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>22.32</v>
+        <v>175.399</v>
       </c>
       <c r="C91">
-        <v>202.742</v>
+        <v>33.047</v>
       </c>
       <c r="D91">
-        <v>33.726</v>
+        <v>34.068</v>
       </c>
       <c r="E91">
-        <v>77.02800000000001</v>
+        <v>25.24</v>
       </c>
       <c r="F91">
-        <v>9.220000000000001</v>
+        <v>36.516</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6908,19 +6908,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>272.146</v>
+        <v>417.595</v>
       </c>
       <c r="C92">
-        <v>526.605</v>
+        <v>47.764</v>
       </c>
       <c r="D92">
-        <v>81.408</v>
+        <v>1.43</v>
       </c>
       <c r="E92">
-        <v>133.45</v>
+        <v>17.619</v>
       </c>
       <c r="F92">
-        <v>21.573</v>
+        <v>82.268</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6928,19 +6928,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>89.982</v>
+        <v>137.087</v>
       </c>
       <c r="C93">
-        <v>343.173</v>
+        <v>71.583</v>
       </c>
       <c r="D93">
-        <v>94.57599999999999</v>
+        <v>71.916</v>
       </c>
       <c r="E93">
-        <v>85.95</v>
+        <v>1.98</v>
       </c>
       <c r="F93">
-        <v>11.383</v>
+        <v>54.421</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6948,19 +6948,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1292.594</v>
+        <v>113.897</v>
       </c>
       <c r="C94">
-        <v>161.28</v>
+        <v>325.262</v>
       </c>
       <c r="D94">
-        <v>46.306</v>
+        <v>50.558</v>
       </c>
       <c r="E94">
-        <v>76.666</v>
+        <v>18.884</v>
       </c>
       <c r="F94">
-        <v>43.627</v>
+        <v>55.65</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6968,19 +6968,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1390.036</v>
+        <v>432.149</v>
       </c>
       <c r="C95">
-        <v>466.715</v>
+        <v>239.98</v>
       </c>
       <c r="D95">
-        <v>73.617</v>
+        <v>39.403</v>
       </c>
       <c r="E95">
-        <v>89.414</v>
+        <v>20.487</v>
       </c>
       <c r="F95">
-        <v>4.568</v>
+        <v>89.467</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6988,19 +6988,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1547.784</v>
+        <v>357.463</v>
       </c>
       <c r="C96">
-        <v>374.188</v>
+        <v>87.452</v>
       </c>
       <c r="D96">
-        <v>60.312</v>
+        <v>52.031</v>
       </c>
       <c r="E96">
-        <v>61.484</v>
+        <v>3.03</v>
       </c>
       <c r="F96">
-        <v>16.053</v>
+        <v>60.503</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -7008,19 +7008,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>810.144</v>
+        <v>214.528</v>
       </c>
       <c r="C97">
-        <v>101.6</v>
+        <v>137.658</v>
       </c>
       <c r="D97">
-        <v>35.622</v>
+        <v>71.41500000000001</v>
       </c>
       <c r="E97">
-        <v>73.405</v>
+        <v>13.779</v>
       </c>
       <c r="F97">
-        <v>49.649</v>
+        <v>56.85</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -7028,19 +7028,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1118.862</v>
+        <v>129.723</v>
       </c>
       <c r="C98">
-        <v>437.189</v>
+        <v>114.467</v>
       </c>
       <c r="D98">
-        <v>63.035</v>
+        <v>2.602</v>
       </c>
       <c r="E98">
-        <v>37.154</v>
+        <v>11.28</v>
       </c>
       <c r="F98">
-        <v>2.337</v>
+        <v>104.866</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7048,19 +7048,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>769.702</v>
+        <v>190.048</v>
       </c>
       <c r="C99">
-        <v>201.088</v>
+        <v>101.694</v>
       </c>
       <c r="D99">
-        <v>6.106</v>
+        <v>33.008</v>
       </c>
       <c r="E99">
-        <v>157.644</v>
+        <v>3.128</v>
       </c>
       <c r="F99">
-        <v>15.282</v>
+        <v>100.148</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7068,19 +7068,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>57.716</v>
+        <v>397.133</v>
       </c>
       <c r="C100">
-        <v>463.621</v>
+        <v>50.637</v>
       </c>
       <c r="D100">
-        <v>86.455</v>
+        <v>59.574</v>
       </c>
       <c r="E100">
-        <v>150.587</v>
+        <v>26.667</v>
       </c>
       <c r="F100">
-        <v>21.42</v>
+        <v>54.777</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7088,19 +7088,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>578.972</v>
+        <v>1066.891</v>
       </c>
       <c r="C101">
-        <v>1276.196</v>
+        <v>49.724</v>
       </c>
       <c r="D101">
-        <v>138.715</v>
+        <v>4.704</v>
       </c>
       <c r="E101">
-        <v>296.256</v>
+        <v>68.78100000000001</v>
       </c>
       <c r="F101">
-        <v>44.94</v>
+        <v>168.972</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -7108,19 +7108,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>191.43</v>
+        <v>350.236</v>
       </c>
       <c r="C102">
-        <v>831.659</v>
+        <v>74.52</v>
       </c>
       <c r="D102">
-        <v>161.152</v>
+        <v>236.574</v>
       </c>
       <c r="E102">
-        <v>190.807</v>
+        <v>7.73</v>
       </c>
       <c r="F102">
-        <v>23.712</v>
+        <v>111.776</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7128,19 +7128,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>2749.905</v>
+        <v>290.99</v>
       </c>
       <c r="C103">
-        <v>390.853</v>
+        <v>338.609</v>
       </c>
       <c r="D103">
-        <v>78.90300000000001</v>
+        <v>166.315</v>
       </c>
       <c r="E103">
-        <v>170.197</v>
+        <v>73.718</v>
       </c>
       <c r="F103">
-        <v>90.879</v>
+        <v>114.3</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -7148,19 +7148,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>2957.206</v>
+        <v>1104.075</v>
       </c>
       <c r="C104">
-        <v>1131.056</v>
+        <v>249.828</v>
       </c>
       <c r="D104">
-        <v>125.439</v>
+        <v>129.62</v>
       </c>
       <c r="E104">
-        <v>198.497</v>
+        <v>79.976</v>
       </c>
       <c r="F104">
-        <v>9.515000000000001</v>
+        <v>183.758</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -7168,19 +7168,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>3292.804</v>
+        <v>913.264</v>
       </c>
       <c r="C105">
-        <v>906.822</v>
+        <v>91.041</v>
       </c>
       <c r="D105">
-        <v>102.768</v>
+        <v>171.16</v>
       </c>
       <c r="E105">
-        <v>136.493</v>
+        <v>11.83</v>
       </c>
       <c r="F105">
-        <v>33.44</v>
+        <v>124.268</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -7188,19 +7188,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1723.526</v>
+        <v>548.086</v>
       </c>
       <c r="C106">
-        <v>246.221</v>
+        <v>143.307</v>
       </c>
       <c r="D106">
-        <v>60.698</v>
+        <v>234.925</v>
       </c>
       <c r="E106">
-        <v>162.957</v>
+        <v>53.79</v>
       </c>
       <c r="F106">
-        <v>103.423</v>
+        <v>116.765</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -7208,19 +7208,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>2380.302</v>
+        <v>331.423</v>
       </c>
       <c r="C107">
-        <v>1059.501</v>
+        <v>119.164</v>
       </c>
       <c r="D107">
-        <v>107.408</v>
+        <v>8.558999999999999</v>
       </c>
       <c r="E107">
-        <v>82.48099999999999</v>
+        <v>44.034</v>
       </c>
       <c r="F107">
-        <v>4.868</v>
+        <v>215.385</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -7228,19 +7228,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1637.488</v>
+        <v>485.544</v>
       </c>
       <c r="C108">
-        <v>487.325</v>
+        <v>105.867</v>
       </c>
       <c r="D108">
-        <v>10.404</v>
+        <v>108.583</v>
       </c>
       <c r="E108">
-        <v>349.966</v>
+        <v>12.212</v>
       </c>
       <c r="F108">
-        <v>31.833</v>
+        <v>205.695</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -7248,19 +7248,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>122.787</v>
+        <v>1014.615</v>
       </c>
       <c r="C109">
-        <v>1123.557</v>
+        <v>52.715</v>
       </c>
       <c r="D109">
-        <v>147.315</v>
+        <v>195.974</v>
       </c>
       <c r="E109">
-        <v>334.299</v>
+        <v>104.101</v>
       </c>
       <c r="F109">
-        <v>44.619</v>
+        <v>112.507</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -7268,19 +7268,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1285.868</v>
+        <v>2646.516</v>
       </c>
       <c r="C110">
-        <v>3045.467</v>
+        <v>52.48</v>
       </c>
       <c r="D110">
-        <v>251.785</v>
+        <v>12.682</v>
       </c>
       <c r="E110">
-        <v>632.9640000000001</v>
+        <v>168.09</v>
       </c>
       <c r="F110">
-        <v>94.50700000000001</v>
+        <v>326.475</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -7288,19 +7288,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>425.157</v>
+        <v>868.7910000000001</v>
       </c>
       <c r="C111">
-        <v>1984.641</v>
+        <v>78.65000000000001</v>
       </c>
       <c r="D111">
-        <v>292.512</v>
+        <v>637.806</v>
       </c>
       <c r="E111">
-        <v>407.668</v>
+        <v>18.892</v>
       </c>
       <c r="F111">
-        <v>49.865</v>
+        <v>215.965</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -7308,19 +7308,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6107.4</v>
+        <v>721.826</v>
       </c>
       <c r="C112">
-        <v>932.717</v>
+        <v>357.374</v>
       </c>
       <c r="D112">
-        <v>143.219</v>
+        <v>448.387</v>
       </c>
       <c r="E112">
-        <v>363.633</v>
+        <v>180.154</v>
       </c>
       <c r="F112">
-        <v>191.113</v>
+        <v>220.842</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -7328,19 +7328,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6567.805</v>
+        <v>2738.754</v>
       </c>
       <c r="C113">
-        <v>2699.11</v>
+        <v>263.673</v>
       </c>
       <c r="D113">
-        <v>227.688</v>
+        <v>349.457</v>
       </c>
       <c r="E113">
-        <v>424.098</v>
+        <v>195.449</v>
       </c>
       <c r="F113">
-        <v>20.01</v>
+        <v>355.043</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -7348,19 +7348,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7313.152</v>
+        <v>2265.431</v>
       </c>
       <c r="C114">
-        <v>2164.007</v>
+        <v>96.086</v>
       </c>
       <c r="D114">
-        <v>186.537</v>
+        <v>461.449</v>
       </c>
       <c r="E114">
-        <v>291.624</v>
+        <v>28.911</v>
       </c>
       <c r="F114">
-        <v>70.322</v>
+        <v>240.101</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -7368,19 +7368,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>3827.864</v>
+        <v>1359.575</v>
       </c>
       <c r="C115">
-        <v>587.573</v>
+        <v>151.249</v>
       </c>
       <c r="D115">
-        <v>110.175</v>
+        <v>633.36</v>
       </c>
       <c r="E115">
-        <v>348.165</v>
+        <v>131.454</v>
       </c>
       <c r="F115">
-        <v>217.492</v>
+        <v>225.604</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7388,19 +7388,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5286.531</v>
+        <v>822.124</v>
       </c>
       <c r="C116">
-        <v>2528.355</v>
+        <v>125.768</v>
       </c>
       <c r="D116">
-        <v>194.959</v>
+        <v>23.075</v>
       </c>
       <c r="E116">
-        <v>176.224</v>
+        <v>107.612</v>
       </c>
       <c r="F116">
-        <v>10.237</v>
+        <v>416.151</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -7408,19 +7408,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>3636.778</v>
+        <v>1204.434</v>
       </c>
       <c r="C117">
-        <v>1162.935</v>
+        <v>111.734</v>
       </c>
       <c r="D117">
-        <v>18.885</v>
+        <v>292.741</v>
       </c>
       <c r="E117">
-        <v>747.718</v>
+        <v>29.844</v>
       </c>
       <c r="F117">
-        <v>66.943</v>
+        <v>397.428</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -7428,19 +7428,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>272.704</v>
+        <v>2516.841</v>
       </c>
       <c r="C118">
-        <v>2681.215</v>
+        <v>55.636</v>
       </c>
       <c r="D118">
-        <v>267.395</v>
+        <v>528.348</v>
       </c>
       <c r="E118">
-        <v>714.245</v>
+        <v>254.406</v>
       </c>
       <c r="F118">
-        <v>93.831</v>
+        <v>217.377</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -7448,19 +7448,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1569.859</v>
+        <v>3814.515</v>
       </c>
       <c r="C119">
-        <v>3634.567</v>
+        <v>276.062</v>
       </c>
       <c r="D119">
-        <v>300.826</v>
+        <v>23.549</v>
       </c>
       <c r="E119">
-        <v>780.1660000000001</v>
+        <v>178.939</v>
       </c>
       <c r="F119">
-        <v>176.372</v>
+        <v>648.866</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7468,19 +7468,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>519.0549999999999</v>
+        <v>1252.219</v>
       </c>
       <c r="C120">
-        <v>2368.54</v>
+        <v>413.729</v>
       </c>
       <c r="D120">
-        <v>349.485</v>
+        <v>1184.34</v>
       </c>
       <c r="E120">
-        <v>502.475</v>
+        <v>20.111</v>
       </c>
       <c r="F120">
-        <v>93.06</v>
+        <v>429.229</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -7488,19 +7488,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7456.254</v>
+        <v>1040.393</v>
       </c>
       <c r="C121">
-        <v>1113.137</v>
+        <v>1879.923</v>
       </c>
       <c r="D121">
-        <v>171.114</v>
+        <v>832.6079999999999</v>
       </c>
       <c r="E121">
-        <v>448.199</v>
+        <v>191.781</v>
       </c>
       <c r="F121">
-        <v>356.66</v>
+        <v>438.921</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -7508,19 +7508,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>8018.342</v>
+        <v>3947.461</v>
       </c>
       <c r="C122">
-        <v>3221.213</v>
+        <v>1387.02</v>
       </c>
       <c r="D122">
-        <v>272.035</v>
+        <v>648.9059999999999</v>
       </c>
       <c r="E122">
-        <v>522.726</v>
+        <v>208.063</v>
       </c>
       <c r="F122">
-        <v>37.343</v>
+        <v>705.645</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -7528,19 +7528,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>8928.303</v>
+        <v>3265.244</v>
       </c>
       <c r="C123">
-        <v>2582.602</v>
+        <v>505.449</v>
       </c>
       <c r="D123">
-        <v>222.869</v>
+        <v>856.8630000000001</v>
       </c>
       <c r="E123">
-        <v>359.444</v>
+        <v>30.777</v>
       </c>
       <c r="F123">
-        <v>131.237</v>
+        <v>477.198</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -7548,19 +7548,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>4673.27</v>
+        <v>1959.603</v>
       </c>
       <c r="C124">
-        <v>701.23</v>
+        <v>795.625</v>
       </c>
       <c r="D124">
-        <v>131.634</v>
+        <v>1176.084</v>
       </c>
       <c r="E124">
-        <v>429.134</v>
+        <v>139.938</v>
       </c>
       <c r="F124">
-        <v>405.889</v>
+        <v>448.386</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -7568,19 +7568,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6454.091</v>
+        <v>1184.956</v>
       </c>
       <c r="C125">
-        <v>3017.428</v>
+        <v>661.586</v>
       </c>
       <c r="D125">
-        <v>232.932</v>
+        <v>42.848</v>
       </c>
       <c r="E125">
-        <v>217.207</v>
+        <v>114.557</v>
       </c>
       <c r="F125">
-        <v>19.105</v>
+        <v>827.096</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -7588,19 +7588,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>4439.981</v>
+        <v>1735.992</v>
       </c>
       <c r="C126">
-        <v>1387.887</v>
+        <v>587.764</v>
       </c>
       <c r="D126">
-        <v>22.563</v>
+        <v>543.59</v>
       </c>
       <c r="E126">
-        <v>921.607</v>
+        <v>31.77</v>
       </c>
       <c r="F126">
-        <v>124.931</v>
+        <v>789.884</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -7608,19 +7608,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>332.932</v>
+        <v>3627.61</v>
       </c>
       <c r="C127">
-        <v>3199.856</v>
+        <v>292.667</v>
       </c>
       <c r="D127">
-        <v>319.476</v>
+        <v>981.088</v>
       </c>
       <c r="E127">
-        <v>880.349</v>
+        <v>270.825</v>
       </c>
       <c r="F127">
-        <v>175.11</v>
+        <v>432.035</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -7628,19 +7628,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>2046.943</v>
+        <v>5981.917</v>
       </c>
       <c r="C128">
-        <v>4630.739</v>
+        <v>774.326</v>
       </c>
       <c r="D128">
-        <v>377.543</v>
+        <v>46.803</v>
       </c>
       <c r="E128">
-        <v>1022.548</v>
+        <v>196.05</v>
       </c>
       <c r="F128">
-        <v>338.662</v>
+        <v>1269.087</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -7648,19 +7648,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>676.797</v>
+        <v>1963.728</v>
       </c>
       <c r="C129">
-        <v>3017.716</v>
+        <v>1160.469</v>
       </c>
       <c r="D129">
-        <v>438.611</v>
+        <v>2353.837</v>
       </c>
       <c r="E129">
-        <v>658.5839999999999</v>
+        <v>22.034</v>
       </c>
       <c r="F129">
-        <v>178.69</v>
+        <v>839.509</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -7668,19 +7668,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>9722.227000000001</v>
+        <v>1631.543</v>
       </c>
       <c r="C130">
-        <v>1418.229</v>
+        <v>5272.995</v>
       </c>
       <c r="D130">
-        <v>214.752</v>
+        <v>1654.781</v>
       </c>
       <c r="E130">
-        <v>587.446</v>
+        <v>210.121</v>
       </c>
       <c r="F130">
-        <v>684.8440000000001</v>
+        <v>858.465</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7688,19 +7688,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>10455.135</v>
+        <v>6190.403</v>
       </c>
       <c r="C131">
-        <v>4104.092</v>
+        <v>3890.452</v>
       </c>
       <c r="D131">
-        <v>341.41</v>
+        <v>1289.679</v>
       </c>
       <c r="E131">
-        <v>685.127</v>
+        <v>227.96</v>
       </c>
       <c r="F131">
-        <v>71.70399999999999</v>
+        <v>1380.138</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -7708,19 +7708,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>11641.636</v>
+        <v>5120.551</v>
       </c>
       <c r="C132">
-        <v>3290.448</v>
+        <v>1417.734</v>
       </c>
       <c r="D132">
-        <v>279.705</v>
+        <v>1702.987</v>
       </c>
       <c r="E132">
-        <v>471.116</v>
+        <v>33.72</v>
       </c>
       <c r="F132">
-        <v>251.996</v>
+        <v>933.329</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -7728,19 +7728,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6093.488</v>
+        <v>3073.047</v>
       </c>
       <c r="C133">
-        <v>893.425</v>
+        <v>2231.648</v>
       </c>
       <c r="D133">
-        <v>165.203</v>
+        <v>2337.428</v>
       </c>
       <c r="E133">
-        <v>562.457</v>
+        <v>153.32</v>
       </c>
       <c r="F133">
-        <v>779.371</v>
+        <v>876.977</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -7748,19 +7748,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>8415.504999999999</v>
+        <v>1858.246</v>
       </c>
       <c r="C134">
-        <v>3844.453</v>
+        <v>1855.683</v>
       </c>
       <c r="D134">
-        <v>292.335</v>
+        <v>85.15900000000001</v>
       </c>
       <c r="E134">
-        <v>284.689</v>
+        <v>125.512</v>
       </c>
       <c r="F134">
-        <v>36.685</v>
+        <v>1617.678</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7768,19 +7768,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5789.302</v>
+        <v>2722.38</v>
       </c>
       <c r="C135">
-        <v>1768.283</v>
+        <v>1648.619</v>
       </c>
       <c r="D135">
-        <v>28.317</v>
+        <v>1080.367</v>
       </c>
       <c r="E135">
-        <v>1207.932</v>
+        <v>34.808</v>
       </c>
       <c r="F135">
-        <v>239.887</v>
+        <v>1544.897</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -7788,19 +7788,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>434.111</v>
+        <v>5688.813</v>
       </c>
       <c r="C136">
-        <v>4076.881</v>
+        <v>820.902</v>
       </c>
       <c r="D136">
-        <v>400.949</v>
+        <v>1949.88</v>
       </c>
       <c r="E136">
-        <v>1153.856</v>
+        <v>296.723</v>
       </c>
       <c r="F136">
-        <v>336.239</v>
+        <v>844.997</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -7808,19 +7808,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7125.246</v>
+        <v>6851.438</v>
       </c>
       <c r="C137">
-        <v>14422.933</v>
+        <v>1703.87</v>
       </c>
       <c r="D137">
-        <v>1049.883</v>
+        <v>97.133</v>
       </c>
       <c r="E137">
-        <v>2313.532</v>
+        <v>727.5700000000001</v>
       </c>
       <c r="F137">
-        <v>486.604</v>
+        <v>2741.712</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -7828,19 +7828,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>2355.877</v>
+        <v>2249.172</v>
       </c>
       <c r="C138">
-        <v>9399</v>
+        <v>2553.56</v>
       </c>
       <c r="D138">
-        <v>1219.703</v>
+        <v>4885.037</v>
       </c>
       <c r="E138">
-        <v>1490.057</v>
+        <v>81.77200000000001</v>
       </c>
       <c r="F138">
-        <v>256.749</v>
+        <v>1813.66</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -7848,19 +7848,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>33842.298</v>
+        <v>1868.701</v>
       </c>
       <c r="C139">
-        <v>4417.226</v>
+        <v>11602.988</v>
       </c>
       <c r="D139">
-        <v>597.189</v>
+        <v>3434.251</v>
       </c>
       <c r="E139">
-        <v>1329.106</v>
+        <v>779.789</v>
       </c>
       <c r="F139">
-        <v>984.0119999999999</v>
+        <v>1854.612</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -7868,19 +7868,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>36393.493</v>
+        <v>7090.229</v>
       </c>
       <c r="C140">
-        <v>12782.634</v>
+        <v>8560.763999999999</v>
       </c>
       <c r="D140">
-        <v>949.403</v>
+        <v>2676.536</v>
       </c>
       <c r="E140">
-        <v>1550.111</v>
+        <v>845.992</v>
       </c>
       <c r="F140">
-        <v>103.027</v>
+        <v>2981.625</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -7888,19 +7888,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>40523.607</v>
+        <v>5864.865</v>
       </c>
       <c r="C141">
-        <v>10248.454</v>
+        <v>3119.66</v>
       </c>
       <c r="D141">
-        <v>777.813</v>
+        <v>3534.295</v>
       </c>
       <c r="E141">
-        <v>1065.908</v>
+        <v>125.141</v>
       </c>
       <c r="F141">
-        <v>362.078</v>
+        <v>2016.347</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -7908,19 +7908,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>21210.946</v>
+        <v>3519.74</v>
       </c>
       <c r="C142">
-        <v>2782.668</v>
+        <v>4910.641</v>
       </c>
       <c r="D142">
-        <v>459.402</v>
+        <v>4850.983</v>
       </c>
       <c r="E142">
-        <v>1272.569</v>
+        <v>568.9930000000001</v>
       </c>
       <c r="F142">
-        <v>1119.833</v>
+        <v>1894.606</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7928,19 +7928,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>29293.702</v>
+        <v>2128.357</v>
       </c>
       <c r="C143">
-        <v>11973.96</v>
+        <v>4083.347</v>
       </c>
       <c r="D143">
-        <v>812.933</v>
+        <v>176.735</v>
       </c>
       <c r="E143">
-        <v>644.1130000000001</v>
+        <v>465.793</v>
       </c>
       <c r="F143">
-        <v>52.71</v>
+        <v>3494.802</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7948,19 +7948,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>20152.099</v>
+        <v>3118.1</v>
       </c>
       <c r="C144">
-        <v>5507.507</v>
+        <v>3627.712</v>
       </c>
       <c r="D144">
-        <v>78.745</v>
+        <v>2242.14</v>
       </c>
       <c r="E144">
-        <v>2732.967</v>
+        <v>129.178</v>
       </c>
       <c r="F144">
-        <v>344.68</v>
+        <v>3337.568</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7968,19 +7968,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1511.105</v>
+        <v>6515.729</v>
       </c>
       <c r="C145">
-        <v>12697.883</v>
+        <v>1806.358</v>
       </c>
       <c r="D145">
-        <v>1114.971</v>
+        <v>4046.685</v>
       </c>
       <c r="E145">
-        <v>2610.619</v>
+        <v>1101.183</v>
       </c>
       <c r="F145">
-        <v>483.122</v>
+        <v>1825.516</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -7988,19 +7988,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>18309.884</v>
+        <v>8138.897</v>
       </c>
       <c r="C146">
-        <v>34657.331</v>
+        <v>3875.535</v>
       </c>
       <c r="D146">
-        <v>2304.908</v>
+        <v>201.177</v>
       </c>
       <c r="E146">
-        <v>4597.021</v>
+        <v>1823.685</v>
       </c>
       <c r="F146">
-        <v>738.192</v>
+        <v>5755.18</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -8008,19 +8008,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6053.943</v>
+        <v>2671.816</v>
       </c>
       <c r="C147">
-        <v>22585.16</v>
+        <v>5808.196</v>
       </c>
       <c r="D147">
-        <v>2677.73</v>
+        <v>10117.662</v>
       </c>
       <c r="E147">
-        <v>2960.765</v>
+        <v>204.965</v>
       </c>
       <c r="F147">
-        <v>389.496</v>
+        <v>3807.088</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -8028,19 +8028,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>86965.219</v>
+        <v>2219.85</v>
       </c>
       <c r="C148">
-        <v>10614.295</v>
+        <v>26391.559</v>
       </c>
       <c r="D148">
-        <v>1311.066</v>
+        <v>7112.862</v>
       </c>
       <c r="E148">
-        <v>2640.953</v>
+        <v>1954.573</v>
       </c>
       <c r="F148">
-        <v>1492.775</v>
+        <v>3893.051</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -8048,19 +8048,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>93521.07399999999</v>
+        <v>8422.558999999999</v>
       </c>
       <c r="C149">
-        <v>30715.803</v>
+        <v>19471.873</v>
       </c>
       <c r="D149">
-        <v>2084.315</v>
+        <v>5543.517</v>
       </c>
       <c r="E149">
-        <v>3080.093</v>
+        <v>2120.514</v>
       </c>
       <c r="F149">
-        <v>156.295</v>
+        <v>6258.785</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -8068,19 +8068,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>104134.309</v>
+        <v>6966.936</v>
       </c>
       <c r="C150">
-        <v>24626.34</v>
+        <v>7095.818</v>
       </c>
       <c r="D150">
-        <v>1707.607</v>
+        <v>7320.068</v>
       </c>
       <c r="E150">
-        <v>2117.974</v>
+        <v>313.671</v>
       </c>
       <c r="F150">
-        <v>549.283</v>
+        <v>4232.552</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -8088,19 +8088,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>54506.184</v>
+        <v>4181.137</v>
       </c>
       <c r="C151">
-        <v>6686.563</v>
+        <v>11169.491</v>
       </c>
       <c r="D151">
-        <v>1008.569</v>
+        <v>10047.131</v>
       </c>
       <c r="E151">
-        <v>2528.613</v>
+        <v>1426.205</v>
       </c>
       <c r="F151">
-        <v>1698.819</v>
+        <v>3977.003</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -8108,19 +8108,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>75276.602</v>
+        <v>2528.298</v>
       </c>
       <c r="C152">
-        <v>28772.614</v>
+        <v>9287.771000000001</v>
       </c>
       <c r="D152">
-        <v>1784.709</v>
+        <v>366.045</v>
       </c>
       <c r="E152">
-        <v>1279.862</v>
+        <v>1167.529</v>
       </c>
       <c r="F152">
-        <v>79.96299999999999</v>
+        <v>7336.005</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -8128,19 +8128,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>51785.245</v>
+        <v>3704.025</v>
       </c>
       <c r="C153">
-        <v>13234.166</v>
+        <v>8251.406999999999</v>
       </c>
       <c r="D153">
-        <v>172.876</v>
+        <v>4643.817</v>
       </c>
       <c r="E153">
-        <v>5430.444</v>
+        <v>323.79</v>
       </c>
       <c r="F153">
-        <v>522.889</v>
+        <v>7005.952</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -8148,19 +8148,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>3883.116</v>
+        <v>7740.104</v>
       </c>
       <c r="C154">
-        <v>30512.153</v>
+        <v>4108.649</v>
       </c>
       <c r="D154">
-        <v>2447.802</v>
+        <v>8381.306</v>
       </c>
       <c r="E154">
-        <v>5187.337</v>
+        <v>2760.161</v>
       </c>
       <c r="F154">
-        <v>732.91</v>
+        <v>3831.975</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -8168,19 +8168,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>24989.735</v>
+        <v>27557.431</v>
       </c>
       <c r="C155">
-        <v>76415.129</v>
+        <v>4890.001</v>
       </c>
       <c r="D155">
-        <v>3893.95</v>
+        <v>302.011</v>
       </c>
       <c r="E155">
-        <v>11729.385</v>
+        <v>3551.818</v>
       </c>
       <c r="F155">
-        <v>1438.758</v>
+        <v>6622.323</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -8188,19 +8188,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>8262.556</v>
+        <v>9046.481</v>
       </c>
       <c r="C156">
-        <v>49797.485</v>
+        <v>7328.558</v>
       </c>
       <c r="D156">
-        <v>4523.802</v>
+        <v>15188.86</v>
       </c>
       <c r="E156">
-        <v>7554.447</v>
+        <v>399.191</v>
       </c>
       <c r="F156">
-        <v>759.139</v>
+        <v>4380.709</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -8208,19 +8208,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>118692.057</v>
+        <v>7516.174</v>
       </c>
       <c r="C157">
-        <v>23403.208</v>
+        <v>33299.853</v>
       </c>
       <c r="D157">
-        <v>2214.937</v>
+        <v>10677.987</v>
       </c>
       <c r="E157">
-        <v>6738.441</v>
+        <v>3806.736</v>
       </c>
       <c r="F157">
-        <v>2909.461</v>
+        <v>4479.624</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -8228,19 +8228,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>127639.633</v>
+        <v>28517.88</v>
       </c>
       <c r="C158">
-        <v>67724.54700000001</v>
+        <v>24568.86</v>
       </c>
       <c r="D158">
-        <v>3521.277</v>
+        <v>8322.050999999999</v>
       </c>
       <c r="E158">
-        <v>7858.915</v>
+        <v>4129.923</v>
       </c>
       <c r="F158">
-        <v>304.624</v>
+        <v>7201.807</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -8248,19 +8248,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>142124.811</v>
+        <v>23589.298</v>
       </c>
       <c r="C159">
-        <v>54298.034</v>
+        <v>8953.23</v>
       </c>
       <c r="D159">
-        <v>2884.86</v>
+        <v>10989.049</v>
       </c>
       <c r="E159">
-        <v>5404.051</v>
+        <v>610.907</v>
       </c>
       <c r="F159">
-        <v>1070.568</v>
+        <v>4870.278</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -8268,19 +8268,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>74391.247</v>
+        <v>14156.88</v>
       </c>
       <c r="C160">
-        <v>14743.045</v>
+        <v>14093.234</v>
       </c>
       <c r="D160">
-        <v>1703.894</v>
+        <v>15082.977</v>
       </c>
       <c r="E160">
-        <v>6451.803</v>
+        <v>2777.684</v>
       </c>
       <c r="F160">
-        <v>3311.047</v>
+        <v>4576.225</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -8288,19 +8288,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>102739.174</v>
+        <v>8560.546</v>
       </c>
       <c r="C161">
-        <v>63440.056</v>
+        <v>11718.952</v>
       </c>
       <c r="D161">
-        <v>3015.118</v>
+        <v>549.515</v>
       </c>
       <c r="E161">
-        <v>3265.592</v>
+        <v>2273.885</v>
       </c>
       <c r="F161">
-        <v>155.85</v>
+        <v>8441.334000000001</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -8308,19 +8308,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>70677.649</v>
+        <v>12541.431</v>
       </c>
       <c r="C162">
-        <v>29179.699</v>
+        <v>10411.308</v>
       </c>
       <c r="D162">
-        <v>292.06</v>
+        <v>6971.402</v>
       </c>
       <c r="E162">
-        <v>13855.88</v>
+        <v>630.615</v>
       </c>
       <c r="F162">
-        <v>1019.126</v>
+        <v>8061.551</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -8328,19 +8328,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5299.763</v>
+        <v>26207.161</v>
       </c>
       <c r="C163">
-        <v>67275.524</v>
+        <v>5184.135</v>
       </c>
       <c r="D163">
-        <v>4135.358</v>
+        <v>12582.203</v>
       </c>
       <c r="E163">
-        <v>13235.588</v>
+        <v>5375.703</v>
       </c>
       <c r="F163">
-        <v>1428.463</v>
+        <v>4409.346</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -8348,19 +8348,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>36992.4</v>
+        <v>65274.099</v>
       </c>
       <c r="C164">
-        <v>169141.818</v>
+        <v>6628.187</v>
       </c>
       <c r="D164">
-        <v>6838.087</v>
+        <v>481.066</v>
       </c>
       <c r="E164">
-        <v>27295.177</v>
+        <v>7176.622</v>
       </c>
       <c r="F164">
-        <v>2664.47</v>
+        <v>8006.008</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -8368,19 +8368,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>12231.093</v>
+        <v>21428.009</v>
       </c>
       <c r="C165">
-        <v>110224.732</v>
+        <v>9933.547</v>
       </c>
       <c r="D165">
-        <v>7944.158</v>
+        <v>24193.972</v>
       </c>
       <c r="E165">
-        <v>17579.777</v>
+        <v>806.585</v>
       </c>
       <c r="F165">
-        <v>1405.868</v>
+        <v>5296.025</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -8388,19 +8388,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>175700.303</v>
+        <v>17803.237</v>
       </c>
       <c r="C166">
-        <v>51802.06</v>
+        <v>45136.526</v>
       </c>
       <c r="D166">
-        <v>3889.606</v>
+        <v>17008.711</v>
       </c>
       <c r="E166">
-        <v>15680.868</v>
+        <v>7691.696</v>
       </c>
       <c r="F166">
-        <v>5388.1</v>
+        <v>5415.608</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -8408,19 +8408,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>188945.434</v>
+        <v>67549.07399999999</v>
       </c>
       <c r="C167">
-        <v>149905.564</v>
+        <v>33302.038</v>
       </c>
       <c r="D167">
-        <v>6183.643</v>
+        <v>13255.997</v>
       </c>
       <c r="E167">
-        <v>18288.297</v>
+        <v>8344.710999999999</v>
       </c>
       <c r="F167">
-        <v>564.14</v>
+        <v>8706.57</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -8428,19 +8428,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>210387.898</v>
+        <v>55874.953</v>
       </c>
       <c r="C168">
-        <v>120186.517</v>
+        <v>12135.72</v>
       </c>
       <c r="D168">
-        <v>5066.045</v>
+        <v>17504.194</v>
       </c>
       <c r="E168">
-        <v>12575.64</v>
+        <v>1234.367</v>
       </c>
       <c r="F168">
-        <v>1982.611</v>
+        <v>5887.886</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -8448,19 +8448,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>110121.646</v>
+        <v>33532.791</v>
       </c>
       <c r="C169">
-        <v>32633.138</v>
+        <v>19102.775</v>
       </c>
       <c r="D169">
-        <v>2992.174</v>
+        <v>24025.314</v>
       </c>
       <c r="E169">
-        <v>15013.84</v>
+        <v>5612.446</v>
       </c>
       <c r="F169">
-        <v>6131.807</v>
+        <v>5532.393</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -8468,19 +8468,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>152085.19</v>
+        <v>20276.997</v>
       </c>
       <c r="C170">
-        <v>140422.015</v>
+        <v>15884.538</v>
       </c>
       <c r="D170">
-        <v>5294.788</v>
+        <v>875.309</v>
       </c>
       <c r="E170">
-        <v>7599.283</v>
+        <v>4594.496</v>
       </c>
       <c r="F170">
-        <v>288.622</v>
+        <v>10205.087</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -8488,19 +8488,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>104624.393</v>
+        <v>29706.347</v>
       </c>
       <c r="C171">
-        <v>64588.092</v>
+        <v>14112.082</v>
       </c>
       <c r="D171">
-        <v>512.881</v>
+        <v>11104.58</v>
       </c>
       <c r="E171">
-        <v>32243.694</v>
+        <v>1274.189</v>
       </c>
       <c r="F171">
-        <v>1887.344</v>
+        <v>9745.950999999999</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -8508,19 +8508,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7845.259</v>
+        <v>62075.773</v>
       </c>
       <c r="C172">
-        <v>148911.67</v>
+        <v>7026.873</v>
       </c>
       <c r="D172">
-        <v>7262.019</v>
+        <v>20041.891</v>
       </c>
       <c r="E172">
-        <v>30800.227</v>
+        <v>10861.871</v>
       </c>
       <c r="F172">
-        <v>2645.405</v>
+        <v>5330.646</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -8528,19 +8528,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>49220.325</v>
+        <v>74185.67</v>
       </c>
       <c r="C173">
-        <v>201190.701</v>
+        <v>23567.804</v>
       </c>
       <c r="D173">
-        <v>17011.424</v>
+        <v>670.995</v>
       </c>
       <c r="E173">
-        <v>45796.161</v>
+        <v>8992.026</v>
       </c>
       <c r="F173">
-        <v>8241.385</v>
+        <v>28087.539</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -8548,19 +8548,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>16274.11</v>
+        <v>24353.476</v>
       </c>
       <c r="C174">
-        <v>131110.044</v>
+        <v>35320.653</v>
       </c>
       <c r="D174">
-        <v>19763.047</v>
+        <v>33745.937</v>
       </c>
       <c r="E174">
-        <v>29495.551</v>
+        <v>1010.619</v>
       </c>
       <c r="F174">
-        <v>4348.443</v>
+        <v>18580.086</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -8568,19 +8568,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>233778.452</v>
+        <v>20233.831</v>
       </c>
       <c r="C175">
-        <v>61617.481</v>
+        <v>160491.675</v>
       </c>
       <c r="D175">
-        <v>9676.352000000001</v>
+        <v>23723.88</v>
       </c>
       <c r="E175">
-        <v>26309.54</v>
+        <v>9637.393</v>
       </c>
       <c r="F175">
-        <v>16665.755</v>
+        <v>18999.619</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -8588,19 +8588,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>251401.793</v>
+        <v>76771.236</v>
       </c>
       <c r="C176">
-        <v>178309.574</v>
+        <v>118411.857</v>
       </c>
       <c r="D176">
-        <v>15383.333</v>
+        <v>18489.566</v>
       </c>
       <c r="E176">
-        <v>30684.314</v>
+        <v>10455.595</v>
       </c>
       <c r="F176">
-        <v>1744.923</v>
+        <v>30545.328</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -8608,19 +8608,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>279932.114</v>
+        <v>63503.302</v>
       </c>
       <c r="C177">
-        <v>142959.381</v>
+        <v>43150.907</v>
       </c>
       <c r="D177">
-        <v>12603.033</v>
+        <v>24414.983</v>
       </c>
       <c r="E177">
-        <v>21099.553</v>
+        <v>1546.613</v>
       </c>
       <c r="F177">
-        <v>6132.349</v>
+        <v>20656.517</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -8628,19 +8628,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>146522.616</v>
+        <v>38110.868</v>
       </c>
       <c r="C178">
-        <v>38816.444</v>
+        <v>67923.62300000001</v>
       </c>
       <c r="D178">
-        <v>7443.768</v>
+        <v>33510.691</v>
       </c>
       <c r="E178">
-        <v>25190.393</v>
+        <v>7032.175</v>
       </c>
       <c r="F178">
-        <v>18966.09</v>
+        <v>19409.337</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -8648,19 +8648,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>202357.308</v>
+        <v>23045.322</v>
       </c>
       <c r="C179">
-        <v>167029.089</v>
+        <v>56480.556</v>
       </c>
       <c r="D179">
-        <v>13172.087</v>
+        <v>1220.888</v>
       </c>
       <c r="E179">
-        <v>12750.164</v>
+        <v>5756.723</v>
       </c>
       <c r="F179">
-        <v>892.728</v>
+        <v>35802.586</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -8668,19 +8668,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>139208.233</v>
+        <v>33762.017</v>
       </c>
       <c r="C180">
-        <v>76826.202</v>
+        <v>50178.246</v>
       </c>
       <c r="D180">
-        <v>1275.917</v>
+        <v>15488.753</v>
       </c>
       <c r="E180">
-        <v>54098.839</v>
+        <v>1596.509</v>
       </c>
       <c r="F180">
-        <v>5837.681</v>
+        <v>34191.797</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -8688,19 +8688,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10438.528</v>
+        <v>70550.69100000001</v>
       </c>
       <c r="C181">
-        <v>177127.358</v>
+        <v>24985.41</v>
       </c>
       <c r="D181">
-        <v>18066.059</v>
+        <v>27954.583</v>
       </c>
       <c r="E181">
-        <v>51676.973</v>
+        <v>13609.498</v>
       </c>
       <c r="F181">
-        <v>8182.415</v>
+        <v>18701.546</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -8708,19 +8708,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>67896.113</v>
+        <v>88512.795</v>
       </c>
       <c r="C182">
-        <v>254163.417</v>
+        <v>62236.937</v>
       </c>
       <c r="D182">
-        <v>38497.358</v>
+        <v>969.625</v>
       </c>
       <c r="E182">
-        <v>81608.09299999999</v>
+        <v>11976.393</v>
       </c>
       <c r="F182">
-        <v>21449.822</v>
+        <v>70077.351</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -8728,19 +8728,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>22449.035</v>
+        <v>29056.747</v>
       </c>
       <c r="C183">
-        <v>165630.8</v>
+        <v>93273.401</v>
       </c>
       <c r="D183">
-        <v>44724.363</v>
+        <v>48764.744</v>
       </c>
       <c r="E183">
-        <v>52560.643</v>
+        <v>1346.034</v>
       </c>
       <c r="F183">
-        <v>11317.676</v>
+        <v>46356.614</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -8748,19 +8748,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>322481.578</v>
+        <v>24141.494</v>
       </c>
       <c r="C184">
-        <v>77841.12</v>
+        <v>423820.148</v>
       </c>
       <c r="D184">
-        <v>21897.872</v>
+        <v>34282.317</v>
       </c>
       <c r="E184">
-        <v>46883.218</v>
+        <v>12835.951</v>
       </c>
       <c r="F184">
-        <v>43375.899</v>
+        <v>47403.333</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -8768,19 +8768,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>346791.786</v>
+        <v>91597.69899999999</v>
       </c>
       <c r="C185">
-        <v>225257.78</v>
+        <v>312697.408</v>
       </c>
       <c r="D185">
-        <v>34812.94</v>
+        <v>26718.444</v>
       </c>
       <c r="E185">
-        <v>54679.002</v>
+        <v>13925.707</v>
       </c>
       <c r="F185">
-        <v>4541.505</v>
+        <v>76209.442</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -8788,19 +8788,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>386147.437</v>
+        <v>75767.39200000001</v>
       </c>
       <c r="C186">
-        <v>180600.021</v>
+        <v>113951.23</v>
       </c>
       <c r="D186">
-        <v>28521.038</v>
+        <v>35281</v>
       </c>
       <c r="E186">
-        <v>37599.097</v>
+        <v>2059.919</v>
       </c>
       <c r="F186">
-        <v>15960.642</v>
+        <v>51537.231</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -8808,19 +8808,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>202118.048</v>
+        <v>45471.038</v>
       </c>
       <c r="C187">
-        <v>49036.66</v>
+        <v>179370.051</v>
       </c>
       <c r="D187">
-        <v>16845.468</v>
+        <v>48424.8</v>
       </c>
       <c r="E187">
-        <v>44888.914</v>
+        <v>9366.085999999999</v>
       </c>
       <c r="F187">
-        <v>49362.972</v>
+        <v>48425.564</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -8828,19 +8828,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>279138.233</v>
+        <v>27495.955</v>
       </c>
       <c r="C188">
-        <v>211007.188</v>
+        <v>149151.646</v>
       </c>
       <c r="D188">
-        <v>29808.824</v>
+        <v>1764.251</v>
       </c>
       <c r="E188">
-        <v>22720.607</v>
+        <v>7667.324</v>
       </c>
       <c r="F188">
-        <v>2323.5</v>
+        <v>89326.103</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -8848,19 +8848,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>192028.351</v>
+        <v>40282.314</v>
       </c>
       <c r="C189">
-        <v>97054.23699999999</v>
+        <v>132508.752</v>
       </c>
       <c r="D189">
-        <v>2887.438</v>
+        <v>22382.104</v>
       </c>
       <c r="E189">
-        <v>96403.345</v>
+        <v>2126.375</v>
       </c>
       <c r="F189">
-        <v>15193.711</v>
+        <v>85307.245</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -8868,19 +8868,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>14399.244</v>
+        <v>84175.80899999999</v>
       </c>
       <c r="C190">
-        <v>223764.291</v>
+        <v>65980.495</v>
       </c>
       <c r="D190">
-        <v>40884.028</v>
+        <v>40395.917</v>
       </c>
       <c r="E190">
-        <v>92087.61500000001</v>
+        <v>18126.36</v>
       </c>
       <c r="F190">
-        <v>21296.341</v>
+        <v>46659.651</v>
       </c>
     </row>
   </sheetData>
